--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598A9B2-A2E6-4A01-A13E-35FC9DFCE5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C578B-17A6-4C45-8417-C1C7186F1E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1770" yWindow="3390" windowWidth="15945" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-1770" yWindow="3390" windowWidth="15945" windowHeight="11385" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="94">
   <si>
     <t>Pa.s</t>
   </si>
@@ -300,15 +300,31 @@
   </si>
   <si>
     <t>m NMP [mg]</t>
+  </si>
+  <si>
+    <t>m PANI [mg]</t>
+  </si>
+  <si>
+    <t>m PAN [mg]</t>
+  </si>
+  <si>
+    <t>wt% PVK</t>
+  </si>
+  <si>
+    <t>m CHL [mg]</t>
+  </si>
+  <si>
+    <t>m PVK [mg]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -368,7 +384,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +394,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -434,15 +474,40 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,13 +959,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="6" customWidth="1"/>
@@ -1018,7 +1083,7 @@
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1046,7 +1111,7 @@
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1074,7 +1139,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1102,7 +1167,7 @@
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1130,7 +1195,7 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1170,10 +1235,10 @@
       <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1181,7 +1246,7 @@
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1211,7 +1276,7 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1271,7 +1336,7 @@
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="38" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1301,7 +1366,7 @@
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1331,7 +1396,7 @@
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1361,7 +1426,7 @@
       <c r="A18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="42" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1385,12 +1450,16 @@
       <c r="I18" s="11" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="40" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1409,10 +1478,10 @@
       <c r="G20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1424,16 +1493,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="0.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1498,13 +1567,13 @@
       <c r="A4" s="24">
         <v>0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="27">
         <v>2246</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="28">
         <v>11.28</v>
       </c>
       <c r="E4" s="17"/>
@@ -1525,13 +1594,13 @@
       <c r="A5" s="24">
         <v>0.25</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="27">
         <v>2246</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="28">
         <v>5.65</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="28">
         <v>11.32</v>
       </c>
       <c r="E5" s="17"/>
@@ -1552,13 +1621,13 @@
       <c r="A6" s="24">
         <v>0.5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="27">
         <v>2246</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="28">
         <v>11.34</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="28">
         <v>11.34</v>
       </c>
       <c r="E6" s="17"/>
@@ -1579,13 +1648,13 @@
       <c r="A7" s="24">
         <v>0.75</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="27">
         <v>2246</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="28">
         <v>17.059999999999999</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="28">
         <v>11.37</v>
       </c>
       <c r="E7" s="17"/>
@@ -1603,16 +1672,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="29">
         <v>2246</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="30">
         <v>22.8</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="30">
         <v>11.4</v>
       </c>
       <c r="E8" s="18"/>
@@ -1667,73 +1736,73 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>20</v>
-      </c>
-      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26">
         <f>$B$18*((100-A11)/100)</f>
-        <v>1801.801801801802</v>
-      </c>
-      <c r="C11" s="21">
+        <v>1758.24</v>
+      </c>
+      <c r="C11" s="26">
         <f>$B$18*(A11/100)</f>
-        <v>450.45045045045049</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>25</v>
-      </c>
-      <c r="B12" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="26">
         <f t="shared" ref="B12:B15" si="0">$B$18*((100-A12)/100)</f>
-        <v>1689.1891891891892</v>
-      </c>
-      <c r="C12" s="21">
+        <v>1731.6</v>
+      </c>
+      <c r="C12" s="26">
         <f t="shared" ref="C12:C15" si="1">$B$18*(A12/100)</f>
-        <v>563.06306306306305</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>30</v>
-      </c>
-      <c r="B13" s="21">
+        <v>5</v>
+      </c>
+      <c r="B13" s="26">
         <f t="shared" si="0"/>
-        <v>1576.5765765765764</v>
-      </c>
-      <c r="C13" s="21">
+        <v>1687.1999999999998</v>
+      </c>
+      <c r="C13" s="26">
         <f t="shared" si="1"/>
-        <v>675.67567567567562</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>88.800000000000011</v>
+      </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>35</v>
-      </c>
-      <c r="B14" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="B14" s="26">
         <f t="shared" si="0"/>
-        <v>1463.963963963964</v>
-      </c>
-      <c r="C14" s="21">
+        <v>1642.8000000000002</v>
+      </c>
+      <c r="C14" s="26">
         <f t="shared" si="1"/>
-        <v>788.28828828828819</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>40</v>
-      </c>
-      <c r="B15" s="21">
+        <v>10</v>
+      </c>
+      <c r="B15" s="26">
         <f t="shared" si="0"/>
-        <v>1351.3513513513512</v>
-      </c>
-      <c r="C15" s="21">
+        <v>1598.4</v>
+      </c>
+      <c r="C15" s="26">
         <f t="shared" si="1"/>
-        <v>900.90090090090098</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>177.60000000000002</v>
+      </c>
+      <c r="D15" s="26"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1748,8 +1817,8 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <f>D1/B17</f>
-        <v>2252.2522522522522</v>
+        <f>D1*B17</f>
+        <v>1776</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,87 +1862,87 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26">
         <f>$B$28*((100-A21)*0.75/100)</f>
-        <v>1494.1892639734369</v>
-      </c>
-      <c r="C21" s="21">
+        <v>1341.6975</v>
+      </c>
+      <c r="C21" s="26">
         <f>$B$28*((100-A21)*0.25/100)</f>
-        <v>498.06308799114561</v>
-      </c>
-      <c r="D21" s="21">
+        <v>447.23250000000002</v>
+      </c>
+      <c r="D21" s="26">
         <f>$B$28*(A21/100)</f>
-        <v>221.36137244050917</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>12</v>
-      </c>
-      <c r="B22" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="26">
         <f t="shared" ref="B22:B25" si="2">$B$28*((100-A22)*0.75/100)</f>
-        <v>1460.9850581073604</v>
-      </c>
-      <c r="C22" s="21">
+        <v>1321.3687499999999</v>
+      </c>
+      <c r="C22" s="26">
         <f t="shared" ref="C22:C25" si="3">$B$28*((100-A22)*0.25/100)</f>
-        <v>486.99501936912014</v>
-      </c>
-      <c r="D22" s="21">
+        <v>440.45625000000001</v>
+      </c>
+      <c r="D22" s="26">
         <f t="shared" ref="D22:D25" si="4">$B$28*(A22/100)</f>
-        <v>265.63364692861097</v>
+        <v>45.175000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21">
+        <v>5</v>
+      </c>
+      <c r="B23" s="26">
         <f t="shared" si="2"/>
-        <v>1427.780852241284</v>
-      </c>
-      <c r="C23" s="21">
+        <v>1287.4875</v>
+      </c>
+      <c r="C23" s="26">
         <f t="shared" si="3"/>
-        <v>475.92695074709468</v>
-      </c>
-      <c r="D23" s="21">
+        <v>429.16249999999997</v>
+      </c>
+      <c r="D23" s="26">
         <f t="shared" si="4"/>
-        <v>309.90592141671283</v>
+        <v>90.350000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>16</v>
-      </c>
-      <c r="B24" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="B24" s="26">
         <f t="shared" si="2"/>
-        <v>1394.5766463752077</v>
-      </c>
-      <c r="C24" s="21">
+        <v>1253.60625</v>
+      </c>
+      <c r="C24" s="26">
         <f t="shared" si="3"/>
-        <v>464.85888212506921</v>
-      </c>
-      <c r="D24" s="21">
+        <v>417.86875000000003</v>
+      </c>
+      <c r="D24" s="26">
         <f t="shared" si="4"/>
-        <v>354.17819590481463</v>
+        <v>135.52500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>18</v>
-      </c>
-      <c r="B25" s="21">
+        <v>10</v>
+      </c>
+      <c r="B25" s="26">
         <f t="shared" si="2"/>
-        <v>1361.3724405091311</v>
-      </c>
-      <c r="C25" s="21">
+        <v>1219.7250000000001</v>
+      </c>
+      <c r="C25" s="26">
         <f t="shared" si="3"/>
-        <v>453.79081350304375</v>
-      </c>
-      <c r="D25" s="21">
+        <v>406.57499999999999</v>
+      </c>
+      <c r="D25" s="26">
         <f t="shared" si="4"/>
-        <v>398.45047039291643</v>
+        <v>180.70000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1892,16 +1961,395 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <f>D1/((B27*0.75)+(C27*0.25))</f>
-        <v>2213.6137244050915</v>
+        <f>D1*((B27*0.75)+(C27*0.25))</f>
+        <v>1807</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="32" t="s">
         <v>88</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
+        <v>1</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" ref="B31:B32" si="5">$B$38*((100-A31)/100)</f>
+        <v>2033.46</v>
+      </c>
+      <c r="C31" s="34">
+        <f>$B$38*((A31*0.3)/100)</f>
+        <v>6.1619999999999999</v>
+      </c>
+      <c r="D31" s="34">
+        <f>$B$38*((A31*0.7)/100)</f>
+        <v>14.377999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="5"/>
+        <v>2002.6499999999999</v>
+      </c>
+      <c r="C32" s="34">
+        <f t="shared" ref="C32:C35" si="6">$B$38*((A32*0.3)/100)</f>
+        <v>15.404999999999999</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" ref="D32:D35" si="7">$B$38*((A32*0.7)/100)</f>
+        <v>35.945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="41">
+        <v>5</v>
+      </c>
+      <c r="B33" s="34">
+        <f>$B$38*((100-A33)/100)</f>
+        <v>1951.3</v>
+      </c>
+      <c r="C33" s="34">
+        <f t="shared" si="6"/>
+        <v>30.81</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" si="7"/>
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" ref="B34:B35" si="8">$B$38*((100-A34)/100)</f>
+        <v>1899.95</v>
+      </c>
+      <c r="C34" s="34">
+        <f t="shared" si="6"/>
+        <v>46.214999999999996</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="7"/>
+        <v>107.83499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
+        <v>10</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="8"/>
+        <v>1848.6000000000001</v>
+      </c>
+      <c r="C35" s="34">
+        <f t="shared" si="6"/>
+        <v>61.62</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" si="7"/>
+        <v>143.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="35">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="C37" s="35">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="D37" s="36">
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33">
+        <f>D1*B37</f>
+        <v>2054</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <f>$B$48*((100-A41)/100)</f>
+        <v>2936.7359999999999</v>
+      </c>
+      <c r="C41" s="4">
+        <f>$B$48*(A41/100)</f>
+        <v>29.664000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" ref="B42:B45" si="9">$B$48*((100-A42)/100)</f>
+        <v>2892.2400000000002</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" ref="C42:C45" si="10">$B$48*(A42/100)</f>
+        <v>74.160000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="9"/>
+        <v>2818.08</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="10"/>
+        <v>148.32000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="9"/>
+        <v>2743.92</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="10"/>
+        <v>222.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="9"/>
+        <v>2669.76</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="10"/>
+        <v>296.64000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <f>D1*B47</f>
+        <v>2966.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4">
+        <f>$B$58*((100-A51)/100)</f>
+        <v>1758.24</v>
+      </c>
+      <c r="C51" s="4">
+        <f>$B$58*(A51/100)</f>
+        <v>17.760000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" ref="B52:B55" si="11">$B$58*((100-A52)/100)</f>
+        <v>1731.6</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:C55" si="12">$B$58*(A52/100)</f>
+        <v>44.400000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="11"/>
+        <v>1687.1999999999998</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="12"/>
+        <v>88.800000000000011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="11"/>
+        <v>1642.8000000000002</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="12"/>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="11"/>
+        <v>1598.4</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="12"/>
+        <v>177.60000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <f>D1*B57</f>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C578B-17A6-4C45-8417-C1C7186F1E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905A6F0-DBC5-4170-A61F-CB6F06A32D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1770" yWindow="3390" windowWidth="15945" windowHeight="11385" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-1770" yWindow="3390" windowWidth="15945" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>Pa.s</t>
   </si>
@@ -215,12 +215,6 @@
     <t>PSMS</t>
   </si>
   <si>
-    <t>wt% PEO</t>
-  </si>
-  <si>
-    <t>ALL in masses in [mg]</t>
-  </si>
-  <si>
     <t>217964-100G</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>Temperature 25 [°C]</t>
   </si>
   <si>
-    <t>wt% PS</t>
-  </si>
-  <si>
     <t>m THF [mg]</t>
   </si>
   <si>
@@ -275,15 +266,9 @@
     <t>Temperature 20 [°C]</t>
   </si>
   <si>
-    <t>wt% PSB</t>
-  </si>
-  <si>
     <t>m PSB [mg]</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>m DMF [mg]</t>
   </si>
   <si>
@@ -296,9 +281,6 @@
     <t>181315-100G</t>
   </si>
   <si>
-    <t>wt% PANI</t>
-  </si>
-  <si>
     <t>m NMP [mg]</t>
   </si>
   <si>
@@ -308,13 +290,46 @@
     <t>m PAN [mg]</t>
   </si>
   <si>
-    <t>wt% PVK</t>
+    <t>g</t>
   </si>
   <si>
     <t>m CHL [mg]</t>
   </si>
   <si>
     <t>m PVK [mg]</t>
+  </si>
+  <si>
+    <t>m DCM [mg]</t>
+  </si>
+  <si>
+    <t>m PSMS [mg]</t>
+  </si>
+  <si>
+    <t>(prepare 2 ml of solution; times 1000 to get cuantities in mg)</t>
+  </si>
+  <si>
+    <t>PEO/TBT wt% in SU8</t>
+  </si>
+  <si>
+    <t>PS wt% in THF</t>
+  </si>
+  <si>
+    <t>PSB wt% in THF/DMF</t>
+  </si>
+  <si>
+    <t>PSB wt% in NMP</t>
+  </si>
+  <si>
+    <t>PANI/PAN wt% in NMP</t>
+  </si>
+  <si>
+    <t>PVK wt% in CHL</t>
+  </si>
+  <si>
+    <t>PVK wt% in DCM</t>
+  </si>
+  <si>
+    <t>PSMS wt% in DMF</t>
   </si>
 </sst>
 </file>
@@ -384,7 +399,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -434,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,8 +527,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1023,7 @@
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1167,7 +1191,7 @@
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1396,7 +1420,7 @@
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1424,13 +1448,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D18" s="8">
         <v>0.4</v>
@@ -1445,7 +1469,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>29</v>
@@ -1457,13 +1481,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6">
         <v>1.1839999999999999</v>
@@ -1493,15 +1517,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="0.42578125" style="19" customWidth="1"/>
@@ -1513,54 +1537,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="13">
+      <c r="A1" s="13">
         <v>2000</v>
       </c>
+      <c r="B1" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,658 +1719,974 @@
         <v>25.000294117647062</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.123</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <f>A1*B10</f>
+        <v>2246</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="26">
-        <f>$B$18*((100-A11)/100)</f>
-        <v>1758.24</v>
-      </c>
-      <c r="C11" s="26">
-        <f>$B$18*(A11/100)</f>
-        <v>17.760000000000002</v>
-      </c>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="26">
+        <f>$B$21*((100-A14)/100)</f>
+        <v>1771.5600000000002</v>
+      </c>
+      <c r="C14" s="26">
+        <f>$B$21*(A14/100)</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" ref="B15:B18" si="0">$B$21*((100-A15)/100)</f>
+        <v>1753.8000000000002</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" ref="C15:C18" si="1">$B$21*(A15/100)</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>2.5</v>
       </c>
-      <c r="B12" s="26">
-        <f t="shared" ref="B12:B15" si="0">$B$18*((100-A12)/100)</f>
+      <c r="B16" s="26">
+        <f t="shared" si="0"/>
         <v>1731.6</v>
       </c>
-      <c r="C12" s="26">
-        <f t="shared" ref="C12:C15" si="1">$B$18*(A12/100)</f>
+      <c r="C16" s="26">
+        <f t="shared" si="1"/>
         <v>44.400000000000006</v>
       </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="0"/>
+        <v>1709.4</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="1"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B18" s="26">
         <f t="shared" si="0"/>
         <v>1687.1999999999998</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C18" s="26">
         <f t="shared" si="1"/>
         <v>88.800000000000011</v>
       </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="B14" s="26">
-        <f t="shared" si="0"/>
-        <v>1642.8000000000002</v>
-      </c>
-      <c r="C14" s="26">
-        <f t="shared" si="1"/>
-        <v>133.19999999999999</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>10</v>
-      </c>
-      <c r="B15" s="26">
-        <f t="shared" si="0"/>
-        <v>1598.4</v>
-      </c>
-      <c r="C15" s="26">
-        <f t="shared" si="1"/>
-        <v>177.60000000000002</v>
-      </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B20" s="8">
         <v>0.88800000000000001</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C20" s="8">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <f>D1*B17</f>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <f>A1*B20</f>
         <v>1776</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="L23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="26">
-        <f>$B$28*((100-A21)*0.75/100)</f>
-        <v>1341.6975</v>
-      </c>
-      <c r="C21" s="26">
-        <f>$B$28*((100-A21)*0.25/100)</f>
-        <v>447.23250000000002</v>
-      </c>
-      <c r="D21" s="26">
-        <f>$B$28*(A21/100)</f>
-        <v>18.07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B24" s="26">
+        <f>$B$31*((100-A24)*0.75/100)</f>
+        <v>1351.8618750000001</v>
+      </c>
+      <c r="C24" s="26">
+        <f>$B$31*((100-A24)*0.25/100)</f>
+        <v>450.62062500000002</v>
+      </c>
+      <c r="D24" s="26">
+        <f>$B$31*(A24/100)</f>
+        <v>4.5175000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" ref="B25:B28" si="2">$B$31*((100-A25)*0.75/100)</f>
+        <v>1338.309375</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" ref="C25:C28" si="3">$B$31*((100-A25)*0.25/100)</f>
+        <v>446.10312500000003</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" ref="D25:D28" si="4">$B$31*(A25/100)</f>
+        <v>22.587500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
         <v>2.5</v>
       </c>
-      <c r="B22" s="26">
-        <f t="shared" ref="B22:B25" si="2">$B$28*((100-A22)*0.75/100)</f>
+      <c r="B26" s="26">
+        <f t="shared" si="2"/>
         <v>1321.3687499999999</v>
       </c>
-      <c r="C22" s="26">
-        <f t="shared" ref="C22:C25" si="3">$B$28*((100-A22)*0.25/100)</f>
+      <c r="C26" s="26">
+        <f t="shared" si="3"/>
         <v>440.45625000000001</v>
       </c>
-      <c r="D22" s="26">
-        <f t="shared" ref="D22:D25" si="4">$B$28*(A22/100)</f>
+      <c r="D26" s="26">
+        <f t="shared" si="4"/>
         <v>45.175000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="2"/>
+        <v>1304.4281250000001</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="3"/>
+        <v>434.80937499999999</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="4"/>
+        <v>67.762500000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
         <v>5</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B28" s="26">
         <f t="shared" si="2"/>
         <v>1287.4875</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C28" s="26">
         <f t="shared" si="3"/>
         <v>429.16249999999997</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D28" s="26">
         <f t="shared" si="4"/>
         <v>90.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="B24" s="26">
-        <f t="shared" si="2"/>
-        <v>1253.60625</v>
-      </c>
-      <c r="C24" s="26">
-        <f t="shared" si="3"/>
-        <v>417.86875000000003</v>
-      </c>
-      <c r="D24" s="26">
-        <f t="shared" si="4"/>
-        <v>135.52500000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>10</v>
-      </c>
-      <c r="B25" s="26">
-        <f t="shared" si="2"/>
-        <v>1219.7250000000001</v>
-      </c>
-      <c r="C25" s="26">
-        <f t="shared" si="3"/>
-        <v>406.57499999999999</v>
-      </c>
-      <c r="D25" s="26">
-        <f t="shared" si="4"/>
-        <v>180.70000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B30" s="8">
         <v>0.88800000000000001</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C30" s="8">
         <v>0.95</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D30" s="8">
         <v>1.04</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <f>D1*((B27*0.75)+(C27*0.25))</f>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <f>A1*((B30*0.75)+(C30*0.25))</f>
         <v>1807</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="J33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
-        <v>1</v>
-      </c>
-      <c r="B31" s="34">
-        <f t="shared" ref="B31:B32" si="5">$B$38*((100-A31)/100)</f>
-        <v>2033.46</v>
-      </c>
-      <c r="C31" s="34">
-        <f>$B$38*((A31*0.3)/100)</f>
-        <v>6.1619999999999999</v>
-      </c>
-      <c r="D31" s="34">
-        <f>$B$38*((A31*0.7)/100)</f>
-        <v>14.377999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B34" s="4">
+        <f>$B$41*((100-A34)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="C34" s="26">
+        <f>$B$41*(A34/100)</f>
+        <v>5.1349999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" ref="B35:B38" si="5">$B$41*((100-A35)/100)</f>
+        <v>2028.325</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" ref="C35:C38" si="6">$B$41*(A35/100)</f>
+        <v>25.675000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
         <v>2.5</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>2002.6499999999999</v>
       </c>
-      <c r="C32" s="34">
-        <f t="shared" ref="C32:C35" si="6">$B$38*((A32*0.3)/100)</f>
+      <c r="C36" s="26">
+        <f t="shared" si="6"/>
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="5"/>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="6"/>
+        <v>77.024999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="5"/>
+        <v>1951.3</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="6"/>
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <f>A1*B40</f>
+        <v>2054</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="B44" s="34">
+        <f t="shared" ref="B44:B45" si="7">$B$51*((100-A44)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="C44" s="34">
+        <f>$B$51*((A44*0.3)/100)</f>
+        <v>1.5405</v>
+      </c>
+      <c r="D44" s="34">
+        <f>$B$51*((A44*0.7)/100)</f>
+        <v>3.5944999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="B45" s="34">
+        <f t="shared" si="7"/>
+        <v>2028.325</v>
+      </c>
+      <c r="C45" s="34">
+        <f t="shared" ref="C45:C48" si="8">$B$51*((A45*0.3)/100)</f>
+        <v>7.7024999999999997</v>
+      </c>
+      <c r="D45" s="34">
+        <f t="shared" ref="D45:D48" si="9">$B$51*((A45*0.7)/100)</f>
+        <v>17.9725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="B46" s="34">
+        <f>$B$51*((100-A46)/100)</f>
+        <v>2002.6499999999999</v>
+      </c>
+      <c r="C46" s="34">
+        <f t="shared" si="8"/>
         <v>15.404999999999999</v>
       </c>
-      <c r="D32" s="34">
-        <f t="shared" ref="D32:D35" si="7">$B$38*((A32*0.7)/100)</f>
+      <c r="D46" s="34">
+        <f t="shared" si="9"/>
         <v>35.945</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>3.75</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" ref="B47:B48" si="10">$B$51*((100-A47)/100)</f>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="C47" s="34">
+        <f t="shared" si="8"/>
+        <v>23.107499999999998</v>
+      </c>
+      <c r="D47" s="34">
+        <f t="shared" si="9"/>
+        <v>53.917499999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
         <v>5</v>
       </c>
-      <c r="B33" s="34">
-        <f>$B$38*((100-A33)/100)</f>
+      <c r="B48" s="34">
+        <f t="shared" si="10"/>
         <v>1951.3</v>
       </c>
-      <c r="C33" s="34">
-        <f t="shared" si="6"/>
+      <c r="C48" s="34">
+        <f t="shared" si="8"/>
         <v>30.81</v>
       </c>
-      <c r="D33" s="34">
-        <f t="shared" si="7"/>
+      <c r="D48" s="34">
+        <f t="shared" si="9"/>
         <v>71.89</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
-        <v>7.5</v>
-      </c>
-      <c r="B34" s="34">
-        <f t="shared" ref="B34:B35" si="8">$B$38*((100-A34)/100)</f>
-        <v>1899.95</v>
-      </c>
-      <c r="C34" s="34">
-        <f t="shared" si="6"/>
-        <v>46.214999999999996</v>
-      </c>
-      <c r="D34" s="34">
-        <f t="shared" si="7"/>
-        <v>107.83499999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
-        <v>10</v>
-      </c>
-      <c r="B35" s="34">
-        <f t="shared" si="8"/>
-        <v>1848.6000000000001</v>
-      </c>
-      <c r="C35" s="34">
-        <f t="shared" si="6"/>
-        <v>61.62</v>
-      </c>
-      <c r="D35" s="34">
-        <f t="shared" si="7"/>
-        <v>143.78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B50" s="35">
         <v>1.0269999999999999</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C50" s="35">
         <v>1.2450000000000001</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D50" s="36">
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33">
-        <f>D1*B37</f>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33">
+        <f>A1*B50</f>
         <v>2054</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="5" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="J53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4">
-        <f>$B$48*((100-A41)/100)</f>
-        <v>2936.7359999999999</v>
-      </c>
-      <c r="C41" s="4">
-        <f>$B$48*(A41/100)</f>
-        <v>29.664000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B42" s="4">
-        <f t="shared" ref="B42:B45" si="9">$B$48*((100-A42)/100)</f>
-        <v>2892.2400000000002</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" ref="C42:C45" si="10">$B$48*(A42/100)</f>
-        <v>74.160000000000011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4">
-        <f t="shared" si="9"/>
-        <v>2818.08</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="10"/>
-        <v>148.32000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="B44" s="4">
-        <f t="shared" si="9"/>
-        <v>2743.92</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="10"/>
-        <v>222.48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>10</v>
-      </c>
-      <c r="B45" s="4">
-        <f t="shared" si="9"/>
-        <v>2669.76</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="10"/>
-        <v>296.64000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1.4832000000000001</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <f>D1*B47</f>
-        <v>2966.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <v>1</v>
-      </c>
-      <c r="B51" s="4">
-        <f>$B$58*((100-A51)/100)</f>
-        <v>1758.24</v>
-      </c>
-      <c r="C51" s="4">
-        <f>$B$58*(A51/100)</f>
-        <v>17.760000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B52" s="4">
-        <f t="shared" ref="B52:B55" si="11">$B$58*((100-A52)/100)</f>
-        <v>1731.6</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" ref="C52:C55" si="12">$B$58*(A52/100)</f>
-        <v>44.400000000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>5</v>
-      </c>
-      <c r="B53" s="4">
-        <f t="shared" si="11"/>
-        <v>1687.1999999999998</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="12"/>
-        <v>88.800000000000011</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="B54" s="4">
-        <f t="shared" si="11"/>
-        <v>1642.8000000000002</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="12"/>
-        <v>133.19999999999999</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="B54" s="26">
+        <f>$B$61*((100-A54)/100)</f>
+        <v>2958.9840000000004</v>
+      </c>
+      <c r="C54" s="26">
+        <f>$B$61*(A54/100)</f>
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>10</v>
-      </c>
-      <c r="B55" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="B55" s="26">
+        <f t="shared" ref="B55:B58" si="11">$B$61*((100-A55)/100)</f>
+        <v>2929.32</v>
+      </c>
+      <c r="C55" s="26">
+        <f t="shared" ref="C55:C58" si="12">$B$61*(A55/100)</f>
+        <v>37.080000000000005</v>
+      </c>
+      <c r="D55" s="26"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B56" s="26">
         <f t="shared" si="11"/>
-        <v>1598.4</v>
-      </c>
-      <c r="C55" s="4">
+        <v>2892.2400000000002</v>
+      </c>
+      <c r="C56" s="26">
         <f t="shared" si="12"/>
-        <v>177.60000000000002</v>
-      </c>
+        <v>74.160000000000011</v>
+      </c>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B57" s="26">
+        <f t="shared" si="11"/>
+        <v>2855.1600000000003</v>
+      </c>
+      <c r="C57" s="26">
+        <f t="shared" si="12"/>
+        <v>111.24</v>
+      </c>
+      <c r="D57" s="26"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>5</v>
+      </c>
+      <c r="B58" s="26">
+        <f t="shared" si="11"/>
+        <v>2818.08</v>
+      </c>
+      <c r="C58" s="26">
+        <f t="shared" si="12"/>
+        <v>148.32000000000002</v>
+      </c>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="8">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="C57" s="8">
+      <c r="B60" s="8">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="C60" s="8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <f>D1*B57</f>
-        <v>1776</v>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <f>A1*B60</f>
+        <v>2966.4</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B64" s="26">
+        <f>$B$71*((100-A64)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="C64" s="26">
+        <f>$B$71*(A64/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="D64" s="26"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="B65" s="26">
+        <f t="shared" ref="B65:B68" si="13">$B$71*((100-A65)/100)</f>
+        <v>2617.8625000000002</v>
+      </c>
+      <c r="C65" s="26">
+        <f t="shared" ref="C65:C68" si="14">$B$71*(A65/100)</f>
+        <v>33.137500000000003</v>
+      </c>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B66" s="26">
+        <f t="shared" si="13"/>
+        <v>2584.7249999999999</v>
+      </c>
+      <c r="C66" s="26">
+        <f t="shared" si="14"/>
+        <v>66.275000000000006</v>
+      </c>
+      <c r="D66" s="26"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B67" s="26">
+        <f t="shared" si="13"/>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="C67" s="26">
+        <f t="shared" si="14"/>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>5</v>
+      </c>
+      <c r="B68" s="26">
+        <f t="shared" si="13"/>
+        <v>2518.4499999999998</v>
+      </c>
+      <c r="C68" s="26">
+        <f t="shared" si="14"/>
+        <v>132.55000000000001</v>
+      </c>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="8">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <f>A1*B70</f>
+        <v>2651</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B74" s="26">
+        <f>$B$81*((100-A74)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="C74" s="26">
+        <f>$B$81*(A74/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="B75" s="26">
+        <f t="shared" ref="B75:B78" si="15">$B$81*((100-A75)/100)</f>
+        <v>1876.25</v>
+      </c>
+      <c r="C75" s="26">
+        <f t="shared" ref="C75:C78" si="16">$B$81*(A75/100)</f>
+        <v>23.75</v>
+      </c>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B76" s="26">
+        <f t="shared" si="15"/>
+        <v>1852.5</v>
+      </c>
+      <c r="C76" s="26">
+        <f t="shared" si="16"/>
+        <v>47.5</v>
+      </c>
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="B77" s="26">
+        <f t="shared" si="15"/>
+        <v>1828.75</v>
+      </c>
+      <c r="C77" s="26">
+        <f t="shared" si="16"/>
+        <v>71.25</v>
+      </c>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>5</v>
+      </c>
+      <c r="B78" s="26">
+        <f t="shared" si="15"/>
+        <v>1805</v>
+      </c>
+      <c r="C78" s="26">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <f>A1*B80</f>
+        <v>1900</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905A6F0-DBC5-4170-A61F-CB6F06A32D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A07B7-7197-4901-BDB0-2534E84FFCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1770" yWindow="3390" windowWidth="15945" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>Pa.s</t>
   </si>
@@ -227,9 +227,6 @@
     <t>methanol: soluble 10%</t>
   </si>
   <si>
-    <t>m su8 [mg]</t>
-  </si>
-  <si>
     <t>m PEO [mg]</t>
   </si>
   <si>
@@ -330,6 +327,35 @@
   </si>
   <si>
     <t>PSMS wt% in DMF</t>
+  </si>
+  <si>
+    <t>m SU8 [mg]</t>
+  </si>
+  <si>
+    <t>v SU8 [ul]</t>
+  </si>
+  <si>
+    <t>v THF [ul]</t>
+  </si>
+  <si>
+    <t>v DMF [ul]</t>
+  </si>
+  <si>
+    <t>v NMP [ul]</t>
+  </si>
+  <si>
+    <t>v CHL [ul]</t>
+  </si>
+  <si>
+    <t>v DCM [ul]</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Sample
+Set
+00</t>
   </si>
 </sst>
 </file>
@@ -341,7 +367,7 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,19 +424,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -420,25 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -477,16 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,27 +516,69 @@
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +1031,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1070,7 @@
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1051,7 +1098,7 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1079,7 +1126,7 @@
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1107,7 +1154,7 @@
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1135,7 +1182,7 @@
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1163,7 +1210,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1219,7 +1266,7 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1243,10 +1290,16 @@
         <v>@20°C</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+    </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1259,10 +1312,10 @@
       <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1270,7 +1323,7 @@
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1300,7 +1353,7 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1330,7 +1383,7 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1360,7 +1413,7 @@
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1390,7 +1443,7 @@
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1476,18 +1529,19 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D20" s="6">
         <v>1.1839999999999999</v>
@@ -1511,1185 +1565,1931 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="0.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="13">
         <v>2000</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2246</v>
+      </c>
+      <c r="D4" s="21">
+        <f>C4/$C$10</f>
+        <v>2000</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>11.28</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="14">
+        <v>2.5008191666666666E-3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2.9630584166666668E-2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.15952790000000003</v>
+      </c>
+      <c r="L4" s="14">
+        <v>25.000666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2246</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:D8" si="0">C5/$C$10</f>
+        <v>2000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5.65</v>
+      </c>
+      <c r="F5" s="22">
+        <v>11.32</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="14">
+        <v>1.1454375999999999E-2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2.1552710000000003E-2</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.75992060000000006</v>
+      </c>
+      <c r="L5" s="14">
+        <v>25.0001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2246</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11.34</v>
+      </c>
+      <c r="F6" s="22">
+        <v>11.34</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="14">
+        <v>0.29249992307692307</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3.491015153846154E-2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>16.825127692307692</v>
+      </c>
+      <c r="L6" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2246</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E7" s="22">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="F7" s="22">
+        <v>11.37</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="14">
+        <v>0.75534333333333326</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8.2608486111111101E-2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>34.761310000000002</v>
+      </c>
+      <c r="L7" s="14">
+        <v>25.000055555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2246</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E8" s="24">
+        <v>22.8</v>
+      </c>
+      <c r="F8" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="14">
+        <v>1.0604903529411764</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6.9187764117647058E-2</v>
+      </c>
+      <c r="K8" s="14">
+        <v>50.084594705882346</v>
+      </c>
+      <c r="L8" s="14">
+        <v>25.000294117647062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1.123</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48">
+        <v>1.21</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16">
+        <f>B1*C10</f>
+        <v>2246</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="20">
+        <f>$C$21*((100-B14)/100)</f>
+        <v>1771.5600000000002</v>
+      </c>
+      <c r="D14" s="20">
+        <f>C14/$C$20</f>
+        <v>1995.0000000000002</v>
+      </c>
+      <c r="E14" s="20">
+        <f>$C$21*(B14/100)</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ref="C15:C18" si="1">$C$21*((100-B15)/100)</f>
+        <v>1709.4</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" ref="D15:D18" si="2">C15/$C$20</f>
+        <v>1925</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" ref="E15:E18" si="3">$C$21*(B15/100)</f>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="1"/>
+        <v>1642.8000000000002</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="3"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="1"/>
+        <v>1576.1999999999998</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="2"/>
+        <v>1774.9999999999998</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="3"/>
+        <v>199.8</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="1"/>
+        <v>1509.6</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="2"/>
+        <v>1699.9999999999998</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="3"/>
+        <v>266.39999999999998</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="48">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
+        <v>1.06</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="16"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16">
+        <f>B1*C20</f>
+        <v>1776</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="20">
+        <f>(E23/(C23+E23))*100</f>
+        <v>0.25833988543187686</v>
+      </c>
+      <c r="C23" s="20">
+        <f>$C$20*D23</f>
+        <v>1776</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="20">
+        <f t="shared" ref="B24:B27" si="4">(E24/(C24+E24))*100</f>
+        <v>4.1635898892360119</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" ref="C24:C27" si="5">$C$20*D24</f>
+        <v>1687.2</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="20">
+        <f t="shared" si="4"/>
+        <v>8.3275980729525099</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" si="5"/>
+        <v>1598.4</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1800</v>
+      </c>
+      <c r="E25" s="20">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="20">
+        <f t="shared" si="4"/>
+        <v>11.031949237448513</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" si="5"/>
+        <v>1598.4</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="20">
+        <v>198.2</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="20">
+        <f t="shared" si="4"/>
+        <v>15.172902080219371</v>
+      </c>
+      <c r="C27" s="20">
+        <f t="shared" si="5"/>
+        <v>1509.6</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="20">
+        <v>270.02</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+    </row>
+    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="M29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="5" t="s">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="20">
+        <f>$C$37*((100-B30)*0.75/100)</f>
+        <v>1351.8618750000001</v>
+      </c>
+      <c r="D30" s="20">
+        <f>C30/$C$36</f>
+        <v>1522.3669763513515</v>
+      </c>
+      <c r="E30" s="20">
+        <f>$C$37*((100-B30)*0.25/100)</f>
+        <v>450.62062500000002</v>
+      </c>
+      <c r="F30" s="20">
+        <f>E30/$E$36</f>
+        <v>474.33750000000003</v>
+      </c>
+      <c r="G30" s="20">
+        <f>$C$37*(B30/100)</f>
+        <v>4.5175000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" ref="C31:C34" si="6">$C$37*((100-B31)*0.75/100)</f>
+        <v>1304.4281250000001</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" ref="D31:D34" si="7">C31/$C$36</f>
+        <v>1468.9505912162163</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" ref="E31:E34" si="8">$C$37*((100-B31)*0.25/100)</f>
+        <v>434.80937499999999</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" ref="F31:F34" si="9">E31/$E$36</f>
+        <v>457.69407894736844</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" ref="G31:G34" si="10">$C$37*(B31/100)</f>
+        <v>67.762500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="20">
+        <f t="shared" si="6"/>
+        <v>1253.60625</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="7"/>
+        <v>1411.71875</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" si="8"/>
+        <v>417.86875000000003</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="9"/>
+        <v>439.86184210526324</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="10"/>
+        <v>135.52500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="6"/>
+        <v>1202.784375</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="7"/>
+        <v>1354.4869087837837</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" si="8"/>
+        <v>400.92812499999997</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="9"/>
+        <v>422.02960526315786</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="10"/>
+        <v>203.28749999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="15">
+        <v>15</v>
+      </c>
+      <c r="C34" s="20">
+        <f t="shared" si="6"/>
+        <v>1151.9624999999999</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="7"/>
+        <v>1297.2550675675675</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="8"/>
+        <v>383.98750000000001</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="9"/>
+        <v>404.19736842105266</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="10"/>
+        <v>271.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="48">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16">
+        <f>B1*((C36*0.75)+(E36*0.25))</f>
+        <v>1807</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="20">
+        <f>(G39/(C39+E39+G39))*100</f>
+        <v>1.3107591480065537</v>
+      </c>
+      <c r="C39" s="20">
+        <f>$C$36*D39</f>
+        <v>1332</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1500</v>
+      </c>
+      <c r="E39" s="20">
+        <f>$E$36*F39</f>
+        <v>475</v>
+      </c>
+      <c r="F39" s="20">
+        <v>500</v>
+      </c>
+      <c r="G39" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="20">
+        <f t="shared" ref="B40:B43" si="11">(G40/(C40+E40+G40))*100</f>
+        <v>3.9545019666206014</v>
+      </c>
+      <c r="C40" s="20">
+        <f t="shared" ref="C40:C43" si="12">$C$36*D40</f>
+        <v>1332</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1500</v>
+      </c>
+      <c r="E40" s="20">
+        <f t="shared" ref="E40:E43" si="13">$E$36*F40</f>
+        <v>475</v>
+      </c>
+      <c r="F40" s="20">
+        <v>500</v>
+      </c>
+      <c r="G40" s="20">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="20">
+        <f t="shared" si="11"/>
+        <v>8.4489565707839827</v>
+      </c>
+      <c r="C41" s="20">
+        <f t="shared" si="12"/>
+        <v>1243.2</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="F41" s="20">
+        <v>400</v>
+      </c>
+      <c r="G41" s="20">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="20">
+        <f t="shared" si="11"/>
+        <v>11.957769107183841</v>
+      </c>
+      <c r="C42" s="20">
+        <f t="shared" si="12"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="F42" s="20">
+        <v>400</v>
+      </c>
+      <c r="G42" s="20">
+        <v>208.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="20">
+        <f t="shared" si="11"/>
+        <v>15.184345807307501</v>
+      </c>
+      <c r="C43" s="20">
+        <f t="shared" si="12"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="20">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="F43" s="20">
+        <v>400</v>
+      </c>
+      <c r="G43" s="20">
+        <v>274.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>0</v>
-      </c>
-      <c r="B4" s="27">
-        <v>2246</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>11.28</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14">
-        <v>2.5008191666666666E-3</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2.9630584166666668E-2</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.15952790000000003</v>
-      </c>
-      <c r="I4" s="14">
-        <v>25.000666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="F45" s="17"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="15">
         <v>0.25</v>
       </c>
-      <c r="B5" s="27">
-        <v>2246</v>
-      </c>
-      <c r="C5" s="28">
-        <v>5.65</v>
-      </c>
-      <c r="D5" s="28">
-        <v>11.32</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14">
-        <v>1.1454375999999999E-2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>2.1552710000000003E-2</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.75992060000000006</v>
-      </c>
-      <c r="I5" s="14">
-        <v>25.0001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="27">
-        <v>2246</v>
-      </c>
-      <c r="C6" s="28">
-        <v>11.34</v>
-      </c>
-      <c r="D6" s="28">
-        <v>11.34</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14">
-        <v>0.29249992307692307</v>
-      </c>
-      <c r="G6" s="14">
-        <v>3.491015153846154E-2</v>
-      </c>
-      <c r="H6" s="14">
-        <v>16.825127692307692</v>
-      </c>
-      <c r="I6" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2246</v>
-      </c>
-      <c r="C7" s="28">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="D7" s="28">
-        <v>11.37</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14">
-        <v>0.75534333333333326</v>
-      </c>
-      <c r="G7" s="14">
-        <v>8.2608486111111101E-2</v>
-      </c>
-      <c r="H7" s="14">
-        <v>34.761310000000002</v>
-      </c>
-      <c r="I7" s="14">
-        <v>25.000055555555555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>1</v>
-      </c>
-      <c r="B8" s="29">
-        <v>2246</v>
-      </c>
-      <c r="C8" s="30">
-        <v>22.8</v>
-      </c>
-      <c r="D8" s="30">
-        <v>11.4</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14">
-        <v>1.0604903529411764</v>
-      </c>
-      <c r="G8" s="14">
-        <v>6.9187764117647058E-2</v>
-      </c>
-      <c r="H8" s="14">
-        <v>50.084594705882346</v>
-      </c>
-      <c r="I8" s="14">
-        <v>25.000294117647062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="C46" s="20">
+        <f>$C$53*((100-B46)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="D46" s="20">
+        <f>C46/$C$52</f>
+        <v>1995.0000000000005</v>
+      </c>
+      <c r="E46" s="20">
+        <f>$C$53*(B46/100)</f>
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="C47" s="20">
+        <f t="shared" ref="C47:C50" si="14">$C$53*((100-B47)/100)</f>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="D47" s="20">
+        <f t="shared" ref="D47:D50" si="15">C47/$C$52</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" ref="E47:E50" si="16">$C$53*(B47/100)</f>
+        <v>77.024999999999991</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C48" s="20">
+        <f t="shared" si="14"/>
+        <v>1899.95</v>
+      </c>
+      <c r="D48" s="20">
+        <f t="shared" si="15"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="16"/>
+        <v>154.04999999999998</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="14"/>
+        <v>1822.925</v>
+      </c>
+      <c r="D49" s="20">
+        <f t="shared" si="15"/>
+        <v>1775</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="16"/>
+        <v>231.07500000000002</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="15">
+        <v>15</v>
+      </c>
+      <c r="C50" s="20">
+        <f t="shared" si="14"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="D50" s="20">
+        <f t="shared" si="15"/>
+        <v>1700</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="16"/>
+        <v>308.09999999999997</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="8">
-        <v>1.123</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.21</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <f>A1*B10</f>
-        <v>2246</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C52" s="16">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="48">
+        <v>1.04</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16">
+        <f>B1*C52</f>
+        <v>2054</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="56">
+        <f>(E55/(C55+E55))*100</f>
+        <v>1.0263576350407171</v>
+      </c>
+      <c r="C55" s="57">
+        <f>$C$52*D55</f>
+        <v>2054</v>
+      </c>
+      <c r="D55" s="57">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="57">
+        <v>21.3</v>
+      </c>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="56">
+        <f t="shared" ref="B56:B59" si="17">(E56/(C56+E56))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="C56" s="57">
+        <f t="shared" ref="C56:C59" si="18">$C$52*D56</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="D56" s="57">
+        <v>1900</v>
+      </c>
+      <c r="E56" s="57">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="56">
+        <f t="shared" si="17"/>
+        <v>7.74067974247642</v>
+      </c>
+      <c r="C57" s="57">
+        <f t="shared" si="18"/>
+        <v>1848.6</v>
+      </c>
+      <c r="D57" s="57">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="57">
+        <v>155.1</v>
+      </c>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="56">
+        <f t="shared" si="17"/>
+        <v>11.512134411947729</v>
+      </c>
+      <c r="C58" s="57">
+        <f t="shared" si="18"/>
+        <v>1848.6</v>
+      </c>
+      <c r="D58" s="57">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="57">
+        <v>240.5</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="56">
+        <f t="shared" si="17"/>
+        <v>14.950311769290725</v>
+      </c>
+      <c r="C59" s="57">
+        <f t="shared" si="18"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="D59" s="57">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="57">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="I61" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="C62" s="28">
+        <f t="shared" ref="C62:C63" si="19">$C$69*((100-B62)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="D62" s="28">
+        <f>C62/$C$68</f>
+        <v>1995.0000000000005</v>
+      </c>
+      <c r="E62" s="28">
+        <f>$C$69*((B62*0.3)/100)</f>
+        <v>1.5405</v>
+      </c>
+      <c r="F62" s="28">
+        <f>$C$69*((B62*0.7)/100)</f>
+        <v>3.5944999999999996</v>
+      </c>
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="45"/>
+      <c r="B63" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="C63" s="28">
+        <f t="shared" si="19"/>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="D63" s="28">
+        <f t="shared" ref="D63:D66" si="20">C63/$C$68</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="E63" s="28">
+        <f t="shared" ref="E63:E66" si="21">$C$69*((B63*0.3)/100)</f>
+        <v>23.107499999999998</v>
+      </c>
+      <c r="F63" s="28">
+        <f>$C$69*((B63*0.7)/100)</f>
+        <v>53.917499999999997</v>
+      </c>
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="45"/>
+      <c r="B64" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="C64" s="28">
+        <f>$C$69*((100-B64)/100)</f>
+        <v>1899.95</v>
+      </c>
+      <c r="D64" s="28">
+        <f t="shared" si="20"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="E64" s="28">
+        <f t="shared" si="21"/>
+        <v>46.214999999999996</v>
+      </c>
+      <c r="F64" s="28">
+        <f>$C$69*((B64*0.7)/100)</f>
+        <v>107.83499999999999</v>
+      </c>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="45"/>
+      <c r="B65" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="C65" s="28">
+        <f t="shared" ref="C65:C66" si="22">$C$69*((100-B65)/100)</f>
+        <v>1822.925</v>
+      </c>
+      <c r="D65" s="28">
+        <f t="shared" si="20"/>
+        <v>1775</v>
+      </c>
+      <c r="E65" s="28">
+        <f t="shared" si="21"/>
+        <v>69.322500000000005</v>
+      </c>
+      <c r="F65" s="28">
+        <f>$C$69*((B65*0.7)/100)</f>
+        <v>161.75249999999997</v>
+      </c>
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="45"/>
+      <c r="B66" s="30">
+        <v>15</v>
+      </c>
+      <c r="C66" s="28">
+        <f t="shared" si="22"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="D66" s="28">
+        <f t="shared" si="20"/>
+        <v>1700</v>
+      </c>
+      <c r="E66" s="28">
+        <f t="shared" si="21"/>
+        <v>92.429999999999993</v>
+      </c>
+      <c r="F66" s="28">
+        <f>$C$69*((B66*0.7)/100)</f>
+        <v>215.67</v>
+      </c>
+      <c r="G66" s="39"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="45"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="39"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
+      <c r="B68" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="51">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="F68" s="25">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="G68" s="52"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="45"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25">
+        <f>B1*C68</f>
+        <v>2054</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="36"/>
+      <c r="I71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="5" t="s">
+      <c r="N71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="45"/>
+      <c r="B72" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C72" s="20">
+        <f>$C$79*((100-B72)/100)</f>
+        <v>2958.9840000000004</v>
+      </c>
+      <c r="D72" s="20">
+        <f>C72/$C$78</f>
+        <v>1995.0000000000002</v>
+      </c>
+      <c r="E72" s="20">
+        <f>$C$79*(B72/100)</f>
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="45"/>
+      <c r="B73" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="C73" s="38">
+        <f t="shared" ref="C73:C76" si="23">$C$79*((100-B73)/100)</f>
+        <v>2855.1600000000003</v>
+      </c>
+      <c r="D73" s="20">
+        <f t="shared" ref="D73:D76" si="24">C73/$C$78</f>
+        <v>1925</v>
+      </c>
+      <c r="E73" s="38">
+        <f t="shared" ref="E73:E76" si="25">$C$79*(B73/100)</f>
+        <v>111.24</v>
+      </c>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="45"/>
+      <c r="B74" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C74" s="20">
+        <f t="shared" si="23"/>
+        <v>2743.92</v>
+      </c>
+      <c r="D74" s="20">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="E74" s="20">
+        <f t="shared" si="25"/>
+        <v>222.48</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="45"/>
+      <c r="B75" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="C75" s="38">
+        <f t="shared" si="23"/>
+        <v>2632.68</v>
+      </c>
+      <c r="D75" s="20">
+        <f t="shared" si="24"/>
+        <v>1774.9999999999998</v>
+      </c>
+      <c r="E75" s="38">
+        <f t="shared" si="25"/>
+        <v>333.72</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="45"/>
+      <c r="B76" s="15">
+        <v>15</v>
+      </c>
+      <c r="C76" s="20">
+        <f t="shared" si="23"/>
+        <v>2521.44</v>
+      </c>
+      <c r="D76" s="20">
+        <f t="shared" si="24"/>
+        <v>1700</v>
+      </c>
+      <c r="E76" s="20">
+        <f t="shared" si="25"/>
+        <v>444.96</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="45"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="48">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="F78" s="48"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16">
+        <f>B1*C78</f>
+        <v>2966.4</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="L81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="45"/>
+      <c r="B82" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C82" s="20">
+        <f>$C$89*((100-B82)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="D82" s="20">
+        <f>C82/$C$88</f>
+        <v>1995</v>
+      </c>
+      <c r="E82" s="20">
+        <f>$C$89*(B82/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="45"/>
+      <c r="B83" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="C83" s="38">
+        <f t="shared" ref="C83:C86" si="26">$C$89*((100-B83)/100)</f>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="D83" s="20">
+        <f t="shared" ref="D83:D86" si="27">C83/$C$88</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="E83" s="38">
+        <f t="shared" ref="E83:E86" si="28">$C$89*(B83/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="45"/>
+      <c r="B84" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C84" s="20">
+        <f t="shared" si="26"/>
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="D84" s="20">
+        <f t="shared" si="27"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="E84" s="20">
+        <f t="shared" si="28"/>
+        <v>198.82499999999999</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="45"/>
+      <c r="B85" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="C85" s="38">
+        <f t="shared" si="26"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="D85" s="20">
+        <f t="shared" si="27"/>
+        <v>1775</v>
+      </c>
+      <c r="E85" s="38">
+        <f t="shared" si="28"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="45"/>
+      <c r="B86" s="15">
+        <v>15</v>
+      </c>
+      <c r="C86" s="20">
+        <f t="shared" si="26"/>
+        <v>2253.35</v>
+      </c>
+      <c r="D86" s="20">
+        <f t="shared" si="27"/>
+        <v>1700</v>
+      </c>
+      <c r="E86" s="20">
+        <f t="shared" si="28"/>
+        <v>397.65</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="45"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="45"/>
+      <c r="B88" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="48">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="45"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16">
+        <f>B1*C88</f>
+        <v>2651</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="36"/>
+      <c r="I91" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L91" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="M91" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N91" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="O91" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="P91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="45"/>
+      <c r="B92" s="15">
         <v>0.25</v>
       </c>
-      <c r="B14" s="26">
-        <f>$B$21*((100-A14)/100)</f>
-        <v>1771.5600000000002</v>
-      </c>
-      <c r="C14" s="26">
-        <f>$B$21*(A14/100)</f>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B15" s="26">
-        <f t="shared" ref="B15:B18" si="0">$B$21*((100-A15)/100)</f>
-        <v>1753.8000000000002</v>
-      </c>
-      <c r="C15" s="26">
-        <f t="shared" ref="C15:C18" si="1">$B$21*(A15/100)</f>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="26">
-        <f t="shared" si="0"/>
-        <v>1731.6</v>
-      </c>
-      <c r="C16" s="26">
-        <f t="shared" si="1"/>
-        <v>44.400000000000006</v>
-      </c>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="C92" s="20">
+        <f>$C$99*((100-B92)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="D92" s="20">
+        <f>C92/$C$98</f>
+        <v>1995</v>
+      </c>
+      <c r="E92" s="20">
+        <f>$C$99*(B92/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="45"/>
+      <c r="B93" s="15">
         <v>3.75</v>
       </c>
-      <c r="B17" s="26">
-        <f t="shared" si="0"/>
-        <v>1709.4</v>
-      </c>
-      <c r="C17" s="26">
-        <f t="shared" si="1"/>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="26">
-        <f t="shared" si="0"/>
-        <v>1687.1999999999998</v>
-      </c>
-      <c r="C18" s="26">
-        <f t="shared" si="1"/>
-        <v>88.800000000000011</v>
-      </c>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="C93" s="20">
+        <f t="shared" ref="C93:C96" si="29">$C$99*((100-B93)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="D93" s="20">
+        <f t="shared" ref="D93:D96" si="30">C93/$C$98</f>
+        <v>1925</v>
+      </c>
+      <c r="E93" s="20">
+        <f t="shared" ref="E93:E96" si="31">$C$99*(B93/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="45"/>
+      <c r="B94" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C94" s="20">
+        <f t="shared" si="29"/>
+        <v>1757.5</v>
+      </c>
+      <c r="D94" s="20">
+        <f t="shared" si="30"/>
+        <v>1850</v>
+      </c>
+      <c r="E94" s="20">
+        <f t="shared" si="31"/>
+        <v>142.5</v>
+      </c>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="45"/>
+      <c r="B95" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="C95" s="20">
+        <f t="shared" si="29"/>
+        <v>1686.25</v>
+      </c>
+      <c r="D95" s="20">
+        <f t="shared" si="30"/>
+        <v>1775</v>
+      </c>
+      <c r="E95" s="20">
+        <f t="shared" si="31"/>
+        <v>213.75</v>
+      </c>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="45"/>
+      <c r="B96" s="15">
+        <v>15</v>
+      </c>
+      <c r="C96" s="20">
+        <f t="shared" si="29"/>
+        <v>1615</v>
+      </c>
+      <c r="D96" s="20">
+        <f t="shared" si="30"/>
+        <v>1700</v>
+      </c>
+      <c r="E96" s="20">
+        <f t="shared" si="31"/>
+        <v>285</v>
+      </c>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="45"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="45"/>
+      <c r="B98" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1.06</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <f>A1*B20</f>
-        <v>1776</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B24" s="26">
-        <f>$B$31*((100-A24)*0.75/100)</f>
-        <v>1351.8618750000001</v>
-      </c>
-      <c r="C24" s="26">
-        <f>$B$31*((100-A24)*0.25/100)</f>
-        <v>450.62062500000002</v>
-      </c>
-      <c r="D24" s="26">
-        <f>$B$31*(A24/100)</f>
-        <v>4.5175000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B25" s="26">
-        <f t="shared" ref="B25:B28" si="2">$B$31*((100-A25)*0.75/100)</f>
-        <v>1338.309375</v>
-      </c>
-      <c r="C25" s="26">
-        <f t="shared" ref="C25:C28" si="3">$B$31*((100-A25)*0.25/100)</f>
-        <v>446.10312500000003</v>
-      </c>
-      <c r="D25" s="26">
-        <f t="shared" ref="D25:D28" si="4">$B$31*(A25/100)</f>
-        <v>22.587500000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B26" s="26">
-        <f t="shared" si="2"/>
-        <v>1321.3687499999999</v>
-      </c>
-      <c r="C26" s="26">
-        <f t="shared" si="3"/>
-        <v>440.45625000000001</v>
-      </c>
-      <c r="D26" s="26">
-        <f t="shared" si="4"/>
-        <v>45.175000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>3.75</v>
-      </c>
-      <c r="B27" s="26">
-        <f t="shared" si="2"/>
-        <v>1304.4281250000001</v>
-      </c>
-      <c r="C27" s="26">
-        <f t="shared" si="3"/>
-        <v>434.80937499999999</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" si="4"/>
-        <v>67.762500000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>5</v>
-      </c>
-      <c r="B28" s="26">
-        <f t="shared" si="2"/>
-        <v>1287.4875</v>
-      </c>
-      <c r="C28" s="26">
-        <f t="shared" si="3"/>
-        <v>429.16249999999997</v>
-      </c>
-      <c r="D28" s="26">
-        <f t="shared" si="4"/>
-        <v>90.350000000000009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="C98" s="48">
         <v>0.95</v>
       </c>
-      <c r="D30" s="8">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <f>A1*((B30*0.75)+(C30*0.25))</f>
-        <v>1807</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B34" s="4">
-        <f>$B$41*((100-A34)/100)</f>
-        <v>2048.8650000000002</v>
-      </c>
-      <c r="C34" s="26">
-        <f>$B$41*(A34/100)</f>
-        <v>5.1349999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" ref="B35:B38" si="5">$B$41*((100-A35)/100)</f>
-        <v>2028.325</v>
-      </c>
-      <c r="C35" s="26">
-        <f t="shared" ref="C35:C38" si="6">$B$41*(A35/100)</f>
-        <v>25.675000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="5"/>
-        <v>2002.6499999999999</v>
-      </c>
-      <c r="C36" s="26">
-        <f t="shared" si="6"/>
-        <v>51.35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>3.75</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="5"/>
-        <v>1976.9750000000001</v>
-      </c>
-      <c r="C37" s="26">
-        <f t="shared" si="6"/>
-        <v>77.024999999999991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="5"/>
-        <v>1951.3</v>
-      </c>
-      <c r="C38" s="26">
-        <f t="shared" si="6"/>
-        <v>102.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <f>A1*B40</f>
-        <v>2054</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="32" t="s">
+      <c r="D98" s="48"/>
+      <c r="E98" s="48">
+        <v>1.07</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="45"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16">
+        <f>B1*C98</f>
+        <v>1900</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="B44" s="34">
-        <f t="shared" ref="B44:B45" si="7">$B$51*((100-A44)/100)</f>
-        <v>2048.8650000000002</v>
-      </c>
-      <c r="C44" s="34">
-        <f>$B$51*((A44*0.3)/100)</f>
-        <v>1.5405</v>
-      </c>
-      <c r="D44" s="34">
-        <f>$B$51*((A44*0.7)/100)</f>
-        <v>3.5944999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
-        <v>1.25</v>
-      </c>
-      <c r="B45" s="34">
-        <f t="shared" si="7"/>
-        <v>2028.325</v>
-      </c>
-      <c r="C45" s="34">
-        <f t="shared" ref="C45:C48" si="8">$B$51*((A45*0.3)/100)</f>
-        <v>7.7024999999999997</v>
-      </c>
-      <c r="D45" s="34">
-        <f t="shared" ref="D45:D48" si="9">$B$51*((A45*0.7)/100)</f>
-        <v>17.9725</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="B46" s="34">
-        <f>$B$51*((100-A46)/100)</f>
-        <v>2002.6499999999999</v>
-      </c>
-      <c r="C46" s="34">
-        <f t="shared" si="8"/>
-        <v>15.404999999999999</v>
-      </c>
-      <c r="D46" s="34">
-        <f t="shared" si="9"/>
-        <v>35.945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
-        <v>3.75</v>
-      </c>
-      <c r="B47" s="34">
-        <f t="shared" ref="B47:B48" si="10">$B$51*((100-A47)/100)</f>
-        <v>1976.9750000000001</v>
-      </c>
-      <c r="C47" s="34">
-        <f t="shared" si="8"/>
-        <v>23.107499999999998</v>
-      </c>
-      <c r="D47" s="34">
-        <f t="shared" si="9"/>
-        <v>53.917499999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
-        <v>5</v>
-      </c>
-      <c r="B48" s="34">
-        <f t="shared" si="10"/>
-        <v>1951.3</v>
-      </c>
-      <c r="C48" s="34">
-        <f t="shared" si="8"/>
-        <v>30.81</v>
-      </c>
-      <c r="D48" s="34">
-        <f t="shared" si="9"/>
-        <v>71.89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="35">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="C50" s="35">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="D50" s="36">
-        <v>1.1839999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33">
-        <f>A1*B50</f>
-        <v>2054</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B54" s="26">
-        <f>$B$61*((100-A54)/100)</f>
-        <v>2958.9840000000004</v>
-      </c>
-      <c r="C54" s="26">
-        <f>$B$61*(A54/100)</f>
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B55" s="26">
-        <f t="shared" ref="B55:B58" si="11">$B$61*((100-A55)/100)</f>
-        <v>2929.32</v>
-      </c>
-      <c r="C55" s="26">
-        <f t="shared" ref="C55:C58" si="12">$B$61*(A55/100)</f>
-        <v>37.080000000000005</v>
-      </c>
-      <c r="D55" s="26"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B56" s="26">
-        <f t="shared" si="11"/>
-        <v>2892.2400000000002</v>
-      </c>
-      <c r="C56" s="26">
-        <f t="shared" si="12"/>
-        <v>74.160000000000011</v>
-      </c>
-      <c r="D56" s="26"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
-        <v>3.75</v>
-      </c>
-      <c r="B57" s="26">
-        <f t="shared" si="11"/>
-        <v>2855.1600000000003</v>
-      </c>
-      <c r="C57" s="26">
-        <f t="shared" si="12"/>
-        <v>111.24</v>
-      </c>
-      <c r="D57" s="26"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
-        <v>5</v>
-      </c>
-      <c r="B58" s="26">
-        <f t="shared" si="11"/>
-        <v>2818.08</v>
-      </c>
-      <c r="C58" s="26">
-        <f t="shared" si="12"/>
-        <v>148.32000000000002</v>
-      </c>
-      <c r="D58" s="26"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1.4832000000000001</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
-        <f>A1*B60</f>
-        <v>2966.4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B64" s="26">
-        <f>$B$71*((100-A64)/100)</f>
-        <v>2644.3724999999999</v>
-      </c>
-      <c r="C64" s="26">
-        <f>$B$71*(A64/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="D64" s="26"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B65" s="26">
-        <f t="shared" ref="B65:B68" si="13">$B$71*((100-A65)/100)</f>
-        <v>2617.8625000000002</v>
-      </c>
-      <c r="C65" s="26">
-        <f t="shared" ref="C65:C68" si="14">$B$71*(A65/100)</f>
-        <v>33.137500000000003</v>
-      </c>
-      <c r="D65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B66" s="26">
-        <f t="shared" si="13"/>
-        <v>2584.7249999999999</v>
-      </c>
-      <c r="C66" s="26">
-        <f t="shared" si="14"/>
-        <v>66.275000000000006</v>
-      </c>
-      <c r="D66" s="26"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>3.75</v>
-      </c>
-      <c r="B67" s="26">
-        <f t="shared" si="13"/>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="C67" s="26">
-        <f t="shared" si="14"/>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="D67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>5</v>
-      </c>
-      <c r="B68" s="26">
-        <f t="shared" si="13"/>
-        <v>2518.4499999999998</v>
-      </c>
-      <c r="C68" s="26">
-        <f t="shared" si="14"/>
-        <v>132.55000000000001</v>
-      </c>
-      <c r="D68" s="26"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="8">
-        <v>1.3254999999999999</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
-        <f>A1*B70</f>
-        <v>2651</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B74" s="26">
-        <f>$B$81*((100-A74)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="C74" s="26">
-        <f>$B$81*(A74/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="D74" s="26"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="B75" s="26">
-        <f t="shared" ref="B75:B78" si="15">$B$81*((100-A75)/100)</f>
-        <v>1876.25</v>
-      </c>
-      <c r="C75" s="26">
-        <f t="shared" ref="C75:C78" si="16">$B$81*(A75/100)</f>
-        <v>23.75</v>
-      </c>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B76" s="26">
-        <f t="shared" si="15"/>
-        <v>1852.5</v>
-      </c>
-      <c r="C76" s="26">
-        <f t="shared" si="16"/>
-        <v>47.5</v>
-      </c>
-      <c r="D76" s="26"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
-        <v>3.75</v>
-      </c>
-      <c r="B77" s="26">
-        <f t="shared" si="15"/>
-        <v>1828.75</v>
-      </c>
-      <c r="C77" s="26">
-        <f t="shared" si="16"/>
-        <v>71.25</v>
-      </c>
-      <c r="D77" s="26"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
-        <v>5</v>
-      </c>
-      <c r="B78" s="26">
-        <f t="shared" si="15"/>
-        <v>1805</v>
-      </c>
-      <c r="C78" s="26">
-        <f t="shared" si="16"/>
-        <v>95</v>
-      </c>
-      <c r="D78" s="26"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="C80" s="8">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4">
-        <f>A1*B80</f>
-        <v>1900</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A39:A43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A07B7-7197-4901-BDB0-2534E84FFCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9311547-277B-4D85-B4D9-18824DECE059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -364,8 +364,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,23 +503,23 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -535,7 +535,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,30 +545,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -577,8 +573,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1150,7 @@
         <v>71</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" ref="H4:H9" si="0">"@20°C"</f>
         <v>@20°C</v>
       </c>
     </row>
@@ -1174,7 +1178,7 @@
         <v>160</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" si="0"/>
         <v>@20°C</v>
       </c>
     </row>
@@ -1202,7 +1206,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" si="0"/>
         <v>@20°C</v>
       </c>
     </row>
@@ -1230,7 +1234,7 @@
         <v>2.7</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" si="0"/>
         <v>@20°C</v>
       </c>
     </row>
@@ -1258,7 +1262,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" si="0"/>
         <v>@20°C</v>
       </c>
     </row>
@@ -1286,7 +1290,7 @@
         <v>143</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>"@20°C"</f>
+        <f t="shared" si="0"/>
         <v>@20°C</v>
       </c>
     </row>
@@ -1573,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1608,7 @@
       <c r="H1" s="32"/>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -1649,7 +1653,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -1667,21 +1671,25 @@
         <v>11.28</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="14">
+      <c r="I4" s="58">
         <v>2.5008191666666666E-3</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="58">
         <v>2.9630584166666668E-2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="58">
         <v>0.15952790000000003</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="58">
         <v>25.000666666666664</v>
       </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="18">
         <v>0.25</v>
       </c>
@@ -1699,21 +1707,25 @@
         <v>11.32</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="14">
+      <c r="I5" s="58">
         <v>1.1454375999999999E-2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="58">
         <v>2.1552710000000003E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="58">
         <v>0.75992060000000006</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="58">
         <v>25.0001</v>
       </c>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
     </row>
     <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="18">
         <v>0.5</v>
       </c>
@@ -1731,21 +1743,25 @@
         <v>11.34</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="14">
+      <c r="I6" s="58">
         <v>0.29249992307692307</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="58">
         <v>3.491015153846154E-2</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="58">
         <v>16.825127692307692</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="58">
         <v>25</v>
       </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="18">
         <v>0.75</v>
       </c>
@@ -1763,21 +1779,25 @@
         <v>11.37</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="14">
+      <c r="I7" s="58">
         <v>0.75534333333333326</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="58">
         <v>8.2608486111111101E-2</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="58">
         <v>34.761310000000002</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="58">
         <v>25.000055555555555</v>
       </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -1795,56 +1815,68 @@
         <v>11.4</v>
       </c>
       <c r="H8" s="35"/>
-      <c r="I8" s="14">
+      <c r="I8" s="58">
         <v>1.0604903529411764</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="58">
         <v>6.9187764117647058E-2</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="58">
         <v>50.084594705882346</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="58">
         <v>25.000294117647062</v>
       </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="19"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>1.123</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <v>1.21</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="45">
         <v>0.4</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16">
         <f>B1*C10</f>
@@ -1854,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="35"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1862,7 +1894,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -1904,7 +1936,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="15">
         <v>0.25</v>
       </c>
@@ -1924,7 +1956,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="15">
         <v>3.75</v>
       </c>
@@ -1944,7 +1976,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="15">
         <v>7.5</v>
       </c>
@@ -1964,7 +1996,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="15">
         <v>11.25</v>
       </c>
@@ -1984,7 +2016,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -2004,26 +2036,26 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="53"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="45">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45">
         <v>1.06</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="16"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16">
         <f>B1*C20</f>
@@ -2039,7 +2071,7 @@
       <c r="A22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="56" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="20">
@@ -2060,7 +2092,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="20">
         <f t="shared" ref="B24:B27" si="4">(E24/(C24+E24))*100</f>
         <v>4.1635898892360119</v>
@@ -2079,7 +2111,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="20">
         <f t="shared" si="4"/>
         <v>8.3275980729525099</v>
@@ -2098,7 +2130,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="20">
         <f t="shared" si="4"/>
         <v>11.031949237448513</v>
@@ -2117,7 +2149,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="20">
         <f t="shared" si="4"/>
         <v>15.172902080219371</v>
@@ -2136,10 +2168,10 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="43"/>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -2187,7 +2219,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15">
         <v>0.25</v>
       </c>
@@ -2213,7 +2245,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="15">
         <v>3.75</v>
       </c>
@@ -2239,7 +2271,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="15">
         <v>7.5</v>
       </c>
@@ -2265,7 +2297,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="15">
         <v>11.25</v>
       </c>
@@ -2291,7 +2323,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="15">
         <v>15</v>
       </c>
@@ -2317,27 +2349,27 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="53"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="45">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45">
         <v>0.95</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45">
         <v>1.04</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16">
         <f>B1*((C36*0.75)+(E36*0.25))</f>
@@ -2351,7 +2383,7 @@
       <c r="G37" s="16"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="56" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="20">
@@ -2377,7 +2409,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="20">
         <f t="shared" ref="B40:B43" si="11">(G40/(C40+E40+G40))*100</f>
         <v>3.9545019666206014</v>
@@ -2401,7 +2433,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="20">
         <f t="shared" si="11"/>
         <v>8.4489565707839827</v>
@@ -2425,7 +2457,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="20">
         <f t="shared" si="11"/>
         <v>11.957769107183841</v>
@@ -2449,7 +2481,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="20">
         <f t="shared" si="11"/>
         <v>15.184345807307501</v>
@@ -2473,7 +2505,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -2516,7 +2548,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="15">
         <v>0.25</v>
       </c>
@@ -2536,7 +2568,7 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="15">
         <v>3.75</v>
       </c>
@@ -2556,7 +2588,7 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="15">
         <v>7.5</v>
       </c>
@@ -2576,7 +2608,7 @@
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="15">
         <v>11.25</v>
       </c>
@@ -2596,7 +2628,7 @@
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="15">
         <v>15</v>
       </c>
@@ -2616,25 +2648,25 @@
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="53"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="47" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="16">
         <v>1.0269999999999999</v>
       </c>
       <c r="D52" s="16"/>
-      <c r="E52" s="48">
+      <c r="E52" s="45">
         <v>1.04</v>
       </c>
-      <c r="F52" s="48"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16">
         <f>B1*C52</f>
@@ -2648,7 +2680,7 @@
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="41"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2660,101 +2692,101 @@
       <c r="A55" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="51">
         <f>(E55/(C55+E55))*100</f>
         <v>1.0263576350407171</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="52">
         <f>$C$52*D55</f>
         <v>2054</v>
       </c>
-      <c r="D55" s="57">
+      <c r="D55" s="52">
         <v>2000</v>
       </c>
-      <c r="E55" s="57">
+      <c r="E55" s="52">
         <v>21.3</v>
       </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
-      <c r="B56" s="56">
+      <c r="B56" s="51">
         <f t="shared" ref="B56:B59" si="17">(E56/(C56+E56))*100</f>
         <v>3.5633092814075318</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="52">
         <f t="shared" ref="C56:C59" si="18">$C$52*D56</f>
         <v>1951.2999999999997</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="52">
         <v>1900</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="52">
         <v>72.099999999999994</v>
       </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
-      <c r="B57" s="56">
+      <c r="B57" s="51">
         <f t="shared" si="17"/>
         <v>7.74067974247642</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="52">
         <f t="shared" si="18"/>
         <v>1848.6</v>
       </c>
-      <c r="D57" s="57">
+      <c r="D57" s="52">
         <v>1800</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E57" s="52">
         <v>155.1</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
-      <c r="B58" s="56">
+      <c r="B58" s="51">
         <f t="shared" si="17"/>
         <v>11.512134411947729</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="52">
         <f t="shared" si="18"/>
         <v>1848.6</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="52">
         <v>1800</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="52">
         <v>240.5</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
-      <c r="B59" s="56">
+      <c r="B59" s="51">
         <f t="shared" si="17"/>
         <v>14.950311769290725</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="52">
         <f t="shared" si="18"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="52">
         <v>1700</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E59" s="52">
         <v>306.89999999999998</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -2799,7 +2831,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="30">
         <v>0.25</v>
       </c>
@@ -2822,7 +2854,7 @@
       <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="30">
         <v>3.75</v>
       </c>
@@ -2845,7 +2877,7 @@
       <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="30">
         <v>7.5</v>
       </c>
@@ -2868,7 +2900,7 @@
       <c r="G64" s="39"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="30">
         <v>11.25</v>
       </c>
@@ -2891,7 +2923,7 @@
       <c r="G65" s="39"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="30">
         <v>15</v>
       </c>
@@ -2914,7 +2946,7 @@
       <c r="G66" s="39"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -2923,24 +2955,24 @@
       <c r="G67" s="39"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="48">
         <v>1.0269999999999999</v>
       </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51">
+      <c r="D68" s="48"/>
+      <c r="E68" s="48">
         <v>1.2450000000000001</v>
       </c>
       <c r="F68" s="25">
         <v>1.1839999999999999</v>
       </c>
-      <c r="G68" s="52"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25">
         <f>B1*C68</f>
@@ -2954,7 +2986,7 @@
       <c r="G69" s="25"/>
     </row>
     <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -2996,7 +3028,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="15">
         <v>0.25</v>
       </c>
@@ -3016,7 +3048,7 @@
       <c r="G72" s="20"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="30">
         <v>3.75</v>
       </c>
@@ -3036,7 +3068,7 @@
       <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="15">
         <v>7.5</v>
       </c>
@@ -3056,7 +3088,7 @@
       <c r="G74" s="20"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="30">
         <v>11.25</v>
       </c>
@@ -3076,7 +3108,7 @@
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="15">
         <v>15</v>
       </c>
@@ -3096,25 +3128,25 @@
       <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="53"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="47" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="45">
         <v>1.4832000000000001</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48">
+      <c r="D78" s="45"/>
+      <c r="E78" s="45">
         <v>1.2</v>
       </c>
-      <c r="F78" s="48"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16">
         <f>B1*C78</f>
@@ -3128,7 +3160,7 @@
       <c r="G79" s="16"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -3170,7 +3202,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="15">
         <v>0.25</v>
       </c>
@@ -3190,7 +3222,7 @@
       <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="30">
         <v>3.75</v>
       </c>
@@ -3210,7 +3242,7 @@
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="15">
         <v>7.5</v>
       </c>
@@ -3230,7 +3262,7 @@
       <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="30">
         <v>11.25</v>
       </c>
@@ -3250,7 +3282,7 @@
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="15">
         <v>15</v>
       </c>
@@ -3270,25 +3302,25 @@
       <c r="G86" s="20"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="53"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="47" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="45">
         <v>1.3254999999999999</v>
       </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48">
+      <c r="D88" s="45"/>
+      <c r="E88" s="45">
         <v>1.2</v>
       </c>
-      <c r="F88" s="48"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16">
         <f>B1*C88</f>
@@ -3302,7 +3334,7 @@
       <c r="G89" s="16"/>
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -3344,7 +3376,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="15">
         <v>0.25</v>
       </c>
@@ -3364,7 +3396,7 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="15">
         <v>3.75</v>
       </c>
@@ -3384,7 +3416,7 @@
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="15">
         <v>7.5</v>
       </c>
@@ -3404,7 +3436,7 @@
       <c r="G94" s="20"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="15">
         <v>11.25</v>
       </c>
@@ -3424,7 +3456,7 @@
       <c r="G95" s="20"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="15">
         <v>15</v>
       </c>
@@ -3444,25 +3476,25 @@
       <c r="G96" s="20"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
+      <c r="A97" s="53"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="47" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="45">
         <v>0.95</v>
       </c>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48">
+      <c r="D98" s="45"/>
+      <c r="E98" s="45">
         <v>1.07</v>
       </c>
-      <c r="F98" s="48"/>
+      <c r="F98" s="45"/>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16">
         <f>B1*C98</f>
@@ -3477,17 +3509,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="A81:A89"/>
     <mergeCell ref="A91:A99"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9311547-277B-4D85-B4D9-18824DECE059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49367E6-E139-498D-9D26-2DC1DC1D02B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="3045" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -564,13 +564,11 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,9 +577,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
       <c r="H1" s="32"/>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -1671,25 +1671,25 @@
         <v>11.28</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="58">
+      <c r="I4" s="53">
         <v>2.5008191666666666E-3</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="53">
         <v>2.9630584166666668E-2</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="53">
         <v>0.15952790000000003</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="53">
         <v>25.000666666666664</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="18">
         <v>0.25</v>
       </c>
@@ -1707,25 +1707,25 @@
         <v>11.32</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="58">
+      <c r="I5" s="53">
         <v>1.1454375999999999E-2</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="53">
         <v>2.1552710000000003E-2</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="53">
         <v>0.75992060000000006</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="53">
         <v>25.0001</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="18">
         <v>0.5</v>
       </c>
@@ -1743,25 +1743,25 @@
         <v>11.34</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="58">
+      <c r="I6" s="53">
         <v>0.29249992307692307</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="53">
         <v>3.491015153846154E-2</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="53">
         <v>16.825127692307692</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="53">
         <v>25</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="18">
         <v>0.75</v>
       </c>
@@ -1779,25 +1779,25 @@
         <v>11.37</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="58">
+      <c r="I7" s="53">
         <v>0.75534333333333326</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="53">
         <v>8.2608486111111101E-2</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="53">
         <v>34.761310000000002</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="53">
         <v>25.000055555555555</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -1815,42 +1815,42 @@
         <v>11.4</v>
       </c>
       <c r="H8" s="35"/>
-      <c r="I8" s="58">
+      <c r="I8" s="53">
         <v>1.0604903529411764</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="53">
         <v>6.9187764117647058E-2</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="53">
         <v>50.084594705882346</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="53">
         <v>25.000294117647062</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="19"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
@@ -1866,17 +1866,17 @@
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16">
         <f>B1*C10</f>
@@ -1894,7 +1894,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="15">
         <v>0.25</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="15">
         <v>3.75</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="15">
         <v>7.5</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="15">
         <v>11.25</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -2036,10 +2036,10 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="44" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16">
         <f>B1*C20</f>
@@ -2171,7 +2171,7 @@
       <c r="A28" s="43"/>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="15">
         <v>0.25</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="15">
         <v>3.75</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="15">
         <v>7.5</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="15">
         <v>11.25</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="15">
         <v>15</v>
       </c>
@@ -2349,10 +2349,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
@@ -2363,13 +2363,15 @@
       <c r="E36" s="45">
         <v>0.95</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="20">
+        <v>1400</v>
+      </c>
       <c r="G36" s="45">
         <v>1.04</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16">
         <f>B1*((C36*0.75)+(E36*0.25))</f>
@@ -2388,7 +2390,7 @@
       </c>
       <c r="B39" s="20">
         <f>(G39/(C39+E39+G39))*100</f>
-        <v>1.3107591480065537</v>
+        <v>1.4023026136301631</v>
       </c>
       <c r="C39" s="20">
         <f>$C$36*D39</f>
@@ -2405,14 +2407,14 @@
         <v>500</v>
       </c>
       <c r="G39" s="20">
-        <v>24</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="20">
         <f t="shared" ref="B40:B43" si="11">(G40/(C40+E40+G40))*100</f>
-        <v>3.9545019666206014</v>
+        <v>3.8727524204702628</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" ref="C40:C43" si="12">$C$36*D40</f>
@@ -2429,21 +2431,18 @@
         <v>500</v>
       </c>
       <c r="G40" s="20">
-        <v>74.400000000000006</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="20">
         <f t="shared" si="11"/>
-        <v>8.4489565707839827</v>
+        <v>8.0392045776443251</v>
       </c>
       <c r="C41" s="20">
-        <f t="shared" si="12"/>
+        <f>$C$36*F36</f>
         <v>1243.2</v>
-      </c>
-      <c r="D41" s="20">
-        <v>1400</v>
       </c>
       <c r="E41" s="20">
         <f t="shared" si="13"/>
@@ -2453,14 +2452,14 @@
         <v>400</v>
       </c>
       <c r="G41" s="20">
-        <v>149.80000000000001</v>
+        <v>141.9</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="20">
         <f t="shared" si="11"/>
-        <v>11.957769107183841</v>
+        <v>11.750158164145628</v>
       </c>
       <c r="C42" s="20">
         <f t="shared" si="12"/>
@@ -2477,14 +2476,14 @@
         <v>400</v>
       </c>
       <c r="G42" s="20">
-        <v>208.4</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="20">
         <f t="shared" si="11"/>
-        <v>15.184345807307501</v>
+        <v>14.646492740724259</v>
       </c>
       <c r="C43" s="20">
         <f t="shared" si="12"/>
@@ -2501,11 +2500,11 @@
         <v>400</v>
       </c>
       <c r="G43" s="20">
-        <v>274.7</v>
+        <v>263.3</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -2548,7 +2547,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="15">
         <v>0.25</v>
       </c>
@@ -2568,7 +2567,7 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="15">
         <v>3.75</v>
       </c>
@@ -2588,7 +2587,7 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="15">
         <v>7.5</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="15">
         <v>11.25</v>
       </c>
@@ -2628,7 +2627,7 @@
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="15">
         <v>15</v>
       </c>
@@ -2648,10 +2647,10 @@
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="44" t="s">
         <v>35</v>
       </c>
@@ -2666,7 +2665,7 @@
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16">
         <f>B1*C52</f>
@@ -2689,7 +2688,7 @@
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="58" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="51">
@@ -2710,7 +2709,7 @@
       <c r="G55" s="52"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="51">
         <f t="shared" ref="B56:B59" si="17">(E56/(C56+E56))*100</f>
         <v>3.5633092814075318</v>
@@ -2729,7 +2728,7 @@
       <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="51">
         <f t="shared" si="17"/>
         <v>7.74067974247642</v>
@@ -2748,7 +2747,7 @@
       <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="51">
         <f t="shared" si="17"/>
         <v>11.512134411947729</v>
@@ -2767,7 +2766,7 @@
       <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="51">
         <f t="shared" si="17"/>
         <v>14.950311769290725</v>
@@ -2786,7 +2785,7 @@
       <c r="G59" s="52"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="31" t="s">
@@ -2831,7 +2830,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="30">
         <v>0.25</v>
       </c>
@@ -2854,7 +2853,7 @@
       <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="30">
         <v>3.75</v>
       </c>
@@ -2877,7 +2876,7 @@
       <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="30">
         <v>7.5</v>
       </c>
@@ -2900,7 +2899,7 @@
       <c r="G64" s="39"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="30">
         <v>11.25</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="G65" s="39"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="30">
         <v>15</v>
       </c>
@@ -2946,7 +2945,7 @@
       <c r="G66" s="39"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -2955,7 +2954,7 @@
       <c r="G67" s="39"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="47" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25">
         <f>B1*C68</f>
@@ -2986,7 +2985,7 @@
       <c r="G69" s="25"/>
     </row>
     <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B71" s="31" t="s">
@@ -3028,7 +3027,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="15">
         <v>0.25</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="G72" s="20"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="30">
         <v>3.75</v>
       </c>
@@ -3068,7 +3067,7 @@
       <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="15">
         <v>7.5</v>
       </c>
@@ -3088,7 +3087,7 @@
       <c r="G74" s="20"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="30">
         <v>11.25</v>
       </c>
@@ -3108,7 +3107,7 @@
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="15">
         <v>15</v>
       </c>
@@ -3128,10 +3127,10 @@
       <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="44" t="s">
         <v>35</v>
       </c>
@@ -3146,7 +3145,7 @@
       <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16">
         <f>B1*C78</f>
@@ -3160,7 +3159,7 @@
       <c r="G79" s="16"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -3202,7 +3201,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="15">
         <v>0.25</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="30">
         <v>3.75</v>
       </c>
@@ -3242,7 +3241,7 @@
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="15">
         <v>7.5</v>
       </c>
@@ -3262,7 +3261,7 @@
       <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="30">
         <v>11.25</v>
       </c>
@@ -3282,7 +3281,7 @@
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="15">
         <v>15</v>
       </c>
@@ -3302,10 +3301,10 @@
       <c r="G86" s="20"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="44" t="s">
         <v>35</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16">
         <f>B1*C88</f>
@@ -3334,7 +3333,7 @@
       <c r="G89" s="16"/>
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B91" s="31" t="s">
@@ -3376,7 +3375,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="15">
         <v>0.25</v>
       </c>
@@ -3396,7 +3395,7 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="15">
         <v>3.75</v>
       </c>
@@ -3416,7 +3415,7 @@
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="15">
         <v>7.5</v>
       </c>
@@ -3436,7 +3435,7 @@
       <c r="G94" s="20"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="15">
         <v>11.25</v>
       </c>
@@ -3456,7 +3455,7 @@
       <c r="G95" s="20"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="15">
         <v>15</v>
       </c>
@@ -3476,10 +3475,10 @@
       <c r="G96" s="20"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="44" t="s">
         <v>35</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16">
         <f>B1*C98</f>
@@ -3509,17 +3508,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="A81:A89"/>
     <mergeCell ref="A91:A99"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49367E6-E139-498D-9D26-2DC1DC1D02B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37551208-E8A8-4C15-9CEA-6D2A56A24A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37551208-E8A8-4C15-9CEA-6D2A56A24A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C697B-E137-4638-B14C-1F4AD5A35CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>Pa.s</t>
   </si>
@@ -233,34 +233,10 @@
     <t>m TBT [mg]</t>
   </si>
   <si>
-    <t>shear rate 25 [1/s]</t>
-  </si>
-  <si>
-    <t>stress 25 [Pa]</t>
-  </si>
-  <si>
-    <t>viscosity 25 [Pa.s]</t>
-  </si>
-  <si>
-    <t>Temperature 25 [°C]</t>
-  </si>
-  <si>
     <t>m THF [mg]</t>
   </si>
   <si>
     <t>m PS [mg]</t>
-  </si>
-  <si>
-    <t>stress 20 [Pa]</t>
-  </si>
-  <si>
-    <t>shear rate 20 [1/s]</t>
-  </si>
-  <si>
-    <t>viscosity 20 [Pa.s]</t>
-  </si>
-  <si>
-    <t>Temperature 20 [°C]</t>
   </si>
   <si>
     <t>m PSB [mg]</t>
@@ -356,6 +332,18 @@
     <t>Sample
 Set
 00</t>
+  </si>
+  <si>
+    <t>Infinite shear rate viscosity [Pa.s]</t>
+  </si>
+  <si>
+    <t>Temperature [°C]</t>
+  </si>
+  <si>
+    <t>Zero shear rate viscosity [Pa.s]</t>
+  </si>
+  <si>
+    <t>Sample Set 00</t>
   </si>
 </sst>
 </file>
@@ -470,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,9 +553,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,6 +567,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1539,13 +1530,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6">
         <v>1.1839999999999999</v>
@@ -1575,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,34 +1582,33 @@
     <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="0.42578125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="13">
         <v>2000</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>105</v>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>64</v>
@@ -1628,32 +1618,17 @@
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -1671,25 +1646,14 @@
         <v>11.28</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="53">
-        <v>2.5008191666666666E-3</v>
-      </c>
-      <c r="J4" s="53">
-        <v>2.9630584166666668E-2</v>
-      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="53">
-        <v>0.15952790000000003</v>
-      </c>
-      <c r="L4" s="53">
         <v>25.000666666666664</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
       <c r="B5" s="18">
         <v>0.25</v>
       </c>
@@ -1707,25 +1671,14 @@
         <v>11.32</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="53">
-        <v>1.1454375999999999E-2</v>
-      </c>
-      <c r="J5" s="53">
-        <v>2.1552710000000003E-2</v>
-      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="53">
-        <v>0.75992060000000006</v>
-      </c>
-      <c r="L5" s="53">
         <v>25.0001</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-    </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
       <c r="B6" s="18">
         <v>0.5</v>
       </c>
@@ -1743,25 +1696,14 @@
         <v>11.34</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="53">
-        <v>0.29249992307692307</v>
-      </c>
-      <c r="J6" s="53">
-        <v>3.491015153846154E-2</v>
-      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="53">
-        <v>16.825127692307692</v>
-      </c>
-      <c r="L6" s="53">
         <v>25</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-    </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
       <c r="B7" s="18">
         <v>0.75</v>
       </c>
@@ -1779,25 +1721,14 @@
         <v>11.37</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="53">
-        <v>0.75534333333333326</v>
-      </c>
-      <c r="J7" s="53">
-        <v>8.2608486111111101E-2</v>
-      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="53">
-        <v>34.761310000000002</v>
-      </c>
-      <c r="L7" s="53">
         <v>25.000055555555555</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-    </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -1815,25 +1746,14 @@
         <v>11.4</v>
       </c>
       <c r="H8" s="35"/>
-      <c r="I8" s="53">
-        <v>1.0604903529411764</v>
-      </c>
-      <c r="J8" s="53">
-        <v>6.9187764117647058E-2</v>
-      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="53">
-        <v>50.084594705882346</v>
-      </c>
-      <c r="L8" s="53">
         <v>25.000294117647062</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-    </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
       <c r="B9" s="19"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1843,14 +1763,9 @@
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-    </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
       <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
@@ -1869,21 +1784,16 @@
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16">
         <f>B1*C10</f>
         <v>2246</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="46"/>
@@ -1891,52 +1801,27 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>105</v>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="36"/>
-      <c r="I13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
       <c r="B14" s="15">
         <v>0.25</v>
       </c>
@@ -1955,8 +1840,8 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
       <c r="B15" s="15">
         <v>3.75</v>
       </c>
@@ -1975,8 +1860,8 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
       <c r="B16" s="15">
         <v>7.5</v>
       </c>
@@ -1995,8 +1880,8 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
       <c r="B17" s="15">
         <v>11.25</v>
       </c>
@@ -2015,8 +1900,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -2035,11 +1920,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
       <c r="B20" s="44" t="s">
         <v>35</v>
       </c>
@@ -2052,27 +1937,35 @@
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="16"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16">
         <f>B1*C20</f>
         <v>1776</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>106</v>
+      <c r="I22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="B23" s="20">
         <f>(E23/(C23+E23))*100</f>
@@ -2091,8 +1984,8 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
       <c r="B24" s="20">
         <f t="shared" ref="B24:B27" si="4">(E24/(C24+E24))*100</f>
         <v>4.1635898892360119</v>
@@ -2110,8 +2003,8 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
       <c r="B25" s="20">
         <f t="shared" si="4"/>
         <v>8.3275980729525099</v>
@@ -2129,8 +2022,8 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
       <c r="B26" s="20">
         <f t="shared" si="4"/>
         <v>11.031949237448513</v>
@@ -2148,8 +2041,8 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
       <c r="B27" s="20">
         <f t="shared" si="4"/>
         <v>15.172902080219371</v>
@@ -2167,59 +2060,35 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
     </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>105</v>
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H29" s="36"/>
-      <c r="I29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
       <c r="B30" s="15">
         <v>0.25</v>
       </c>
@@ -2244,8 +2113,8 @@
         <v>4.5175000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
       <c r="B31" s="15">
         <v>3.75</v>
       </c>
@@ -2270,8 +2139,8 @@
         <v>67.762500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
       <c r="B32" s="15">
         <v>7.5</v>
       </c>
@@ -2296,8 +2165,8 @@
         <v>135.52500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
       <c r="B33" s="15">
         <v>11.25</v>
       </c>
@@ -2322,8 +2191,8 @@
         <v>203.28749999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
       <c r="B34" s="15">
         <v>15</v>
       </c>
@@ -2348,11 +2217,11 @@
         <v>271.05</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
@@ -2370,23 +2239,34 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16">
         <f>B1*((C36*0.75)+(E36*0.25))</f>
         <v>1807</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
-        <v>106</v>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="B39" s="20">
         <f>(G39/(C39+E39+G39))*100</f>
@@ -2410,8 +2290,8 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
       <c r="B40" s="20">
         <f t="shared" ref="B40:B43" si="11">(G40/(C40+E40+G40))*100</f>
         <v>3.8727524204702628</v>
@@ -2434,8 +2314,8 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
       <c r="B41" s="20">
         <f t="shared" si="11"/>
         <v>8.0392045776443251</v>
@@ -2455,8 +2335,8 @@
         <v>141.9</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
       <c r="B42" s="20">
         <f t="shared" si="11"/>
         <v>11.750158164145628</v>
@@ -2479,8 +2359,8 @@
         <v>204.3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
       <c r="B43" s="20">
         <f t="shared" si="11"/>
         <v>14.646492740724259</v>
@@ -2503,51 +2383,27 @@
         <v>263.3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
-        <v>105</v>
+    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F45" s="17"/>
       <c r="H45" s="36"/>
-      <c r="I45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
       <c r="B46" s="15">
         <v>0.25</v>
       </c>
@@ -2566,8 +2422,8 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
       <c r="B47" s="15">
         <v>3.75</v>
       </c>
@@ -2586,8 +2442,8 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
       <c r="B48" s="15">
         <v>7.5</v>
       </c>
@@ -2606,8 +2462,8 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
       <c r="B49" s="15">
         <v>11.25</v>
       </c>
@@ -2626,8 +2482,8 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
       <c r="B50" s="15">
         <v>15</v>
       </c>
@@ -2646,11 +2502,11 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="54"/>
       <c r="B52" s="44" t="s">
         <v>35</v>
       </c>
@@ -2664,21 +2520,21 @@
       <c r="F52" s="45"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16">
         <f>B1*C52</f>
         <v>2054</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="50"/>
       <c r="B54" s="41"/>
       <c r="C54" s="6"/>
@@ -2686,10 +2542,19 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
-        <v>106</v>
+      <c r="I54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="B55" s="51">
         <f>(E55/(C55+E55))*100</f>
@@ -2708,8 +2573,8 @@
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
       <c r="B56" s="51">
         <f t="shared" ref="B56:B59" si="17">(E56/(C56+E56))*100</f>
         <v>3.5633092814075318</v>
@@ -2727,8 +2592,8 @@
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
       <c r="B57" s="51">
         <f t="shared" si="17"/>
         <v>7.74067974247642</v>
@@ -2746,8 +2611,8 @@
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
       <c r="B58" s="51">
         <f t="shared" si="17"/>
         <v>11.512134411947729</v>
@@ -2765,8 +2630,8 @@
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
       <c r="B59" s="51">
         <f t="shared" si="17"/>
         <v>14.950311769290725</v>
@@ -2784,53 +2649,32 @@
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
-        <v>105</v>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B61" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>102</v>
-      </c>
       <c r="E61" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G61" s="39"/>
-      <c r="I61" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
       <c r="B62" s="30">
         <v>0.25</v>
       </c>
@@ -2852,8 +2696,8 @@
       </c>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
       <c r="B63" s="30">
         <v>3.75</v>
       </c>
@@ -2875,8 +2719,8 @@
       </c>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
       <c r="B64" s="30">
         <v>7.5</v>
       </c>
@@ -2898,8 +2742,8 @@
       </c>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
       <c r="B65" s="30">
         <v>11.25</v>
       </c>
@@ -2921,8 +2765,8 @@
       </c>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
       <c r="B66" s="30">
         <v>15</v>
       </c>
@@ -2944,8 +2788,8 @@
       </c>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -2953,8 +2797,8 @@
       <c r="F67" s="27"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
       <c r="B68" s="47" t="s">
         <v>35</v>
       </c>
@@ -2970,64 +2814,40 @@
       </c>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25">
         <f>B1*C68</f>
         <v>2054</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
     </row>
-    <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
-        <v>105</v>
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="B71" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H71" s="36"/>
-      <c r="I71" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P71" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
       <c r="B72" s="15">
         <v>0.25</v>
       </c>
@@ -3046,8 +2866,8 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
       <c r="B73" s="30">
         <v>3.75</v>
       </c>
@@ -3066,8 +2886,8 @@
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
       <c r="B74" s="15">
         <v>7.5</v>
       </c>
@@ -3086,8 +2906,8 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
       <c r="B75" s="30">
         <v>11.25</v>
       </c>
@@ -3106,8 +2926,8 @@
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
       <c r="B76" s="15">
         <v>15</v>
       </c>
@@ -3126,11 +2946,11 @@
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="54"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="54"/>
       <c r="B78" s="44" t="s">
         <v>35</v>
       </c>
@@ -3144,376 +2964,540 @@
       <c r="F78" s="45"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16">
         <f>B1*C78</f>
         <v>2966.4</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="31" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="I80" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="52">
+        <f>(E81/(C81+E81))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="6">
+        <f>$C$78*D81</f>
+        <v>2966.4</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="57"/>
+      <c r="B82" s="52">
+        <f t="shared" ref="B82:B83" si="26">(E82/(C82+E82))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" ref="C82:C83" si="27">$C$78*D82</f>
+        <v>2669.76</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1800</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="27"/>
+        <v>2521.44</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="I81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P81" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="15">
+      <c r="E85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="54"/>
+      <c r="B86" s="15">
         <v>0.25</v>
       </c>
-      <c r="C82" s="20">
-        <f>$C$89*((100-B82)/100)</f>
+      <c r="C86" s="20">
+        <f>$C$93*((100-B86)/100)</f>
         <v>2644.3724999999999</v>
       </c>
-      <c r="D82" s="20">
-        <f>C82/$C$88</f>
+      <c r="D86" s="20">
+        <f>C86/$C$92</f>
         <v>1995</v>
       </c>
-      <c r="E82" s="20">
-        <f>$C$89*(B82/100)</f>
+      <c r="E86" s="20">
+        <f>$C$93*(B86/100)</f>
         <v>6.6275000000000004</v>
-      </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="C83" s="38">
-        <f t="shared" ref="C83:C86" si="26">$C$89*((100-B83)/100)</f>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="D83" s="20">
-        <f t="shared" ref="D83:D86" si="27">C83/$C$88</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="E83" s="38">
-        <f t="shared" ref="E83:E86" si="28">$C$89*(B83/100)</f>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="C84" s="20">
-        <f t="shared" si="26"/>
-        <v>2452.1750000000002</v>
-      </c>
-      <c r="D84" s="20">
-        <f t="shared" si="27"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="E84" s="20">
-        <f t="shared" si="28"/>
-        <v>198.82499999999999</v>
-      </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="C85" s="38">
-        <f t="shared" si="26"/>
-        <v>2352.7624999999998</v>
-      </c>
-      <c r="D85" s="20">
-        <f t="shared" si="27"/>
-        <v>1775</v>
-      </c>
-      <c r="E85" s="38">
-        <f t="shared" si="28"/>
-        <v>298.23750000000001</v>
-      </c>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="15">
-        <v>15</v>
-      </c>
-      <c r="C86" s="20">
-        <f t="shared" si="26"/>
-        <v>2253.35</v>
-      </c>
-      <c r="D86" s="20">
-        <f t="shared" si="27"/>
-        <v>1700</v>
-      </c>
-      <c r="E86" s="20">
-        <f t="shared" si="28"/>
-        <v>397.65</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="44" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="54"/>
+      <c r="B87" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="C87" s="38">
+        <f t="shared" ref="C87:C90" si="28">$C$93*((100-B87)/100)</f>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="D87" s="20">
+        <f t="shared" ref="D87:D90" si="29">C87/$C$92</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="E87" s="38">
+        <f t="shared" ref="E87:E90" si="30">$C$93*(B87/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="54"/>
+      <c r="B88" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C88" s="20">
+        <f t="shared" si="28"/>
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="D88" s="20">
+        <f t="shared" si="29"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="E88" s="20">
+        <f t="shared" si="30"/>
+        <v>198.82499999999999</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="54"/>
+      <c r="B89" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="C89" s="38">
+        <f t="shared" si="28"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="D89" s="20">
+        <f t="shared" si="29"/>
+        <v>1775</v>
+      </c>
+      <c r="E89" s="38">
+        <f t="shared" si="30"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="15">
+        <v>15</v>
+      </c>
+      <c r="C90" s="20">
+        <f t="shared" si="28"/>
+        <v>2253.35</v>
+      </c>
+      <c r="D90" s="20">
+        <f t="shared" si="29"/>
+        <v>1700</v>
+      </c>
+      <c r="E90" s="20">
+        <f t="shared" si="30"/>
+        <v>397.65</v>
+      </c>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="54"/>
+      <c r="B92" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C92" s="45">
         <v>1.3254999999999999</v>
       </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45">
+      <c r="D92" s="45"/>
+      <c r="E92" s="45">
         <v>1.2</v>
       </c>
-      <c r="F88" s="45"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16">
-        <f>B1*C88</f>
+      <c r="F92" s="45"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16">
+        <f>B1*C92</f>
         <v>2651</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="31" t="s">
+      <c r="D93" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="20">
+        <f>(E95/(C95+E95))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <f>$C$92*D95</f>
+        <v>2651</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="20">
+        <f t="shared" ref="B96:B97" si="31">(E96/(C96+E96))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" ref="C96:C97" si="32">$C$92*D96</f>
+        <v>2385.8999999999996</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="32"/>
+        <v>2253.35</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="B99" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
+      <c r="B100" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C100" s="20">
+        <f>$C$107*((100-B100)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="D100" s="20">
+        <f>C100/$C$106</f>
+        <v>1995</v>
+      </c>
+      <c r="E100" s="20">
+        <f>$C$107*(B100/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="54"/>
+      <c r="B101" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="C101" s="20">
+        <f t="shared" ref="C101:C104" si="33">$C$107*((100-B101)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="D101" s="20">
+        <f t="shared" ref="D101:D104" si="34">C101/$C$106</f>
+        <v>1925</v>
+      </c>
+      <c r="E101" s="20">
+        <f t="shared" ref="E101:E104" si="35">$C$107*(B101/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="54"/>
+      <c r="B102" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="C102" s="20">
+        <f t="shared" si="33"/>
+        <v>1757.5</v>
+      </c>
+      <c r="D102" s="20">
+        <f t="shared" si="34"/>
+        <v>1850</v>
+      </c>
+      <c r="E102" s="20">
+        <f t="shared" si="35"/>
+        <v>142.5</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="C103" s="20">
+        <f t="shared" si="33"/>
+        <v>1686.25</v>
+      </c>
+      <c r="D103" s="20">
+        <f t="shared" si="34"/>
+        <v>1775</v>
+      </c>
+      <c r="E103" s="20">
+        <f t="shared" si="35"/>
+        <v>213.75</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="54"/>
+      <c r="B104" s="15">
+        <v>15</v>
+      </c>
+      <c r="C104" s="20">
+        <f t="shared" si="33"/>
+        <v>1615</v>
+      </c>
+      <c r="D104" s="20">
+        <f t="shared" si="34"/>
+        <v>1700</v>
+      </c>
+      <c r="E104" s="20">
+        <f t="shared" si="35"/>
+        <v>285</v>
+      </c>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="54"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="54"/>
+      <c r="B106" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="F106" s="45"/>
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16">
+        <f>B1*C106</f>
+        <v>1900</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I108" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H91" s="36"/>
-      <c r="I91" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P91" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="C92" s="20">
-        <f>$C$99*((100-B92)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="D92" s="20">
-        <f>C92/$C$98</f>
-        <v>1995</v>
-      </c>
-      <c r="E92" s="20">
-        <f>$C$99*(B92/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="C93" s="20">
-        <f t="shared" ref="C93:C96" si="29">$C$99*((100-B93)/100)</f>
-        <v>1828.75</v>
-      </c>
-      <c r="D93" s="20">
-        <f t="shared" ref="D93:D96" si="30">C93/$C$98</f>
-        <v>1925</v>
-      </c>
-      <c r="E93" s="20">
-        <f t="shared" ref="E93:E96" si="31">$C$99*(B93/100)</f>
-        <v>71.25</v>
-      </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="B94" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="C94" s="20">
-        <f t="shared" si="29"/>
-        <v>1757.5</v>
-      </c>
-      <c r="D94" s="20">
-        <f t="shared" si="30"/>
-        <v>1850</v>
-      </c>
-      <c r="E94" s="20">
-        <f t="shared" si="31"/>
-        <v>142.5</v>
-      </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="C95" s="20">
-        <f t="shared" si="29"/>
-        <v>1686.25</v>
-      </c>
-      <c r="D95" s="20">
-        <f t="shared" si="30"/>
-        <v>1775</v>
-      </c>
-      <c r="E95" s="20">
-        <f t="shared" si="31"/>
-        <v>213.75</v>
-      </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="15">
-        <v>15</v>
-      </c>
-      <c r="C96" s="20">
-        <f t="shared" si="29"/>
+      <c r="K108" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="20">
+        <f>(E109/(C109+E109))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <f>$C$106*D109</f>
+        <v>1900</v>
+      </c>
+      <c r="D109" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="60"/>
+      <c r="B110" s="20">
+        <f t="shared" ref="B110:B113" si="36">(E110/(C110+E110))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" ref="C110:C113" si="37">$C$106*D110</f>
+        <v>1805</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="60"/>
+      <c r="B111" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="37"/>
+        <v>1710</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="60"/>
+      <c r="B112" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="37"/>
+        <v>1710</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="60"/>
+      <c r="B113" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" si="37"/>
         <v>1615</v>
       </c>
-      <c r="D96" s="20">
-        <f t="shared" si="30"/>
+      <c r="D113" s="4">
         <v>1700</v>
       </c>
-      <c r="E96" s="20">
-        <f t="shared" si="31"/>
-        <v>285</v>
-      </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45">
-        <v>1.07</v>
-      </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16">
-        <f>B1*C98</f>
-        <v>1900</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="A109:A113"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="A99:A107"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A29:A37"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C697B-E137-4638-B14C-1F4AD5A35CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D33EC-2658-4CE6-9FAA-CFF6E668539C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B81" s="52">
         <f>(E81/(C81+E81))*100</f>
-        <v>0</v>
+        <v>0.24548542220129804</v>
       </c>
       <c r="C81" s="6">
         <f>$C$78*D81</f>
@@ -3011,7 +3011,9 @@
       <c r="D81" s="6">
         <v>2000</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="6">
+        <v>7.3</v>
+      </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
@@ -3019,7 +3021,7 @@
       <c r="A82" s="57"/>
       <c r="B82" s="52">
         <f t="shared" ref="B82:B83" si="26">(E82/(C82+E82))*100</f>
-        <v>0</v>
+        <v>7.5875055383252095</v>
       </c>
       <c r="C82" s="6">
         <f t="shared" ref="C82:C83" si="27">$C$78*D82</f>
@@ -3028,7 +3030,9 @@
       <c r="D82" s="6">
         <v>1800</v>
       </c>
-      <c r="E82" s="6"/>
+      <c r="E82" s="6">
+        <v>219.2</v>
+      </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
@@ -3036,7 +3040,7 @@
       <c r="A83" s="57"/>
       <c r="B83" s="52">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>15.03265330880123</v>
       </c>
       <c r="C83" s="6">
         <f t="shared" si="27"/>
@@ -3045,7 +3049,9 @@
       <c r="D83" s="6">
         <v>1700</v>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="6">
+        <v>446.1</v>
+      </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
@@ -3216,7 +3222,7 @@
       </c>
       <c r="B95" s="20">
         <f>(E95/(C95+E95))*100</f>
-        <v>0</v>
+        <v>0.29336542801263726</v>
       </c>
       <c r="C95" s="4">
         <f>$C$92*D95</f>
@@ -3224,13 +3230,16 @@
       </c>
       <c r="D95" s="4">
         <v>2000</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.8</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="55"/>
       <c r="B96" s="20">
         <f t="shared" ref="B96:B97" si="31">(E96/(C96+E96))*100</f>
-        <v>0</v>
+        <v>7.6056228943190192</v>
       </c>
       <c r="C96" s="4">
         <f t="shared" ref="C96:C97" si="32">$C$92*D96</f>
@@ -3238,13 +3247,16 @@
       </c>
       <c r="D96" s="4">
         <v>1800</v>
+      </c>
+      <c r="E96" s="4">
+        <v>196.4</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="20">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>14.979153696681571</v>
       </c>
       <c r="C97" s="4">
         <f t="shared" si="32"/>
@@ -3252,6 +3264,9 @@
       </c>
       <c r="D97" s="4">
         <v>1700</v>
+      </c>
+      <c r="E97" s="4">
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3421,7 +3436,7 @@
       </c>
       <c r="B109" s="20">
         <f>(E109/(C109+E109))*100</f>
-        <v>0</v>
+        <v>0.61202071454726159</v>
       </c>
       <c r="C109" s="4">
         <f>$C$106*D109</f>
@@ -3429,13 +3444,16 @@
       </c>
       <c r="D109" s="4">
         <v>2000</v>
+      </c>
+      <c r="E109" s="4">
+        <v>11.7</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="60"/>
       <c r="B110" s="20">
         <f t="shared" ref="B110:B113" si="36">(E110/(C110+E110))*100</f>
-        <v>0</v>
+        <v>4.9399620813145146</v>
       </c>
       <c r="C110" s="4">
         <f t="shared" ref="C110:C113" si="37">$C$106*D110</f>
@@ -3443,13 +3461,16 @@
       </c>
       <c r="D110" s="4">
         <v>1900</v>
+      </c>
+      <c r="E110" s="4">
+        <v>93.8</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="60"/>
       <c r="B111" s="20">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>8.0002152041749603</v>
       </c>
       <c r="C111" s="4">
         <f t="shared" si="37"/>
@@ -3457,13 +3478,16 @@
       </c>
       <c r="D111" s="4">
         <v>1800</v>
+      </c>
+      <c r="E111" s="4">
+        <v>148.69999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="20">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>11.43108717045631</v>
       </c>
       <c r="C112" s="4">
         <f t="shared" si="37"/>
@@ -3472,12 +3496,15 @@
       <c r="D112" s="4">
         <v>1800</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="4">
+        <v>220.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="60"/>
       <c r="B113" s="20">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>15.165204601565371</v>
       </c>
       <c r="C113" s="4">
         <f t="shared" si="37"/>
@@ -3485,6 +3512,9 @@
       </c>
       <c r="D113" s="4">
         <v>1700</v>
+      </c>
+      <c r="E113" s="4">
+        <v>288.7</v>
       </c>
     </row>
   </sheetData>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D33EC-2658-4CE6-9FAA-CFF6E668539C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE487102-DD9E-4624-A892-F43C46CADCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="0" yWindow="6660" windowWidth="12495" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +419,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -458,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,6 +580,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1596,7 @@
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="13">
         <v>2000</v>
       </c>
@@ -1597,7 +1605,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>97</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="18">
         <v>0</v>
@@ -1646,13 +1654,17 @@
         <v>11.28</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="I4" s="53">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="J4" s="53">
+        <v>1.0679999999999999E-3</v>
+      </c>
       <c r="K4" s="53">
-        <v>25.000666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="18">
         <v>0.25</v>
@@ -1671,13 +1683,17 @@
         <v>11.32</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="53">
+        <v>6.1300000000000005E-4</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0.22628300000000001</v>
+      </c>
       <c r="K5" s="53">
-        <v>25.0001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="18">
         <v>0.5</v>
@@ -1696,13 +1712,17 @@
         <v>11.34</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="53">
+        <v>1.6898E-2</v>
+      </c>
+      <c r="J6" s="53">
+        <v>6.1878140000000004</v>
+      </c>
       <c r="K6" s="53">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="18">
         <v>0.75</v>
@@ -1721,13 +1741,17 @@
         <v>11.37</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53">
+        <v>5.9131999999999997E-2</v>
+      </c>
+      <c r="J7" s="61">
+        <v>160.302536</v>
+      </c>
       <c r="K7" s="53">
-        <v>25.000055555555555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="19">
         <v>1</v>
@@ -1746,13 +1770,17 @@
         <v>11.4</v>
       </c>
       <c r="H8" s="35"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="I8" s="61">
+        <v>-0.14122599999999999</v>
+      </c>
+      <c r="J8" s="53">
+        <v>129.274227</v>
+      </c>
       <c r="K8" s="53">
-        <v>25.000294117647062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="19"/>
       <c r="C9" s="23"/>
@@ -1764,7 +1792,7 @@
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="44" t="s">
         <v>35</v>
@@ -1785,7 +1813,7 @@
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16">
@@ -1802,7 +1830,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>97</v>
       </c>
@@ -1820,7 +1848,7 @@
       </c>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="15">
         <v>0.25</v>
@@ -1839,8 +1867,11 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="15">
         <v>3.75</v>
@@ -1859,8 +1890,11 @@
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="15">
         <v>7.5</v>
@@ -1879,6 +1913,9 @@
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
+      <c r="N16" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
@@ -1983,6 +2020,15 @@
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
+      <c r="I23" s="4">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.7329999999999999E-3</v>
+      </c>
+      <c r="K23" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
@@ -2002,6 +2048,15 @@
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
+      <c r="I24" s="4">
+        <v>2.9629999999999999E-3</v>
+      </c>
+      <c r="J24" s="62">
+        <v>0.95067100000000004</v>
+      </c>
+      <c r="K24" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
@@ -2021,6 +2076,15 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
+      <c r="I25" s="62">
+        <v>3.5182999999999999E-2</v>
+      </c>
+      <c r="J25" s="62">
+        <v>4.2918999999999999E-2</v>
+      </c>
+      <c r="K25" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
@@ -2040,6 +2104,15 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
+      <c r="I26" s="4">
+        <v>2.8964E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.31996999999999998</v>
+      </c>
+      <c r="K26" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
@@ -2059,6 +2132,15 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
+      <c r="I27" s="4">
+        <v>0.198681</v>
+      </c>
+      <c r="J27" s="62">
+        <v>1.2781130000000001</v>
+      </c>
+      <c r="K27" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
@@ -2289,6 +2371,15 @@
       <c r="G39" s="20">
         <v>25.7</v>
       </c>
+      <c r="I39" s="6">
+        <v>8.7530000000000004E-3</v>
+      </c>
+      <c r="J39" s="62">
+        <v>8.3807010000000002</v>
+      </c>
+      <c r="K39" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
@@ -2313,6 +2404,15 @@
       <c r="G40" s="20">
         <v>72.8</v>
       </c>
+      <c r="I40" s="4">
+        <v>4.2900000000000004E-3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3.0336999999999999E-2</v>
+      </c>
+      <c r="K40" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
@@ -2334,6 +2434,15 @@
       <c r="G41" s="20">
         <v>141.9</v>
       </c>
+      <c r="I41" s="62">
+        <v>1.9382E-2</v>
+      </c>
+      <c r="J41" s="62">
+        <v>0.236674</v>
+      </c>
+      <c r="K41" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
@@ -2358,6 +2467,15 @@
       <c r="G42" s="20">
         <v>204.3</v>
       </c>
+      <c r="I42" s="62">
+        <v>3.4037999999999999E-2</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4.5269999999999998E-3</v>
+      </c>
+      <c r="K42" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
@@ -2381,6 +2499,15 @@
       </c>
       <c r="G43" s="20">
         <v>263.3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>6.9047999999999998E-2</v>
+      </c>
+      <c r="J43" s="4">
+        <v>9.5713000000000006E-2</v>
+      </c>
+      <c r="K43" s="53">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2572,6 +2699,15 @@
       </c>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
+      <c r="I55" s="4">
+        <v>2.0917000000000002E-2</v>
+      </c>
+      <c r="J55" s="62">
+        <v>53.570850999999998</v>
+      </c>
+      <c r="K55" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
@@ -2591,6 +2727,15 @@
       </c>
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
+      <c r="I56" s="4">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="K56" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
@@ -2610,6 +2755,15 @@
       </c>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
+      <c r="I57" s="4">
+        <v>3.1720999999999999E-2</v>
+      </c>
+      <c r="J57" s="62">
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="K57" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
@@ -2629,6 +2783,15 @@
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
+      <c r="I58" s="4">
+        <v>8.6243E-2</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1.5518959999999999</v>
+      </c>
+      <c r="K58" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
@@ -2648,6 +2811,15 @@
       </c>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
+      <c r="I59" s="4">
+        <v>0.15590399999999999</v>
+      </c>
+      <c r="J59" s="62">
+        <v>0.16277</v>
+      </c>
+      <c r="K59" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
@@ -3016,6 +3188,9 @@
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
+      <c r="K81" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
@@ -3035,6 +3210,9 @@
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
+      <c r="K82" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
@@ -3054,6 +3232,12 @@
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
+      <c r="K83" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="53"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
@@ -3072,6 +3256,7 @@
         <v>78</v>
       </c>
       <c r="F85" s="5"/>
+      <c r="K85" s="53"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
@@ -3234,6 +3419,9 @@
       <c r="E95" s="4">
         <v>7.8</v>
       </c>
+      <c r="K95" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="55"/>
@@ -3251,6 +3439,9 @@
       <c r="E96" s="4">
         <v>196.4</v>
       </c>
+      <c r="K96" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
@@ -3268,6 +3459,12 @@
       <c r="E97" s="4">
         <v>397</v>
       </c>
+      <c r="K97" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="53"/>
     </row>
     <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
@@ -3286,6 +3483,7 @@
         <v>80</v>
       </c>
       <c r="H99" s="36"/>
+      <c r="K99" s="53"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
@@ -3448,6 +3646,9 @@
       <c r="E109" s="4">
         <v>11.7</v>
       </c>
+      <c r="K109" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="60"/>
@@ -3465,6 +3666,9 @@
       <c r="E110" s="4">
         <v>93.8</v>
       </c>
+      <c r="K110" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="60"/>
@@ -3482,6 +3686,9 @@
       <c r="E111" s="4">
         <v>148.69999999999999</v>
       </c>
+      <c r="K111" s="53">
+        <v>20</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
@@ -3499,8 +3706,11 @@
       <c r="E112" s="4">
         <v>220.7</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K112" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="60"/>
       <c r="B113" s="20">
         <f t="shared" si="36"/>
@@ -3515,6 +3725,9 @@
       </c>
       <c r="E113" s="4">
         <v>288.7</v>
+      </c>
+      <c r="K113" s="53">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE487102-DD9E-4624-A892-F43C46CADCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF82EC1-2DD6-4BED-A862-E1B348D7921B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6660" windowWidth="12495" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="0" yWindow="6660" windowWidth="22305" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +425,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +457,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -464,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -558,6 +570,21 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +609,15 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,2173 +1610,2383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0.42578125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="13">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="13">
         <v>2000</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="I1" s="32"/>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="18">
+    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="53" t="str">
+        <f>"000"</f>
+        <v>000</v>
+      </c>
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>2246</v>
       </c>
-      <c r="D4" s="21">
-        <f>C4/$C$10</f>
+      <c r="E4" s="21">
+        <f>D4/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="E4" s="22">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G4" s="22">
         <v>11.28</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="53">
+      <c r="I4" s="34"/>
+      <c r="J4" s="58">
         <v>1.7899999999999999E-4</v>
       </c>
-      <c r="J4" s="53">
+      <c r="K4" s="58">
         <v>1.0679999999999999E-3</v>
       </c>
-      <c r="K4" s="53">
+      <c r="L4" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="18">
+    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="53" t="str">
+        <f>"025"</f>
+        <v>025</v>
+      </c>
+      <c r="C5" s="18">
         <v>0.25</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="21">
         <v>2246</v>
       </c>
-      <c r="D5" s="21">
-        <f t="shared" ref="D5:D8" si="0">C5/$C$10</f>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F5" s="22">
         <v>5.65</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <v>11.32</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="53">
+      <c r="I5" s="34"/>
+      <c r="J5" s="58">
         <v>6.1300000000000005E-4</v>
       </c>
-      <c r="J5" s="53">
+      <c r="K5" s="58">
         <v>0.22628300000000001</v>
       </c>
-      <c r="K5" s="53">
+      <c r="L5" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="18">
+    <row r="6" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="53" t="str">
+        <f>"050"</f>
+        <v>050</v>
+      </c>
+      <c r="C6" s="18">
         <v>0.5</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D6" s="21">
         <v>2246</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E6" s="22">
-        <v>11.34</v>
-      </c>
       <c r="F6" s="22">
         <v>11.34</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="53">
+      <c r="G6" s="22">
+        <v>11.34</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="58">
         <v>1.6898E-2</v>
       </c>
-      <c r="J6" s="53">
+      <c r="K6" s="58">
         <v>6.1878140000000004</v>
       </c>
-      <c r="K6" s="53">
+      <c r="L6" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="18">
+    <row r="7" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="53" t="str">
+        <f>"075"</f>
+        <v>075</v>
+      </c>
+      <c r="C7" s="18">
         <v>0.75</v>
       </c>
-      <c r="C7" s="21">
+      <c r="D7" s="21">
         <v>2246</v>
       </c>
-      <c r="D7" s="21">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="F7" s="22">
         <v>17.059999999999999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <v>11.37</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="53">
+      <c r="I7" s="34"/>
+      <c r="J7" s="58">
         <v>5.9131999999999997E-2</v>
       </c>
-      <c r="J7" s="61">
+      <c r="K7" s="66">
         <v>160.302536</v>
       </c>
-      <c r="K7" s="53">
+      <c r="L7" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="19">
+    <row r="8" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="53" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="D8" s="23">
         <v>2246</v>
       </c>
-      <c r="D8" s="21">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="24">
         <v>22.8</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="24">
         <v>11.4</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="61">
+      <c r="I8" s="35"/>
+      <c r="J8" s="66">
         <v>-0.14122599999999999</v>
       </c>
-      <c r="J8" s="53">
+      <c r="K8" s="58">
         <v>129.274227</v>
       </c>
-      <c r="K8" s="53">
+      <c r="L8" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="23"/>
+    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="24"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="44" t="s">
+      <c r="G9" s="24"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="45">
+      <c r="D10" s="45">
         <v>1.123</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45">
         <v>1.21</v>
       </c>
-      <c r="F10" s="45">
+      <c r="G10" s="45">
         <v>0.4</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16">
-        <f>B1*C10</f>
+      <c r="H10" s="44"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <f>C1*D10</f>
         <v>2246</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="15">
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="15">
         <v>0.25</v>
       </c>
-      <c r="C14" s="20">
-        <f>$C$21*((100-B14)/100)</f>
+      <c r="D14" s="20">
+        <f>$D$21*((100-C14)/100)</f>
         <v>1771.5600000000002</v>
       </c>
-      <c r="D14" s="20">
-        <f>C14/$C$20</f>
+      <c r="E14" s="20">
+        <f>D14/$D$20</f>
         <v>1995.0000000000002</v>
       </c>
-      <c r="E14" s="20">
-        <f>$C$21*(B14/100)</f>
+      <c r="F14" s="20">
+        <f>$D$21*(C14/100)</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="N14" s="4">
+      <c r="H14" s="20"/>
+      <c r="O14" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="15">
         <v>3.75</v>
       </c>
-      <c r="C15" s="20">
-        <f t="shared" ref="C15:C18" si="1">$C$21*((100-B15)/100)</f>
+      <c r="D15" s="20">
+        <f t="shared" ref="D15:D18" si="1">$D$21*((100-C15)/100)</f>
         <v>1709.4</v>
       </c>
-      <c r="D15" s="20">
-        <f t="shared" ref="D15:D18" si="2">C15/$C$20</f>
+      <c r="E15" s="20">
+        <f t="shared" ref="E15:E18" si="2">D15/$D$20</f>
         <v>1925</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" ref="E15:E18" si="3">$C$21*(B15/100)</f>
+      <c r="F15" s="20">
+        <f t="shared" ref="F15:F18" si="3">$D$21*(C15/100)</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="N15" s="4">
+      <c r="H15" s="20"/>
+      <c r="O15" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="15">
         <v>7.5</v>
       </c>
-      <c r="C16" s="20">
+      <c r="D16" s="20">
         <f t="shared" si="1"/>
         <v>1642.8000000000002</v>
       </c>
-      <c r="D16" s="20">
+      <c r="E16" s="20">
         <f t="shared" si="2"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="20">
         <f t="shared" si="3"/>
         <v>133.19999999999999</v>
       </c>
-      <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="N16" s="4">
+      <c r="H16" s="20"/>
+      <c r="O16" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="15">
         <v>11.25</v>
       </c>
-      <c r="C17" s="20">
+      <c r="D17" s="20">
         <f t="shared" si="1"/>
         <v>1576.1999999999998</v>
       </c>
-      <c r="D17" s="20">
+      <c r="E17" s="20">
         <f t="shared" si="2"/>
         <v>1774.9999999999998</v>
       </c>
-      <c r="E17" s="20">
+      <c r="F17" s="20">
         <f t="shared" si="3"/>
         <v>199.8</v>
       </c>
-      <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="15">
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="20">
+      <c r="D18" s="20">
         <f t="shared" si="1"/>
         <v>1509.6</v>
       </c>
-      <c r="D18" s="20">
+      <c r="E18" s="20">
         <f t="shared" si="2"/>
         <v>1699.9999999999998</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="20">
         <f t="shared" si="3"/>
         <v>266.39999999999998</v>
       </c>
-      <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="44" t="s">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="45">
+      <c r="D20" s="45">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45">
         <v>1.06</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16">
-        <f>B1*C20</f>
+      <c r="G20" s="45"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16">
+        <f>C1*D20</f>
         <v>1776</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
-      <c r="I22" s="5" t="s">
+      <c r="B22" s="42"/>
+      <c r="J22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="20">
-        <f>(E23/(C23+E23))*100</f>
+      <c r="B23" s="56">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <f>(F23/(D23+F23))*100</f>
         <v>0.25833988543187686</v>
       </c>
-      <c r="C23" s="20">
-        <f>$C$20*D23</f>
+      <c r="D23" s="20">
+        <f>$D$20*E23</f>
         <v>1776</v>
       </c>
-      <c r="D23" s="20">
+      <c r="E23" s="20">
         <v>2000</v>
       </c>
-      <c r="E23" s="20">
+      <c r="F23" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="I23" s="4">
+      <c r="H23" s="20"/>
+      <c r="J23" s="4">
         <v>2.6400000000000002E-4</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="K23" s="53">
+      <c r="L23" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="20">
-        <f t="shared" ref="B24:B27" si="4">(E24/(C24+E24))*100</f>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="56">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" ref="C24:C27" si="4">(F24/(D24+F24))*100</f>
         <v>4.1635898892360119</v>
       </c>
-      <c r="C24" s="20">
-        <f t="shared" ref="C24:C27" si="5">$C$20*D24</f>
+      <c r="D24" s="20">
+        <f t="shared" ref="D24:D27" si="5">$D$20*E24</f>
         <v>1687.2</v>
       </c>
-      <c r="D24" s="20">
+      <c r="E24" s="20">
         <v>1900</v>
       </c>
-      <c r="E24" s="20">
+      <c r="F24" s="20">
         <v>73.3</v>
       </c>
-      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="I24" s="4">
+      <c r="H24" s="20"/>
+      <c r="J24" s="4">
         <v>2.9629999999999999E-3</v>
       </c>
-      <c r="J24" s="62">
+      <c r="K24" s="67">
         <v>0.95067100000000004</v>
       </c>
-      <c r="K24" s="53">
+      <c r="L24" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="20">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="56">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20">
         <f t="shared" si="4"/>
         <v>8.3275980729525099</v>
       </c>
-      <c r="C25" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="5"/>
         <v>1598.4</v>
       </c>
-      <c r="D25" s="20">
+      <c r="E25" s="20">
         <v>1800</v>
       </c>
-      <c r="E25" s="20">
+      <c r="F25" s="20">
         <v>145.19999999999999</v>
       </c>
-      <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="62">
+      <c r="H25" s="20"/>
+      <c r="J25" s="67">
         <v>3.5182999999999999E-2</v>
       </c>
-      <c r="J25" s="62">
+      <c r="K25" s="67">
         <v>4.2918999999999999E-2</v>
       </c>
-      <c r="K25" s="53">
+      <c r="L25" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="20">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="56">
+        <v>3</v>
+      </c>
+      <c r="C26" s="20">
         <f t="shared" si="4"/>
         <v>11.031949237448513</v>
       </c>
-      <c r="C26" s="20">
+      <c r="D26" s="20">
         <f t="shared" si="5"/>
         <v>1598.4</v>
       </c>
-      <c r="D26" s="20">
+      <c r="E26" s="20">
         <v>1800</v>
       </c>
-      <c r="E26" s="20">
+      <c r="F26" s="20">
         <v>198.2</v>
       </c>
-      <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="I26" s="4">
+      <c r="H26" s="20"/>
+      <c r="J26" s="4">
         <v>2.8964E-2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>0.31996999999999998</v>
       </c>
-      <c r="K26" s="53">
+      <c r="L26" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="20">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="56">
+        <v>4</v>
+      </c>
+      <c r="C27" s="20">
         <f t="shared" si="4"/>
         <v>15.172902080219371</v>
       </c>
-      <c r="C27" s="20">
+      <c r="D27" s="20">
         <f t="shared" si="5"/>
         <v>1509.6</v>
       </c>
-      <c r="D27" s="20">
+      <c r="E27" s="20">
         <v>1700</v>
       </c>
-      <c r="E27" s="20">
+      <c r="F27" s="20">
         <v>270.02</v>
       </c>
-      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="I27" s="4">
+      <c r="H27" s="20"/>
+      <c r="J27" s="4">
         <v>0.198681</v>
       </c>
-      <c r="J27" s="62">
+      <c r="K27" s="67">
         <v>1.2781130000000001</v>
       </c>
-      <c r="K27" s="53">
+      <c r="L27" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-    </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="B28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="15">
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="15">
         <v>0.25</v>
       </c>
-      <c r="C30" s="20">
-        <f>$C$37*((100-B30)*0.75/100)</f>
+      <c r="D30" s="20">
+        <f>$D$37*((100-C30)*0.75/100)</f>
         <v>1351.8618750000001</v>
       </c>
-      <c r="D30" s="20">
-        <f>C30/$C$36</f>
+      <c r="E30" s="20">
+        <f>D30/$D$36</f>
         <v>1522.3669763513515</v>
       </c>
-      <c r="E30" s="20">
-        <f>$C$37*((100-B30)*0.25/100)</f>
+      <c r="F30" s="20">
+        <f>$D$37*((100-C30)*0.25/100)</f>
         <v>450.62062500000002</v>
       </c>
-      <c r="F30" s="20">
-        <f>E30/$E$36</f>
+      <c r="G30" s="20">
+        <f>F30/$F$36</f>
         <v>474.33750000000003</v>
       </c>
-      <c r="G30" s="20">
-        <f>$C$37*(B30/100)</f>
+      <c r="H30" s="20">
+        <f>$D$37*(C30/100)</f>
         <v>4.5175000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="15">
         <v>3.75</v>
       </c>
-      <c r="C31" s="20">
-        <f t="shared" ref="C31:C34" si="6">$C$37*((100-B31)*0.75/100)</f>
+      <c r="D31" s="20">
+        <f t="shared" ref="D31:D34" si="6">$D$37*((100-C31)*0.75/100)</f>
         <v>1304.4281250000001</v>
       </c>
-      <c r="D31" s="20">
-        <f t="shared" ref="D31:D34" si="7">C31/$C$36</f>
+      <c r="E31" s="20">
+        <f t="shared" ref="E31:E34" si="7">D31/$D$36</f>
         <v>1468.9505912162163</v>
       </c>
-      <c r="E31" s="20">
-        <f t="shared" ref="E31:E34" si="8">$C$37*((100-B31)*0.25/100)</f>
+      <c r="F31" s="20">
+        <f t="shared" ref="F31:F34" si="8">$D$37*((100-C31)*0.25/100)</f>
         <v>434.80937499999999</v>
       </c>
-      <c r="F31" s="20">
-        <f t="shared" ref="F31:F34" si="9">E31/$E$36</f>
+      <c r="G31" s="20">
+        <f t="shared" ref="G31:G34" si="9">F31/$F$36</f>
         <v>457.69407894736844</v>
       </c>
-      <c r="G31" s="20">
-        <f t="shared" ref="G31:G34" si="10">$C$37*(B31/100)</f>
+      <c r="H31" s="20">
+        <f t="shared" ref="H31:H34" si="10">$D$37*(C31/100)</f>
         <v>67.762500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="15">
         <v>7.5</v>
       </c>
-      <c r="C32" s="20">
+      <c r="D32" s="20">
         <f t="shared" si="6"/>
         <v>1253.60625</v>
       </c>
-      <c r="D32" s="20">
+      <c r="E32" s="20">
         <f t="shared" si="7"/>
         <v>1411.71875</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="20">
         <f t="shared" si="8"/>
         <v>417.86875000000003</v>
       </c>
-      <c r="F32" s="20">
+      <c r="G32" s="20">
         <f t="shared" si="9"/>
         <v>439.86184210526324</v>
       </c>
-      <c r="G32" s="20">
+      <c r="H32" s="20">
         <f t="shared" si="10"/>
         <v>135.52500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="15">
         <v>11.25</v>
       </c>
-      <c r="C33" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="6"/>
         <v>1202.784375</v>
       </c>
-      <c r="D33" s="20">
+      <c r="E33" s="20">
         <f t="shared" si="7"/>
         <v>1354.4869087837837</v>
       </c>
-      <c r="E33" s="20">
+      <c r="F33" s="20">
         <f t="shared" si="8"/>
         <v>400.92812499999997</v>
       </c>
-      <c r="F33" s="20">
+      <c r="G33" s="20">
         <f t="shared" si="9"/>
         <v>422.02960526315786</v>
       </c>
-      <c r="G33" s="20">
+      <c r="H33" s="20">
         <f t="shared" si="10"/>
         <v>203.28749999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="15">
         <v>15</v>
       </c>
-      <c r="C34" s="20">
+      <c r="D34" s="20">
         <f t="shared" si="6"/>
         <v>1151.9624999999999</v>
       </c>
-      <c r="D34" s="20">
+      <c r="E34" s="20">
         <f t="shared" si="7"/>
         <v>1297.2550675675675</v>
       </c>
-      <c r="E34" s="20">
+      <c r="F34" s="20">
         <f t="shared" si="8"/>
         <v>383.98750000000001</v>
       </c>
-      <c r="F34" s="20">
+      <c r="G34" s="20">
         <f t="shared" si="9"/>
         <v>404.19736842105266</v>
       </c>
-      <c r="G34" s="20">
+      <c r="H34" s="20">
         <f t="shared" si="10"/>
         <v>271.05</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="44" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="53"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="45">
+      <c r="D36" s="45">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45">
         <v>0.95</v>
       </c>
-      <c r="F36" s="20">
+      <c r="G36" s="20">
         <v>1400</v>
       </c>
-      <c r="G36" s="45">
+      <c r="H36" s="45">
         <v>1.04</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16">
-        <f>B1*((C36*0.75)+(E36*0.25))</f>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16">
+        <f>C1*((D36*0.75)+(F36*0.25))</f>
         <v>1807</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="5" t="s">
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="20">
-        <f>(G39/(C39+E39+G39))*100</f>
+      <c r="B39" s="56">
+        <v>5</v>
+      </c>
+      <c r="C39" s="20">
+        <f>(H39/(D39+F39+H39))*100</f>
         <v>1.4023026136301631</v>
       </c>
-      <c r="C39" s="20">
-        <f>$C$36*D39</f>
+      <c r="D39" s="20">
+        <f>$D$36*E39</f>
         <v>1332</v>
       </c>
-      <c r="D39" s="20">
+      <c r="E39" s="20">
         <v>1500</v>
       </c>
-      <c r="E39" s="20">
-        <f>$E$36*F39</f>
+      <c r="F39" s="20">
+        <f>$F$36*G39</f>
         <v>475</v>
       </c>
-      <c r="F39" s="20">
+      <c r="G39" s="20">
         <v>500</v>
       </c>
-      <c r="G39" s="20">
+      <c r="H39" s="20">
         <v>25.7</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>8.7530000000000004E-3</v>
       </c>
-      <c r="J39" s="62">
+      <c r="K39" s="67">
         <v>8.3807010000000002</v>
       </c>
-      <c r="K39" s="53">
+      <c r="L39" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="20">
-        <f t="shared" ref="B40:B43" si="11">(G40/(C40+E40+G40))*100</f>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="57">
+        <v>6</v>
+      </c>
+      <c r="C40" s="20">
+        <f t="shared" ref="C40:C43" si="11">(H40/(D40+F40+H40))*100</f>
         <v>3.8727524204702628</v>
       </c>
-      <c r="C40" s="20">
-        <f t="shared" ref="C40:C43" si="12">$C$36*D40</f>
+      <c r="D40" s="20">
+        <f t="shared" ref="D40:D43" si="12">$D$36*E40</f>
         <v>1332</v>
       </c>
-      <c r="D40" s="20">
+      <c r="E40" s="20">
         <v>1500</v>
       </c>
-      <c r="E40" s="20">
-        <f t="shared" ref="E40:E43" si="13">$E$36*F40</f>
+      <c r="F40" s="20">
+        <f t="shared" ref="F40:F43" si="13">$F$36*G40</f>
         <v>475</v>
       </c>
-      <c r="F40" s="20">
+      <c r="G40" s="20">
         <v>500</v>
       </c>
-      <c r="G40" s="20">
+      <c r="H40" s="20">
         <v>72.8</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>3.0336999999999999E-2</v>
       </c>
-      <c r="K40" s="53">
+      <c r="L40" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="20">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="57">
+        <v>7</v>
+      </c>
+      <c r="C41" s="20">
         <f t="shared" si="11"/>
         <v>8.0392045776443251</v>
       </c>
-      <c r="C41" s="20">
-        <f>$C$36*F36</f>
+      <c r="D41" s="20">
+        <f>$D$36*G36</f>
         <v>1243.2</v>
       </c>
-      <c r="E41" s="20">
+      <c r="F41" s="20">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="F41" s="20">
+      <c r="G41" s="20">
         <v>400</v>
       </c>
-      <c r="G41" s="20">
+      <c r="H41" s="20">
         <v>141.9</v>
       </c>
-      <c r="I41" s="62">
+      <c r="J41" s="67">
         <v>1.9382E-2</v>
       </c>
-      <c r="J41" s="62">
+      <c r="K41" s="67">
         <v>0.236674</v>
       </c>
-      <c r="K41" s="53">
+      <c r="L41" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="20">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="57">
+        <v>8</v>
+      </c>
+      <c r="C42" s="20">
         <f t="shared" si="11"/>
         <v>11.750158164145628</v>
       </c>
-      <c r="C42" s="20">
+      <c r="D42" s="20">
         <f t="shared" si="12"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="D42" s="20">
+      <c r="E42" s="20">
         <v>1300</v>
       </c>
-      <c r="E42" s="20">
+      <c r="F42" s="20">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="F42" s="20">
+      <c r="G42" s="20">
         <v>400</v>
       </c>
-      <c r="G42" s="20">
+      <c r="H42" s="20">
         <v>204.3</v>
       </c>
-      <c r="I42" s="62">
+      <c r="J42" s="67">
         <v>3.4037999999999999E-2</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="K42" s="53">
+      <c r="L42" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="20">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="57">
+        <v>9</v>
+      </c>
+      <c r="C43" s="20">
         <f t="shared" si="11"/>
         <v>14.646492740724259</v>
       </c>
-      <c r="C43" s="20">
+      <c r="D43" s="20">
         <f t="shared" si="12"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="D43" s="20">
+      <c r="E43" s="20">
         <v>1300</v>
       </c>
-      <c r="E43" s="20">
+      <c r="F43" s="20">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="F43" s="20">
+      <c r="G43" s="20">
         <v>400</v>
       </c>
-      <c r="G43" s="20">
+      <c r="H43" s="20">
         <v>263.3</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>6.9047999999999998E-2</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>9.5713000000000006E-2</v>
       </c>
-      <c r="K43" s="53">
+      <c r="L43" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+    <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="F45" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="H45" s="36"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="15">
+      <c r="G45" s="17"/>
+      <c r="I45" s="36"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="15">
         <v>0.25</v>
       </c>
-      <c r="C46" s="20">
-        <f>$C$53*((100-B46)/100)</f>
+      <c r="D46" s="20">
+        <f>$D$53*((100-C46)/100)</f>
         <v>2048.8650000000002</v>
       </c>
-      <c r="D46" s="20">
-        <f>C46/$C$52</f>
+      <c r="E46" s="20">
+        <f>D46/$D$52</f>
         <v>1995.0000000000005</v>
       </c>
-      <c r="E46" s="20">
-        <f>$C$53*(B46/100)</f>
+      <c r="F46" s="20">
+        <f>$D$53*(C46/100)</f>
         <v>5.1349999999999998</v>
       </c>
-      <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="15">
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="15">
         <v>3.75</v>
       </c>
-      <c r="C47" s="20">
-        <f t="shared" ref="C47:C50" si="14">$C$53*((100-B47)/100)</f>
+      <c r="D47" s="20">
+        <f t="shared" ref="D47:D50" si="14">$D$53*((100-C47)/100)</f>
         <v>1976.9750000000001</v>
       </c>
-      <c r="D47" s="20">
-        <f t="shared" ref="D47:D50" si="15">C47/$C$52</f>
+      <c r="E47" s="20">
+        <f t="shared" ref="E47:E50" si="15">D47/$D$52</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="E47" s="20">
-        <f t="shared" ref="E47:E50" si="16">$C$53*(B47/100)</f>
+      <c r="F47" s="20">
+        <f t="shared" ref="F47:F50" si="16">$D$53*(C47/100)</f>
         <v>77.024999999999991</v>
       </c>
-      <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="15">
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="15">
         <v>7.5</v>
       </c>
-      <c r="C48" s="20">
+      <c r="D48" s="20">
         <f t="shared" si="14"/>
         <v>1899.95</v>
       </c>
-      <c r="D48" s="20">
+      <c r="E48" s="20">
         <f t="shared" si="15"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="E48" s="20">
+      <c r="F48" s="20">
         <f t="shared" si="16"/>
         <v>154.04999999999998</v>
       </c>
-      <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="15">
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="15">
         <v>11.25</v>
       </c>
-      <c r="C49" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="14"/>
         <v>1822.925</v>
       </c>
-      <c r="D49" s="20">
+      <c r="E49" s="20">
         <f t="shared" si="15"/>
         <v>1775</v>
       </c>
-      <c r="E49" s="20">
+      <c r="F49" s="20">
         <f t="shared" si="16"/>
         <v>231.07500000000002</v>
       </c>
-      <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="15">
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="15">
         <v>15</v>
       </c>
-      <c r="C50" s="20">
+      <c r="D50" s="20">
         <f t="shared" si="14"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="D50" s="20">
+      <c r="E50" s="20">
         <f t="shared" si="15"/>
         <v>1700</v>
       </c>
-      <c r="E50" s="20">
+      <c r="F50" s="20">
         <f t="shared" si="16"/>
         <v>308.09999999999997</v>
       </c>
-      <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="44" t="s">
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="53"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="16">
+      <c r="D52" s="16">
         <v>1.0269999999999999</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="45">
+      <c r="E52" s="16"/>
+      <c r="F52" s="45">
         <v>1.04</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16">
-        <f>B1*C52</f>
+      <c r="G52" s="45"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16">
+        <f>C1*D52</f>
         <v>2054</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="50"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="I54" s="5" t="s">
+      <c r="H54" s="6"/>
+      <c r="J54" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="L54" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="51">
-        <f>(E55/(C55+E55))*100</f>
+      <c r="B55" s="54">
+        <v>10</v>
+      </c>
+      <c r="C55" s="51">
+        <f>(F55/(D55+F55))*100</f>
         <v>1.0263576350407171</v>
       </c>
-      <c r="C55" s="52">
-        <f>$C$52*D55</f>
+      <c r="D55" s="52">
+        <f>$D$52*E55</f>
         <v>2054</v>
       </c>
-      <c r="D55" s="52">
+      <c r="E55" s="52">
         <v>2000</v>
       </c>
-      <c r="E55" s="52">
+      <c r="F55" s="52">
         <v>21.3</v>
       </c>
-      <c r="F55" s="52"/>
       <c r="G55" s="52"/>
-      <c r="I55" s="4">
+      <c r="H55" s="52"/>
+      <c r="J55" s="4">
         <v>2.0917000000000002E-2</v>
       </c>
-      <c r="J55" s="62">
+      <c r="K55" s="67">
         <v>53.570850999999998</v>
       </c>
-      <c r="K55" s="53">
+      <c r="L55" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="51">
-        <f t="shared" ref="B56:B59" si="17">(E56/(C56+E56))*100</f>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="63"/>
+      <c r="B56" s="55">
+        <v>11</v>
+      </c>
+      <c r="C56" s="51">
+        <f t="shared" ref="C56:C59" si="17">(F56/(D56+F56))*100</f>
         <v>3.5633092814075318</v>
       </c>
-      <c r="C56" s="52">
-        <f t="shared" ref="C56:C59" si="18">$C$52*D56</f>
+      <c r="D56" s="52">
+        <f t="shared" ref="D56:D59" si="18">$D$52*E56</f>
         <v>1951.2999999999997</v>
       </c>
-      <c r="D56" s="52">
+      <c r="E56" s="52">
         <v>1900</v>
       </c>
-      <c r="E56" s="52">
+      <c r="F56" s="52">
         <v>72.099999999999994</v>
       </c>
-      <c r="F56" s="52"/>
       <c r="G56" s="52"/>
-      <c r="I56" s="4">
+      <c r="H56" s="52"/>
+      <c r="J56" s="4">
         <v>9.1500000000000001E-3</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K56" s="4">
         <v>2.2258E-2</v>
       </c>
-      <c r="K56" s="53">
+      <c r="L56" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="51">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="63"/>
+      <c r="B57" s="55">
+        <v>12</v>
+      </c>
+      <c r="C57" s="51">
         <f t="shared" si="17"/>
         <v>7.74067974247642</v>
       </c>
-      <c r="C57" s="52">
+      <c r="D57" s="52">
         <f t="shared" si="18"/>
         <v>1848.6</v>
       </c>
-      <c r="D57" s="52">
+      <c r="E57" s="52">
         <v>1800</v>
       </c>
-      <c r="E57" s="52">
+      <c r="F57" s="52">
         <v>155.1</v>
       </c>
-      <c r="F57" s="52"/>
       <c r="G57" s="52"/>
-      <c r="I57" s="4">
+      <c r="H57" s="52"/>
+      <c r="J57" s="4">
         <v>3.1720999999999999E-2</v>
       </c>
-      <c r="J57" s="62">
+      <c r="K57" s="67">
         <v>2.6790000000000001E-2</v>
       </c>
-      <c r="K57" s="53">
+      <c r="L57" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="51">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="55">
+        <v>13</v>
+      </c>
+      <c r="C58" s="51">
         <f t="shared" si="17"/>
         <v>11.512134411947729</v>
       </c>
-      <c r="C58" s="52">
+      <c r="D58" s="52">
         <f t="shared" si="18"/>
         <v>1848.6</v>
       </c>
-      <c r="D58" s="52">
+      <c r="E58" s="52">
         <v>1800</v>
       </c>
-      <c r="E58" s="52">
+      <c r="F58" s="52">
         <v>240.5</v>
       </c>
-      <c r="F58" s="52"/>
       <c r="G58" s="52"/>
-      <c r="I58" s="4">
+      <c r="H58" s="52"/>
+      <c r="J58" s="4">
         <v>8.6243E-2</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="4">
         <v>1.5518959999999999</v>
       </c>
-      <c r="K58" s="53">
+      <c r="L58" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="51">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+      <c r="B59" s="55">
+        <v>14</v>
+      </c>
+      <c r="C59" s="51">
         <f t="shared" si="17"/>
         <v>14.950311769290725</v>
       </c>
-      <c r="C59" s="52">
+      <c r="D59" s="52">
         <f t="shared" si="18"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="D59" s="52">
+      <c r="E59" s="52">
         <v>1700</v>
       </c>
-      <c r="E59" s="52">
+      <c r="F59" s="52">
         <v>306.89999999999998</v>
       </c>
-      <c r="F59" s="52"/>
       <c r="G59" s="52"/>
-      <c r="I59" s="4">
+      <c r="H59" s="52"/>
+      <c r="J59" s="4">
         <v>0.15590399999999999</v>
       </c>
-      <c r="J59" s="62">
+      <c r="K59" s="67">
         <v>0.16277</v>
       </c>
-      <c r="K59" s="53">
+      <c r="L59" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="53"/>
+      <c r="C61" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="E61" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="F61" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="G61" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="39"/>
-      <c r="I61" s="5"/>
+      <c r="H61" s="39"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="30">
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="30">
         <v>0.25</v>
       </c>
-      <c r="C62" s="28">
-        <f t="shared" ref="C62:C63" si="19">$C$69*((100-B62)/100)</f>
+      <c r="D62" s="28">
+        <f t="shared" ref="D62:D63" si="19">$D$69*((100-C62)/100)</f>
         <v>2048.8650000000002</v>
       </c>
-      <c r="D62" s="28">
-        <f>C62/$C$68</f>
+      <c r="E62" s="28">
+        <f>D62/$D$68</f>
         <v>1995.0000000000005</v>
       </c>
-      <c r="E62" s="28">
-        <f>$C$69*((B62*0.3)/100)</f>
+      <c r="F62" s="28">
+        <f>$D$69*((C62*0.3)/100)</f>
         <v>1.5405</v>
       </c>
-      <c r="F62" s="28">
-        <f>$C$69*((B62*0.7)/100)</f>
+      <c r="G62" s="28">
+        <f>$D$69*((C62*0.7)/100)</f>
         <v>3.5944999999999996</v>
       </c>
-      <c r="G62" s="39"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="30">
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="30">
         <v>3.75</v>
       </c>
-      <c r="C63" s="28">
+      <c r="D63" s="28">
         <f t="shared" si="19"/>
         <v>1976.9750000000001</v>
       </c>
-      <c r="D63" s="28">
-        <f t="shared" ref="D63:D66" si="20">C63/$C$68</f>
+      <c r="E63" s="28">
+        <f t="shared" ref="E63:E66" si="20">D63/$D$68</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="E63" s="28">
-        <f t="shared" ref="E63:E66" si="21">$C$69*((B63*0.3)/100)</f>
+      <c r="F63" s="28">
+        <f t="shared" ref="F63:F66" si="21">$D$69*((C63*0.3)/100)</f>
         <v>23.107499999999998</v>
       </c>
-      <c r="F63" s="28">
-        <f>$C$69*((B63*0.7)/100)</f>
+      <c r="G63" s="28">
+        <f>$D$69*((C63*0.7)/100)</f>
         <v>53.917499999999997</v>
       </c>
-      <c r="G63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="30">
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="30">
         <v>7.5</v>
       </c>
-      <c r="C64" s="28">
-        <f>$C$69*((100-B64)/100)</f>
+      <c r="D64" s="28">
+        <f>$D$69*((100-C64)/100)</f>
         <v>1899.95</v>
       </c>
-      <c r="D64" s="28">
+      <c r="E64" s="28">
         <f t="shared" si="20"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="E64" s="28">
+      <c r="F64" s="28">
         <f t="shared" si="21"/>
         <v>46.214999999999996</v>
       </c>
-      <c r="F64" s="28">
-        <f>$C$69*((B64*0.7)/100)</f>
+      <c r="G64" s="28">
+        <f>$D$69*((C64*0.7)/100)</f>
         <v>107.83499999999999</v>
       </c>
-      <c r="G64" s="39"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="30">
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="30">
         <v>11.25</v>
       </c>
-      <c r="C65" s="28">
-        <f t="shared" ref="C65:C66" si="22">$C$69*((100-B65)/100)</f>
+      <c r="D65" s="28">
+        <f t="shared" ref="D65:D66" si="22">$D$69*((100-C65)/100)</f>
         <v>1822.925</v>
       </c>
-      <c r="D65" s="28">
+      <c r="E65" s="28">
         <f t="shared" si="20"/>
         <v>1775</v>
       </c>
-      <c r="E65" s="28">
+      <c r="F65" s="28">
         <f t="shared" si="21"/>
         <v>69.322500000000005</v>
       </c>
-      <c r="F65" s="28">
-        <f>$C$69*((B65*0.7)/100)</f>
+      <c r="G65" s="28">
+        <f>$D$69*((C65*0.7)/100)</f>
         <v>161.75249999999997</v>
       </c>
-      <c r="G65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="30">
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="30">
         <v>15</v>
       </c>
-      <c r="C66" s="28">
+      <c r="D66" s="28">
         <f t="shared" si="22"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="D66" s="28">
+      <c r="E66" s="28">
         <f t="shared" si="20"/>
         <v>1700</v>
       </c>
-      <c r="E66" s="28">
+      <c r="F66" s="28">
         <f t="shared" si="21"/>
         <v>92.429999999999993</v>
       </c>
-      <c r="F66" s="28">
-        <f>$C$69*((B66*0.7)/100)</f>
+      <c r="G66" s="28">
+        <f>$D$69*((C66*0.7)/100)</f>
         <v>215.67</v>
       </c>
-      <c r="G66" s="39"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="27"/>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="39"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="47" t="s">
+      <c r="G67" s="27"/>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="48">
+      <c r="D68" s="48">
         <v>1.0269999999999999</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48">
+      <c r="E68" s="48"/>
+      <c r="F68" s="48">
         <v>1.2450000000000001</v>
       </c>
-      <c r="F68" s="25">
+      <c r="G68" s="25">
         <v>1.1839999999999999</v>
       </c>
-      <c r="G68" s="49"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25">
-        <f>B1*C68</f>
+      <c r="H68" s="49"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25">
+        <f>C1*D68</f>
         <v>2054</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="E69" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
-    </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+      <c r="H69" s="25"/>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="53"/>
+      <c r="C71" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="36"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="15">
+      <c r="I71" s="36"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="15">
         <v>0.25</v>
       </c>
-      <c r="C72" s="20">
-        <f>$C$79*((100-B72)/100)</f>
+      <c r="D72" s="20">
+        <f>$D$79*((100-C72)/100)</f>
         <v>2958.9840000000004</v>
       </c>
-      <c r="D72" s="20">
-        <f>C72/$C$78</f>
+      <c r="E72" s="20">
+        <f>D72/$D$78</f>
         <v>1995.0000000000002</v>
       </c>
-      <c r="E72" s="20">
-        <f>$C$79*(B72/100)</f>
+      <c r="F72" s="20">
+        <f>$D$79*(C72/100)</f>
         <v>7.4160000000000004</v>
       </c>
-      <c r="F72" s="20"/>
       <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="30">
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="30">
         <v>3.75</v>
       </c>
-      <c r="C73" s="38">
-        <f t="shared" ref="C73:C76" si="23">$C$79*((100-B73)/100)</f>
+      <c r="D73" s="38">
+        <f>$D$79*((100-C73)/100)</f>
         <v>2855.1600000000003</v>
       </c>
-      <c r="D73" s="20">
-        <f t="shared" ref="D73:D76" si="24">C73/$C$78</f>
+      <c r="E73" s="20">
+        <f>D73/$D$78</f>
         <v>1925</v>
       </c>
-      <c r="E73" s="38">
-        <f t="shared" ref="E73:E76" si="25">$C$79*(B73/100)</f>
+      <c r="F73" s="38">
+        <f>$D$79*(C73/100)</f>
         <v>111.24</v>
       </c>
-      <c r="F73" s="38"/>
       <c r="G73" s="38"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="15">
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="15">
         <v>7.5</v>
       </c>
-      <c r="C74" s="20">
-        <f t="shared" si="23"/>
+      <c r="D74" s="20">
+        <f>$D$79*((100-C74)/100)</f>
         <v>2743.92</v>
       </c>
-      <c r="D74" s="20">
-        <f t="shared" si="24"/>
+      <c r="E74" s="20">
+        <f>D74/$D$78</f>
         <v>1850</v>
       </c>
-      <c r="E74" s="20">
-        <f t="shared" si="25"/>
+      <c r="F74" s="20">
+        <f>$D$79*(C74/100)</f>
         <v>222.48</v>
       </c>
-      <c r="F74" s="20"/>
       <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="30">
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="59"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="30">
         <v>11.25</v>
       </c>
-      <c r="C75" s="38">
-        <f t="shared" si="23"/>
+      <c r="D75" s="38">
+        <f>$D$79*((100-C75)/100)</f>
         <v>2632.68</v>
       </c>
-      <c r="D75" s="20">
-        <f t="shared" si="24"/>
+      <c r="E75" s="20">
+        <f>D75/$D$78</f>
         <v>1774.9999999999998</v>
       </c>
-      <c r="E75" s="38">
-        <f t="shared" si="25"/>
+      <c r="F75" s="38">
+        <f>$D$79*(C75/100)</f>
         <v>333.72</v>
       </c>
-      <c r="F75" s="38"/>
       <c r="G75" s="38"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="15">
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="15">
         <v>15</v>
       </c>
-      <c r="C76" s="20">
-        <f t="shared" si="23"/>
+      <c r="D76" s="20">
+        <f>$D$79*((100-C76)/100)</f>
         <v>2521.44</v>
       </c>
-      <c r="D76" s="20">
-        <f t="shared" si="24"/>
+      <c r="E76" s="20">
+        <f>D76/$D$78</f>
         <v>1700</v>
       </c>
-      <c r="E76" s="20">
-        <f t="shared" si="25"/>
+      <c r="F76" s="20">
+        <f>$D$79*(C76/100)</f>
         <v>444.96</v>
       </c>
-      <c r="F76" s="20"/>
       <c r="G76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="44" t="s">
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="53"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="45">
+      <c r="D78" s="45">
         <v>1.4832000000000001</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45">
+      <c r="E78" s="45"/>
+      <c r="F78" s="45">
         <v>1.2</v>
       </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16">
-        <f>B1*C78</f>
+      <c r="G78" s="45"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="59"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16">
+        <f>C1*D78</f>
         <v>2966.4</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="E79" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
-      <c r="I80" s="5" t="s">
+      <c r="H80" s="16"/>
+      <c r="J80" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="K80" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="L80" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="57" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="52">
-        <f>(E81/(C81+E81))*100</f>
+      <c r="B81" s="54">
+        <v>0</v>
+      </c>
+      <c r="C81" s="52">
+        <f>(F81/(D81+F81))*100</f>
         <v>0.24548542220129804</v>
       </c>
-      <c r="C81" s="6">
-        <f>$C$78*D81</f>
+      <c r="D81" s="6">
+        <f>$D$78*E81</f>
         <v>2966.4</v>
       </c>
-      <c r="D81" s="6">
+      <c r="E81" s="6">
         <v>2000</v>
       </c>
-      <c r="E81" s="6">
+      <c r="F81" s="6">
         <v>7.3</v>
       </c>
-      <c r="F81" s="16"/>
       <c r="G81" s="16"/>
-      <c r="K81" s="53">
+      <c r="H81" s="16"/>
+      <c r="L81" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="52">
-        <f t="shared" ref="B82:B83" si="26">(E82/(C82+E82))*100</f>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="54">
+        <v>1</v>
+      </c>
+      <c r="C82" s="52">
+        <f t="shared" ref="C82:C84" si="23">(F82/(D82+F82))*100</f>
         <v>7.5875055383252095</v>
       </c>
-      <c r="C82" s="6">
-        <f t="shared" ref="C82:C83" si="27">$C$78*D82</f>
+      <c r="D82" s="6">
+        <f t="shared" ref="D82:D84" si="24">$D$78*E82</f>
         <v>2669.76</v>
       </c>
-      <c r="D82" s="6">
+      <c r="E82" s="6">
         <v>1800</v>
       </c>
-      <c r="E82" s="6">
+      <c r="F82" s="6">
         <v>219.2</v>
       </c>
-      <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="K82" s="53">
+      <c r="H82" s="16"/>
+      <c r="L82" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="52">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="54">
+        <v>2</v>
+      </c>
+      <c r="C83" s="72">
+        <f t="shared" si="23"/>
+        <v>15.03265330880123</v>
+      </c>
+      <c r="D83" s="73">
+        <f t="shared" si="24"/>
+        <v>2521.44</v>
+      </c>
+      <c r="E83" s="73">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="73">
+        <v>446.1</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="L83" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="69">
+        <f t="shared" si="23"/>
+        <v>4.1196841667821031</v>
+      </c>
+      <c r="D84" s="70">
+        <f t="shared" si="24"/>
+        <v>10382.4</v>
+      </c>
+      <c r="E84" s="70">
+        <v>7000</v>
+      </c>
+      <c r="F84" s="70">
+        <v>446.1</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="L84" s="58"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="58"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="53"/>
+      <c r="C86" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="L86" s="58"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D87" s="20">
+        <f>$D$94*((100-C87)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="E87" s="20">
+        <f>D87/$D$93</f>
+        <v>1995</v>
+      </c>
+      <c r="F87" s="20">
+        <f>$D$94*(C87/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="59"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D88" s="38">
+        <f t="shared" ref="D88:D91" si="25">$D$94*((100-C88)/100)</f>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="E88" s="20">
+        <f t="shared" ref="E88:E91" si="26">D88/$D$93</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F88" s="38">
+        <f t="shared" ref="F88:F91" si="27">$D$94*(C88/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D89" s="20">
+        <f t="shared" si="25"/>
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="E89" s="20">
         <f t="shared" si="26"/>
-        <v>15.03265330880123</v>
-      </c>
-      <c r="C83" s="6">
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F89" s="20">
         <f t="shared" si="27"/>
-        <v>2521.44</v>
-      </c>
-      <c r="D83" s="6">
+        <v>198.82499999999999</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D90" s="38">
+        <f t="shared" si="25"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="E90" s="20">
+        <f t="shared" si="26"/>
+        <v>1775</v>
+      </c>
+      <c r="F90" s="38">
+        <f t="shared" si="27"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="59"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="15">
+        <v>15</v>
+      </c>
+      <c r="D91" s="20">
+        <f t="shared" si="25"/>
+        <v>2253.35</v>
+      </c>
+      <c r="E91" s="20">
+        <f t="shared" si="26"/>
         <v>1700</v>
       </c>
-      <c r="E83" s="6">
-        <v>446.1</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="K83" s="53">
+      <c r="F91" s="20">
+        <f t="shared" si="27"/>
+        <v>397.65</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="59"/>
+      <c r="B92" s="53"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="59"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="45">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G93" s="45"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="59"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16">
+        <f>C1*D93</f>
+        <v>2651</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J95" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="56">
+        <v>3</v>
+      </c>
+      <c r="C96" s="20">
+        <f>(F96/(D96+F96))*100</f>
+        <v>0.29336542801263726</v>
+      </c>
+      <c r="D96" s="4">
+        <f>$D$93*E96</f>
+        <v>2651</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F96" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="L96" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K84" s="53"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="54" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="60"/>
+      <c r="B97" s="56">
+        <v>4</v>
+      </c>
+      <c r="C97" s="20">
+        <f t="shared" ref="C97:C99" si="28">(F97/(D97+F97))*100</f>
+        <v>7.6056228943190192</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" ref="D97:D99" si="29">$D$93*E97</f>
+        <v>2385.8999999999996</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F97" s="4">
+        <v>196.4</v>
+      </c>
+      <c r="L97" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="60"/>
+      <c r="B98" s="56">
+        <v>5</v>
+      </c>
+      <c r="C98" s="72">
+        <f t="shared" si="28"/>
+        <v>14.979153696681571</v>
+      </c>
+      <c r="D98" s="73">
+        <f t="shared" si="29"/>
+        <v>2253.35</v>
+      </c>
+      <c r="E98" s="73">
+        <v>1700</v>
+      </c>
+      <c r="F98" s="73">
+        <v>397</v>
+      </c>
+      <c r="L98" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="68">
+        <f t="shared" si="28"/>
+        <v>4.2187367168239396</v>
+      </c>
+      <c r="D99" s="71">
+        <f t="shared" si="29"/>
+        <v>9013.4</v>
+      </c>
+      <c r="E99" s="71">
+        <v>6800</v>
+      </c>
+      <c r="F99" s="71">
+        <v>397</v>
+      </c>
+      <c r="L99" s="58"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="58"/>
+    </row>
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="K85" s="53"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="15">
+      <c r="B101" s="53"/>
+      <c r="C101" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="36"/>
+      <c r="L101" s="58"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="15">
         <v>0.25</v>
       </c>
-      <c r="C86" s="20">
-        <f>$C$93*((100-B86)/100)</f>
-        <v>2644.3724999999999</v>
-      </c>
-      <c r="D86" s="20">
-        <f>C86/$C$92</f>
+      <c r="D102" s="20">
+        <f>$D$109*((100-C102)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="E102" s="20">
+        <f>D102/$D$108</f>
         <v>1995</v>
       </c>
-      <c r="E86" s="20">
-        <f>$C$93*(B86/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="30">
+      <c r="F102" s="20">
+        <f>$D$109*(C102/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="59"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="15">
         <v>3.75</v>
       </c>
-      <c r="C87" s="38">
-        <f t="shared" ref="C87:C90" si="28">$C$93*((100-B87)/100)</f>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="D87" s="20">
-        <f t="shared" ref="D87:D90" si="29">C87/$C$92</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="E87" s="38">
-        <f t="shared" ref="E87:E90" si="30">$C$93*(B87/100)</f>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="15">
+      <c r="D103" s="20">
+        <f t="shared" ref="D103:D106" si="30">$D$109*((100-C103)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="E103" s="20">
+        <f t="shared" ref="E103:E106" si="31">D103/$D$108</f>
+        <v>1925</v>
+      </c>
+      <c r="F103" s="20">
+        <f t="shared" ref="F103:F106" si="32">$D$109*(C103/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="59"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="15">
         <v>7.5</v>
       </c>
-      <c r="C88" s="20">
-        <f t="shared" si="28"/>
-        <v>2452.1750000000002</v>
-      </c>
-      <c r="D88" s="20">
-        <f t="shared" si="29"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="E88" s="20">
+      <c r="D104" s="20">
         <f t="shared" si="30"/>
-        <v>198.82499999999999</v>
-      </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="30">
+        <v>1757.5</v>
+      </c>
+      <c r="E104" s="20">
+        <f t="shared" si="31"/>
+        <v>1850</v>
+      </c>
+      <c r="F104" s="20">
+        <f t="shared" si="32"/>
+        <v>142.5</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="59"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="15">
         <v>11.25</v>
       </c>
-      <c r="C89" s="38">
-        <f t="shared" si="28"/>
-        <v>2352.7624999999998</v>
-      </c>
-      <c r="D89" s="20">
-        <f t="shared" si="29"/>
+      <c r="D105" s="20">
+        <f t="shared" si="30"/>
+        <v>1686.25</v>
+      </c>
+      <c r="E105" s="20">
+        <f t="shared" si="31"/>
         <v>1775</v>
       </c>
-      <c r="E89" s="38">
+      <c r="F105" s="20">
+        <f t="shared" si="32"/>
+        <v>213.75</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="59"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="15">
+        <v>15</v>
+      </c>
+      <c r="D106" s="20">
         <f t="shared" si="30"/>
-        <v>298.23750000000001</v>
-      </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="15">
-        <v>15</v>
-      </c>
-      <c r="C90" s="20">
-        <f t="shared" si="28"/>
-        <v>2253.35</v>
-      </c>
-      <c r="D90" s="20">
-        <f t="shared" si="29"/>
+        <v>1615</v>
+      </c>
+      <c r="E106" s="20">
+        <f t="shared" si="31"/>
         <v>1700</v>
       </c>
-      <c r="E90" s="20">
-        <f t="shared" si="30"/>
-        <v>397.65</v>
-      </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="44" t="s">
+      <c r="F106" s="20">
+        <f t="shared" si="32"/>
+        <v>285</v>
+      </c>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="59"/>
+      <c r="B107" s="53"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="59"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="45">
-        <v>1.3254999999999999</v>
-      </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16">
-        <f>B1*C92</f>
-        <v>2651</v>
-      </c>
-      <c r="D93" s="16" t="s">
+      <c r="D108" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="G108" s="45"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16">
+        <f>C1*D108</f>
+        <v>1900</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I94" s="5" t="s">
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J110" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="K110" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="L110" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="20">
-        <f>(E95/(C95+E95))*100</f>
-        <v>0.29336542801263726</v>
-      </c>
-      <c r="C95" s="4">
-        <f>$C$92*D95</f>
-        <v>2651</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="B111" s="74">
+        <v>6</v>
+      </c>
+      <c r="C111" s="20">
+        <f>(F111/(D111+F111))*100</f>
+        <v>0.61202071454726159</v>
+      </c>
+      <c r="D111" s="4">
+        <f>$D$108*E111</f>
+        <v>1900</v>
+      </c>
+      <c r="E111" s="4">
         <v>2000</v>
       </c>
-      <c r="E95" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="K95" s="53">
+      <c r="F111" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="L111" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="20">
-        <f t="shared" ref="B96:B97" si="31">(E96/(C96+E96))*100</f>
-        <v>7.6056228943190192</v>
-      </c>
-      <c r="C96" s="4">
-        <f t="shared" ref="C96:C97" si="32">$C$92*D96</f>
-        <v>2385.8999999999996</v>
-      </c>
-      <c r="D96" s="4">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="65"/>
+      <c r="B112" s="74">
+        <v>7</v>
+      </c>
+      <c r="C112" s="20">
+        <f t="shared" ref="C112:C115" si="33">(F112/(D112+F112))*100</f>
+        <v>4.9399620813145146</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" ref="D112:D115" si="34">$D$108*E112</f>
+        <v>1805</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1900</v>
+      </c>
+      <c r="F112" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="L112" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="65"/>
+      <c r="B113" s="74">
+        <v>8</v>
+      </c>
+      <c r="C113" s="20">
+        <f t="shared" si="33"/>
+        <v>8.0002152041749603</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="34"/>
+        <v>1710</v>
+      </c>
+      <c r="E113" s="4">
         <v>1800</v>
       </c>
-      <c r="E96" s="4">
-        <v>196.4</v>
-      </c>
-      <c r="K96" s="53">
+      <c r="F113" s="4">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="L113" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="20">
-        <f t="shared" si="31"/>
-        <v>14.979153696681571</v>
-      </c>
-      <c r="C97" s="4">
-        <f t="shared" si="32"/>
-        <v>2253.35</v>
-      </c>
-      <c r="D97" s="4">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="65"/>
+      <c r="B114" s="74">
+        <v>9</v>
+      </c>
+      <c r="C114" s="20">
+        <f t="shared" si="33"/>
+        <v>11.43108717045631</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="34"/>
+        <v>1710</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F114" s="4">
+        <v>220.7</v>
+      </c>
+      <c r="L114" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="65"/>
+      <c r="B115" s="74">
+        <v>10</v>
+      </c>
+      <c r="C115" s="20">
+        <f t="shared" si="33"/>
+        <v>15.165204601565371</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="34"/>
+        <v>1615</v>
+      </c>
+      <c r="E115" s="4">
         <v>1700</v>
       </c>
-      <c r="E97" s="4">
-        <v>397</v>
-      </c>
-      <c r="K97" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="53"/>
-    </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="36"/>
-      <c r="K99" s="53"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="C100" s="20">
-        <f>$C$107*((100-B100)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="D100" s="20">
-        <f>C100/$C$106</f>
-        <v>1995</v>
-      </c>
-      <c r="E100" s="20">
-        <f>$C$107*(B100/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
-      <c r="B101" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="C101" s="20">
-        <f t="shared" ref="C101:C104" si="33">$C$107*((100-B101)/100)</f>
-        <v>1828.75</v>
-      </c>
-      <c r="D101" s="20">
-        <f t="shared" ref="D101:D104" si="34">C101/$C$106</f>
-        <v>1925</v>
-      </c>
-      <c r="E101" s="20">
-        <f t="shared" ref="E101:E104" si="35">$C$107*(B101/100)</f>
-        <v>71.25</v>
-      </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
-      <c r="B102" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="C102" s="20">
-        <f t="shared" si="33"/>
-        <v>1757.5</v>
-      </c>
-      <c r="D102" s="20">
-        <f t="shared" si="34"/>
-        <v>1850</v>
-      </c>
-      <c r="E102" s="20">
-        <f t="shared" si="35"/>
-        <v>142.5</v>
-      </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="C103" s="20">
-        <f t="shared" si="33"/>
-        <v>1686.25</v>
-      </c>
-      <c r="D103" s="20">
-        <f t="shared" si="34"/>
-        <v>1775</v>
-      </c>
-      <c r="E103" s="20">
-        <f t="shared" si="35"/>
-        <v>213.75</v>
-      </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="15">
-        <v>15</v>
-      </c>
-      <c r="C104" s="20">
-        <f t="shared" si="33"/>
-        <v>1615</v>
-      </c>
-      <c r="D104" s="20">
-        <f t="shared" si="34"/>
-        <v>1700</v>
-      </c>
-      <c r="E104" s="20">
-        <f t="shared" si="35"/>
-        <v>285</v>
-      </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45">
-        <v>1.07</v>
-      </c>
-      <c r="F106" s="45"/>
-      <c r="G106" s="16"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16">
-        <f>B1*C106</f>
-        <v>1900</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I108" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="20">
-        <f>(E109/(C109+E109))*100</f>
-        <v>0.61202071454726159</v>
-      </c>
-      <c r="C109" s="4">
-        <f>$C$106*D109</f>
-        <v>1900</v>
-      </c>
-      <c r="D109" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E109" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="K109" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
-      <c r="B110" s="20">
-        <f t="shared" ref="B110:B113" si="36">(E110/(C110+E110))*100</f>
-        <v>4.9399620813145146</v>
-      </c>
-      <c r="C110" s="4">
-        <f t="shared" ref="C110:C113" si="37">$C$106*D110</f>
-        <v>1805</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1900</v>
-      </c>
-      <c r="E110" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="K110" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="20">
-        <f t="shared" si="36"/>
-        <v>8.0002152041749603</v>
-      </c>
-      <c r="C111" s="4">
-        <f t="shared" si="37"/>
-        <v>1710</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E111" s="4">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="K111" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
-      <c r="B112" s="20">
-        <f t="shared" si="36"/>
-        <v>11.43108717045631</v>
-      </c>
-      <c r="C112" s="4">
-        <f t="shared" si="37"/>
-        <v>1710</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E112" s="4">
-        <v>220.7</v>
-      </c>
-      <c r="K112" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
-      <c r="B113" s="20">
-        <f t="shared" si="36"/>
-        <v>15.165204601565371</v>
-      </c>
-      <c r="C113" s="4">
-        <f t="shared" si="37"/>
-        <v>1615</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1700</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="F115" s="4">
         <v>288.7</v>
       </c>
-      <c r="K113" s="53">
+      <c r="L115" s="58">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A111:A115"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A96:A98"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A29:A37"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF82EC1-2DD6-4BED-A862-E1B348D7921B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD9D002-9D9E-40DB-B65A-5CD0A348EFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6660" windowWidth="22305" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
   <si>
     <t>Pa.s</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Sample Set 00</t>
+  </si>
+  <si>
+    <t>too thick</t>
+  </si>
+  <si>
+    <t>too thin</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +437,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -476,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,15 +622,15 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,14 +1083,14 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1610,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,13 +1640,13 @@
     <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="12" width="23.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="13">
         <v>2000</v>
       </c>
@@ -1642,7 +1655,7 @@
       </c>
       <c r="I1" s="32"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>97</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="53" t="str">
         <f>"000"</f>
@@ -1700,13 +1713,13 @@
         <v>1.7899999999999999E-4</v>
       </c>
       <c r="K4" s="58">
-        <v>1.0679999999999999E-3</v>
+        <v>0.106836</v>
       </c>
       <c r="L4" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="53" t="str">
         <f>"025"</f>
@@ -1732,14 +1745,14 @@
       <c r="J5" s="58">
         <v>6.1300000000000005E-4</v>
       </c>
-      <c r="K5" s="58">
-        <v>0.22628300000000001</v>
+      <c r="K5" s="14">
+        <v>22.628292999999999</v>
       </c>
       <c r="L5" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="53" t="str">
         <f>"050"</f>
@@ -1765,14 +1778,14 @@
       <c r="J6" s="58">
         <v>1.6898E-2</v>
       </c>
-      <c r="K6" s="58">
-        <v>6.1878140000000004</v>
+      <c r="K6" s="14">
+        <v>618.78667700000005</v>
       </c>
       <c r="L6" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="53" t="str">
         <f>"075"</f>
@@ -1795,17 +1808,17 @@
         <v>11.37</v>
       </c>
       <c r="I7" s="34"/>
-      <c r="J7" s="58">
+      <c r="J7" s="66">
         <v>5.9131999999999997E-2</v>
       </c>
-      <c r="K7" s="66">
-        <v>160.302536</v>
+      <c r="K7" s="58">
+        <v>4278.319708</v>
       </c>
       <c r="L7" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="53" t="str">
         <f>"100"</f>
@@ -1831,14 +1844,14 @@
       <c r="J8" s="66">
         <v>-0.14122599999999999</v>
       </c>
-      <c r="K8" s="58">
-        <v>129.274227</v>
+      <c r="K8" s="14">
+        <v>12927.421598000001</v>
       </c>
       <c r="L8" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="53"/>
       <c r="C9" s="19"/>
@@ -1851,7 +1864,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="53"/>
       <c r="C10" s="44" t="s">
@@ -1870,10 +1883,9 @@
       <c r="H10" s="44"/>
       <c r="I10" s="35"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
       <c r="L10" s="58"/>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="53"/>
       <c r="C11" s="16"/>
@@ -1888,10 +1900,9 @@
       <c r="H11" s="46"/>
       <c r="I11" s="35"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>97</v>
       </c>
@@ -1910,7 +1921,7 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="53"/>
       <c r="C14" s="15">
@@ -1930,11 +1941,8 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="O14" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="53"/>
       <c r="C15" s="15">
@@ -1954,11 +1962,8 @@
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="O15" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="53"/>
       <c r="C16" s="15">
@@ -1978,9 +1983,6 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="O16" s="4">
-        <v>100</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
@@ -3162,6 +3164,8 @@
       <c r="F71" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="36"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3182,8 +3186,8 @@
         <f>$D$79*(C72/100)</f>
         <v>7.4160000000000004</v>
       </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="70"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="59"/>
@@ -3203,8 +3207,8 @@
         <f>$D$79*(C73/100)</f>
         <v>111.24</v>
       </c>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="59"/>
@@ -3224,8 +3228,8 @@
         <f>$D$79*(C74/100)</f>
         <v>222.48</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="59"/>
@@ -3245,8 +3249,8 @@
         <f>$D$79*(C75/100)</f>
         <v>333.72</v>
       </c>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="70"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="59"/>
@@ -3266,12 +3270,14 @@
         <f>$D$79*(C76/100)</f>
         <v>444.96</v>
       </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="70"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="59"/>
       <c r="B77" s="53"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="59"/>
@@ -3286,8 +3292,8 @@
       <c r="F78" s="45">
         <v>1.2</v>
       </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="16"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="75"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="59"/>
@@ -3301,8 +3307,8 @@
         <v>76</v>
       </c>
       <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="64"/>
@@ -3311,8 +3317,8 @@
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
       <c r="J80" s="5" t="s">
         <v>99</v>
       </c>
@@ -3344,8 +3350,8 @@
       <c r="F81" s="6">
         <v>7.3</v>
       </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="75"/>
       <c r="L81" s="58">
         <v>20</v>
       </c>
@@ -3369,8 +3375,8 @@
       <c r="F82" s="6">
         <v>219.2</v>
       </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
       <c r="L82" s="58">
         <v>20</v>
       </c>
@@ -3380,22 +3386,24 @@
       <c r="B83" s="54">
         <v>2</v>
       </c>
-      <c r="C83" s="72">
+      <c r="C83" s="68">
         <f t="shared" si="23"/>
-        <v>15.03265330880123</v>
-      </c>
-      <c r="D83" s="73">
+        <v>10.023052346351392</v>
+      </c>
+      <c r="D83" s="69">
         <f t="shared" si="24"/>
-        <v>2521.44</v>
-      </c>
-      <c r="E83" s="73">
-        <v>1700</v>
-      </c>
-      <c r="F83" s="73">
+        <v>4004.6400000000003</v>
+      </c>
+      <c r="E83" s="69">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="69">
         <v>446.1</v>
       </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="G83" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="75"/>
       <c r="L83" s="58">
         <v>20</v>
       </c>
@@ -3403,25 +3411,27 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
       <c r="B84" s="54"/>
-      <c r="C84" s="69">
+      <c r="C84" s="51">
         <f t="shared" si="23"/>
         <v>4.1196841667821031</v>
       </c>
-      <c r="D84" s="70">
+      <c r="D84" s="41">
         <f t="shared" si="24"/>
         <v>10382.4</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="41">
         <v>7000</v>
       </c>
-      <c r="F84" s="70">
+      <c r="F84" s="41">
         <v>446.1</v>
       </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
       <c r="L84" s="58"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
       <c r="L85" s="58"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,7 +3451,8 @@
       <c r="F86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G86" s="5"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="71"/>
       <c r="L86" s="58"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3462,8 +3473,8 @@
         <f>$D$94*(C87/100)</f>
         <v>6.6275000000000004</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
@@ -3483,8 +3494,8 @@
         <f t="shared" ref="F88:F91" si="27">$D$94*(C88/100)</f>
         <v>99.412499999999994</v>
       </c>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="59"/>
@@ -3504,8 +3515,8 @@
         <f t="shared" si="27"/>
         <v>198.82499999999999</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="59"/>
@@ -3525,8 +3536,8 @@
         <f t="shared" si="27"/>
         <v>298.23750000000001</v>
       </c>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="70"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="59"/>
@@ -3546,12 +3557,14 @@
         <f t="shared" si="27"/>
         <v>397.65</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="70"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="59"/>
       <c r="B92" s="53"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="59"/>
@@ -3566,8 +3579,8 @@
       <c r="F93" s="45">
         <v>1.2</v>
       </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="16"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="75"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="59"/>
@@ -3581,10 +3594,12 @@
         <v>76</v>
       </c>
       <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
       <c r="J95" s="5" t="s">
         <v>99</v>
       </c>
@@ -3616,6 +3631,8 @@
       <c r="F96" s="4">
         <v>7.8</v>
       </c>
+      <c r="G96" s="76"/>
+      <c r="H96" s="71"/>
       <c r="L96" s="58">
         <v>20</v>
       </c>
@@ -3639,6 +3656,8 @@
       <c r="F97" s="4">
         <v>196.4</v>
       </c>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
       <c r="L97" s="58">
         <v>20</v>
       </c>
@@ -3648,20 +3667,24 @@
       <c r="B98" s="56">
         <v>5</v>
       </c>
-      <c r="C98" s="72">
+      <c r="C98" s="68">
         <f t="shared" si="28"/>
         <v>14.979153696681571</v>
       </c>
-      <c r="D98" s="73">
+      <c r="D98" s="69">
         <f t="shared" si="29"/>
         <v>2253.35</v>
       </c>
-      <c r="E98" s="73">
+      <c r="E98" s="69">
         <v>1700</v>
       </c>
-      <c r="F98" s="73">
+      <c r="F98" s="69">
         <v>397</v>
       </c>
+      <c r="G98" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98" s="71"/>
       <c r="L98" s="58">
         <v>20</v>
       </c>
@@ -3669,7 +3692,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
-      <c r="C99" s="68">
+      <c r="C99" s="70">
         <f t="shared" si="28"/>
         <v>4.2187367168239396</v>
       </c>
@@ -3683,9 +3706,13 @@
       <c r="F99" s="71">
         <v>397</v>
       </c>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
       <c r="L99" s="58"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
       <c r="L100" s="58"/>
     </row>
     <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3863,22 +3890,25 @@
       <c r="A111" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B111" s="74">
+      <c r="B111" s="54">
         <v>6</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="68">
         <f>(F111/(D111+F111))*100</f>
         <v>0.61202071454726159</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="69">
         <f>$D$108*E111</f>
         <v>1900</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="69">
         <v>2000</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="69">
         <v>11.7</v>
+      </c>
+      <c r="G111" s="76" t="s">
+        <v>104</v>
       </c>
       <c r="L111" s="58">
         <v>20</v>
@@ -3886,99 +3916,209 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="65"/>
-      <c r="B112" s="74">
-        <v>7</v>
-      </c>
+      <c r="B112" s="54"/>
       <c r="C112" s="20">
-        <f t="shared" ref="C112:C115" si="33">(F112/(D112+F112))*100</f>
-        <v>4.9399620813145146</v>
+        <f t="shared" ref="C112:C120" si="33">(F112/(D112+F112))*100</f>
+        <v>15.593069746779209</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" ref="D112:D115" si="34">$D$108*E112</f>
-        <v>1805</v>
+        <f t="shared" ref="D112:D120" si="34">$D$108*E112</f>
+        <v>1900</v>
       </c>
       <c r="E112" s="4">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F112" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="L112" s="58">
-        <v>20</v>
-      </c>
+        <f>F111*30</f>
+        <v>351</v>
+      </c>
+      <c r="L112" s="58"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="65"/>
-      <c r="B113" s="74">
+      <c r="B113" s="54">
+        <v>7</v>
+      </c>
+      <c r="C113" s="68">
+        <f t="shared" si="33"/>
+        <v>4.9399620813145146</v>
+      </c>
+      <c r="D113" s="69">
+        <f t="shared" si="34"/>
+        <v>1805</v>
+      </c>
+      <c r="E113" s="69">
+        <v>1900</v>
+      </c>
+      <c r="F113" s="69">
+        <v>93.8</v>
+      </c>
+      <c r="G113" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L113" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="65"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="20">
+        <f t="shared" si="33"/>
+        <v>60.922277549253089</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="34"/>
+        <v>1805</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1900</v>
+      </c>
+      <c r="F114" s="4">
+        <f>F113*30</f>
+        <v>2814</v>
+      </c>
+      <c r="L114" s="58"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="65"/>
+      <c r="B115" s="54">
         <v>8</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C115" s="68">
         <f t="shared" si="33"/>
         <v>8.0002152041749603</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D115" s="69">
         <f t="shared" si="34"/>
         <v>1710</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E115" s="69">
         <v>1800</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F115" s="69">
         <v>148.69999999999999</v>
       </c>
-      <c r="L113" s="58">
+      <c r="G115" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L115" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="74">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="65"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="70">
+        <f t="shared" si="33"/>
+        <v>72.289742343218279</v>
+      </c>
+      <c r="D116" s="71">
+        <f t="shared" si="34"/>
+        <v>1710</v>
+      </c>
+      <c r="E116" s="71">
+        <v>1800</v>
+      </c>
+      <c r="F116" s="71">
+        <f>F115*30</f>
+        <v>4461</v>
+      </c>
+      <c r="L116" s="58"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="65"/>
+      <c r="B117" s="54">
         <v>9</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C117" s="68">
         <f t="shared" si="33"/>
         <v>11.43108717045631</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D117" s="69">
         <f t="shared" si="34"/>
         <v>1710</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E117" s="69">
         <v>1800</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F117" s="69">
         <v>220.7</v>
       </c>
-      <c r="L114" s="58">
+      <c r="G117" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L117" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="74">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="65"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="20">
+        <f t="shared" si="33"/>
+        <v>79.474252790781421</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" si="34"/>
+        <v>1710</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F118" s="4">
+        <f>F117*30</f>
+        <v>6621</v>
+      </c>
+      <c r="L118" s="58"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="65"/>
+      <c r="B119" s="54">
         <v>10</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C119" s="68">
         <f t="shared" si="33"/>
         <v>15.165204601565371</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D119" s="69">
         <f t="shared" si="34"/>
         <v>1615</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E119" s="69">
         <v>1700</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F119" s="69">
         <v>288.7</v>
       </c>
-      <c r="L115" s="58">
+      <c r="G119" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L119" s="58">
         <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="71"/>
+      <c r="C120" s="20">
+        <f t="shared" si="33"/>
+        <v>84.283768003114062</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" si="34"/>
+        <v>1615</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1700</v>
+      </c>
+      <c r="F120" s="4">
+        <f>F119*30</f>
+        <v>8661</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A111:A119"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A71:A79"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD9D002-9D9E-40DB-B65A-5CD0A348EFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEC21F-73BF-4DA0-87E4-7F81064B62EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>Pa.s</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>too thin</t>
+  </si>
+  <si>
+    <t>too thick ?</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3378,9 @@
       <c r="F82" s="6">
         <v>219.2</v>
       </c>
-      <c r="G82" s="75"/>
+      <c r="G82" s="73" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" s="75"/>
       <c r="L82" s="58">
         <v>20</v>
@@ -3656,7 +3661,9 @@
       <c r="F97" s="4">
         <v>196.4</v>
       </c>
-      <c r="G97" s="71"/>
+      <c r="G97" s="73" t="s">
+        <v>105</v>
+      </c>
       <c r="H97" s="71"/>
       <c r="L97" s="58">
         <v>20</v>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEC21F-73BF-4DA0-87E4-7F81064B62EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E33868-01CB-4FE5-AB54-047F1D7AC25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t>Pa.s</t>
   </si>
@@ -353,6 +353,11 @@
   </si>
   <si>
     <t>too thick ?</t>
+  </si>
+  <si>
+    <t>Sample
+Set
+01</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,9 +1648,7 @@
     <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1928,19 +1931,19 @@
       <c r="A14" s="59"/>
       <c r="B14" s="53"/>
       <c r="C14" s="15">
-        <v>0.25</v>
+        <v>11</v>
       </c>
       <c r="D14" s="20">
         <f>$D$21*((100-C14)/100)</f>
-        <v>1771.5600000000002</v>
+        <v>1580.64</v>
       </c>
       <c r="E14" s="20">
         <f>D14/$D$20</f>
-        <v>1995.0000000000002</v>
+        <v>1780</v>
       </c>
       <c r="F14" s="20">
         <f>$D$21*(C14/100)</f>
-        <v>4.4400000000000004</v>
+        <v>195.36</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1949,19 +1952,19 @@
       <c r="A15" s="59"/>
       <c r="B15" s="53"/>
       <c r="C15" s="15">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" ref="D15:D18" si="1">$D$21*((100-C15)/100)</f>
-        <v>1709.4</v>
+        <f>$D$21*((100-C15)/100)</f>
+        <v>1545.12</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" ref="E15:E18" si="2">D15/$D$20</f>
-        <v>1925</v>
+        <f>D15/$D$20</f>
+        <v>1739.9999999999998</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" ref="F15:F18" si="3">$D$21*(C15/100)</f>
-        <v>66.599999999999994</v>
+        <f>$D$21*(C15/100)</f>
+        <v>230.88</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -1970,19 +1973,19 @@
       <c r="A16" s="59"/>
       <c r="B16" s="53"/>
       <c r="C16" s="15">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="1"/>
-        <v>1642.8000000000002</v>
+        <f>$D$21*((100-C16)/100)</f>
+        <v>1509.6</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="2"/>
-        <v>1850.0000000000002</v>
+        <f>D16/$D$20</f>
+        <v>1699.9999999999998</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="3"/>
-        <v>133.19999999999999</v>
+        <f>$D$21*(C16/100)</f>
+        <v>266.39999999999998</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1991,19 +1994,19 @@
       <c r="A17" s="59"/>
       <c r="B17" s="53"/>
       <c r="C17" s="15">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="1"/>
-        <v>1576.1999999999998</v>
+        <f>$D$21*((100-C17)/100)</f>
+        <v>1474.08</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="2"/>
-        <v>1774.9999999999998</v>
+        <f>D17/$D$20</f>
+        <v>1660</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="3"/>
-        <v>199.8</v>
+        <f>$D$21*(C17/100)</f>
+        <v>301.92</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -2012,19 +2015,19 @@
       <c r="A18" s="59"/>
       <c r="B18" s="53"/>
       <c r="C18" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>1509.6</v>
+        <f>$D$21*((100-C18)/100)</f>
+        <v>1438.5600000000002</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="2"/>
-        <v>1699.9999999999998</v>
+        <f>D18/$D$20</f>
+        <v>1620.0000000000002</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="3"/>
-        <v>266.39999999999998</v>
+        <f>$D$21*(C18/100)</f>
+        <v>337.44</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -2078,36 +2081,26 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B23" s="56">
         <v>0</v>
       </c>
       <c r="C23" s="20">
         <f>(F23/(D23+F23))*100</f>
-        <v>0.25833988543187686</v>
+        <v>0</v>
       </c>
       <c r="D23" s="20">
         <f>$D$20*E23</f>
-        <v>1776</v>
+        <v>1598.4</v>
       </c>
       <c r="E23" s="20">
-        <v>2000</v>
-      </c>
-      <c r="F23" s="20">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="J23" s="4">
-        <v>2.6400000000000002E-4</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1.7329999999999999E-3</v>
-      </c>
-      <c r="L23" s="58">
-        <v>20</v>
-      </c>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
@@ -2115,30 +2108,21 @@
         <v>1</v>
       </c>
       <c r="C24" s="20">
-        <f t="shared" ref="C24:C27" si="4">(F24/(D24+F24))*100</f>
-        <v>4.1635898892360119</v>
+        <f t="shared" ref="C24:C27" si="1">(F24/(D24+F24))*100</f>
+        <v>0</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" ref="D24:D27" si="5">$D$20*E24</f>
-        <v>1687.2</v>
+        <f t="shared" ref="D24:D27" si="2">$D$20*E24</f>
+        <v>1509.6</v>
       </c>
       <c r="E24" s="20">
-        <v>1900</v>
-      </c>
-      <c r="F24" s="20">
-        <v>73.3</v>
-      </c>
+        <v>1700</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="J24" s="4">
-        <v>2.9629999999999999E-3</v>
-      </c>
-      <c r="K24" s="67">
-        <v>0.95067100000000004</v>
-      </c>
-      <c r="L24" s="58">
-        <v>20</v>
-      </c>
+      <c r="K24" s="67"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
@@ -2146,30 +2130,22 @@
         <v>2</v>
       </c>
       <c r="C25" s="20">
-        <f t="shared" si="4"/>
-        <v>8.3275980729525099</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D25" s="20">
-        <f t="shared" si="5"/>
-        <v>1598.4</v>
+        <f t="shared" si="2"/>
+        <v>1509.6</v>
       </c>
       <c r="E25" s="20">
-        <v>1800</v>
-      </c>
-      <c r="F25" s="20">
-        <v>145.19999999999999</v>
-      </c>
+        <v>1700</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="J25" s="67">
-        <v>3.5182999999999999E-2</v>
-      </c>
-      <c r="K25" s="67">
-        <v>4.2918999999999999E-2</v>
-      </c>
-      <c r="L25" s="58">
-        <v>20</v>
-      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
@@ -2177,30 +2153,20 @@
         <v>3</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" si="4"/>
-        <v>11.031949237448513</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="5"/>
-        <v>1598.4</v>
+        <f t="shared" si="2"/>
+        <v>1509.6</v>
       </c>
       <c r="E26" s="20">
-        <v>1800</v>
-      </c>
-      <c r="F26" s="20">
-        <v>198.2</v>
-      </c>
+        <v>1700</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="J26" s="4">
-        <v>2.8964E-2</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.31996999999999998</v>
-      </c>
-      <c r="L26" s="58">
-        <v>20</v>
-      </c>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
@@ -2208,1937 +2174,2362 @@
         <v>4</v>
       </c>
       <c r="C27" s="20">
-        <f t="shared" si="4"/>
-        <v>15.172902080219371</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" si="5"/>
-        <v>1509.6</v>
+        <f t="shared" si="2"/>
+        <v>1420.8</v>
       </c>
       <c r="E27" s="20">
-        <v>1700</v>
-      </c>
-      <c r="F27" s="20">
-        <v>270.02</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="J27" s="4">
+      <c r="K27" s="67"/>
+      <c r="L27" s="58"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="56">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20">
+        <f>(F29/(D29+F29))*100</f>
+        <v>0.25833988543187686</v>
+      </c>
+      <c r="D29" s="20">
+        <f>$D$20*E29</f>
+        <v>1776</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="J29" s="4">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.7329999999999999E-3</v>
+      </c>
+      <c r="L29" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="56">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" ref="C30:C33" si="3">(F30/(D30+F30))*100</f>
+        <v>4.1635898892360119</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:D33" si="4">$D$20*E30</f>
+        <v>1687.2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1900</v>
+      </c>
+      <c r="F30" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="J30" s="4">
+        <v>2.9629999999999999E-3</v>
+      </c>
+      <c r="K30" s="67">
+        <v>0.95067100000000004</v>
+      </c>
+      <c r="L30" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="56">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" si="3"/>
+        <v>8.3275980729525099</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="4"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1800</v>
+      </c>
+      <c r="F31" s="20">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="J31" s="67">
+        <v>3.5182999999999999E-2</v>
+      </c>
+      <c r="K31" s="67">
+        <v>4.2918999999999999E-2</v>
+      </c>
+      <c r="L31" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="56">
+        <v>3</v>
+      </c>
+      <c r="C32" s="20">
+        <f t="shared" si="3"/>
+        <v>11.031949237448513</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="4"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="20">
+        <v>198.2</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="J32" s="4">
+        <v>2.8964E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.31996999999999998</v>
+      </c>
+      <c r="L32" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="56">
+        <v>4</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="3"/>
+        <v>15.172902080219371</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="4"/>
+        <v>1509.6</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1700</v>
+      </c>
+      <c r="F33" s="20">
+        <v>270.02</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="J33" s="4">
         <v>0.198681</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K33" s="67">
         <v>1.2781130000000001</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L33" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="31" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="20">
-        <f>$D$37*((100-C30)*0.75/100)</f>
-        <v>1351.8618750000001</v>
-      </c>
-      <c r="E30" s="20">
-        <f>D30/$D$36</f>
-        <v>1522.3669763513515</v>
-      </c>
-      <c r="F30" s="20">
-        <f>$D$37*((100-C30)*0.25/100)</f>
-        <v>450.62062500000002</v>
-      </c>
-      <c r="G30" s="20">
-        <f>F30/$F$36</f>
-        <v>474.33750000000003</v>
-      </c>
-      <c r="H30" s="20">
-        <f>$D$37*(C30/100)</f>
-        <v>4.5175000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="D31" s="20">
-        <f t="shared" ref="D31:D34" si="6">$D$37*((100-C31)*0.75/100)</f>
-        <v>1304.4281250000001</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" ref="E31:E34" si="7">D31/$D$36</f>
-        <v>1468.9505912162163</v>
-      </c>
-      <c r="F31" s="20">
-        <f t="shared" ref="F31:F34" si="8">$D$37*((100-C31)*0.25/100)</f>
-        <v>434.80937499999999</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" ref="G31:G34" si="9">F31/$F$36</f>
-        <v>457.69407894736844</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" ref="H31:H34" si="10">$D$37*(C31/100)</f>
-        <v>67.762500000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D32" s="20">
-        <f t="shared" si="6"/>
-        <v>1253.60625</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="7"/>
-        <v>1411.71875</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="8"/>
-        <v>417.86875000000003</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="9"/>
-        <v>439.86184210526324</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" si="10"/>
-        <v>135.52500000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="D33" s="20">
-        <f t="shared" si="6"/>
-        <v>1202.784375</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" si="7"/>
-        <v>1354.4869087837837</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="8"/>
-        <v>400.92812499999997</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="9"/>
-        <v>422.02960526315786</v>
-      </c>
-      <c r="H33" s="20">
-        <f t="shared" si="10"/>
-        <v>203.28749999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="15">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f t="shared" si="6"/>
-        <v>1151.9624999999999</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="7"/>
-        <v>1297.2550675675675</v>
-      </c>
-      <c r="F34" s="20">
-        <f t="shared" si="8"/>
-        <v>383.98750000000001</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="9"/>
-        <v>404.19736842105266</v>
-      </c>
-      <c r="H34" s="20">
-        <f t="shared" si="10"/>
-        <v>271.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="53"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="53"/>
-      <c r="C36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="45">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45">
-        <v>0.95</v>
+      <c r="C36" s="15">
+        <v>11</v>
+      </c>
+      <c r="D36" s="20">
+        <f>$D$43*((100-C36)*0.75/100)</f>
+        <v>1206.1724999999999</v>
+      </c>
+      <c r="E36" s="20">
+        <f>D36/$D$42</f>
+        <v>1358.3023648648648</v>
+      </c>
+      <c r="F36" s="20">
+        <f>$D$43*((100-C36)*0.25/100)</f>
+        <v>402.0575</v>
       </c>
       <c r="G36" s="20">
-        <v>1400</v>
-      </c>
-      <c r="H36" s="45">
-        <v>1.04</v>
+        <f>F36/$F$42</f>
+        <v>423.21842105263158</v>
+      </c>
+      <c r="H36" s="20">
+        <f>$D$43*(C36/100)</f>
+        <v>198.77</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="53"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16">
-        <f>C1*((D36*0.75)+(F36*0.25))</f>
+      <c r="C37" s="15">
+        <v>13</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" ref="D37:D40" si="5">$D$43*((100-C37)*0.75/100)</f>
+        <v>1179.0674999999999</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" ref="E37:E40" si="6">D37/$D$42</f>
+        <v>1327.778716216216</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" ref="F37:F40" si="7">$D$43*((100-C37)*0.25/100)</f>
+        <v>393.02249999999998</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" ref="G37:G40" si="8">F37/$F$42</f>
+        <v>413.70789473684209</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" ref="H37:H40" si="9">$D$43*(C37/100)</f>
+        <v>234.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="15">
+        <v>15</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="5"/>
+        <v>1151.9624999999999</v>
+      </c>
+      <c r="E38" s="20">
+        <f t="shared" si="6"/>
+        <v>1297.2550675675675</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="7"/>
+        <v>383.98750000000001</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" si="8"/>
+        <v>404.19736842105266</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="9"/>
+        <v>271.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="15">
+        <v>17</v>
+      </c>
+      <c r="D39" s="20">
+        <f t="shared" si="5"/>
+        <v>1124.8575000000001</v>
+      </c>
+      <c r="E39" s="20">
+        <f t="shared" si="6"/>
+        <v>1266.731418918919</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="7"/>
+        <v>374.95249999999999</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="8"/>
+        <v>394.68684210526317</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="9"/>
+        <v>307.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="15">
+        <v>19</v>
+      </c>
+      <c r="D40" s="20">
+        <f t="shared" si="5"/>
+        <v>1097.7525000000001</v>
+      </c>
+      <c r="E40" s="20">
+        <f t="shared" si="6"/>
+        <v>1236.2077702702702</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="7"/>
+        <v>365.91750000000002</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="8"/>
+        <v>385.17631578947373</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="9"/>
+        <v>343.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="53"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1400</v>
+      </c>
+      <c r="H42" s="45">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16">
+        <f>C1*((D42*0.75)+(F42*0.25))</f>
         <v>1807</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="5" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="56">
+        <v>5</v>
+      </c>
+      <c r="C45" s="20">
+        <f>(H45/(D45+F45+H45))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="20">
+        <f>$D$42*E45</f>
+        <v>1243.2</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="20">
+        <f>$F$42*G45</f>
+        <v>380</v>
+      </c>
+      <c r="G45" s="20">
+        <v>400</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="58"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="57">
+        <v>6</v>
+      </c>
+      <c r="C46" s="20">
+        <f t="shared" ref="C46:C49" si="10">(H46/(D46+F46+H46))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <f t="shared" ref="D46" si="11">$D$42*E46</f>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" ref="F46:F49" si="12">$F$42*G46</f>
+        <v>380</v>
+      </c>
+      <c r="G46" s="20">
+        <v>400</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="L46" s="58"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="57">
+        <v>7</v>
+      </c>
+      <c r="C47" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="20">
+        <v>1151</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="20">
+        <v>383</v>
+      </c>
+      <c r="G47" s="20">
+        <v>400</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="58"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="57">
+        <v>8</v>
+      </c>
+      <c r="C48" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <f t="shared" ref="D48:D49" si="13">$D$42*E48</f>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E48" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="12"/>
+        <v>380</v>
+      </c>
+      <c r="G48" s="20">
+        <v>400</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="57">
+        <v>9</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <f t="shared" si="13"/>
+        <v>1065.5999999999999</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="12"/>
+        <v>380</v>
+      </c>
+      <c r="G49" s="20">
+        <v>400</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="L49" s="58"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B51" s="56">
         <v>5</v>
       </c>
-      <c r="C39" s="20">
-        <f>(H39/(D39+F39+H39))*100</f>
+      <c r="C51" s="20">
+        <f>(H51/(D51+F51+H51))*100</f>
         <v>1.4023026136301631</v>
       </c>
-      <c r="D39" s="20">
-        <f>$D$36*E39</f>
+      <c r="D51" s="20">
+        <f>$D$42*E51</f>
         <v>1332</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E51" s="20">
         <v>1500</v>
       </c>
-      <c r="F39" s="20">
-        <f>$F$36*G39</f>
+      <c r="F51" s="20">
+        <f>$F$42*G51</f>
         <v>475</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G51" s="20">
         <v>500</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H51" s="20">
         <v>25.7</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J51" s="6">
         <v>8.7530000000000004E-3</v>
       </c>
-      <c r="K39" s="67">
+      <c r="K51" s="67">
         <v>8.3807010000000002</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L51" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="57">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="57">
         <v>6</v>
       </c>
-      <c r="C40" s="20">
-        <f t="shared" ref="C40:C43" si="11">(H40/(D40+F40+H40))*100</f>
+      <c r="C52" s="20">
+        <f t="shared" ref="C52:C55" si="14">(H52/(D52+F52+H52))*100</f>
         <v>3.8727524204702628</v>
       </c>
-      <c r="D40" s="20">
-        <f t="shared" ref="D40:D43" si="12">$D$36*E40</f>
+      <c r="D52" s="20">
+        <f t="shared" ref="D52:D55" si="15">$D$42*E52</f>
         <v>1332</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E52" s="20">
         <v>1500</v>
       </c>
-      <c r="F40" s="20">
-        <f t="shared" ref="F40:F43" si="13">$F$36*G40</f>
+      <c r="F52" s="20">
+        <f t="shared" ref="F52:F55" si="16">$F$42*G52</f>
         <v>475</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G52" s="20">
         <v>500</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H52" s="20">
         <v>72.8</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J52" s="4">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K52" s="4">
         <v>3.0336999999999999E-2</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L52" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="57">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="57">
         <v>7</v>
       </c>
-      <c r="C41" s="20">
-        <f t="shared" si="11"/>
+      <c r="C53" s="20">
+        <f t="shared" si="14"/>
         <v>8.0392045776443251</v>
       </c>
-      <c r="D41" s="20">
-        <f>$D$36*G36</f>
+      <c r="D53" s="20">
+        <f>$D$42*G42</f>
         <v>1243.2</v>
       </c>
-      <c r="F41" s="20">
-        <f t="shared" si="13"/>
+      <c r="E53" s="20">
+        <v>1400</v>
+      </c>
+      <c r="F53" s="20">
+        <f t="shared" si="16"/>
         <v>380</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G53" s="20">
         <v>400</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H53" s="20">
         <v>141.9</v>
       </c>
-      <c r="J41" s="67">
+      <c r="J53" s="67">
         <v>1.9382E-2</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K53" s="67">
         <v>0.236674</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L53" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="57">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="57">
         <v>8</v>
       </c>
-      <c r="C42" s="20">
-        <f t="shared" si="11"/>
+      <c r="C54" s="20">
+        <f t="shared" si="14"/>
         <v>11.750158164145628</v>
       </c>
-      <c r="D42" s="20">
-        <f t="shared" si="12"/>
+      <c r="D54" s="20">
+        <f t="shared" si="15"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E54" s="20">
         <v>1300</v>
       </c>
-      <c r="F42" s="20">
-        <f t="shared" si="13"/>
+      <c r="F54" s="20">
+        <f t="shared" si="16"/>
         <v>380</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G54" s="20">
         <v>400</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H54" s="20">
         <v>204.3</v>
       </c>
-      <c r="J42" s="67">
+      <c r="J54" s="67">
         <v>3.4037999999999999E-2</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K54" s="6">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L54" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="57">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="57">
         <v>9</v>
       </c>
-      <c r="C43" s="20">
-        <f t="shared" si="11"/>
+      <c r="C55" s="20">
+        <f t="shared" si="14"/>
         <v>14.646492740724259</v>
       </c>
-      <c r="D43" s="20">
-        <f t="shared" si="12"/>
+      <c r="D55" s="20">
+        <f t="shared" si="15"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E55" s="20">
         <v>1300</v>
       </c>
-      <c r="F43" s="20">
-        <f t="shared" si="13"/>
+      <c r="F55" s="20">
+        <f t="shared" si="16"/>
         <v>380</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G55" s="20">
         <v>400</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H55" s="20">
         <v>263.3</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J55" s="4">
         <v>6.9047999999999998E-2</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K55" s="4">
         <v>9.5713000000000006E-2</v>
-      </c>
-      <c r="L43" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="I45" s="36"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D46" s="20">
-        <f>$D$53*((100-C46)/100)</f>
-        <v>2048.8650000000002</v>
-      </c>
-      <c r="E46" s="20">
-        <f>D46/$D$52</f>
-        <v>1995.0000000000005</v>
-      </c>
-      <c r="F46" s="20">
-        <f>$D$53*(C46/100)</f>
-        <v>5.1349999999999998</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="D47" s="20">
-        <f t="shared" ref="D47:D50" si="14">$D$53*((100-C47)/100)</f>
-        <v>1976.9750000000001</v>
-      </c>
-      <c r="E47" s="20">
-        <f t="shared" ref="E47:E50" si="15">D47/$D$52</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F47" s="20">
-        <f t="shared" ref="F47:F50" si="16">$D$53*(C47/100)</f>
-        <v>77.024999999999991</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D48" s="20">
-        <f t="shared" si="14"/>
-        <v>1899.95</v>
-      </c>
-      <c r="E48" s="20">
-        <f t="shared" si="15"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F48" s="20">
-        <f t="shared" si="16"/>
-        <v>154.04999999999998</v>
-      </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="D49" s="20">
-        <f t="shared" si="14"/>
-        <v>1822.925</v>
-      </c>
-      <c r="E49" s="20">
-        <f t="shared" si="15"/>
-        <v>1775</v>
-      </c>
-      <c r="F49" s="20">
-        <f t="shared" si="16"/>
-        <v>231.07500000000002</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="15">
-        <v>15</v>
-      </c>
-      <c r="D50" s="20">
-        <f t="shared" si="14"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E50" s="20">
-        <f t="shared" si="15"/>
-        <v>1700</v>
-      </c>
-      <c r="F50" s="20">
-        <f t="shared" si="16"/>
-        <v>308.09999999999997</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="53"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="16">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="45">
-        <v>1.04</v>
-      </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16">
-        <f>C1*D52</f>
-        <v>2054</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="J54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="54">
-        <v>10</v>
-      </c>
-      <c r="C55" s="51">
-        <f>(F55/(D55+F55))*100</f>
-        <v>1.0263576350407171</v>
-      </c>
-      <c r="D55" s="52">
-        <f>$D$52*E55</f>
-        <v>2054</v>
-      </c>
-      <c r="E55" s="52">
-        <v>2000</v>
-      </c>
-      <c r="F55" s="52">
-        <v>21.3</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="J55" s="4">
-        <v>2.0917000000000002E-2</v>
-      </c>
-      <c r="K55" s="67">
-        <v>53.570850999999998</v>
       </c>
       <c r="L55" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="55">
+    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="I57" s="36"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="15">
         <v>11</v>
       </c>
-      <c r="C56" s="51">
-        <f t="shared" ref="C56:C59" si="17">(F56/(D56+F56))*100</f>
-        <v>3.5633092814075318</v>
-      </c>
-      <c r="D56" s="52">
-        <f t="shared" ref="D56:D59" si="18">$D$52*E56</f>
-        <v>1951.2999999999997</v>
-      </c>
-      <c r="E56" s="52">
-        <v>1900</v>
-      </c>
-      <c r="F56" s="52">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="J56" s="4">
-        <v>9.1500000000000001E-3</v>
-      </c>
-      <c r="K56" s="4">
-        <v>2.2258E-2</v>
-      </c>
-      <c r="L56" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="55">
-        <v>12</v>
-      </c>
-      <c r="C57" s="51">
+      <c r="D58" s="20">
+        <f>$D$65*((100-C58)/100)</f>
+        <v>1828.06</v>
+      </c>
+      <c r="E58" s="20">
+        <f>D58/$D$64</f>
+        <v>1780</v>
+      </c>
+      <c r="F58" s="20">
+        <f>$D$65*(C58/100)</f>
+        <v>225.94</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="15">
+        <v>13</v>
+      </c>
+      <c r="D59" s="20">
+        <f t="shared" ref="D59:D62" si="17">$D$65*((100-C59)/100)</f>
+        <v>1786.98</v>
+      </c>
+      <c r="E59" s="20">
+        <f t="shared" ref="E59:E62" si="18">D59/$D$64</f>
+        <v>1740.0000000000002</v>
+      </c>
+      <c r="F59" s="20">
+        <f t="shared" ref="F59:F62" si="19">$D$65*(C59/100)</f>
+        <v>267.02</v>
+      </c>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="15">
+        <v>15</v>
+      </c>
+      <c r="D60" s="20">
         <f t="shared" si="17"/>
-        <v>7.74067974247642</v>
-      </c>
-      <c r="D57" s="52">
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E60" s="20">
         <f t="shared" si="18"/>
-        <v>1848.6</v>
-      </c>
-      <c r="E57" s="52">
-        <v>1800</v>
-      </c>
-      <c r="F57" s="52">
-        <v>155.1</v>
-      </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="J57" s="4">
-        <v>3.1720999999999999E-2</v>
-      </c>
-      <c r="K57" s="67">
-        <v>2.6790000000000001E-2</v>
-      </c>
-      <c r="L57" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="55">
-        <v>13</v>
-      </c>
-      <c r="C58" s="51">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="20">
+        <f t="shared" si="19"/>
+        <v>308.09999999999997</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="15">
+        <v>17</v>
+      </c>
+      <c r="D61" s="20">
         <f t="shared" si="17"/>
-        <v>11.512134411947729</v>
-      </c>
-      <c r="D58" s="52">
+        <v>1704.82</v>
+      </c>
+      <c r="E61" s="20">
         <f t="shared" si="18"/>
-        <v>1848.6</v>
-      </c>
-      <c r="E58" s="52">
-        <v>1800</v>
-      </c>
-      <c r="F58" s="52">
-        <v>240.5</v>
-      </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="J58" s="4">
-        <v>8.6243E-2</v>
-      </c>
-      <c r="K58" s="4">
-        <v>1.5518959999999999</v>
-      </c>
-      <c r="L58" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="55">
-        <v>14</v>
-      </c>
-      <c r="C59" s="51">
-        <f t="shared" si="17"/>
-        <v>14.950311769290725</v>
-      </c>
-      <c r="D59" s="52">
-        <f t="shared" si="18"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E59" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F59" s="52">
-        <v>306.89999999999998</v>
-      </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="J59" s="4">
-        <v>0.15590399999999999</v>
-      </c>
-      <c r="K59" s="67">
-        <v>0.16277</v>
-      </c>
-      <c r="L59" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+        <v>1660</v>
+      </c>
+      <c r="F61" s="20">
+        <f t="shared" si="19"/>
+        <v>349.18</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="59"/>
       <c r="B62" s="53"/>
-      <c r="C62" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="D62" s="28">
-        <f t="shared" ref="D62:D63" si="19">$D$69*((100-C62)/100)</f>
-        <v>2048.8650000000002</v>
-      </c>
-      <c r="E62" s="28">
-        <f>D62/$D$68</f>
-        <v>1995.0000000000005</v>
-      </c>
-      <c r="F62" s="28">
-        <f>$D$69*((C62*0.3)/100)</f>
-        <v>1.5405</v>
-      </c>
-      <c r="G62" s="28">
-        <f>$D$69*((C62*0.7)/100)</f>
-        <v>3.5944999999999996</v>
-      </c>
-      <c r="H62" s="39"/>
+      <c r="C62" s="15">
+        <v>19</v>
+      </c>
+      <c r="D62" s="20">
+        <f t="shared" si="17"/>
+        <v>1663.74</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="18"/>
+        <v>1620.0000000000002</v>
+      </c>
+      <c r="F62" s="20">
+        <f t="shared" si="19"/>
+        <v>390.26</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="53"/>
-      <c r="C63" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D63" s="28">
-        <f t="shared" si="19"/>
-        <v>1976.9750000000001</v>
-      </c>
-      <c r="E63" s="28">
-        <f t="shared" ref="E63:E66" si="20">D63/$D$68</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F63" s="28">
-        <f t="shared" ref="F63:F66" si="21">$D$69*((C63*0.3)/100)</f>
-        <v>23.107499999999998</v>
-      </c>
-      <c r="G63" s="28">
-        <f>$D$69*((C63*0.7)/100)</f>
-        <v>53.917499999999997</v>
-      </c>
-      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="53"/>
-      <c r="C64" s="30">
-        <v>7.5</v>
-      </c>
-      <c r="D64" s="28">
-        <f>$D$69*((100-C64)/100)</f>
-        <v>1899.95</v>
-      </c>
-      <c r="E64" s="28">
-        <f t="shared" si="20"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F64" s="28">
-        <f t="shared" si="21"/>
-        <v>46.214999999999996</v>
-      </c>
-      <c r="G64" s="28">
-        <f>$D$69*((C64*0.7)/100)</f>
-        <v>107.83499999999999</v>
-      </c>
-      <c r="H64" s="39"/>
+      <c r="C64" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="G64" s="45"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="53"/>
-      <c r="C65" s="30">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16">
+        <f>C1*D64</f>
+        <v>2054</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="J66" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="54">
+        <v>10</v>
+      </c>
+      <c r="C67" s="51">
+        <f>(F67/(D67+F67))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="52">
+        <f>$D$64*E67</f>
+        <v>1848.6</v>
+      </c>
+      <c r="E67" s="52">
+        <v>1800</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="58"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="63"/>
+      <c r="B68" s="55">
+        <v>11</v>
+      </c>
+      <c r="C68" s="51">
+        <f t="shared" ref="C68:C71" si="20">(F68/(D68+F68))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="52">
+        <f t="shared" ref="D68:D71" si="21">$D$64*E68</f>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E68" s="52">
+        <v>1700</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="L68" s="58"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="63"/>
+      <c r="B69" s="55">
+        <v>12</v>
+      </c>
+      <c r="C69" s="51">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="52">
+        <f t="shared" si="21"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E69" s="52">
+        <v>1700</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="58"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="63"/>
+      <c r="B70" s="55">
+        <v>13</v>
+      </c>
+      <c r="C70" s="51">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="52">
+        <f t="shared" si="21"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E70" s="52">
+        <v>1700</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="L70" s="58"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="55">
+        <v>14</v>
+      </c>
+      <c r="C71" s="51">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="52">
+        <f t="shared" si="21"/>
+        <v>1643.1999999999998</v>
+      </c>
+      <c r="E71" s="52">
+        <v>1600</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="58"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="54">
+        <v>10</v>
+      </c>
+      <c r="C73" s="51">
+        <f>(F73/(D73+F73))*100</f>
+        <v>1.0263576350407171</v>
+      </c>
+      <c r="D73" s="52">
+        <f>$D$64*E73</f>
+        <v>2054</v>
+      </c>
+      <c r="E73" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F73" s="52">
+        <v>21.3</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="J73" s="4">
+        <v>2.0917000000000002E-2</v>
+      </c>
+      <c r="K73" s="67">
+        <v>53.570850999999998</v>
+      </c>
+      <c r="L73" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="63"/>
+      <c r="B74" s="55">
+        <v>11</v>
+      </c>
+      <c r="C74" s="51">
+        <f t="shared" ref="C74:C77" si="22">(F74/(D74+F74))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="D74" s="52">
+        <f t="shared" ref="D74:D77" si="23">$D$64*E74</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="E74" s="52">
+        <v>1900</v>
+      </c>
+      <c r="F74" s="52">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="J74" s="4">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="K74" s="4">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="L74" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="63"/>
+      <c r="B75" s="55">
+        <v>12</v>
+      </c>
+      <c r="C75" s="51">
+        <f t="shared" si="22"/>
+        <v>7.74067974247642</v>
+      </c>
+      <c r="D75" s="52">
+        <f t="shared" si="23"/>
+        <v>1848.6</v>
+      </c>
+      <c r="E75" s="52">
+        <v>1800</v>
+      </c>
+      <c r="F75" s="52">
+        <v>155.1</v>
+      </c>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="J75" s="4">
+        <v>3.1720999999999999E-2</v>
+      </c>
+      <c r="K75" s="67">
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="L75" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
+      <c r="B76" s="55">
+        <v>13</v>
+      </c>
+      <c r="C76" s="51">
+        <f t="shared" si="22"/>
+        <v>11.512134411947729</v>
+      </c>
+      <c r="D76" s="52">
+        <f t="shared" si="23"/>
+        <v>1848.6</v>
+      </c>
+      <c r="E76" s="52">
+        <v>1800</v>
+      </c>
+      <c r="F76" s="52">
+        <v>240.5</v>
+      </c>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="J76" s="4">
+        <v>8.6243E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.5518959999999999</v>
+      </c>
+      <c r="L76" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="55">
+        <v>14</v>
+      </c>
+      <c r="C77" s="51">
+        <f t="shared" si="22"/>
+        <v>14.950311769290725</v>
+      </c>
+      <c r="D77" s="52">
+        <f t="shared" si="23"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E77" s="52">
+        <v>1700</v>
+      </c>
+      <c r="F77" s="52">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="J77" s="4">
+        <v>0.15590399999999999</v>
+      </c>
+      <c r="K77" s="67">
+        <v>0.16277</v>
+      </c>
+      <c r="L77" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="53"/>
+      <c r="C79" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D80" s="28">
+        <f t="shared" ref="D80:D81" si="24">$D$87*((100-C80)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="E80" s="28">
+        <f>D80/$D$86</f>
+        <v>1995.0000000000005</v>
+      </c>
+      <c r="F80" s="28">
+        <f>$D$87*((C80*0.3)/100)</f>
+        <v>1.5405</v>
+      </c>
+      <c r="G80" s="28">
+        <f>$D$87*((C80*0.7)/100)</f>
+        <v>3.5944999999999996</v>
+      </c>
+      <c r="H80" s="39"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D81" s="28">
+        <f t="shared" si="24"/>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="E81" s="28">
+        <f t="shared" ref="E81:E84" si="25">D81/$D$86</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F81" s="28">
+        <f t="shared" ref="F81:F84" si="26">$D$87*((C81*0.3)/100)</f>
+        <v>23.107499999999998</v>
+      </c>
+      <c r="G81" s="28">
+        <f>$D$87*((C81*0.7)/100)</f>
+        <v>53.917499999999997</v>
+      </c>
+      <c r="H81" s="39"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="D82" s="28">
+        <f>$D$87*((100-C82)/100)</f>
+        <v>1899.95</v>
+      </c>
+      <c r="E82" s="28">
+        <f t="shared" si="25"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F82" s="28">
+        <f t="shared" si="26"/>
+        <v>46.214999999999996</v>
+      </c>
+      <c r="G82" s="28">
+        <f>$D$87*((C82*0.7)/100)</f>
+        <v>107.83499999999999</v>
+      </c>
+      <c r="H82" s="39"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="30">
         <v>11.25</v>
       </c>
-      <c r="D65" s="28">
-        <f t="shared" ref="D65:D66" si="22">$D$69*((100-C65)/100)</f>
+      <c r="D83" s="28">
+        <f t="shared" ref="D83:D84" si="27">$D$87*((100-C83)/100)</f>
         <v>1822.925</v>
       </c>
-      <c r="E65" s="28">
-        <f t="shared" si="20"/>
+      <c r="E83" s="28">
+        <f t="shared" si="25"/>
         <v>1775</v>
       </c>
-      <c r="F65" s="28">
-        <f t="shared" si="21"/>
+      <c r="F83" s="28">
+        <f t="shared" si="26"/>
         <v>69.322500000000005</v>
       </c>
-      <c r="G65" s="28">
-        <f>$D$69*((C65*0.7)/100)</f>
+      <c r="G83" s="28">
+        <f>$D$87*((C83*0.7)/100)</f>
         <v>161.75249999999997</v>
       </c>
-      <c r="H65" s="39"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="30">
+      <c r="H83" s="39"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="30">
         <v>15</v>
       </c>
-      <c r="D66" s="28">
-        <f t="shared" si="22"/>
+      <c r="D84" s="28">
+        <f t="shared" si="27"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E66" s="28">
-        <f t="shared" si="20"/>
+      <c r="E84" s="28">
+        <f t="shared" si="25"/>
         <v>1700</v>
       </c>
-      <c r="F66" s="28">
-        <f t="shared" si="21"/>
+      <c r="F84" s="28">
+        <f t="shared" si="26"/>
         <v>92.429999999999993</v>
       </c>
-      <c r="G66" s="28">
-        <f>$D$69*((C66*0.7)/100)</f>
+      <c r="G84" s="28">
+        <f>$D$87*((C84*0.7)/100)</f>
         <v>215.67</v>
       </c>
-      <c r="H66" s="39"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="39"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="47" t="s">
+      <c r="H84" s="39"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="59"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D86" s="48">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48">
+      <c r="E86" s="48"/>
+      <c r="F86" s="48">
         <v>1.2450000000000001</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G86" s="25">
         <v>1.1839999999999999</v>
       </c>
-      <c r="H68" s="49"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25">
-        <f>C1*D68</f>
-        <v>2054</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="36"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D72" s="20">
-        <f>$D$79*((100-C72)/100)</f>
-        <v>2958.9840000000004</v>
-      </c>
-      <c r="E72" s="20">
-        <f>D72/$D$78</f>
-        <v>1995.0000000000002</v>
-      </c>
-      <c r="F72" s="20">
-        <f>$D$79*(C72/100)</f>
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="G72" s="76"/>
-      <c r="H72" s="70"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D73" s="38">
-        <f>$D$79*((100-C73)/100)</f>
-        <v>2855.1600000000003</v>
-      </c>
-      <c r="E73" s="20">
-        <f>D73/$D$78</f>
-        <v>1925</v>
-      </c>
-      <c r="F73" s="38">
-        <f>$D$79*(C73/100)</f>
-        <v>111.24</v>
-      </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D74" s="20">
-        <f>$D$79*((100-C74)/100)</f>
-        <v>2743.92</v>
-      </c>
-      <c r="E74" s="20">
-        <f>D74/$D$78</f>
-        <v>1850</v>
-      </c>
-      <c r="F74" s="20">
-        <f>$D$79*(C74/100)</f>
-        <v>222.48</v>
-      </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D75" s="38">
-        <f>$D$79*((100-C75)/100)</f>
-        <v>2632.68</v>
-      </c>
-      <c r="E75" s="20">
-        <f>D75/$D$78</f>
-        <v>1774.9999999999998</v>
-      </c>
-      <c r="F75" s="38">
-        <f>$D$79*(C75/100)</f>
-        <v>333.72</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="70"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="15">
-        <v>15</v>
-      </c>
-      <c r="D76" s="20">
-        <f>$D$79*((100-C76)/100)</f>
-        <v>2521.44</v>
-      </c>
-      <c r="E76" s="20">
-        <f>D76/$D$78</f>
-        <v>1700</v>
-      </c>
-      <c r="F76" s="20">
-        <f>$D$79*(C76/100)</f>
-        <v>444.96</v>
-      </c>
-      <c r="G76" s="73"/>
-      <c r="H76" s="70"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="53"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="45">
-        <v>1.4832000000000001</v>
-      </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G78" s="74"/>
-      <c r="H78" s="75"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16">
-        <f>C1*D78</f>
-        <v>2966.4</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="J80" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="54">
-        <v>0</v>
-      </c>
-      <c r="C81" s="52">
-        <f>(F81/(D81+F81))*100</f>
-        <v>0.24548542220129804</v>
-      </c>
-      <c r="D81" s="6">
-        <f>$D$78*E81</f>
-        <v>2966.4</v>
-      </c>
-      <c r="E81" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F81" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G81" s="76"/>
-      <c r="H81" s="75"/>
-      <c r="L81" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="54">
-        <v>1</v>
-      </c>
-      <c r="C82" s="52">
-        <f t="shared" ref="C82:C84" si="23">(F82/(D82+F82))*100</f>
-        <v>7.5875055383252095</v>
-      </c>
-      <c r="D82" s="6">
-        <f t="shared" ref="D82:D84" si="24">$D$78*E82</f>
-        <v>2669.76</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1800</v>
-      </c>
-      <c r="F82" s="6">
-        <v>219.2</v>
-      </c>
-      <c r="G82" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H82" s="75"/>
-      <c r="L82" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="54">
-        <v>2</v>
-      </c>
-      <c r="C83" s="68">
-        <f t="shared" si="23"/>
-        <v>10.023052346351392</v>
-      </c>
-      <c r="D83" s="69">
-        <f t="shared" si="24"/>
-        <v>4004.6400000000003</v>
-      </c>
-      <c r="E83" s="69">
-        <v>2700</v>
-      </c>
-      <c r="F83" s="69">
-        <v>446.1</v>
-      </c>
-      <c r="G83" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H83" s="75"/>
-      <c r="L83" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="51">
-        <f t="shared" si="23"/>
-        <v>4.1196841667821031</v>
-      </c>
-      <c r="D84" s="41">
-        <f t="shared" si="24"/>
-        <v>10382.4</v>
-      </c>
-      <c r="E84" s="41">
-        <v>7000</v>
-      </c>
-      <c r="F84" s="41">
-        <v>446.1</v>
-      </c>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="L84" s="58"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="L85" s="58"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G86" s="72"/>
-      <c r="H86" s="71"/>
-      <c r="L86" s="58"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H86" s="49"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="59"/>
       <c r="B87" s="53"/>
-      <c r="C87" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D87" s="20">
-        <f>$D$94*((100-C87)/100)</f>
-        <v>2644.3724999999999</v>
-      </c>
-      <c r="E87" s="20">
-        <f>D87/$D$93</f>
-        <v>1995</v>
-      </c>
-      <c r="F87" s="20">
-        <f>$D$94*(C87/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D88" s="38">
-        <f t="shared" ref="D88:D91" si="25">$D$94*((100-C88)/100)</f>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="E88" s="20">
-        <f t="shared" ref="E88:E91" si="26">D88/$D$93</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F88" s="38">
-        <f t="shared" ref="F88:F91" si="27">$D$94*(C88/100)</f>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25">
+        <f>C1*D86</f>
+        <v>2054</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="s">
+        <v>97</v>
+      </c>
       <c r="B89" s="53"/>
-      <c r="C89" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D89" s="20">
-        <f t="shared" si="25"/>
-        <v>2452.1750000000002</v>
-      </c>
-      <c r="E89" s="20">
-        <f t="shared" si="26"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F89" s="20">
-        <f t="shared" si="27"/>
-        <v>198.82499999999999</v>
-      </c>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C89" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="36"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="59"/>
       <c r="B90" s="53"/>
-      <c r="C90" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D90" s="38">
-        <f t="shared" si="25"/>
-        <v>2352.7624999999998</v>
+      <c r="C90" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D90" s="20">
+        <f>$D$97*((100-C90)/100)</f>
+        <v>2958.9840000000004</v>
       </c>
       <c r="E90" s="20">
-        <f t="shared" si="26"/>
-        <v>1775</v>
-      </c>
-      <c r="F90" s="38">
-        <f t="shared" si="27"/>
-        <v>298.23750000000001</v>
-      </c>
-      <c r="G90" s="73"/>
+        <f>D90/$D$96</f>
+        <v>1995.0000000000002</v>
+      </c>
+      <c r="F90" s="20">
+        <f>$D$97*(C90/100)</f>
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="G90" s="76"/>
       <c r="H90" s="70"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="59"/>
       <c r="B91" s="53"/>
-      <c r="C91" s="15">
-        <v>15</v>
-      </c>
-      <c r="D91" s="20">
-        <f t="shared" si="25"/>
-        <v>2253.35</v>
+      <c r="C91" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D91" s="38">
+        <f>$D$97*((100-C91)/100)</f>
+        <v>2855.1600000000003</v>
       </c>
       <c r="E91" s="20">
-        <f t="shared" si="26"/>
-        <v>1700</v>
-      </c>
-      <c r="F91" s="20">
-        <f t="shared" si="27"/>
-        <v>397.65</v>
-      </c>
-      <c r="G91" s="73"/>
+        <f>D91/$D$96</f>
+        <v>1925</v>
+      </c>
+      <c r="F91" s="38">
+        <f>$D$97*(C91/100)</f>
+        <v>111.24</v>
+      </c>
+      <c r="G91" s="70"/>
       <c r="H91" s="70"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="59"/>
       <c r="B92" s="53"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C92" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D92" s="20">
+        <f>$D$97*((100-C92)/100)</f>
+        <v>2743.92</v>
+      </c>
+      <c r="E92" s="20">
+        <f>D92/$D$96</f>
+        <v>1850</v>
+      </c>
+      <c r="F92" s="20">
+        <f>$D$97*(C92/100)</f>
+        <v>222.48</v>
+      </c>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="59"/>
       <c r="B93" s="53"/>
-      <c r="C93" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="45">
-        <v>1.3254999999999999</v>
-      </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G93" s="74"/>
-      <c r="H93" s="75"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C93" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D93" s="38">
+        <f>$D$97*((100-C93)/100)</f>
+        <v>2632.68</v>
+      </c>
+      <c r="E93" s="20">
+        <f>D93/$D$96</f>
+        <v>1774.9999999999998</v>
+      </c>
+      <c r="F93" s="38">
+        <f>$D$97*(C93/100)</f>
+        <v>333.72</v>
+      </c>
+      <c r="G93" s="73"/>
+      <c r="H93" s="70"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="59"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16">
-        <f>C1*D93</f>
-        <v>2651</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C94" s="15">
+        <v>15</v>
+      </c>
+      <c r="D94" s="20">
+        <f>$D$97*((100-C94)/100)</f>
+        <v>2521.44</v>
+      </c>
+      <c r="E94" s="20">
+        <f>D94/$D$96</f>
+        <v>1700</v>
+      </c>
+      <c r="F94" s="20">
+        <f>$D$97*(C94/100)</f>
+        <v>444.96</v>
+      </c>
+      <c r="G94" s="73"/>
+      <c r="H94" s="70"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="59"/>
+      <c r="B95" s="53"/>
       <c r="G95" s="71"/>
       <c r="H95" s="71"/>
-      <c r="J95" s="5" t="s">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="45">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G96" s="74"/>
+      <c r="H96" s="75"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16">
+        <f>C1*D96</f>
+        <v>2966.4</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="64"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="J98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="K98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L95" s="5" t="s">
+      <c r="L98" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="60" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="56">
-        <v>3</v>
-      </c>
-      <c r="C96" s="20">
-        <f>(F96/(D96+F96))*100</f>
-        <v>0.29336542801263726</v>
-      </c>
-      <c r="D96" s="4">
-        <f>$D$93*E96</f>
-        <v>2651</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="B99" s="54">
+        <v>0</v>
+      </c>
+      <c r="C99" s="52">
+        <f>(F99/(D99+F99))*100</f>
+        <v>0.24548542220129804</v>
+      </c>
+      <c r="D99" s="6">
+        <f>$D$96*E99</f>
+        <v>2966.4</v>
+      </c>
+      <c r="E99" s="6">
         <v>2000</v>
       </c>
-      <c r="F96" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G96" s="76"/>
-      <c r="H96" s="71"/>
-      <c r="L96" s="58">
+      <c r="F99" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="G99" s="76"/>
+      <c r="H99" s="75"/>
+      <c r="L99" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
-      <c r="B97" s="56">
-        <v>4</v>
-      </c>
-      <c r="C97" s="20">
-        <f t="shared" ref="C97:C99" si="28">(F97/(D97+F97))*100</f>
-        <v>7.6056228943190192</v>
-      </c>
-      <c r="D97" s="4">
-        <f t="shared" ref="D97:D99" si="29">$D$93*E97</f>
-        <v>2385.8999999999996</v>
-      </c>
-      <c r="E97" s="4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="62"/>
+      <c r="B100" s="54">
+        <v>1</v>
+      </c>
+      <c r="C100" s="52">
+        <f t="shared" ref="C100:C102" si="28">(F100/(D100+F100))*100</f>
+        <v>7.5875055383252095</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" ref="D100:D102" si="29">$D$96*E100</f>
+        <v>2669.76</v>
+      </c>
+      <c r="E100" s="6">
         <v>1800</v>
       </c>
-      <c r="F97" s="4">
-        <v>196.4</v>
-      </c>
-      <c r="G97" s="73" t="s">
+      <c r="F100" s="6">
+        <v>219.2</v>
+      </c>
+      <c r="G100" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="71"/>
-      <c r="L97" s="58">
+      <c r="H100" s="75"/>
+      <c r="L100" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
-      <c r="B98" s="56">
-        <v>5</v>
-      </c>
-      <c r="C98" s="68">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="62"/>
+      <c r="B101" s="54">
+        <v>2</v>
+      </c>
+      <c r="C101" s="68">
         <f t="shared" si="28"/>
-        <v>14.979153696681571</v>
-      </c>
-      <c r="D98" s="69">
+        <v>10.023052346351392</v>
+      </c>
+      <c r="D101" s="69">
         <f t="shared" si="29"/>
-        <v>2253.35</v>
-      </c>
-      <c r="E98" s="69">
-        <v>1700</v>
-      </c>
-      <c r="F98" s="69">
-        <v>397</v>
-      </c>
-      <c r="G98" s="73" t="s">
+        <v>4004.6400000000003</v>
+      </c>
+      <c r="E101" s="69">
+        <v>2700</v>
+      </c>
+      <c r="F101" s="69">
+        <v>446.1</v>
+      </c>
+      <c r="G101" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H98" s="71"/>
-      <c r="L98" s="58">
+      <c r="H101" s="75"/>
+      <c r="L101" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="70">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="51">
         <f t="shared" si="28"/>
-        <v>4.2187367168239396</v>
-      </c>
-      <c r="D99" s="71">
+        <v>4.1196841667821031</v>
+      </c>
+      <c r="D102" s="41">
         <f t="shared" si="29"/>
-        <v>9013.4</v>
-      </c>
-      <c r="E99" s="71">
-        <v>6800</v>
-      </c>
-      <c r="F99" s="71">
-        <v>397</v>
-      </c>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="L99" s="58"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="L100" s="58"/>
-    </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
+        <v>10382.4</v>
+      </c>
+      <c r="E102" s="41">
+        <v>7000</v>
+      </c>
+      <c r="F102" s="41">
+        <v>446.1</v>
+      </c>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="L102" s="58"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="L103" s="58"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101" s="36"/>
-      <c r="L101" s="58"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D102" s="20">
-        <f>$D$109*((100-C102)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="E102" s="20">
-        <f>D102/$D$108</f>
-        <v>1995</v>
-      </c>
-      <c r="F102" s="20">
-        <f>$D$109*(C102/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="D103" s="20">
-        <f t="shared" ref="D103:D106" si="30">$D$109*((100-C103)/100)</f>
-        <v>1828.75</v>
-      </c>
-      <c r="E103" s="20">
-        <f t="shared" ref="E103:E106" si="31">D103/$D$108</f>
-        <v>1925</v>
-      </c>
-      <c r="F103" s="20">
-        <f t="shared" ref="F103:F106" si="32">$D$109*(C103/100)</f>
-        <v>71.25</v>
-      </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
       <c r="B104" s="53"/>
-      <c r="C104" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D104" s="20">
-        <f t="shared" si="30"/>
-        <v>1757.5</v>
-      </c>
-      <c r="E104" s="20">
-        <f t="shared" si="31"/>
-        <v>1850</v>
-      </c>
-      <c r="F104" s="20">
-        <f t="shared" si="32"/>
-        <v>142.5</v>
-      </c>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
+      <c r="C104" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" s="72"/>
+      <c r="H104" s="71"/>
+      <c r="L104" s="58"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="59"/>
       <c r="B105" s="53"/>
       <c r="C105" s="15">
-        <v>11.25</v>
+        <v>0.25</v>
       </c>
       <c r="D105" s="20">
-        <f t="shared" si="30"/>
-        <v>1686.25</v>
+        <f>$D$112*((100-C105)/100)</f>
+        <v>2644.3724999999999</v>
       </c>
       <c r="E105" s="20">
-        <f t="shared" si="31"/>
-        <v>1775</v>
+        <f>D105/$D$111</f>
+        <v>1995</v>
       </c>
       <c r="F105" s="20">
-        <f t="shared" si="32"/>
-        <v>213.75</v>
-      </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
+        <f>$D$112*(C105/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="59"/>
       <c r="B106" s="53"/>
-      <c r="C106" s="15">
-        <v>15</v>
-      </c>
-      <c r="D106" s="20">
-        <f t="shared" si="30"/>
-        <v>1615</v>
+      <c r="C106" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D106" s="38">
+        <f t="shared" ref="D106:D109" si="30">$D$112*((100-C106)/100)</f>
+        <v>2551.5875000000001</v>
       </c>
       <c r="E106" s="20">
-        <f t="shared" si="31"/>
-        <v>1700</v>
-      </c>
-      <c r="F106" s="20">
-        <f t="shared" si="32"/>
-        <v>285</v>
-      </c>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
+        <f t="shared" ref="E106:E109" si="31">D106/$D$111</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F106" s="38">
+        <f t="shared" ref="F106:F109" si="32">$D$112*(C106/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="59"/>
       <c r="B107" s="53"/>
+      <c r="C107" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D107" s="20">
+        <f t="shared" si="30"/>
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="E107" s="20">
+        <f t="shared" si="31"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F107" s="20">
+        <f t="shared" si="32"/>
+        <v>198.82499999999999</v>
+      </c>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="59"/>
       <c r="B108" s="53"/>
-      <c r="C108" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45">
-        <v>1.07</v>
-      </c>
-      <c r="G108" s="45"/>
-      <c r="H108" s="16"/>
+      <c r="C108" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D108" s="38">
+        <f t="shared" si="30"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="E108" s="20">
+        <f t="shared" si="31"/>
+        <v>1775</v>
+      </c>
+      <c r="F108" s="38">
+        <f t="shared" si="32"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="G108" s="73"/>
+      <c r="H108" s="70"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="59"/>
       <c r="B109" s="53"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16">
-        <f>C1*D108</f>
-        <v>1900</v>
-      </c>
-      <c r="E109" s="16" t="s">
+      <c r="C109" s="15">
+        <v>15</v>
+      </c>
+      <c r="D109" s="20">
+        <f t="shared" si="30"/>
+        <v>2253.35</v>
+      </c>
+      <c r="E109" s="20">
+        <f t="shared" si="31"/>
+        <v>1700</v>
+      </c>
+      <c r="F109" s="20">
+        <f t="shared" si="32"/>
+        <v>397.65</v>
+      </c>
+      <c r="G109" s="73"/>
+      <c r="H109" s="70"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="59"/>
+      <c r="B110" s="53"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="45">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G111" s="74"/>
+      <c r="H111" s="75"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16">
+        <f>C1*D111</f>
+        <v>2651</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J110" s="5" t="s">
+      <c r="F112" s="16"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="75"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="J113" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K113" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L110" s="5" t="s">
+      <c r="L113" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="65" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B111" s="54">
-        <v>6</v>
-      </c>
-      <c r="C111" s="68">
-        <f>(F111/(D111+F111))*100</f>
-        <v>0.61202071454726159</v>
-      </c>
-      <c r="D111" s="69">
-        <f>$D$108*E111</f>
-        <v>1900</v>
-      </c>
-      <c r="E111" s="69">
+      <c r="B114" s="56">
+        <v>3</v>
+      </c>
+      <c r="C114" s="20">
+        <f>(F114/(D114+F114))*100</f>
+        <v>0.29336542801263726</v>
+      </c>
+      <c r="D114" s="4">
+        <f>$D$111*E114</f>
+        <v>2651</v>
+      </c>
+      <c r="E114" s="4">
         <v>2000</v>
       </c>
-      <c r="F111" s="69">
-        <v>11.7</v>
-      </c>
-      <c r="G111" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L111" s="58">
+      <c r="F114" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G114" s="76"/>
+      <c r="H114" s="71"/>
+      <c r="L114" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="20">
-        <f t="shared" ref="C112:C120" si="33">(F112/(D112+F112))*100</f>
-        <v>15.593069746779209</v>
-      </c>
-      <c r="D112" s="4">
-        <f t="shared" ref="D112:D120" si="34">$D$108*E112</f>
-        <v>1900</v>
-      </c>
-      <c r="E112" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F112" s="4">
-        <f>F111*30</f>
-        <v>351</v>
-      </c>
-      <c r="L112" s="58"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="54">
-        <v>7</v>
-      </c>
-      <c r="C113" s="68">
-        <f t="shared" si="33"/>
-        <v>4.9399620813145146</v>
-      </c>
-      <c r="D113" s="69">
-        <f t="shared" si="34"/>
-        <v>1805</v>
-      </c>
-      <c r="E113" s="69">
-        <v>1900</v>
-      </c>
-      <c r="F113" s="69">
-        <v>93.8</v>
-      </c>
-      <c r="G113" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L113" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="20">
-        <f t="shared" si="33"/>
-        <v>60.922277549253089</v>
-      </c>
-      <c r="D114" s="4">
-        <f t="shared" si="34"/>
-        <v>1805</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1900</v>
-      </c>
-      <c r="F114" s="4">
-        <f>F113*30</f>
-        <v>2814</v>
-      </c>
-      <c r="L114" s="58"/>
-    </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="54">
-        <v>8</v>
-      </c>
-      <c r="C115" s="68">
-        <f t="shared" si="33"/>
-        <v>8.0002152041749603</v>
-      </c>
-      <c r="D115" s="69">
-        <f t="shared" si="34"/>
-        <v>1710</v>
-      </c>
-      <c r="E115" s="69">
+      <c r="A115" s="60"/>
+      <c r="B115" s="56">
+        <v>4</v>
+      </c>
+      <c r="C115" s="20">
+        <f t="shared" ref="C115:C117" si="33">(F115/(D115+F115))*100</f>
+        <v>7.6056228943190192</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ref="D115:D117" si="34">$D$111*E115</f>
+        <v>2385.8999999999996</v>
+      </c>
+      <c r="E115" s="4">
         <v>1800</v>
       </c>
-      <c r="F115" s="69">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="G115" s="76" t="s">
-        <v>104</v>
-      </c>
+      <c r="F115" s="4">
+        <v>196.4</v>
+      </c>
+      <c r="G115" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H115" s="71"/>
       <c r="L115" s="58">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="70">
+      <c r="A116" s="60"/>
+      <c r="B116" s="56">
+        <v>5</v>
+      </c>
+      <c r="C116" s="68">
         <f t="shared" si="33"/>
+        <v>14.979153696681571</v>
+      </c>
+      <c r="D116" s="69">
+        <f t="shared" si="34"/>
+        <v>2253.35</v>
+      </c>
+      <c r="E116" s="69">
+        <v>1700</v>
+      </c>
+      <c r="F116" s="69">
+        <v>397</v>
+      </c>
+      <c r="G116" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H116" s="71"/>
+      <c r="L116" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="70">
+        <f t="shared" si="33"/>
+        <v>4.2187367168239396</v>
+      </c>
+      <c r="D117" s="71">
+        <f t="shared" si="34"/>
+        <v>9013.4</v>
+      </c>
+      <c r="E117" s="71">
+        <v>6800</v>
+      </c>
+      <c r="F117" s="71">
+        <v>397</v>
+      </c>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="L117" s="58"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="L118" s="58"/>
+    </row>
+    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="53"/>
+      <c r="C119" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119" s="36"/>
+      <c r="L119" s="58"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D120" s="20">
+        <f>$D$127*((100-C120)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="E120" s="20">
+        <f>D120/$D$126</f>
+        <v>1995</v>
+      </c>
+      <c r="F120" s="20">
+        <f>$D$127*(C120/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="D121" s="20">
+        <f t="shared" ref="D121:D124" si="35">$D$127*((100-C121)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="E121" s="20">
+        <f t="shared" ref="E121:E124" si="36">D121/$D$126</f>
+        <v>1925</v>
+      </c>
+      <c r="F121" s="20">
+        <f t="shared" ref="F121:F124" si="37">$D$127*(C121/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D122" s="20">
+        <f t="shared" si="35"/>
+        <v>1757.5</v>
+      </c>
+      <c r="E122" s="20">
+        <f t="shared" si="36"/>
+        <v>1850</v>
+      </c>
+      <c r="F122" s="20">
+        <f t="shared" si="37"/>
+        <v>142.5</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="D123" s="20">
+        <f t="shared" si="35"/>
+        <v>1686.25</v>
+      </c>
+      <c r="E123" s="20">
+        <f t="shared" si="36"/>
+        <v>1775</v>
+      </c>
+      <c r="F123" s="20">
+        <f t="shared" si="37"/>
+        <v>213.75</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="15">
+        <v>15</v>
+      </c>
+      <c r="D124" s="20">
+        <f t="shared" si="35"/>
+        <v>1615</v>
+      </c>
+      <c r="E124" s="20">
+        <f t="shared" si="36"/>
+        <v>1700</v>
+      </c>
+      <c r="F124" s="20">
+        <f t="shared" si="37"/>
+        <v>285</v>
+      </c>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="53"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="G126" s="45"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16">
+        <f>C1*D126</f>
+        <v>1900</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J128" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="54">
+        <v>6</v>
+      </c>
+      <c r="C129" s="68">
+        <f>(F129/(D129+F129))*100</f>
+        <v>0.61202071454726159</v>
+      </c>
+      <c r="D129" s="69">
+        <f>$D$126*E129</f>
+        <v>1900</v>
+      </c>
+      <c r="E129" s="69">
+        <v>2000</v>
+      </c>
+      <c r="F129" s="69">
+        <v>11.7</v>
+      </c>
+      <c r="G129" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L129" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="65"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="20">
+        <f t="shared" ref="C130:C138" si="38">(F130/(D130+F130))*100</f>
+        <v>15.593069746779209</v>
+      </c>
+      <c r="D130" s="4">
+        <f t="shared" ref="D130:D138" si="39">$D$126*E130</f>
+        <v>1900</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F130" s="4">
+        <f>F129*30</f>
+        <v>351</v>
+      </c>
+      <c r="L130" s="58"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="65"/>
+      <c r="B131" s="54">
+        <v>7</v>
+      </c>
+      <c r="C131" s="68">
+        <f t="shared" si="38"/>
+        <v>4.9399620813145146</v>
+      </c>
+      <c r="D131" s="69">
+        <f t="shared" si="39"/>
+        <v>1805</v>
+      </c>
+      <c r="E131" s="69">
+        <v>1900</v>
+      </c>
+      <c r="F131" s="69">
+        <v>93.8</v>
+      </c>
+      <c r="G131" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L131" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="65"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="20">
+        <f t="shared" si="38"/>
+        <v>60.922277549253089</v>
+      </c>
+      <c r="D132" s="4">
+        <f t="shared" si="39"/>
+        <v>1805</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1900</v>
+      </c>
+      <c r="F132" s="4">
+        <f>F131*30</f>
+        <v>2814</v>
+      </c>
+      <c r="L132" s="58"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="65"/>
+      <c r="B133" s="54">
+        <v>8</v>
+      </c>
+      <c r="C133" s="68">
+        <f t="shared" si="38"/>
+        <v>8.0002152041749603</v>
+      </c>
+      <c r="D133" s="69">
+        <f t="shared" si="39"/>
+        <v>1710</v>
+      </c>
+      <c r="E133" s="69">
+        <v>1800</v>
+      </c>
+      <c r="F133" s="69">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="G133" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L133" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="65"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="70">
+        <f t="shared" si="38"/>
         <v>72.289742343218279</v>
       </c>
-      <c r="D116" s="71">
-        <f t="shared" si="34"/>
+      <c r="D134" s="71">
+        <f t="shared" si="39"/>
         <v>1710</v>
       </c>
-      <c r="E116" s="71">
+      <c r="E134" s="71">
         <v>1800</v>
       </c>
-      <c r="F116" s="71">
-        <f>F115*30</f>
+      <c r="F134" s="71">
+        <f>F133*30</f>
         <v>4461</v>
       </c>
-      <c r="L116" s="58"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="54">
+      <c r="L134" s="58"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="65"/>
+      <c r="B135" s="54">
         <v>9</v>
       </c>
-      <c r="C117" s="68">
-        <f t="shared" si="33"/>
+      <c r="C135" s="68">
+        <f t="shared" si="38"/>
         <v>11.43108717045631</v>
       </c>
-      <c r="D117" s="69">
-        <f t="shared" si="34"/>
+      <c r="D135" s="69">
+        <f t="shared" si="39"/>
         <v>1710</v>
       </c>
-      <c r="E117" s="69">
+      <c r="E135" s="69">
         <v>1800</v>
       </c>
-      <c r="F117" s="69">
+      <c r="F135" s="69">
         <v>220.7</v>
       </c>
-      <c r="G117" s="76" t="s">
+      <c r="G135" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="L117" s="58">
+      <c r="L135" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="20">
-        <f t="shared" si="33"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="65"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="20">
+        <f t="shared" si="38"/>
         <v>79.474252790781421</v>
       </c>
-      <c r="D118" s="4">
-        <f t="shared" si="34"/>
+      <c r="D136" s="4">
+        <f t="shared" si="39"/>
         <v>1710</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E136" s="4">
         <v>1800</v>
       </c>
-      <c r="F118" s="4">
-        <f>F117*30</f>
+      <c r="F136" s="4">
+        <f>F135*30</f>
         <v>6621</v>
       </c>
-      <c r="L118" s="58"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="54">
+      <c r="L136" s="58"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="65"/>
+      <c r="B137" s="54">
         <v>10</v>
       </c>
-      <c r="C119" s="68">
-        <f t="shared" si="33"/>
+      <c r="C137" s="68">
+        <f t="shared" si="38"/>
         <v>15.165204601565371</v>
       </c>
-      <c r="D119" s="69">
-        <f t="shared" si="34"/>
+      <c r="D137" s="69">
+        <f t="shared" si="39"/>
         <v>1615</v>
       </c>
-      <c r="E119" s="69">
+      <c r="E137" s="69">
         <v>1700</v>
       </c>
-      <c r="F119" s="69">
+      <c r="F137" s="69">
         <v>288.7</v>
       </c>
-      <c r="G119" s="76" t="s">
+      <c r="G137" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="L119" s="58">
+      <c r="L137" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="71"/>
-      <c r="C120" s="20">
-        <f t="shared" si="33"/>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="71"/>
+      <c r="C138" s="20">
+        <f t="shared" si="38"/>
         <v>84.283768003114062</v>
       </c>
-      <c r="D120" s="4">
-        <f t="shared" si="34"/>
+      <c r="D138" s="4">
+        <f t="shared" si="39"/>
         <v>1615</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E138" s="4">
         <v>1700</v>
       </c>
-      <c r="F120" s="4">
-        <f>F119*30</f>
+      <c r="F138" s="4">
+        <f>F137*30</f>
         <v>8661</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A96:A98"/>
+  <mergeCells count="17">
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A114:A116"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A51:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E33868-01CB-4FE5-AB54-047F1D7AC25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE73342-2F70-4C8E-8A68-FC28BE25D076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Pa.s</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>Sample Set 00</t>
-  </si>
-  <si>
-    <t>too thick</t>
   </si>
   <si>
     <t>too thin</t>
@@ -369,7 +366,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,12 +437,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="5"/>
@@ -453,7 +444,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +469,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -497,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -630,15 +615,13 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,19 +1914,19 @@
       <c r="A14" s="59"/>
       <c r="B14" s="53"/>
       <c r="C14" s="15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20">
         <f>$D$21*((100-C14)/100)</f>
-        <v>1580.64</v>
+        <v>1420.8000000000002</v>
       </c>
       <c r="E14" s="20">
         <f>D14/$D$20</f>
-        <v>1780</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="F14" s="20">
         <f>$D$21*(C14/100)</f>
-        <v>195.36</v>
+        <v>355.20000000000005</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1952,19 +1935,19 @@
       <c r="A15" s="59"/>
       <c r="B15" s="53"/>
       <c r="C15" s="15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D15" s="20">
         <f>$D$21*((100-C15)/100)</f>
-        <v>1545.12</v>
+        <v>1332</v>
       </c>
       <c r="E15" s="20">
         <f>D15/$D$20</f>
-        <v>1739.9999999999998</v>
+        <v>1500</v>
       </c>
       <c r="F15" s="20">
         <f>$D$21*(C15/100)</f>
-        <v>230.88</v>
+        <v>444</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -1973,19 +1956,19 @@
       <c r="A16" s="59"/>
       <c r="B16" s="53"/>
       <c r="C16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D16" s="20">
         <f>$D$21*((100-C16)/100)</f>
-        <v>1509.6</v>
+        <v>1243.1999999999998</v>
       </c>
       <c r="E16" s="20">
         <f>D16/$D$20</f>
-        <v>1699.9999999999998</v>
+        <v>1399.9999999999998</v>
       </c>
       <c r="F16" s="20">
         <f>$D$21*(C16/100)</f>
-        <v>266.39999999999998</v>
+        <v>532.79999999999995</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1994,19 +1977,19 @@
       <c r="A17" s="59"/>
       <c r="B17" s="53"/>
       <c r="C17" s="15">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D17" s="20">
         <f>$D$21*((100-C17)/100)</f>
-        <v>1474.08</v>
+        <v>1154.4000000000001</v>
       </c>
       <c r="E17" s="20">
         <f>D17/$D$20</f>
-        <v>1660</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="20">
         <f>$D$21*(C17/100)</f>
-        <v>301.92</v>
+        <v>621.59999999999991</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -2015,19 +1998,19 @@
       <c r="A18" s="59"/>
       <c r="B18" s="53"/>
       <c r="C18" s="15">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D18" s="20">
         <f>$D$21*((100-C18)/100)</f>
-        <v>1438.5600000000002</v>
+        <v>1065.5999999999999</v>
       </c>
       <c r="E18" s="20">
         <f>D18/$D$20</f>
-        <v>1620.0000000000002</v>
+        <v>1199.9999999999998</v>
       </c>
       <c r="F18" s="20">
         <f>$D$21*(C18/100)</f>
-        <v>337.44</v>
+        <v>710.40000000000009</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -2081,14 +2064,14 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="56">
         <v>0</v>
       </c>
       <c r="C23" s="20">
         <f>(F23/(D23+F23))*100</f>
-        <v>0</v>
+        <v>10.937761185713491</v>
       </c>
       <c r="D23" s="20">
         <f>$D$20*E23</f>
@@ -2097,7 +2080,9 @@
       <c r="E23" s="20">
         <v>1800</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="20">
+        <v>196.3</v>
+      </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="L23" s="58"/>
@@ -2109,7 +2094,7 @@
       </c>
       <c r="C24" s="20">
         <f t="shared" ref="C24:C27" si="1">(F24/(D24+F24))*100</f>
-        <v>0</v>
+        <v>14.075929193465766</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" ref="D24:D27" si="2">$D$20*E24</f>
@@ -2118,7 +2103,9 @@
       <c r="E24" s="20">
         <v>1700</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20">
+        <v>247.3</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="K24" s="67"/>
@@ -2131,7 +2118,7 @@
       </c>
       <c r="C25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.257662512630517</v>
       </c>
       <c r="D25" s="20">
         <f t="shared" si="2"/>
@@ -2140,7 +2127,9 @@
       <c r="E25" s="20">
         <v>1700</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="20">
+        <v>271.8</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="J25" s="67"/>
@@ -2154,7 +2143,7 @@
       </c>
       <c r="C26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.295786993918806</v>
       </c>
       <c r="D26" s="20">
         <f t="shared" si="2"/>
@@ -2163,7 +2152,9 @@
       <c r="E26" s="20">
         <v>1700</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="20">
+        <v>315.7</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="L26" s="58"/>
@@ -2387,135 +2378,135 @@
       <c r="A36" s="59"/>
       <c r="B36" s="53"/>
       <c r="C36" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="20">
         <f>$D$43*((100-C36)*0.75/100)</f>
-        <v>1206.1724999999999</v>
+        <v>1233.2774999999999</v>
       </c>
       <c r="E36" s="20">
         <f>D36/$D$42</f>
-        <v>1358.3023648648648</v>
+        <v>1388.8260135135133</v>
       </c>
       <c r="F36" s="20">
         <f>$D$43*((100-C36)*0.25/100)</f>
-        <v>402.0575</v>
+        <v>411.09250000000003</v>
       </c>
       <c r="G36" s="20">
         <f>F36/$F$42</f>
-        <v>423.21842105263158</v>
+        <v>432.72894736842113</v>
       </c>
       <c r="H36" s="20">
         <f>$D$43*(C36/100)</f>
-        <v>198.77</v>
+        <v>162.63</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="53"/>
       <c r="C37" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="20">
         <f t="shared" ref="D37:D40" si="5">$D$43*((100-C37)*0.75/100)</f>
-        <v>1179.0674999999999</v>
+        <v>1165.5150000000001</v>
       </c>
       <c r="E37" s="20">
         <f t="shared" ref="E37:E40" si="6">D37/$D$42</f>
-        <v>1327.778716216216</v>
+        <v>1312.5168918918921</v>
       </c>
       <c r="F37" s="20">
         <f t="shared" ref="F37:F40" si="7">$D$43*((100-C37)*0.25/100)</f>
-        <v>393.02249999999998</v>
+        <v>388.505</v>
       </c>
       <c r="G37" s="20">
         <f t="shared" ref="G37:G40" si="8">F37/$F$42</f>
-        <v>413.70789473684209</v>
+        <v>408.95263157894738</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" ref="H37:H40" si="9">$D$43*(C37/100)</f>
-        <v>234.91</v>
+        <v>252.98000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="53"/>
       <c r="C38" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38" s="20">
         <f t="shared" si="5"/>
-        <v>1151.9624999999999</v>
+        <v>1097.7525000000001</v>
       </c>
       <c r="E38" s="20">
         <f t="shared" si="6"/>
-        <v>1297.2550675675675</v>
+        <v>1236.2077702702702</v>
       </c>
       <c r="F38" s="20">
         <f t="shared" si="7"/>
-        <v>383.98750000000001</v>
+        <v>365.91750000000002</v>
       </c>
       <c r="G38" s="20">
         <f t="shared" si="8"/>
-        <v>404.19736842105266</v>
+        <v>385.17631578947373</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="9"/>
-        <v>271.05</v>
+        <v>343.33</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="53"/>
       <c r="C39" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D39" s="20">
         <f t="shared" si="5"/>
-        <v>1124.8575000000001</v>
+        <v>1029.99</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" si="6"/>
-        <v>1266.731418918919</v>
+        <v>1159.8986486486485</v>
       </c>
       <c r="F39" s="20">
         <f t="shared" si="7"/>
-        <v>374.95249999999999</v>
+        <v>343.33</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" si="8"/>
-        <v>394.68684210526317</v>
+        <v>361.4</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="9"/>
-        <v>307.19</v>
+        <v>433.68</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="53"/>
       <c r="C40" s="15">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D40" s="20">
         <f t="shared" si="5"/>
-        <v>1097.7525000000001</v>
+        <v>962.22749999999996</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" si="6"/>
-        <v>1236.2077702702702</v>
+        <v>1083.5895270270269</v>
       </c>
       <c r="F40" s="20">
         <f t="shared" si="7"/>
-        <v>365.91750000000002</v>
+        <v>320.74250000000001</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" si="8"/>
-        <v>385.17631578947373</v>
+        <v>337.62368421052633</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="9"/>
-        <v>343.33</v>
+        <v>524.03</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,7 +2561,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="56">
         <v>5</v>
@@ -2604,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="20">
-        <f t="shared" ref="C46:C49" si="10">(H46/(D46+F46+H46))*100</f>
+        <f t="shared" ref="C46:C48" si="10">(H46/(D46+F46+H46))*100</f>
         <v>0</v>
       </c>
       <c r="D46" s="20">
@@ -2615,7 +2606,7 @@
         <v>1300</v>
       </c>
       <c r="F46" s="20">
-        <f t="shared" ref="F46:F49" si="12">$F$42*G46</f>
+        <f t="shared" ref="F46:F48" si="12">$F$42*G46</f>
         <v>380</v>
       </c>
       <c r="G46" s="20">
@@ -2660,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="20">
-        <f t="shared" ref="D48:D49" si="13">$D$42*E48</f>
+        <f t="shared" ref="D48" si="13">$D$42*E48</f>
         <v>1154.4000000000001</v>
       </c>
       <c r="E48" s="20">
@@ -2679,69 +2670,79 @@
       <c r="L48" s="58"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="57">
-        <v>9</v>
-      </c>
-      <c r="C49" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="20">
-        <f t="shared" si="13"/>
-        <v>1065.5999999999999</v>
-      </c>
-      <c r="E49" s="20">
-        <v>1200</v>
-      </c>
-      <c r="F49" s="20">
-        <f t="shared" si="12"/>
-        <v>380</v>
-      </c>
-      <c r="G49" s="20">
-        <v>400</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="L49" s="58"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="A50" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="56">
+        <v>5</v>
+      </c>
+      <c r="C50" s="20">
+        <f>(H50/(D50+F50+H50))*100</f>
+        <v>1.4023026136301631</v>
+      </c>
+      <c r="D50" s="20">
+        <f>$D$42*E50</f>
+        <v>1332</v>
+      </c>
+      <c r="E50" s="20">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="20">
+        <f>$F$42*G50</f>
+        <v>475</v>
+      </c>
+      <c r="G50" s="20">
+        <v>500</v>
+      </c>
+      <c r="H50" s="20">
+        <v>25.7</v>
+      </c>
+      <c r="J50" s="6">
+        <v>8.7530000000000004E-3</v>
+      </c>
+      <c r="K50" s="67">
+        <v>8.3807010000000002</v>
+      </c>
+      <c r="L50" s="58">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="56">
-        <v>5</v>
+      <c r="A51" s="61"/>
+      <c r="B51" s="57">
+        <v>6</v>
       </c>
       <c r="C51" s="20">
-        <f>(H51/(D51+F51+H51))*100</f>
-        <v>1.4023026136301631</v>
+        <f t="shared" ref="C51:C54" si="14">(H51/(D51+F51+H51))*100</f>
+        <v>3.8727524204702628</v>
       </c>
       <c r="D51" s="20">
-        <f>$D$42*E51</f>
+        <f t="shared" ref="D51:D54" si="15">$D$42*E51</f>
         <v>1332</v>
       </c>
       <c r="E51" s="20">
         <v>1500</v>
       </c>
       <c r="F51" s="20">
-        <f>$F$42*G51</f>
+        <f t="shared" ref="F51:F54" si="16">$F$42*G51</f>
         <v>475</v>
       </c>
       <c r="G51" s="20">
         <v>500</v>
       </c>
       <c r="H51" s="20">
-        <v>25.7</v>
-      </c>
-      <c r="J51" s="6">
-        <v>8.7530000000000004E-3</v>
-      </c>
-      <c r="K51" s="67">
-        <v>8.3807010000000002</v>
+        <v>72.8</v>
+      </c>
+      <c r="J51" s="4">
+        <v>4.2900000000000004E-3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3.0336999999999999E-2</v>
       </c>
       <c r="L51" s="58">
         <v>20</v>
@@ -2750,34 +2751,34 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="20">
-        <f t="shared" ref="C52:C55" si="14">(H52/(D52+F52+H52))*100</f>
-        <v>3.8727524204702628</v>
+        <f t="shared" si="14"/>
+        <v>8.0392045776443251</v>
       </c>
       <c r="D52" s="20">
-        <f t="shared" ref="D52:D55" si="15">$D$42*E52</f>
-        <v>1332</v>
+        <f>$D$42*G42</f>
+        <v>1243.2</v>
       </c>
       <c r="E52" s="20">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="20">
-        <f t="shared" ref="F52:F55" si="16">$F$42*G52</f>
-        <v>475</v>
+        <f t="shared" si="16"/>
+        <v>380</v>
       </c>
       <c r="G52" s="20">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H52" s="20">
-        <v>72.8</v>
-      </c>
-      <c r="J52" s="4">
-        <v>4.2900000000000004E-3</v>
-      </c>
-      <c r="K52" s="4">
-        <v>3.0336999999999999E-2</v>
+        <v>141.9</v>
+      </c>
+      <c r="J52" s="67">
+        <v>1.9382E-2</v>
+      </c>
+      <c r="K52" s="67">
+        <v>0.236674</v>
       </c>
       <c r="L52" s="58">
         <v>20</v>
@@ -2786,18 +2787,18 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
       <c r="B53" s="57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="14"/>
-        <v>8.0392045776443251</v>
+        <v>11.750158164145628</v>
       </c>
       <c r="D53" s="20">
-        <f>$D$42*G42</f>
-        <v>1243.2</v>
+        <f t="shared" si="15"/>
+        <v>1154.4000000000001</v>
       </c>
       <c r="E53" s="20">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F53" s="20">
         <f t="shared" si="16"/>
@@ -2807,13 +2808,13 @@
         <v>400</v>
       </c>
       <c r="H53" s="20">
-        <v>141.9</v>
+        <v>204.3</v>
       </c>
       <c r="J53" s="67">
-        <v>1.9382E-2</v>
-      </c>
-      <c r="K53" s="67">
-        <v>0.236674</v>
+        <v>3.4037999999999999E-2</v>
+      </c>
+      <c r="K53" s="6">
+        <v>4.5269999999999998E-3</v>
       </c>
       <c r="L53" s="58">
         <v>20</v>
@@ -2822,11 +2823,11 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="14"/>
-        <v>11.750158164145628</v>
+        <v>14.646492740724259</v>
       </c>
       <c r="D54" s="20">
         <f t="shared" si="15"/>
@@ -2843,91 +2844,76 @@
         <v>400</v>
       </c>
       <c r="H54" s="20">
-        <v>204.3</v>
-      </c>
-      <c r="J54" s="67">
-        <v>3.4037999999999999E-2</v>
-      </c>
-      <c r="K54" s="6">
-        <v>4.5269999999999998E-3</v>
+        <v>263.3</v>
+      </c>
+      <c r="J54" s="4">
+        <v>6.9047999999999998E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <v>9.5713000000000006E-2</v>
       </c>
       <c r="L54" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="57">
+    <row r="56" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="I56" s="36"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="15">
         <v>9</v>
       </c>
-      <c r="C55" s="20">
-        <f t="shared" si="14"/>
-        <v>14.646492740724259</v>
-      </c>
-      <c r="D55" s="20">
-        <f t="shared" si="15"/>
-        <v>1154.4000000000001</v>
-      </c>
-      <c r="E55" s="20">
-        <v>1300</v>
-      </c>
-      <c r="F55" s="20">
-        <f t="shared" si="16"/>
-        <v>380</v>
-      </c>
-      <c r="G55" s="20">
-        <v>400</v>
-      </c>
-      <c r="H55" s="20">
-        <v>263.3</v>
-      </c>
-      <c r="J55" s="4">
-        <v>6.9047999999999998E-2</v>
-      </c>
-      <c r="K55" s="4">
-        <v>9.5713000000000006E-2</v>
-      </c>
-      <c r="L55" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="I57" s="36"/>
+      <c r="D57" s="20">
+        <f>$D$64*((100-C57)/100)</f>
+        <v>1869.14</v>
+      </c>
+      <c r="E57" s="20">
+        <f>D57/$D$63</f>
+        <v>1820.0000000000002</v>
+      </c>
+      <c r="F57" s="20">
+        <f>$D$64*(C57/100)</f>
+        <v>184.85999999999999</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="53"/>
       <c r="C58" s="15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D58" s="20">
-        <f>$D$65*((100-C58)/100)</f>
-        <v>1828.06</v>
+        <f t="shared" ref="D58:D61" si="17">$D$64*((100-C58)/100)</f>
+        <v>1766.44</v>
       </c>
       <c r="E58" s="20">
-        <f>D58/$D$64</f>
-        <v>1780</v>
+        <f t="shared" ref="E58:E61" si="18">D58/$D$63</f>
+        <v>1720.0000000000002</v>
       </c>
       <c r="F58" s="20">
-        <f>$D$65*(C58/100)</f>
-        <v>225.94</v>
+        <f t="shared" ref="F58:F61" si="19">$D$64*(C58/100)</f>
+        <v>287.56</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
@@ -2936,19 +2922,19 @@
       <c r="A59" s="59"/>
       <c r="B59" s="53"/>
       <c r="C59" s="15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D59" s="20">
-        <f t="shared" ref="D59:D62" si="17">$D$65*((100-C59)/100)</f>
-        <v>1786.98</v>
+        <f t="shared" si="17"/>
+        <v>1663.74</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" ref="E59:E62" si="18">D59/$D$64</f>
-        <v>1740.0000000000002</v>
+        <f t="shared" si="18"/>
+        <v>1620.0000000000002</v>
       </c>
       <c r="F59" s="20">
-        <f t="shared" ref="F59:F62" si="19">$D$65*(C59/100)</f>
-        <v>267.02</v>
+        <f t="shared" si="19"/>
+        <v>390.26</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -2957,19 +2943,19 @@
       <c r="A60" s="59"/>
       <c r="B60" s="53"/>
       <c r="C60" s="15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D60" s="20">
         <f t="shared" si="17"/>
-        <v>1745.8999999999999</v>
+        <v>1561.04</v>
       </c>
       <c r="E60" s="20">
         <f t="shared" si="18"/>
-        <v>1700</v>
+        <v>1520</v>
       </c>
       <c r="F60" s="20">
         <f t="shared" si="19"/>
-        <v>308.09999999999997</v>
+        <v>492.96</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -2978,19 +2964,19 @@
       <c r="A61" s="59"/>
       <c r="B61" s="53"/>
       <c r="C61" s="15">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D61" s="20">
         <f t="shared" si="17"/>
-        <v>1704.82</v>
+        <v>1458.34</v>
       </c>
       <c r="E61" s="20">
         <f t="shared" si="18"/>
-        <v>1660</v>
+        <v>1420</v>
       </c>
       <c r="F61" s="20">
         <f t="shared" si="19"/>
-        <v>349.18</v>
+        <v>595.66</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -2998,100 +2984,100 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="59"/>
       <c r="B62" s="53"/>
-      <c r="C62" s="15">
-        <v>19</v>
-      </c>
-      <c r="D62" s="20">
-        <f t="shared" si="17"/>
-        <v>1663.74</v>
-      </c>
-      <c r="E62" s="20">
-        <f t="shared" si="18"/>
-        <v>1620.0000000000002</v>
-      </c>
-      <c r="F62" s="20">
-        <f t="shared" si="19"/>
-        <v>390.26</v>
-      </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="53"/>
+      <c r="C63" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="G63" s="45"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="53"/>
-      <c r="C64" s="44" t="s">
-        <v>35</v>
-      </c>
+      <c r="C64" s="16"/>
       <c r="D64" s="16">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="45">
-        <v>1.04</v>
-      </c>
-      <c r="G64" s="45"/>
+        <f>C1*D63</f>
+        <v>2054</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16">
-        <f>C1*D64</f>
-        <v>2054</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="J65" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="J66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A66" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="54">
+        <v>9</v>
+      </c>
+      <c r="C66" s="51">
+        <f>(F66/(D66+F66))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="52">
+        <f>$D$63*E66</f>
+        <v>1848.6</v>
+      </c>
+      <c r="E66" s="52">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="58"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="54">
+      <c r="A67" s="63"/>
+      <c r="B67" s="55">
         <v>10</v>
       </c>
       <c r="C67" s="51">
-        <f>(F67/(D67+F67))*100</f>
+        <f t="shared" ref="C67:C69" si="20">(F67/(D67+F67))*100</f>
         <v>0</v>
       </c>
       <c r="D67" s="52">
-        <f>$D$64*E67</f>
-        <v>1848.6</v>
+        <f t="shared" ref="D67:D69" si="21">$D$63*E67</f>
+        <v>1745.8999999999999</v>
       </c>
       <c r="E67" s="52">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
-      <c r="K67" s="67"/>
       <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3100,11 +3086,11 @@
         <v>11</v>
       </c>
       <c r="C68" s="51">
-        <f t="shared" ref="C68:C71" si="20">(F68/(D68+F68))*100</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D68" s="52">
-        <f t="shared" ref="D68:D71" si="21">$D$64*E68</f>
+        <f t="shared" si="21"/>
         <v>1745.8999999999999</v>
       </c>
       <c r="E68" s="52">
@@ -3113,6 +3099,7 @@
       <c r="F68" s="52"/>
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
+      <c r="K68" s="67"/>
       <c r="L68" s="58"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3134,93 +3121,111 @@
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
-      <c r="K69" s="67"/>
       <c r="L69" s="58"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="55">
-        <v>13</v>
-      </c>
-      <c r="C70" s="51">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="52">
-        <f t="shared" si="21"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E70" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="L70" s="58"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="55">
-        <v>14</v>
+      <c r="A71" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="54">
+        <v>10</v>
       </c>
       <c r="C71" s="51">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>(F71/(D71+F71))*100</f>
+        <v>1.0263576350407171</v>
       </c>
       <c r="D71" s="52">
-        <f t="shared" si="21"/>
-        <v>1643.1999999999998</v>
+        <f>$D$63*E71</f>
+        <v>2054</v>
       </c>
       <c r="E71" s="52">
-        <v>1600</v>
-      </c>
-      <c r="F71" s="52"/>
+        <v>2000</v>
+      </c>
+      <c r="F71" s="52">
+        <v>21.3</v>
+      </c>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="58"/>
+      <c r="J71" s="4">
+        <v>2.0917000000000002E-2</v>
+      </c>
+      <c r="K71" s="67">
+        <v>53.570850999999998</v>
+      </c>
+      <c r="L71" s="58">
+        <v>20</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="55">
+        <v>11</v>
+      </c>
+      <c r="C72" s="51">
+        <f t="shared" ref="C72:C75" si="22">(F72/(D72+F72))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="D72" s="52">
+        <f t="shared" ref="D72:D75" si="23">$D$63*E72</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="E72" s="52">
+        <v>1900</v>
+      </c>
+      <c r="F72" s="52">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="J72" s="4">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="L72" s="58">
+        <v>20</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="54">
-        <v>10</v>
+      <c r="A73" s="63"/>
+      <c r="B73" s="55">
+        <v>12</v>
       </c>
       <c r="C73" s="51">
-        <f>(F73/(D73+F73))*100</f>
-        <v>1.0263576350407171</v>
+        <f t="shared" si="22"/>
+        <v>7.74067974247642</v>
       </c>
       <c r="D73" s="52">
-        <f>$D$64*E73</f>
-        <v>2054</v>
+        <f t="shared" si="23"/>
+        <v>1848.6</v>
       </c>
       <c r="E73" s="52">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F73" s="52">
-        <v>21.3</v>
+        <v>155.1</v>
       </c>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
       <c r="J73" s="4">
-        <v>2.0917000000000002E-2</v>
+        <v>3.1720999999999999E-2</v>
       </c>
       <c r="K73" s="67">
-        <v>53.570850999999998</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="L73" s="58">
         <v>20</v>
@@ -3229,29 +3234,29 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="63"/>
       <c r="B74" s="55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C74" s="51">
-        <f t="shared" ref="C74:C77" si="22">(F74/(D74+F74))*100</f>
-        <v>3.5633092814075318</v>
+        <f t="shared" si="22"/>
+        <v>11.512134411947729</v>
       </c>
       <c r="D74" s="52">
-        <f t="shared" ref="D74:D77" si="23">$D$64*E74</f>
-        <v>1951.2999999999997</v>
+        <f t="shared" si="23"/>
+        <v>1848.6</v>
       </c>
       <c r="E74" s="52">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F74" s="52">
-        <v>72.099999999999994</v>
+        <v>240.5</v>
       </c>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
       <c r="J74" s="4">
-        <v>9.1500000000000001E-3</v>
+        <v>8.6243E-2</v>
       </c>
       <c r="K74" s="4">
-        <v>2.2258E-2</v>
+        <v>1.5518959999999999</v>
       </c>
       <c r="L74" s="58">
         <v>20</v>
@@ -3260,1276 +3265,1020 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C75" s="51">
         <f t="shared" si="22"/>
-        <v>7.74067974247642</v>
+        <v>14.950311769290725</v>
       </c>
       <c r="D75" s="52">
         <f t="shared" si="23"/>
-        <v>1848.6</v>
+        <v>1745.8999999999999</v>
       </c>
       <c r="E75" s="52">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F75" s="52">
-        <v>155.1</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
       <c r="J75" s="4">
-        <v>3.1720999999999999E-2</v>
+        <v>0.15590399999999999</v>
       </c>
       <c r="K75" s="67">
-        <v>2.6790000000000001E-2</v>
+        <v>0.16277</v>
       </c>
       <c r="L75" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="55">
-        <v>13</v>
-      </c>
-      <c r="C76" s="51">
-        <f t="shared" si="22"/>
-        <v>11.512134411947729</v>
-      </c>
-      <c r="D76" s="52">
-        <f t="shared" si="23"/>
-        <v>1848.6</v>
-      </c>
-      <c r="E76" s="52">
-        <v>1800</v>
-      </c>
-      <c r="F76" s="52">
-        <v>240.5</v>
-      </c>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="J76" s="4">
-        <v>8.6243E-2</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1.5518959999999999</v>
-      </c>
-      <c r="L76" s="58">
-        <v>20</v>
-      </c>
-    </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="55">
-        <v>14</v>
-      </c>
-      <c r="C77" s="51">
-        <f t="shared" si="22"/>
-        <v>14.950311769290725</v>
-      </c>
-      <c r="D77" s="52">
-        <f t="shared" si="23"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E77" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F77" s="52">
-        <v>306.89999999999998</v>
-      </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="J77" s="4">
-        <v>0.15590399999999999</v>
-      </c>
-      <c r="K77" s="67">
-        <v>0.16277</v>
-      </c>
-      <c r="L77" s="58">
-        <v>20</v>
-      </c>
+      <c r="A77" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="53"/>
+      <c r="C77" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="28">
+        <f t="shared" ref="D78:D79" si="24">$D$85*((100-C78)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="E78" s="28">
+        <f>D78/$D$84</f>
+        <v>1995.0000000000005</v>
+      </c>
+      <c r="F78" s="28">
+        <f>$D$85*((C78*0.3)/100)</f>
+        <v>1.5405</v>
+      </c>
+      <c r="G78" s="28">
+        <f>$D$85*((C78*0.7)/100)</f>
+        <v>3.5944999999999996</v>
+      </c>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="A79" s="59"/>
       <c r="B79" s="53"/>
-      <c r="C79" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>75</v>
+      <c r="C79" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D79" s="28">
+        <f t="shared" si="24"/>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="E79" s="28">
+        <f t="shared" ref="E79:E82" si="25">D79/$D$84</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F79" s="28">
+        <f t="shared" ref="F79:F82" si="26">$D$85*((C79*0.3)/100)</f>
+        <v>23.107499999999998</v>
+      </c>
+      <c r="G79" s="28">
+        <f>$D$85*((C79*0.7)/100)</f>
+        <v>53.917499999999997</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="59"/>
       <c r="B80" s="53"/>
       <c r="C80" s="30">
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="D80" s="28">
-        <f t="shared" ref="D80:D81" si="24">$D$87*((100-C80)/100)</f>
-        <v>2048.8650000000002</v>
+        <f>$D$85*((100-C80)/100)</f>
+        <v>1899.95</v>
       </c>
       <c r="E80" s="28">
-        <f>D80/$D$86</f>
-        <v>1995.0000000000005</v>
+        <f t="shared" si="25"/>
+        <v>1850.0000000000002</v>
       </c>
       <c r="F80" s="28">
-        <f>$D$87*((C80*0.3)/100)</f>
-        <v>1.5405</v>
+        <f t="shared" si="26"/>
+        <v>46.214999999999996</v>
       </c>
       <c r="G80" s="28">
-        <f>$D$87*((C80*0.7)/100)</f>
-        <v>3.5944999999999996</v>
+        <f>$D$85*((C80*0.7)/100)</f>
+        <v>107.83499999999999</v>
       </c>
       <c r="H80" s="39"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="59"/>
       <c r="B81" s="53"/>
       <c r="C81" s="30">
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="D81" s="28">
-        <f t="shared" si="24"/>
-        <v>1976.9750000000001</v>
+        <f t="shared" ref="D81:D82" si="27">$D$85*((100-C81)/100)</f>
+        <v>1822.925</v>
       </c>
       <c r="E81" s="28">
-        <f t="shared" ref="E81:E84" si="25">D81/$D$86</f>
-        <v>1925.0000000000002</v>
+        <f t="shared" si="25"/>
+        <v>1775</v>
       </c>
       <c r="F81" s="28">
-        <f t="shared" ref="F81:F84" si="26">$D$87*((C81*0.3)/100)</f>
-        <v>23.107499999999998</v>
+        <f t="shared" si="26"/>
+        <v>69.322500000000005</v>
       </c>
       <c r="G81" s="28">
-        <f>$D$87*((C81*0.7)/100)</f>
-        <v>53.917499999999997</v>
+        <f>$D$85*((C81*0.7)/100)</f>
+        <v>161.75249999999997</v>
       </c>
       <c r="H81" s="39"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="59"/>
       <c r="B82" s="53"/>
       <c r="C82" s="30">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D82" s="28">
-        <f>$D$87*((100-C82)/100)</f>
-        <v>1899.95</v>
+        <f t="shared" si="27"/>
+        <v>1745.8999999999999</v>
       </c>
       <c r="E82" s="28">
         <f t="shared" si="25"/>
-        <v>1850.0000000000002</v>
+        <v>1700</v>
       </c>
       <c r="F82" s="28">
         <f t="shared" si="26"/>
-        <v>46.214999999999996</v>
+        <v>92.429999999999993</v>
       </c>
       <c r="G82" s="28">
-        <f>$D$87*((C82*0.7)/100)</f>
-        <v>107.83499999999999</v>
+        <f>$D$85*((C82*0.7)/100)</f>
+        <v>215.67</v>
       </c>
       <c r="H82" s="39"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="59"/>
       <c r="B83" s="53"/>
-      <c r="C83" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D83" s="28">
-        <f t="shared" ref="D83:D84" si="27">$D$87*((100-C83)/100)</f>
-        <v>1822.925</v>
-      </c>
-      <c r="E83" s="28">
-        <f t="shared" si="25"/>
-        <v>1775</v>
-      </c>
-      <c r="F83" s="28">
-        <f t="shared" si="26"/>
-        <v>69.322500000000005</v>
-      </c>
-      <c r="G83" s="28">
-        <f>$D$87*((C83*0.7)/100)</f>
-        <v>161.75249999999997</v>
-      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="39"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="59"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="30">
-        <v>15</v>
-      </c>
-      <c r="D84" s="28">
-        <f t="shared" si="27"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E84" s="28">
-        <f t="shared" si="25"/>
-        <v>1700</v>
-      </c>
-      <c r="F84" s="28">
-        <f t="shared" si="26"/>
-        <v>92.429999999999993</v>
-      </c>
-      <c r="G84" s="28">
-        <f>$D$87*((C84*0.7)/100)</f>
-        <v>215.67</v>
-      </c>
-      <c r="H84" s="39"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="48">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G84" s="25">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="H84" s="49"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="59"/>
       <c r="B85" s="53"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="39"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="48">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="G86" s="25">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="H86" s="49"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25">
+        <f>C1*D84</f>
+        <v>2054</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="s">
+        <v>97</v>
+      </c>
       <c r="B87" s="53"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25">
-        <f>C1*D86</f>
-        <v>2054</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="C87" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="36"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="59"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D88" s="20">
+        <f>$D$95*((100-C88)/100)</f>
+        <v>2958.9840000000004</v>
+      </c>
+      <c r="E88" s="20">
+        <f>D88/$D$94</f>
+        <v>1995.0000000000002</v>
+      </c>
+      <c r="F88" s="20">
+        <f>$D$95*(C88/100)</f>
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="G88" s="74"/>
+      <c r="H88" s="68"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="36"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D89" s="38">
+        <f>$D$95*((100-C89)/100)</f>
+        <v>2855.1600000000003</v>
+      </c>
+      <c r="E89" s="20">
+        <f>D89/$D$94</f>
+        <v>1925</v>
+      </c>
+      <c r="F89" s="38">
+        <f>$D$95*(C89/100)</f>
+        <v>111.24</v>
+      </c>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="59"/>
       <c r="B90" s="53"/>
       <c r="C90" s="15">
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="D90" s="20">
-        <f>$D$97*((100-C90)/100)</f>
-        <v>2958.9840000000004</v>
+        <f>$D$95*((100-C90)/100)</f>
+        <v>2743.92</v>
       </c>
       <c r="E90" s="20">
-        <f>D90/$D$96</f>
-        <v>1995.0000000000002</v>
+        <f>D90/$D$94</f>
+        <v>1850</v>
       </c>
       <c r="F90" s="20">
-        <f>$D$97*(C90/100)</f>
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="G90" s="76"/>
-      <c r="H90" s="70"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <f>$D$95*(C90/100)</f>
+        <v>222.48</v>
+      </c>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="59"/>
       <c r="B91" s="53"/>
       <c r="C91" s="30">
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="D91" s="38">
-        <f>$D$97*((100-C91)/100)</f>
-        <v>2855.1600000000003</v>
+        <f>$D$95*((100-C91)/100)</f>
+        <v>2632.68</v>
       </c>
       <c r="E91" s="20">
-        <f>D91/$D$96</f>
-        <v>1925</v>
+        <f>D91/$D$94</f>
+        <v>1774.9999999999998</v>
       </c>
       <c r="F91" s="38">
-        <f>$D$97*(C91/100)</f>
-        <v>111.24</v>
-      </c>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <f>$D$95*(C91/100)</f>
+        <v>333.72</v>
+      </c>
+      <c r="G91" s="71"/>
+      <c r="H91" s="68"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="59"/>
       <c r="B92" s="53"/>
       <c r="C92" s="15">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D92" s="20">
-        <f>$D$97*((100-C92)/100)</f>
-        <v>2743.92</v>
+        <f>$D$95*((100-C92)/100)</f>
+        <v>2521.44</v>
       </c>
       <c r="E92" s="20">
-        <f>D92/$D$96</f>
-        <v>1850</v>
+        <f>D92/$D$94</f>
+        <v>1700</v>
       </c>
       <c r="F92" s="20">
-        <f>$D$97*(C92/100)</f>
-        <v>222.48</v>
-      </c>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <f>$D$95*(C92/100)</f>
+        <v>444.96</v>
+      </c>
+      <c r="G92" s="71"/>
+      <c r="H92" s="68"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="59"/>
       <c r="B93" s="53"/>
-      <c r="C93" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D93" s="38">
-        <f>$D$97*((100-C93)/100)</f>
-        <v>2632.68</v>
-      </c>
-      <c r="E93" s="20">
-        <f>D93/$D$96</f>
-        <v>1774.9999999999998</v>
-      </c>
-      <c r="F93" s="38">
-        <f>$D$97*(C93/100)</f>
-        <v>333.72</v>
-      </c>
-      <c r="G93" s="73"/>
-      <c r="H93" s="70"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="59"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="15">
-        <v>15</v>
-      </c>
-      <c r="D94" s="20">
-        <f>$D$97*((100-C94)/100)</f>
-        <v>2521.44</v>
-      </c>
-      <c r="E94" s="20">
-        <f>D94/$D$96</f>
-        <v>1700</v>
-      </c>
-      <c r="F94" s="20">
-        <f>$D$97*(C94/100)</f>
-        <v>444.96</v>
-      </c>
-      <c r="G94" s="73"/>
-      <c r="H94" s="70"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="45">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G94" s="72"/>
+      <c r="H94" s="73"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="59"/>
       <c r="B95" s="53"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="45">
-        <v>1.4832000000000001</v>
-      </c>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G96" s="74"/>
-      <c r="H96" s="75"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16">
+        <f>C1*D94</f>
+        <v>2966.4</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" s="16"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="64"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="J96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16">
-        <f>C1*D96</f>
+      <c r="A97" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="54">
+        <v>0</v>
+      </c>
+      <c r="C97" s="52">
+        <f>(F97/(D97+F97))*100</f>
+        <v>0.24548542220129804</v>
+      </c>
+      <c r="D97" s="6">
+        <f>$D$94*E97</f>
         <v>2966.4</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
+      <c r="E97" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F97" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="G97" s="74"/>
+      <c r="H97" s="73"/>
+      <c r="L97" s="58">
+        <v>20</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
-      <c r="J98" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>100</v>
+      <c r="A98" s="62"/>
+      <c r="B98" s="54">
+        <v>1</v>
+      </c>
+      <c r="C98" s="52">
+        <f t="shared" ref="C98" si="28">(F98/(D98+F98))*100</f>
+        <v>7.5875055383252095</v>
+      </c>
+      <c r="D98" s="6">
+        <f>$D$94*E98</f>
+        <v>2669.76</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F98" s="6">
+        <v>219.2</v>
+      </c>
+      <c r="G98" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H98" s="73"/>
+      <c r="L98" s="58">
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="54">
-        <v>0</v>
-      </c>
-      <c r="C99" s="52">
-        <f>(F99/(D99+F99))*100</f>
-        <v>0.24548542220129804</v>
-      </c>
-      <c r="D99" s="6">
-        <f>$D$96*E99</f>
-        <v>2966.4</v>
-      </c>
-      <c r="E99" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F99" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G99" s="76"/>
-      <c r="H99" s="75"/>
-      <c r="L99" s="58">
-        <v>20</v>
-      </c>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="L99" s="58"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="B100" s="54">
-        <v>1</v>
-      </c>
-      <c r="C100" s="52">
-        <f t="shared" ref="C100:C102" si="28">(F100/(D100+F100))*100</f>
-        <v>7.5875055383252095</v>
-      </c>
-      <c r="D100" s="6">
-        <f t="shared" ref="D100:D102" si="29">$D$96*E100</f>
-        <v>2669.76</v>
-      </c>
-      <c r="E100" s="6">
-        <v>1800</v>
-      </c>
-      <c r="F100" s="6">
-        <v>219.2</v>
-      </c>
-      <c r="G100" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H100" s="75"/>
-      <c r="L100" s="58">
-        <v>20</v>
-      </c>
+      <c r="A100" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="53"/>
+      <c r="C100" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="70"/>
+      <c r="H100" s="69"/>
+      <c r="L100" s="58"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="54">
-        <v>2</v>
-      </c>
-      <c r="C101" s="68">
-        <f t="shared" si="28"/>
-        <v>10.023052346351392</v>
-      </c>
-      <c r="D101" s="69">
+      <c r="A101" s="59"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D101" s="20">
+        <f>$D$108*((100-C101)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="E101" s="20">
+        <f>D101/$D$107</f>
+        <v>1995</v>
+      </c>
+      <c r="F101" s="20">
+        <f>$D$108*(C101/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D102" s="38">
+        <f t="shared" ref="D102:D105" si="29">$D$108*((100-C102)/100)</f>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="E102" s="20">
+        <f t="shared" ref="E102:E105" si="30">D102/$D$107</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F102" s="38">
+        <f t="shared" ref="F102:F105" si="31">$D$108*(C102/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="59"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D103" s="20">
         <f t="shared" si="29"/>
-        <v>4004.6400000000003</v>
-      </c>
-      <c r="E101" s="69">
-        <v>2700</v>
-      </c>
-      <c r="F101" s="69">
-        <v>446.1</v>
-      </c>
-      <c r="G101" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" s="75"/>
-      <c r="L101" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="51">
-        <f t="shared" si="28"/>
-        <v>4.1196841667821031</v>
-      </c>
-      <c r="D102" s="41">
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="E103" s="20">
+        <f t="shared" si="30"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F103" s="20">
+        <f t="shared" si="31"/>
+        <v>198.82499999999999</v>
+      </c>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="59"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D104" s="38">
         <f t="shared" si="29"/>
-        <v>10382.4</v>
-      </c>
-      <c r="E102" s="41">
-        <v>7000</v>
-      </c>
-      <c r="F102" s="41">
-        <v>446.1</v>
-      </c>
-      <c r="G102" s="75"/>
-      <c r="H102" s="75"/>
-      <c r="L102" s="58"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="L103" s="58"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G104" s="72"/>
-      <c r="H104" s="71"/>
-      <c r="L104" s="58"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="E104" s="20">
+        <f t="shared" si="30"/>
+        <v>1775</v>
+      </c>
+      <c r="F104" s="38">
+        <f t="shared" si="31"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="G104" s="71"/>
+      <c r="H104" s="68"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="59"/>
       <c r="B105" s="53"/>
       <c r="C105" s="15">
-        <v>0.25</v>
+        <v>15</v>
       </c>
       <c r="D105" s="20">
-        <f>$D$112*((100-C105)/100)</f>
-        <v>2644.3724999999999</v>
+        <f t="shared" si="29"/>
+        <v>2253.35</v>
       </c>
       <c r="E105" s="20">
-        <f>D105/$D$111</f>
-        <v>1995</v>
+        <f t="shared" si="30"/>
+        <v>1700</v>
       </c>
       <c r="F105" s="20">
-        <f>$D$112*(C105/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
+        <f t="shared" si="31"/>
+        <v>397.65</v>
+      </c>
+      <c r="G105" s="71"/>
+      <c r="H105" s="68"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="59"/>
       <c r="B106" s="53"/>
-      <c r="C106" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D106" s="38">
-        <f t="shared" ref="D106:D109" si="30">$D$112*((100-C106)/100)</f>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="E106" s="20">
-        <f t="shared" ref="E106:E109" si="31">D106/$D$111</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F106" s="38">
-        <f t="shared" ref="F106:F109" si="32">$D$112*(C106/100)</f>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="59"/>
       <c r="B107" s="53"/>
-      <c r="C107" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D107" s="20">
-        <f t="shared" si="30"/>
-        <v>2452.1750000000002</v>
-      </c>
-      <c r="E107" s="20">
-        <f t="shared" si="31"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F107" s="20">
-        <f t="shared" si="32"/>
-        <v>198.82499999999999</v>
-      </c>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
+      <c r="C107" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="45">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G107" s="72"/>
+      <c r="H107" s="73"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="59"/>
       <c r="B108" s="53"/>
-      <c r="C108" s="30">
+      <c r="C108" s="16"/>
+      <c r="D108" s="16">
+        <f>C1*D107</f>
+        <v>2651</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="J109" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="56">
+        <v>3</v>
+      </c>
+      <c r="C110" s="20">
+        <f>(F110/(D110+F110))*100</f>
+        <v>0.29336542801263726</v>
+      </c>
+      <c r="D110" s="4">
+        <f>$D$107*E110</f>
+        <v>2651</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F110" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G110" s="74"/>
+      <c r="H110" s="69"/>
+      <c r="L110" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="60"/>
+      <c r="B111" s="56">
+        <v>4</v>
+      </c>
+      <c r="C111" s="20">
+        <f t="shared" ref="C111" si="32">(F111/(D111+F111))*100</f>
+        <v>7.6056228943190192</v>
+      </c>
+      <c r="D111" s="4">
+        <f>$D$107*E111</f>
+        <v>2385.8999999999996</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F111" s="4">
+        <v>196.4</v>
+      </c>
+      <c r="G111" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H111" s="69"/>
+      <c r="L111" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="L112" s="58"/>
+    </row>
+    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="53"/>
+      <c r="C113" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="36"/>
+      <c r="L113" s="58"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="59"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D114" s="20">
+        <f>$D$121*((100-C114)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="E114" s="20">
+        <f>D114/$D$120</f>
+        <v>1995</v>
+      </c>
+      <c r="F114" s="20">
+        <f>$D$121*(C114/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="D115" s="20">
+        <f t="shared" ref="D115:D118" si="33">$D$121*((100-C115)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="E115" s="20">
+        <f t="shared" ref="E115:E118" si="34">D115/$D$120</f>
+        <v>1925</v>
+      </c>
+      <c r="F115" s="20">
+        <f t="shared" ref="F115:F118" si="35">$D$121*(C115/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D116" s="20">
+        <f t="shared" si="33"/>
+        <v>1757.5</v>
+      </c>
+      <c r="E116" s="20">
+        <f t="shared" si="34"/>
+        <v>1850</v>
+      </c>
+      <c r="F116" s="20">
+        <f t="shared" si="35"/>
+        <v>142.5</v>
+      </c>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="15">
         <v>11.25</v>
       </c>
-      <c r="D108" s="38">
-        <f t="shared" si="30"/>
-        <v>2352.7624999999998</v>
-      </c>
-      <c r="E108" s="20">
-        <f t="shared" si="31"/>
+      <c r="D117" s="20">
+        <f t="shared" si="33"/>
+        <v>1686.25</v>
+      </c>
+      <c r="E117" s="20">
+        <f t="shared" si="34"/>
         <v>1775</v>
       </c>
-      <c r="F108" s="38">
-        <f t="shared" si="32"/>
-        <v>298.23750000000001</v>
-      </c>
-      <c r="G108" s="73"/>
-      <c r="H108" s="70"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="15">
+      <c r="F117" s="20">
+        <f t="shared" si="35"/>
+        <v>213.75</v>
+      </c>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="15">
         <v>15</v>
       </c>
-      <c r="D109" s="20">
-        <f t="shared" si="30"/>
-        <v>2253.35</v>
-      </c>
-      <c r="E109" s="20">
-        <f t="shared" si="31"/>
+      <c r="D118" s="20">
+        <f t="shared" si="33"/>
+        <v>1615</v>
+      </c>
+      <c r="E118" s="20">
+        <f t="shared" si="34"/>
         <v>1700</v>
       </c>
-      <c r="F109" s="20">
-        <f t="shared" si="32"/>
-        <v>397.65</v>
-      </c>
-      <c r="G109" s="73"/>
-      <c r="H109" s="70"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-      <c r="B110" s="53"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="45">
-        <v>1.3254999999999999</v>
-      </c>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G111" s="74"/>
-      <c r="H111" s="75"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16">
-        <f>C1*D111</f>
-        <v>2651</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="75"/>
-      <c r="H112" s="75"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="J113" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="56">
-        <v>3</v>
-      </c>
-      <c r="C114" s="20">
-        <f>(F114/(D114+F114))*100</f>
-        <v>0.29336542801263726</v>
-      </c>
-      <c r="D114" s="4">
-        <f>$D$111*E114</f>
-        <v>2651</v>
-      </c>
-      <c r="E114" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F114" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G114" s="76"/>
-      <c r="H114" s="71"/>
-      <c r="L114" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
-      <c r="B115" s="56">
-        <v>4</v>
-      </c>
-      <c r="C115" s="20">
-        <f t="shared" ref="C115:C117" si="33">(F115/(D115+F115))*100</f>
-        <v>7.6056228943190192</v>
-      </c>
-      <c r="D115" s="4">
-        <f t="shared" ref="D115:D117" si="34">$D$111*E115</f>
-        <v>2385.8999999999996</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1800</v>
-      </c>
-      <c r="F115" s="4">
-        <v>196.4</v>
-      </c>
-      <c r="G115" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H115" s="71"/>
-      <c r="L115" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="56">
-        <v>5</v>
-      </c>
-      <c r="C116" s="68">
-        <f t="shared" si="33"/>
-        <v>14.979153696681571</v>
-      </c>
-      <c r="D116" s="69">
-        <f t="shared" si="34"/>
-        <v>2253.35</v>
-      </c>
-      <c r="E116" s="69">
-        <v>1700</v>
-      </c>
-      <c r="F116" s="69">
-        <v>397</v>
-      </c>
-      <c r="G116" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H116" s="71"/>
-      <c r="L116" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="70">
-        <f t="shared" si="33"/>
-        <v>4.2187367168239396</v>
-      </c>
-      <c r="D117" s="71">
-        <f t="shared" si="34"/>
-        <v>9013.4</v>
-      </c>
-      <c r="E117" s="71">
-        <v>6800</v>
-      </c>
-      <c r="F117" s="71">
-        <v>397</v>
-      </c>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="L117" s="58"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="L118" s="58"/>
-    </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="F118" s="20">
+        <f t="shared" si="35"/>
+        <v>285</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
       <c r="B119" s="53"/>
-      <c r="C119" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I119" s="36"/>
-      <c r="L119" s="58"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="59"/>
       <c r="B120" s="53"/>
-      <c r="C120" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D120" s="20">
-        <f>$D$127*((100-C120)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="E120" s="20">
-        <f>D120/$D$126</f>
-        <v>1995</v>
-      </c>
-      <c r="F120" s="20">
-        <f>$D$127*(C120/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
+      <c r="C120" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="G120" s="45"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="59"/>
       <c r="B121" s="53"/>
-      <c r="C121" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="D121" s="20">
-        <f t="shared" ref="D121:D124" si="35">$D$127*((100-C121)/100)</f>
-        <v>1828.75</v>
-      </c>
-      <c r="E121" s="20">
-        <f t="shared" ref="E121:E124" si="36">D121/$D$126</f>
-        <v>1925</v>
-      </c>
-      <c r="F121" s="20">
-        <f t="shared" ref="F121:F124" si="37">$D$127*(C121/100)</f>
-        <v>71.25</v>
-      </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16">
+        <f>C1*D120</f>
+        <v>1900</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D122" s="20">
-        <f t="shared" si="35"/>
-        <v>1757.5</v>
-      </c>
-      <c r="E122" s="20">
+      <c r="J122" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="54">
+        <v>6</v>
+      </c>
+      <c r="C123" s="51">
+        <f>(F123/(D123+F123))*100</f>
+        <v>0.61202071454726159</v>
+      </c>
+      <c r="D123" s="41">
+        <f>$D$120*E123</f>
+        <v>1900</v>
+      </c>
+      <c r="E123" s="41">
+        <v>2000</v>
+      </c>
+      <c r="F123" s="41">
+        <v>11.7</v>
+      </c>
+      <c r="G123" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L123" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="65"/>
+      <c r="B124" s="54">
+        <v>7</v>
+      </c>
+      <c r="C124" s="51">
+        <f t="shared" ref="C124:C127" si="36">(F124/(D124+F124))*100</f>
+        <v>4.9399620813145146</v>
+      </c>
+      <c r="D124" s="41">
+        <f>$D$120*E124</f>
+        <v>1805</v>
+      </c>
+      <c r="E124" s="41">
+        <v>1900</v>
+      </c>
+      <c r="F124" s="41">
+        <v>93.8</v>
+      </c>
+      <c r="G124" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L124" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="65"/>
+      <c r="B125" s="54">
+        <v>8</v>
+      </c>
+      <c r="C125" s="51">
         <f t="shared" si="36"/>
-        <v>1850</v>
-      </c>
-      <c r="F122" s="20">
-        <f t="shared" si="37"/>
-        <v>142.5</v>
-      </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="D123" s="20">
-        <f t="shared" si="35"/>
-        <v>1686.25</v>
-      </c>
-      <c r="E123" s="20">
+        <v>8.0002152041749603</v>
+      </c>
+      <c r="D125" s="41">
+        <f>$D$120*E125</f>
+        <v>1710</v>
+      </c>
+      <c r="E125" s="41">
+        <v>1800</v>
+      </c>
+      <c r="F125" s="41">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="G125" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L125" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="65"/>
+      <c r="B126" s="54">
+        <v>9</v>
+      </c>
+      <c r="C126" s="51">
         <f t="shared" si="36"/>
-        <v>1775</v>
-      </c>
-      <c r="F123" s="20">
-        <f t="shared" si="37"/>
-        <v>213.75</v>
-      </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="15">
-        <v>15</v>
-      </c>
-      <c r="D124" s="20">
-        <f t="shared" si="35"/>
+        <v>11.43108717045631</v>
+      </c>
+      <c r="D126" s="41">
+        <f>$D$120*E126</f>
+        <v>1710</v>
+      </c>
+      <c r="E126" s="41">
+        <v>1800</v>
+      </c>
+      <c r="F126" s="41">
+        <v>220.7</v>
+      </c>
+      <c r="G126" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L126" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="65"/>
+      <c r="B127" s="54">
+        <v>10</v>
+      </c>
+      <c r="C127" s="51">
+        <f t="shared" si="36"/>
+        <v>15.165204601565371</v>
+      </c>
+      <c r="D127" s="41">
+        <f>$D$120*E127</f>
         <v>1615</v>
       </c>
-      <c r="E124" s="20">
-        <f t="shared" si="36"/>
+      <c r="E127" s="41">
         <v>1700</v>
       </c>
-      <c r="F124" s="20">
-        <f t="shared" si="37"/>
-        <v>285</v>
-      </c>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
-      <c r="B125" s="53"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45">
-        <v>1.07</v>
-      </c>
-      <c r="G126" s="45"/>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16">
-        <f>C1*D126</f>
-        <v>1900</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J128" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="54">
-        <v>6</v>
-      </c>
-      <c r="C129" s="68">
-        <f>(F129/(D129+F129))*100</f>
-        <v>0.61202071454726159</v>
-      </c>
-      <c r="D129" s="69">
-        <f>$D$126*E129</f>
-        <v>1900</v>
-      </c>
-      <c r="E129" s="69">
-        <v>2000</v>
-      </c>
-      <c r="F129" s="69">
-        <v>11.7</v>
-      </c>
-      <c r="G129" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L129" s="58">
+      <c r="F127" s="41">
+        <v>288.7</v>
+      </c>
+      <c r="G127" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L127" s="58">
         <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="20">
-        <f t="shared" ref="C130:C138" si="38">(F130/(D130+F130))*100</f>
-        <v>15.593069746779209</v>
-      </c>
-      <c r="D130" s="4">
-        <f t="shared" ref="D130:D138" si="39">$D$126*E130</f>
-        <v>1900</v>
-      </c>
-      <c r="E130" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F130" s="4">
-        <f>F129*30</f>
-        <v>351</v>
-      </c>
-      <c r="L130" s="58"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
-      <c r="B131" s="54">
-        <v>7</v>
-      </c>
-      <c r="C131" s="68">
-        <f t="shared" si="38"/>
-        <v>4.9399620813145146</v>
-      </c>
-      <c r="D131" s="69">
-        <f t="shared" si="39"/>
-        <v>1805</v>
-      </c>
-      <c r="E131" s="69">
-        <v>1900</v>
-      </c>
-      <c r="F131" s="69">
-        <v>93.8</v>
-      </c>
-      <c r="G131" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L131" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="20">
-        <f t="shared" si="38"/>
-        <v>60.922277549253089</v>
-      </c>
-      <c r="D132" s="4">
-        <f t="shared" si="39"/>
-        <v>1805</v>
-      </c>
-      <c r="E132" s="4">
-        <v>1900</v>
-      </c>
-      <c r="F132" s="4">
-        <f>F131*30</f>
-        <v>2814</v>
-      </c>
-      <c r="L132" s="58"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
-      <c r="B133" s="54">
-        <v>8</v>
-      </c>
-      <c r="C133" s="68">
-        <f t="shared" si="38"/>
-        <v>8.0002152041749603</v>
-      </c>
-      <c r="D133" s="69">
-        <f t="shared" si="39"/>
-        <v>1710</v>
-      </c>
-      <c r="E133" s="69">
-        <v>1800</v>
-      </c>
-      <c r="F133" s="69">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="G133" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L133" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="70">
-        <f t="shared" si="38"/>
-        <v>72.289742343218279</v>
-      </c>
-      <c r="D134" s="71">
-        <f t="shared" si="39"/>
-        <v>1710</v>
-      </c>
-      <c r="E134" s="71">
-        <v>1800</v>
-      </c>
-      <c r="F134" s="71">
-        <f>F133*30</f>
-        <v>4461</v>
-      </c>
-      <c r="L134" s="58"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
-      <c r="B135" s="54">
-        <v>9</v>
-      </c>
-      <c r="C135" s="68">
-        <f t="shared" si="38"/>
-        <v>11.43108717045631</v>
-      </c>
-      <c r="D135" s="69">
-        <f t="shared" si="39"/>
-        <v>1710</v>
-      </c>
-      <c r="E135" s="69">
-        <v>1800</v>
-      </c>
-      <c r="F135" s="69">
-        <v>220.7</v>
-      </c>
-      <c r="G135" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L135" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="20">
-        <f t="shared" si="38"/>
-        <v>79.474252790781421</v>
-      </c>
-      <c r="D136" s="4">
-        <f t="shared" si="39"/>
-        <v>1710</v>
-      </c>
-      <c r="E136" s="4">
-        <v>1800</v>
-      </c>
-      <c r="F136" s="4">
-        <f>F135*30</f>
-        <v>6621</v>
-      </c>
-      <c r="L136" s="58"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="54">
-        <v>10</v>
-      </c>
-      <c r="C137" s="68">
-        <f t="shared" si="38"/>
-        <v>15.165204601565371</v>
-      </c>
-      <c r="D137" s="69">
-        <f t="shared" si="39"/>
-        <v>1615</v>
-      </c>
-      <c r="E137" s="69">
-        <v>1700</v>
-      </c>
-      <c r="F137" s="69">
-        <v>288.7</v>
-      </c>
-      <c r="G137" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L137" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B138" s="71"/>
-      <c r="C138" s="20">
-        <f t="shared" si="38"/>
-        <v>84.283768003114062</v>
-      </c>
-      <c r="D138" s="4">
-        <f t="shared" si="39"/>
-        <v>1615</v>
-      </c>
-      <c r="E138" s="4">
-        <v>1700</v>
-      </c>
-      <c r="F138" s="4">
-        <f>F137*30</f>
-        <v>8661</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="A123:A127"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A110:A111"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A50:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE73342-2F70-4C8E-8A68-FC28BE25D076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE4243-8B2F-4758-BF94-D359C234F316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t>Pa.s</t>
   </si>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -622,6 +622,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1647,11 @@
       </c>
       <c r="I1" s="32"/>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+    </row>
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>97</v>
@@ -1917,16 +1925,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="20">
-        <f>$D$21*((100-C14)/100)</f>
-        <v>1420.8000000000002</v>
+        <f>$D$22*((100-C14)/100)</f>
+        <v>2131.2000000000003</v>
       </c>
       <c r="E14" s="20">
         <f>D14/$D$20</f>
-        <v>1600.0000000000002</v>
+        <v>2400.0000000000005</v>
       </c>
       <c r="F14" s="20">
-        <f>$D$21*(C14/100)</f>
-        <v>355.20000000000005</v>
+        <f>$D$22*(C14/100)</f>
+        <v>532.80000000000007</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1938,16 +1946,16 @@
         <v>25</v>
       </c>
       <c r="D15" s="20">
-        <f>$D$21*((100-C15)/100)</f>
-        <v>1332</v>
+        <f t="shared" ref="D15:D18" si="1">$D$22*((100-C15)/100)</f>
+        <v>1998</v>
       </c>
       <c r="E15" s="20">
         <f>D15/$D$20</f>
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="F15" s="20">
-        <f>$D$21*(C15/100)</f>
-        <v>444</v>
+        <f t="shared" ref="F15:F18" si="2">$D$22*(C15/100)</f>
+        <v>666</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -1959,16 +1967,16 @@
         <v>30</v>
       </c>
       <c r="D16" s="20">
-        <f>$D$21*((100-C16)/100)</f>
-        <v>1243.1999999999998</v>
+        <f t="shared" si="1"/>
+        <v>1864.8</v>
       </c>
       <c r="E16" s="20">
         <f>D16/$D$20</f>
-        <v>1399.9999999999998</v>
+        <v>2100</v>
       </c>
       <c r="F16" s="20">
-        <f>$D$21*(C16/100)</f>
-        <v>532.79999999999995</v>
+        <f t="shared" si="2"/>
+        <v>799.19999999999993</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1980,16 +1988,16 @@
         <v>35</v>
       </c>
       <c r="D17" s="20">
-        <f>$D$21*((100-C17)/100)</f>
-        <v>1154.4000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1731.6000000000001</v>
       </c>
       <c r="E17" s="20">
         <f>D17/$D$20</f>
-        <v>1300</v>
+        <v>1950.0000000000002</v>
       </c>
       <c r="F17" s="20">
-        <f>$D$21*(C17/100)</f>
-        <v>621.59999999999991</v>
+        <f t="shared" si="2"/>
+        <v>932.4</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -2001,16 +2009,16 @@
         <v>40</v>
       </c>
       <c r="D18" s="20">
-        <f>$D$21*((100-C18)/100)</f>
-        <v>1065.5999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1598.3999999999999</v>
       </c>
       <c r="E18" s="20">
         <f>D18/$D$20</f>
-        <v>1199.9999999999998</v>
+        <v>1799.9999999999998</v>
       </c>
       <c r="F18" s="20">
-        <f>$D$21*(C18/100)</f>
-        <v>710.40000000000009</v>
+        <f t="shared" si="2"/>
+        <v>1065.6000000000001</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -2050,8 +2058,15 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="D22" s="16">
+        <f>C2*D20</f>
+        <v>2664</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>99</v>
       </c>
@@ -2062,191 +2077,159 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B24" s="56">
         <v>0</v>
       </c>
-      <c r="C23" s="20">
-        <f>(F23/(D23+F23))*100</f>
-        <v>10.937761185713491</v>
-      </c>
-      <c r="D23" s="20">
-        <f>$D$20*E23</f>
-        <v>1598.4</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1800</v>
-      </c>
-      <c r="F23" s="20">
-        <v>196.3</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="L23" s="58"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="56">
-        <v>1</v>
-      </c>
       <c r="C24" s="20">
-        <f t="shared" ref="C24:C27" si="1">(F24/(D24+F24))*100</f>
-        <v>14.075929193465766</v>
+        <f>(F24/(D24+F24))*100</f>
+        <v>0</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" ref="D24:D27" si="2">$D$20*E24</f>
-        <v>1509.6</v>
+        <f>$D$20*E24</f>
+        <v>2131.1999999999998</v>
       </c>
       <c r="E24" s="20">
-        <v>1700</v>
-      </c>
-      <c r="F24" s="20">
-        <v>247.3</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="K24" s="67"/>
       <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="20">
-        <f t="shared" si="1"/>
-        <v>15.257662512630517</v>
+        <f t="shared" ref="C25:C28" si="3">(F25/(D25+F25))*100</f>
+        <v>0</v>
       </c>
       <c r="D25" s="20">
-        <f t="shared" si="2"/>
-        <v>1509.6</v>
+        <f t="shared" ref="D25:D28" si="4">$D$20*E25</f>
+        <v>1953.6000000000001</v>
       </c>
       <c r="E25" s="20">
-        <v>1700</v>
-      </c>
-      <c r="F25" s="20">
-        <v>271.8</v>
-      </c>
+        <v>2200</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="J25" s="67"/>
       <c r="K25" s="67"/>
       <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" si="1"/>
-        <v>17.295786993918806</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="2"/>
-        <v>1509.6</v>
+        <f t="shared" si="4"/>
+        <v>1864.8</v>
       </c>
       <c r="E26" s="20">
-        <v>1700</v>
-      </c>
-      <c r="F26" s="20">
-        <v>315.7</v>
-      </c>
+        <v>2100</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" si="2"/>
-        <v>1420.8</v>
+        <f t="shared" si="4"/>
+        <v>1687.2</v>
       </c>
       <c r="E27" s="20">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="K27" s="67"/>
       <c r="L27" s="58"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="56">
+        <v>4</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="4"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="58"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B30" s="56">
         <v>0</v>
       </c>
-      <c r="C29" s="20">
-        <f>(F29/(D29+F29))*100</f>
+      <c r="C30" s="20">
+        <f>(F30/(D30+F30))*100</f>
         <v>0.25833988543187686</v>
       </c>
-      <c r="D29" s="20">
-        <f>$D$20*E29</f>
+      <c r="D30" s="20">
+        <f>$D$20*E30</f>
         <v>1776</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E30" s="20">
         <v>2000</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="J29" s="4">
-        <v>2.6400000000000002E-4</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1.7329999999999999E-3</v>
-      </c>
-      <c r="L29" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="56">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20">
-        <f t="shared" ref="C30:C33" si="3">(F30/(D30+F30))*100</f>
-        <v>4.1635898892360119</v>
-      </c>
-      <c r="D30" s="20">
-        <f t="shared" ref="D30:D33" si="4">$D$20*E30</f>
-        <v>1687.2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1900</v>
-      </c>
-      <c r="F30" s="20">
-        <v>73.3</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="J30" s="4">
-        <v>2.9629999999999999E-3</v>
-      </c>
-      <c r="K30" s="67">
-        <v>0.95067100000000004</v>
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.7329999999999999E-3</v>
       </c>
       <c r="L30" s="58">
         <v>20</v>
@@ -2255,29 +2238,29 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3275980729525099</v>
+        <f t="shared" ref="C31:C34" si="5">(F31/(D31+F31))*100</f>
+        <v>4.1635898892360119</v>
       </c>
       <c r="D31" s="20">
-        <f t="shared" si="4"/>
-        <v>1598.4</v>
+        <f t="shared" ref="D31:D34" si="6">$D$20*E31</f>
+        <v>1687.2</v>
       </c>
       <c r="E31" s="20">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F31" s="20">
-        <v>145.19999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="J31" s="67">
-        <v>3.5182999999999999E-2</v>
+      <c r="J31" s="4">
+        <v>2.9629999999999999E-3</v>
       </c>
       <c r="K31" s="67">
-        <v>4.2918999999999999E-2</v>
+        <v>0.95067100000000004</v>
       </c>
       <c r="L31" s="58">
         <v>20</v>
@@ -2286,29 +2269,29 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="20">
-        <f t="shared" si="3"/>
-        <v>11.031949237448513</v>
+        <f t="shared" si="5"/>
+        <v>8.3275980729525099</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1598.4</v>
       </c>
       <c r="E32" s="20">
         <v>1800</v>
       </c>
       <c r="F32" s="20">
-        <v>198.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="J32" s="4">
-        <v>2.8964E-2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.31996999999999998</v>
+      <c r="J32" s="67">
+        <v>3.5182999999999999E-2</v>
+      </c>
+      <c r="K32" s="67">
+        <v>4.2918999999999999E-2</v>
       </c>
       <c r="L32" s="58">
         <v>20</v>
@@ -2317,504 +2300,472 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="20">
-        <f t="shared" si="3"/>
-        <v>15.172902080219371</v>
+        <f t="shared" si="5"/>
+        <v>11.031949237448513</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" si="4"/>
-        <v>1509.6</v>
+        <f t="shared" si="6"/>
+        <v>1598.4</v>
       </c>
       <c r="E33" s="20">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F33" s="20">
-        <v>270.02</v>
+        <v>198.2</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="J33" s="4">
-        <v>0.198681</v>
-      </c>
-      <c r="K33" s="67">
-        <v>1.2781130000000001</v>
+        <v>2.8964E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.31996999999999998</v>
       </c>
       <c r="L33" s="58">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="56">
+        <v>4</v>
+      </c>
+      <c r="C34" s="20">
+        <f t="shared" si="5"/>
+        <v>15.172902080219371</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="6"/>
+        <v>1509.6</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1700</v>
+      </c>
+      <c r="F34" s="20">
+        <v>270.02</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="J34" s="4">
+        <v>0.198681</v>
+      </c>
+      <c r="K34" s="67">
+        <v>1.2781130000000001</v>
+      </c>
+      <c r="L34" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="31" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="36"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="15">
-        <v>9</v>
-      </c>
-      <c r="D36" s="20">
-        <f>$D$43*((100-C36)*0.75/100)</f>
-        <v>1233.2774999999999</v>
-      </c>
-      <c r="E36" s="20">
-        <f>D36/$D$42</f>
-        <v>1388.8260135135133</v>
-      </c>
-      <c r="F36" s="20">
-        <f>$D$43*((100-C36)*0.25/100)</f>
-        <v>411.09250000000003</v>
-      </c>
-      <c r="G36" s="20">
-        <f>F36/$F$42</f>
-        <v>432.72894736842113</v>
-      </c>
-      <c r="H36" s="20">
-        <f>$D$43*(C36/100)</f>
-        <v>162.63</v>
-      </c>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="53"/>
       <c r="C37" s="15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="20">
-        <f t="shared" ref="D37:D40" si="5">$D$43*((100-C37)*0.75/100)</f>
-        <v>1165.5150000000001</v>
+        <f>$D$45*((100-C37)*0.75/100)</f>
+        <v>1849.91625</v>
       </c>
       <c r="E37" s="20">
-        <f t="shared" ref="E37:E40" si="6">D37/$D$42</f>
-        <v>1312.5168918918921</v>
+        <f>D37/$D$43</f>
+        <v>2083.2390202702704</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" ref="F37:F40" si="7">$D$43*((100-C37)*0.25/100)</f>
-        <v>388.505</v>
+        <f>$D$45*((100-C37)*0.25/100)</f>
+        <v>616.63875000000007</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" ref="G37:G40" si="8">F37/$F$42</f>
-        <v>408.95263157894738</v>
+        <f>F37/$F$43</f>
+        <v>649.0934210526317</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" ref="H37:H40" si="9">$D$43*(C37/100)</f>
-        <v>252.98000000000002</v>
+        <f>$D$45*(C37/100)</f>
+        <v>243.94499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="53"/>
       <c r="C38" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D38" s="20">
-        <f t="shared" si="5"/>
-        <v>1097.7525000000001</v>
+        <f t="shared" ref="D38:D41" si="7">$D$45*((100-C38)*0.75/100)</f>
+        <v>1748.2725</v>
       </c>
       <c r="E38" s="20">
-        <f t="shared" si="6"/>
-        <v>1236.2077702702702</v>
+        <f t="shared" ref="E38:E41" si="8">D38/$D$43</f>
+        <v>1968.7753378378379</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="7"/>
-        <v>365.91750000000002</v>
+        <f t="shared" ref="F38:F41" si="9">$D$45*((100-C38)*0.25/100)</f>
+        <v>582.75749999999994</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="8"/>
-        <v>385.17631578947373</v>
+        <f t="shared" ref="G38:G41" si="10">F38/$F$43</f>
+        <v>613.42894736842106</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="9"/>
-        <v>343.33</v>
+        <f t="shared" ref="H38:H41" si="11">$D$45*(C38/100)</f>
+        <v>379.47</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="53"/>
       <c r="C39" s="15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="20">
-        <f t="shared" si="5"/>
-        <v>1029.99</v>
+        <f t="shared" si="7"/>
+        <v>1646.6287500000001</v>
       </c>
       <c r="E39" s="20">
-        <f t="shared" si="6"/>
-        <v>1159.8986486486485</v>
+        <f t="shared" si="8"/>
+        <v>1854.3116554054054</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="7"/>
-        <v>343.33</v>
+        <f t="shared" si="9"/>
+        <v>548.87625000000003</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="8"/>
-        <v>361.4</v>
+        <f t="shared" si="10"/>
+        <v>577.76447368421054</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="9"/>
-        <v>433.68</v>
+        <f t="shared" si="11"/>
+        <v>514.995</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="53"/>
       <c r="C40" s="15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D40" s="20">
-        <f t="shared" si="5"/>
-        <v>962.22749999999996</v>
+        <f t="shared" si="7"/>
+        <v>1544.9849999999999</v>
       </c>
       <c r="E40" s="20">
-        <f t="shared" si="6"/>
-        <v>1083.5895270270269</v>
+        <f t="shared" si="8"/>
+        <v>1739.8479729729729</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" si="7"/>
-        <v>320.74250000000001</v>
+        <f t="shared" si="9"/>
+        <v>514.995</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="8"/>
-        <v>337.62368421052633</v>
+        <f t="shared" si="10"/>
+        <v>542.1</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="9"/>
-        <v>524.03</v>
+        <f t="shared" si="11"/>
+        <v>650.52</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="53"/>
+      <c r="C41" s="15">
+        <v>29</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" si="7"/>
+        <v>1443.3412499999999</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="8"/>
+        <v>1625.3842905405404</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="9"/>
+        <v>481.11374999999998</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" si="10"/>
+        <v>506.4355263157895</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="11"/>
+        <v>786.04499999999996</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="53"/>
-      <c r="C42" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="45">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1400</v>
-      </c>
-      <c r="H42" s="45">
-        <v>1.04</v>
-      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="53"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16">
-        <f>C1*((D42*0.75)+(F42*0.25))</f>
+      <c r="C43" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1400</v>
+      </c>
+      <c r="H43" s="45">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16">
+        <f>C1*((D43*0.75)+(F43*0.25))</f>
         <v>1807</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J44" s="5" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16">
+        <f>C2*((D43*0.75)+(F43*0.25))</f>
+        <v>2710.5</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L46" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B47" s="56">
         <v>5</v>
       </c>
-      <c r="C45" s="20">
-        <f>(H45/(D45+F45+H45))*100</f>
+      <c r="C47" s="20">
+        <f>(H47/(D47+F47+H47))*100</f>
         <v>0</v>
       </c>
-      <c r="D45" s="20">
-        <f>$D$42*E45</f>
-        <v>1243.2</v>
-      </c>
-      <c r="E45" s="20">
-        <v>1400</v>
-      </c>
-      <c r="F45" s="20">
-        <f>$F$42*G45</f>
-        <v>380</v>
-      </c>
-      <c r="G45" s="20">
-        <v>400</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="58"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="57">
-        <v>6</v>
-      </c>
-      <c r="C46" s="20">
-        <f t="shared" ref="C46:C48" si="10">(H46/(D46+F46+H46))*100</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="20">
-        <f t="shared" ref="D46" si="11">$D$42*E46</f>
-        <v>1154.4000000000001</v>
-      </c>
-      <c r="E46" s="20">
-        <v>1300</v>
-      </c>
-      <c r="F46" s="20">
-        <f t="shared" ref="F46:F48" si="12">$F$42*G46</f>
-        <v>380</v>
-      </c>
-      <c r="G46" s="20">
-        <v>400</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="L46" s="58"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="57">
-        <v>7</v>
-      </c>
-      <c r="C47" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D47" s="20">
-        <v>1151</v>
+        <f>$D$43*E47</f>
+        <v>1864.8</v>
       </c>
       <c r="E47" s="20">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="F47" s="20">
-        <v>383</v>
+        <f>$F$43*G47</f>
+        <v>570</v>
       </c>
       <c r="G47" s="20">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H47" s="20"/>
-      <c r="J47" s="67"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="67"/>
       <c r="L47" s="58"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="61"/>
       <c r="B48" s="57">
+        <v>6</v>
+      </c>
+      <c r="C48" s="20">
+        <f t="shared" ref="C48:C51" si="12">(H48/(D48+F48+H48))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <f t="shared" ref="D48:D51" si="13">$D$43*E48</f>
+        <v>1776</v>
+      </c>
+      <c r="E48" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" ref="F48:F51" si="14">$F$43*G48</f>
+        <v>570</v>
+      </c>
+      <c r="G48" s="20">
+        <v>600</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="57">
+        <v>7</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <f t="shared" si="13"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="14"/>
+        <v>570</v>
+      </c>
+      <c r="G49" s="20">
+        <v>600</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="58"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="57">
         <v>8</v>
       </c>
-      <c r="C48" s="20">
-        <f t="shared" si="10"/>
+      <c r="C50" s="20">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D48" s="20">
-        <f t="shared" ref="D48" si="13">$D$42*E48</f>
-        <v>1154.4000000000001</v>
-      </c>
-      <c r="E48" s="20">
-        <v>1300</v>
-      </c>
-      <c r="F48" s="20">
-        <f t="shared" si="12"/>
-        <v>380</v>
-      </c>
-      <c r="G48" s="20">
-        <v>400</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="58"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="56">
-        <v>5</v>
-      </c>
-      <c r="C50" s="20">
-        <f>(H50/(D50+F50+H50))*100</f>
-        <v>1.4023026136301631</v>
-      </c>
       <c r="D50" s="20">
-        <f>$D$42*E50</f>
-        <v>1332</v>
+        <f t="shared" si="13"/>
+        <v>1509.6</v>
       </c>
       <c r="E50" s="20">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F50" s="20">
-        <f>$F$42*G50</f>
+        <f t="shared" si="14"/>
         <v>475</v>
       </c>
       <c r="G50" s="20">
         <v>500</v>
       </c>
-      <c r="H50" s="20">
-        <v>25.7</v>
-      </c>
-      <c r="J50" s="6">
-        <v>8.7530000000000004E-3</v>
-      </c>
-      <c r="K50" s="67">
-        <v>8.3807010000000002</v>
-      </c>
-      <c r="L50" s="58">
-        <v>20</v>
-      </c>
+      <c r="H50" s="20"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="58"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="57">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51" s="20">
-        <f t="shared" ref="C51:C54" si="14">(H51/(D51+F51+H51))*100</f>
-        <v>3.8727524204702628</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="D51" s="20">
-        <f t="shared" ref="D51:D54" si="15">$D$42*E51</f>
-        <v>1332</v>
+        <f t="shared" si="13"/>
+        <v>1420.8</v>
       </c>
       <c r="E51" s="20">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F51" s="20">
-        <f t="shared" ref="F51:F54" si="16">$F$42*G51</f>
+        <f t="shared" si="14"/>
         <v>475</v>
       </c>
       <c r="G51" s="20">
         <v>500</v>
       </c>
-      <c r="H51" s="20">
-        <v>72.8</v>
-      </c>
-      <c r="J51" s="4">
-        <v>4.2900000000000004E-3</v>
-      </c>
-      <c r="K51" s="4">
-        <v>3.0336999999999999E-2</v>
-      </c>
-      <c r="L51" s="58">
-        <v>20</v>
-      </c>
+      <c r="H51" s="20"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="58"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="57">
-        <v>7</v>
-      </c>
-      <c r="C52" s="20">
-        <f t="shared" si="14"/>
-        <v>8.0392045776443251</v>
-      </c>
-      <c r="D52" s="20">
-        <f>$D$42*G42</f>
-        <v>1243.2</v>
-      </c>
-      <c r="E52" s="20">
-        <v>1400</v>
-      </c>
-      <c r="F52" s="20">
-        <f t="shared" si="16"/>
-        <v>380</v>
-      </c>
-      <c r="G52" s="20">
-        <v>400</v>
-      </c>
-      <c r="H52" s="20">
-        <v>141.9</v>
-      </c>
-      <c r="J52" s="67">
-        <v>1.9382E-2</v>
-      </c>
-      <c r="K52" s="67">
-        <v>0.236674</v>
-      </c>
-      <c r="L52" s="58">
-        <v>20</v>
-      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="57">
-        <v>8</v>
+      <c r="A53" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="56">
+        <v>5</v>
       </c>
       <c r="C53" s="20">
-        <f t="shared" si="14"/>
-        <v>11.750158164145628</v>
+        <f>(H53/(D53+F53+H53))*100</f>
+        <v>1.4023026136301631</v>
       </c>
       <c r="D53" s="20">
-        <f t="shared" si="15"/>
-        <v>1154.4000000000001</v>
+        <f>$D$43*E53</f>
+        <v>1332</v>
       </c>
       <c r="E53" s="20">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="20">
-        <f t="shared" si="16"/>
-        <v>380</v>
+        <f>$F$43*G53</f>
+        <v>475</v>
       </c>
       <c r="G53" s="20">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H53" s="20">
-        <v>204.3</v>
-      </c>
-      <c r="J53" s="67">
-        <v>3.4037999999999999E-2</v>
-      </c>
-      <c r="K53" s="6">
-        <v>4.5269999999999998E-3</v>
+        <v>25.7</v>
+      </c>
+      <c r="J53" s="6">
+        <v>8.7530000000000004E-3</v>
+      </c>
+      <c r="K53" s="67">
+        <v>8.3807010000000002</v>
       </c>
       <c r="L53" s="58">
         <v>20</v>
@@ -2823,139 +2774,184 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54" s="20">
-        <f t="shared" si="14"/>
-        <v>14.646492740724259</v>
+        <f t="shared" ref="C54:C57" si="15">(H54/(D54+F54+H54))*100</f>
+        <v>3.8727524204702628</v>
       </c>
       <c r="D54" s="20">
-        <f t="shared" si="15"/>
-        <v>1154.4000000000001</v>
+        <f t="shared" ref="D54:D57" si="16">$D$43*E54</f>
+        <v>1332</v>
       </c>
       <c r="E54" s="20">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="20">
-        <f t="shared" si="16"/>
-        <v>380</v>
+        <f t="shared" ref="F54:F57" si="17">$F$43*G54</f>
+        <v>475</v>
       </c>
       <c r="G54" s="20">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H54" s="20">
-        <v>263.3</v>
+        <v>72.8</v>
       </c>
       <c r="J54" s="4">
-        <v>6.9047999999999998E-2</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="K54" s="4">
-        <v>9.5713000000000006E-2</v>
+        <v>3.0336999999999999E-2</v>
       </c>
       <c r="L54" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="57">
+        <v>7</v>
+      </c>
+      <c r="C55" s="20">
+        <f t="shared" si="15"/>
+        <v>8.0392045776443251</v>
+      </c>
+      <c r="D55" s="20">
+        <f>$D$43*G43</f>
+        <v>1243.2</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1400</v>
+      </c>
+      <c r="F55" s="20">
+        <f t="shared" si="17"/>
+        <v>380</v>
+      </c>
+      <c r="G55" s="20">
+        <v>400</v>
+      </c>
+      <c r="H55" s="20">
+        <v>141.9</v>
+      </c>
+      <c r="J55" s="67">
+        <v>1.9382E-2</v>
+      </c>
+      <c r="K55" s="67">
+        <v>0.236674</v>
+      </c>
+      <c r="L55" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="57">
+        <v>8</v>
+      </c>
+      <c r="C56" s="20">
+        <f t="shared" si="15"/>
+        <v>11.750158164145628</v>
+      </c>
+      <c r="D56" s="20">
+        <f t="shared" si="16"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E56" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="17"/>
+        <v>380</v>
+      </c>
+      <c r="G56" s="20">
+        <v>400</v>
+      </c>
+      <c r="H56" s="20">
+        <v>204.3</v>
+      </c>
+      <c r="J56" s="67">
+        <v>3.4037999999999999E-2</v>
+      </c>
+      <c r="K56" s="6">
+        <v>4.5269999999999998E-3</v>
+      </c>
+      <c r="L56" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="57">
+        <v>9</v>
+      </c>
+      <c r="C57" s="20">
+        <f t="shared" si="15"/>
+        <v>14.646492740724259</v>
+      </c>
+      <c r="D57" s="20">
+        <f t="shared" si="16"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" si="17"/>
+        <v>380</v>
+      </c>
+      <c r="G57" s="20">
+        <v>400</v>
+      </c>
+      <c r="H57" s="20">
+        <v>263.3</v>
+      </c>
+      <c r="J57" s="4">
+        <v>6.9047999999999998E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>9.5713000000000006E-2</v>
+      </c>
+      <c r="L57" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="31" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F59" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="I56" s="36"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="15">
-        <v>9</v>
-      </c>
-      <c r="D57" s="20">
-        <f>$D$64*((100-C57)/100)</f>
-        <v>1869.14</v>
-      </c>
-      <c r="E57" s="20">
-        <f>D57/$D$63</f>
-        <v>1820.0000000000002</v>
-      </c>
-      <c r="F57" s="20">
-        <f>$D$64*(C57/100)</f>
-        <v>184.85999999999999</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="15">
-        <v>14</v>
-      </c>
-      <c r="D58" s="20">
-        <f t="shared" ref="D58:D61" si="17">$D$64*((100-C58)/100)</f>
-        <v>1766.44</v>
-      </c>
-      <c r="E58" s="20">
-        <f t="shared" ref="E58:E61" si="18">D58/$D$63</f>
-        <v>1720.0000000000002</v>
-      </c>
-      <c r="F58" s="20">
-        <f t="shared" ref="F58:F61" si="19">$D$64*(C58/100)</f>
-        <v>287.56</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="15">
-        <v>19</v>
-      </c>
-      <c r="D59" s="20">
-        <f t="shared" si="17"/>
-        <v>1663.74</v>
-      </c>
-      <c r="E59" s="20">
-        <f t="shared" si="18"/>
-        <v>1620.0000000000002</v>
-      </c>
-      <c r="F59" s="20">
-        <f t="shared" si="19"/>
-        <v>390.26</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="G59" s="17"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="59"/>
       <c r="B60" s="53"/>
       <c r="C60" s="15">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D60" s="20">
-        <f t="shared" si="17"/>
-        <v>1561.04</v>
+        <f>$D$68*((100-C60)/100)</f>
+        <v>2803.7099999999996</v>
       </c>
       <c r="E60" s="20">
-        <f t="shared" si="18"/>
-        <v>1520</v>
+        <f>D60/$D$66</f>
+        <v>2730</v>
       </c>
       <c r="F60" s="20">
-        <f t="shared" si="19"/>
-        <v>492.96</v>
+        <f>$D$68*(C60/100)</f>
+        <v>277.28999999999996</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -2964,19 +2960,19 @@
       <c r="A61" s="59"/>
       <c r="B61" s="53"/>
       <c r="C61" s="15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D61" s="20">
-        <f t="shared" si="17"/>
-        <v>1458.34</v>
+        <f t="shared" ref="D61:D64" si="18">$D$68*((100-C61)/100)</f>
+        <v>2649.6599999999994</v>
       </c>
       <c r="E61" s="20">
-        <f t="shared" si="18"/>
-        <v>1420</v>
+        <f t="shared" ref="E61:E64" si="19">D61/$D$66</f>
+        <v>2579.9999999999995</v>
       </c>
       <c r="F61" s="20">
-        <f t="shared" si="19"/>
-        <v>595.66</v>
+        <f t="shared" ref="F61:F64" si="20">$D$68*(C61/100)</f>
+        <v>431.34</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -2984,1301 +2980,1401 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="59"/>
       <c r="B62" s="53"/>
+      <c r="C62" s="15">
+        <v>19</v>
+      </c>
+      <c r="D62" s="20">
+        <f t="shared" si="18"/>
+        <v>2495.6099999999997</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="19"/>
+        <v>2430</v>
+      </c>
+      <c r="F62" s="20">
+        <f t="shared" si="20"/>
+        <v>585.38999999999987</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="53"/>
-      <c r="C63" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="16">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="45">
-        <v>1.04</v>
-      </c>
-      <c r="G63" s="45"/>
-      <c r="H63" s="16"/>
+      <c r="C63" s="15">
+        <v>24</v>
+      </c>
+      <c r="D63" s="20">
+        <f t="shared" si="18"/>
+        <v>2341.5599999999995</v>
+      </c>
+      <c r="E63" s="20">
+        <f t="shared" si="19"/>
+        <v>2279.9999999999995</v>
+      </c>
+      <c r="F63" s="20">
+        <f t="shared" si="20"/>
+        <v>739.43999999999983</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="53"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16">
-        <f>C1*D63</f>
+      <c r="C64" s="15">
+        <v>29</v>
+      </c>
+      <c r="D64" s="20">
+        <f t="shared" si="18"/>
+        <v>2187.5099999999998</v>
+      </c>
+      <c r="E64" s="20">
+        <f t="shared" si="19"/>
+        <v>2130</v>
+      </c>
+      <c r="F64" s="20">
+        <f t="shared" si="20"/>
+        <v>893.48999999999978</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="53"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="G66" s="45"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16">
+        <f>C1*D66</f>
         <v>2054</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="J65" s="5" t="s">
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16">
+        <f>C2*D66</f>
+        <v>3080.9999999999995</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="J69" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="54">
-        <v>9</v>
-      </c>
-      <c r="C66" s="51">
-        <f>(F66/(D66+F66))*100</f>
+      <c r="B70" s="54">
+        <v>10</v>
+      </c>
+      <c r="C70" s="51">
+        <f>(F70/(D70+F70))*100</f>
         <v>0</v>
       </c>
-      <c r="D66" s="52">
-        <f>$D$63*E66</f>
-        <v>1848.6</v>
-      </c>
-      <c r="E66" s="52">
-        <v>1800</v>
-      </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="58"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="55">
-        <v>10</v>
-      </c>
-      <c r="C67" s="51">
-        <f t="shared" ref="C67:C69" si="20">(F67/(D67+F67))*100</f>
+      <c r="D70" s="52">
+        <f>$D$66*E70</f>
+        <v>2772.8999999999996</v>
+      </c>
+      <c r="E70" s="52">
+        <v>2700</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="58"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="55">
+        <v>11</v>
+      </c>
+      <c r="C71" s="51">
+        <f t="shared" ref="C71:C74" si="21">(F71/(D71+F71))*100</f>
         <v>0</v>
       </c>
-      <c r="D67" s="52">
-        <f t="shared" ref="D67:D69" si="21">$D$63*E67</f>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E67" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="L67" s="58"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="55">
-        <v>11</v>
-      </c>
-      <c r="C68" s="51">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D68" s="52">
-        <f t="shared" si="21"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E68" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="58"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="55">
-        <v>12</v>
-      </c>
-      <c r="C69" s="51">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D69" s="52">
-        <f t="shared" si="21"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E69" s="52">
-        <v>1700</v>
-      </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="L69" s="58"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="54">
-        <v>10</v>
-      </c>
-      <c r="C71" s="51">
-        <f>(F71/(D71+F71))*100</f>
-        <v>1.0263576350407171</v>
-      </c>
       <c r="D71" s="52">
-        <f>$D$63*E71</f>
-        <v>2054</v>
+        <f>$D$66*E71</f>
+        <v>2670.2</v>
       </c>
       <c r="E71" s="52">
-        <v>2000</v>
-      </c>
-      <c r="F71" s="52">
-        <v>21.3</v>
-      </c>
+        <v>2600</v>
+      </c>
+      <c r="F71" s="52"/>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
-      <c r="J71" s="4">
-        <v>2.0917000000000002E-2</v>
-      </c>
-      <c r="K71" s="67">
-        <v>53.570850999999998</v>
-      </c>
-      <c r="L71" s="58">
-        <v>20</v>
-      </c>
+      <c r="L71" s="58"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="63"/>
       <c r="B72" s="55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" s="51">
-        <f t="shared" ref="C72:C75" si="22">(F72/(D72+F72))*100</f>
-        <v>3.5633092814075318</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="D72" s="52">
-        <f t="shared" ref="D72:D75" si="23">$D$63*E72</f>
-        <v>1951.2999999999997</v>
+        <f>$D$66*E72</f>
+        <v>2464.7999999999997</v>
       </c>
       <c r="E72" s="52">
-        <v>1900</v>
-      </c>
-      <c r="F72" s="52">
-        <v>72.099999999999994</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="F72" s="52"/>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
-      <c r="J72" s="4">
-        <v>9.1500000000000001E-3</v>
-      </c>
-      <c r="K72" s="4">
-        <v>2.2258E-2</v>
-      </c>
-      <c r="L72" s="58">
-        <v>20</v>
-      </c>
+      <c r="K72" s="67"/>
+      <c r="L72" s="58"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="63"/>
       <c r="B73" s="55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" s="51">
-        <f t="shared" si="22"/>
-        <v>7.74067974247642</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="D73" s="52">
-        <f t="shared" si="23"/>
-        <v>1848.6</v>
+        <f>$D$66*E73</f>
+        <v>2362.1</v>
       </c>
       <c r="E73" s="52">
-        <v>1800</v>
-      </c>
-      <c r="F73" s="52">
-        <v>155.1</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
-      <c r="J73" s="4">
-        <v>3.1720999999999999E-2</v>
-      </c>
-      <c r="K73" s="67">
-        <v>2.6790000000000001E-2</v>
-      </c>
-      <c r="L73" s="58">
-        <v>20</v>
-      </c>
+      <c r="K73" s="67"/>
+      <c r="L73" s="58"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="63"/>
       <c r="B74" s="55">
+        <v>14</v>
+      </c>
+      <c r="C74" s="51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="52">
+        <f>$D$66*E74</f>
+        <v>2156.6999999999998</v>
+      </c>
+      <c r="E74" s="52">
+        <v>2100</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="L74" s="58"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="54">
+        <v>10</v>
+      </c>
+      <c r="C76" s="51">
+        <f>(F76/(D76+F76))*100</f>
+        <v>1.0263576350407171</v>
+      </c>
+      <c r="D76" s="52">
+        <f>$D$66*E76</f>
+        <v>2054</v>
+      </c>
+      <c r="E76" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="52">
+        <v>21.3</v>
+      </c>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="J76" s="4">
+        <v>2.0917000000000002E-2</v>
+      </c>
+      <c r="K76" s="67">
+        <v>53.570850999999998</v>
+      </c>
+      <c r="L76" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="55">
+        <v>11</v>
+      </c>
+      <c r="C77" s="51">
+        <f t="shared" ref="C77:C80" si="22">(F77/(D77+F77))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="D77" s="52">
+        <f t="shared" ref="D77:D80" si="23">$D$66*E77</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="E77" s="52">
+        <v>1900</v>
+      </c>
+      <c r="F77" s="52">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="J77" s="4">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="K77" s="4">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="L77" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="63"/>
+      <c r="B78" s="55">
+        <v>12</v>
+      </c>
+      <c r="C78" s="51">
+        <f t="shared" si="22"/>
+        <v>7.74067974247642</v>
+      </c>
+      <c r="D78" s="52">
+        <f t="shared" si="23"/>
+        <v>1848.6</v>
+      </c>
+      <c r="E78" s="52">
+        <v>1800</v>
+      </c>
+      <c r="F78" s="52">
+        <v>155.1</v>
+      </c>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="J78" s="4">
+        <v>3.1720999999999999E-2</v>
+      </c>
+      <c r="K78" s="67">
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="L78" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="63"/>
+      <c r="B79" s="55">
         <v>13</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C79" s="51">
         <f t="shared" si="22"/>
         <v>11.512134411947729</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D79" s="52">
         <f t="shared" si="23"/>
         <v>1848.6</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E79" s="52">
         <v>1800</v>
       </c>
-      <c r="F74" s="52">
+      <c r="F79" s="52">
         <v>240.5</v>
       </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="J74" s="4">
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="J79" s="4">
         <v>8.6243E-2</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K79" s="4">
         <v>1.5518959999999999</v>
       </c>
-      <c r="L74" s="58">
+      <c r="L79" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="55">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="63"/>
+      <c r="B80" s="55">
         <v>14</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C80" s="51">
         <f t="shared" si="22"/>
         <v>14.950311769290725</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D80" s="52">
         <f t="shared" si="23"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E75" s="52">
+      <c r="E80" s="52">
         <v>1700</v>
       </c>
-      <c r="F75" s="52">
+      <c r="F80" s="52">
         <v>306.89999999999998</v>
       </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="J75" s="4">
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="J80" s="4">
         <v>0.15590399999999999</v>
       </c>
-      <c r="K75" s="67">
+      <c r="K80" s="67">
         <v>0.16277</v>
       </c>
-      <c r="L75" s="58">
+      <c r="L80" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="31" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D82" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E82" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F82" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G82" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H77" s="39"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="D78" s="28">
-        <f t="shared" ref="D78:D79" si="24">$D$85*((100-C78)/100)</f>
-        <v>2048.8650000000002</v>
-      </c>
-      <c r="E78" s="28">
-        <f>D78/$D$84</f>
-        <v>1995.0000000000005</v>
-      </c>
-      <c r="F78" s="28">
-        <f>$D$85*((C78*0.3)/100)</f>
-        <v>1.5405</v>
-      </c>
-      <c r="G78" s="28">
-        <f>$D$85*((C78*0.7)/100)</f>
-        <v>3.5944999999999996</v>
-      </c>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D79" s="28">
-        <f t="shared" si="24"/>
-        <v>1976.9750000000001</v>
-      </c>
-      <c r="E79" s="28">
-        <f t="shared" ref="E79:E82" si="25">D79/$D$84</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F79" s="28">
-        <f t="shared" ref="F79:F82" si="26">$D$85*((C79*0.3)/100)</f>
-        <v>23.107499999999998</v>
-      </c>
-      <c r="G79" s="28">
-        <f>$D$85*((C79*0.7)/100)</f>
-        <v>53.917499999999997</v>
-      </c>
-      <c r="H79" s="39"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="30">
-        <v>7.5</v>
-      </c>
-      <c r="D80" s="28">
-        <f>$D$85*((100-C80)/100)</f>
-        <v>1899.95</v>
-      </c>
-      <c r="E80" s="28">
-        <f t="shared" si="25"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F80" s="28">
-        <f t="shared" si="26"/>
-        <v>46.214999999999996</v>
-      </c>
-      <c r="G80" s="28">
-        <f>$D$85*((C80*0.7)/100)</f>
-        <v>107.83499999999999</v>
-      </c>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D81" s="28">
-        <f t="shared" ref="D81:D82" si="27">$D$85*((100-C81)/100)</f>
-        <v>1822.925</v>
-      </c>
-      <c r="E81" s="28">
-        <f t="shared" si="25"/>
-        <v>1775</v>
-      </c>
-      <c r="F81" s="28">
-        <f t="shared" si="26"/>
-        <v>69.322500000000005</v>
-      </c>
-      <c r="G81" s="28">
-        <f>$D$85*((C81*0.7)/100)</f>
-        <v>161.75249999999997</v>
-      </c>
-      <c r="H81" s="39"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="30">
-        <v>15</v>
-      </c>
-      <c r="D82" s="28">
-        <f t="shared" si="27"/>
-        <v>1745.8999999999999</v>
-      </c>
-      <c r="E82" s="28">
-        <f t="shared" si="25"/>
-        <v>1700</v>
-      </c>
-      <c r="F82" s="28">
-        <f t="shared" si="26"/>
-        <v>92.429999999999993</v>
-      </c>
-      <c r="G82" s="28">
-        <f>$D$85*((C82*0.7)/100)</f>
-        <v>215.67</v>
-      </c>
       <c r="H82" s="39"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="59"/>
       <c r="B83" s="53"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
+      <c r="C83" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D83" s="28">
+        <f t="shared" ref="D83:D84" si="24">$D$90*((100-C83)/100)</f>
+        <v>2048.8650000000002</v>
+      </c>
+      <c r="E83" s="28">
+        <f>D83/$D$89</f>
+        <v>1995.0000000000005</v>
+      </c>
+      <c r="F83" s="28">
+        <f>$D$90*((C83*0.3)/100)</f>
+        <v>1.5405</v>
+      </c>
+      <c r="G83" s="28">
+        <f>$D$90*((C83*0.7)/100)</f>
+        <v>3.5944999999999996</v>
+      </c>
       <c r="H83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="59"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="48">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="G84" s="25">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="H84" s="49"/>
+      <c r="C84" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D84" s="28">
+        <f t="shared" si="24"/>
+        <v>1976.9750000000001</v>
+      </c>
+      <c r="E84" s="28">
+        <f t="shared" ref="E84:E87" si="25">D84/$D$89</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F84" s="28">
+        <f t="shared" ref="F84:F87" si="26">$D$90*((C84*0.3)/100)</f>
+        <v>23.107499999999998</v>
+      </c>
+      <c r="G84" s="28">
+        <f>$D$90*((C84*0.7)/100)</f>
+        <v>53.917499999999997</v>
+      </c>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="59"/>
       <c r="B85" s="53"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25">
-        <f>C1*D84</f>
-        <v>2054</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-    </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="C85" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="D85" s="28">
+        <f>$D$90*((100-C85)/100)</f>
+        <v>1899.95</v>
+      </c>
+      <c r="E85" s="28">
+        <f t="shared" si="25"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F85" s="28">
+        <f t="shared" si="26"/>
+        <v>46.214999999999996</v>
+      </c>
+      <c r="G85" s="28">
+        <f>$D$90*((C85*0.7)/100)</f>
+        <v>107.83499999999999</v>
+      </c>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D86" s="28">
+        <f t="shared" ref="D86:D87" si="27">$D$90*((100-C86)/100)</f>
+        <v>1822.925</v>
+      </c>
+      <c r="E86" s="28">
+        <f t="shared" si="25"/>
+        <v>1775</v>
+      </c>
+      <c r="F86" s="28">
+        <f t="shared" si="26"/>
+        <v>69.322500000000005</v>
+      </c>
+      <c r="G86" s="28">
+        <f>$D$90*((C86*0.7)/100)</f>
+        <v>161.75249999999997</v>
+      </c>
+      <c r="H86" s="39"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
       <c r="B87" s="53"/>
-      <c r="C87" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="36"/>
+      <c r="C87" s="30">
+        <v>15</v>
+      </c>
+      <c r="D87" s="28">
+        <f t="shared" si="27"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E87" s="28">
+        <f t="shared" si="25"/>
+        <v>1700</v>
+      </c>
+      <c r="F87" s="28">
+        <f t="shared" si="26"/>
+        <v>92.429999999999993</v>
+      </c>
+      <c r="G87" s="28">
+        <f>$D$90*((C87*0.7)/100)</f>
+        <v>215.67</v>
+      </c>
+      <c r="H87" s="39"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
       <c r="B88" s="53"/>
-      <c r="C88" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D88" s="20">
-        <f>$D$95*((100-C88)/100)</f>
-        <v>2958.9840000000004</v>
-      </c>
-      <c r="E88" s="20">
-        <f>D88/$D$94</f>
-        <v>1995.0000000000002</v>
-      </c>
-      <c r="F88" s="20">
-        <f>$D$95*(C88/100)</f>
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="G88" s="74"/>
-      <c r="H88" s="68"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="39"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="59"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D89" s="38">
-        <f>$D$95*((100-C89)/100)</f>
-        <v>2855.1600000000003</v>
-      </c>
-      <c r="E89" s="20">
-        <f>D89/$D$94</f>
-        <v>1925</v>
-      </c>
-      <c r="F89" s="38">
-        <f>$D$95*(C89/100)</f>
-        <v>111.24</v>
-      </c>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
+      <c r="C89" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="48">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G89" s="25">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="H89" s="49"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="59"/>
       <c r="B90" s="53"/>
-      <c r="C90" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D90" s="20">
-        <f>$D$95*((100-C90)/100)</f>
-        <v>2743.92</v>
-      </c>
-      <c r="E90" s="20">
-        <f>D90/$D$94</f>
-        <v>1850</v>
-      </c>
-      <c r="F90" s="20">
-        <f>$D$95*(C90/100)</f>
-        <v>222.48</v>
-      </c>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D91" s="38">
-        <f>$D$95*((100-C91)/100)</f>
-        <v>2632.68</v>
-      </c>
-      <c r="E91" s="20">
-        <f>D91/$D$94</f>
-        <v>1774.9999999999998</v>
-      </c>
-      <c r="F91" s="38">
-        <f>$D$95*(C91/100)</f>
-        <v>333.72</v>
-      </c>
-      <c r="G91" s="71"/>
-      <c r="H91" s="68"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25">
+        <f>C1*D89</f>
+        <v>2054</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="59" t="s">
+        <v>97</v>
+      </c>
       <c r="B92" s="53"/>
-      <c r="C92" s="15">
-        <v>15</v>
-      </c>
-      <c r="D92" s="20">
-        <f>$D$95*((100-C92)/100)</f>
-        <v>2521.44</v>
-      </c>
-      <c r="E92" s="20">
-        <f>D92/$D$94</f>
-        <v>1700</v>
-      </c>
-      <c r="F92" s="20">
-        <f>$D$95*(C92/100)</f>
-        <v>444.96</v>
-      </c>
-      <c r="G92" s="71"/>
-      <c r="H92" s="68"/>
+      <c r="C92" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="36"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="59"/>
       <c r="B93" s="53"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
+      <c r="C93" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="20">
+        <f>$D$100*((100-C93)/100)</f>
+        <v>2958.9840000000004</v>
+      </c>
+      <c r="E93" s="20">
+        <f>D93/$D$99</f>
+        <v>1995.0000000000002</v>
+      </c>
+      <c r="F93" s="20">
+        <f>$D$100*(C93/100)</f>
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="G93" s="74"/>
+      <c r="H93" s="68"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="59"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="45">
-        <v>1.4832000000000001</v>
-      </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G94" s="72"/>
-      <c r="H94" s="73"/>
+      <c r="C94" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D94" s="38">
+        <f>$D$100*((100-C94)/100)</f>
+        <v>2855.1600000000003</v>
+      </c>
+      <c r="E94" s="20">
+        <f>D94/$D$99</f>
+        <v>1925</v>
+      </c>
+      <c r="F94" s="38">
+        <f>$D$100*(C94/100)</f>
+        <v>111.24</v>
+      </c>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="59"/>
       <c r="B95" s="53"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16">
-        <f>C1*D94</f>
+      <c r="C95" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D95" s="20">
+        <f>$D$100*((100-C95)/100)</f>
+        <v>2743.92</v>
+      </c>
+      <c r="E95" s="20">
+        <f>D95/$D$99</f>
+        <v>1850</v>
+      </c>
+      <c r="F95" s="20">
+        <f>$D$100*(C95/100)</f>
+        <v>222.48</v>
+      </c>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D96" s="38">
+        <f>$D$100*((100-C96)/100)</f>
+        <v>2632.68</v>
+      </c>
+      <c r="E96" s="20">
+        <f>D96/$D$99</f>
+        <v>1774.9999999999998</v>
+      </c>
+      <c r="F96" s="38">
+        <f>$D$100*(C96/100)</f>
+        <v>333.72</v>
+      </c>
+      <c r="G96" s="71"/>
+      <c r="H96" s="68"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="15">
+        <v>15</v>
+      </c>
+      <c r="D97" s="20">
+        <f>$D$100*((100-C97)/100)</f>
+        <v>2521.44</v>
+      </c>
+      <c r="E97" s="20">
+        <f>D97/$D$99</f>
+        <v>1700</v>
+      </c>
+      <c r="F97" s="20">
+        <f>$D$100*(C97/100)</f>
+        <v>444.96</v>
+      </c>
+      <c r="G97" s="71"/>
+      <c r="H97" s="68"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="59"/>
+      <c r="B98" s="53"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="45">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G99" s="72"/>
+      <c r="H99" s="73"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16">
+        <f>C1*D99</f>
         <v>2966.4</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E100" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="J96" s="5" t="s">
+      <c r="F100" s="16"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="J101" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K96" s="5" t="s">
+      <c r="K101" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L96" s="5" t="s">
+      <c r="L101" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="62" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="54">
+      <c r="B102" s="54">
         <v>0</v>
       </c>
-      <c r="C97" s="52">
-        <f>(F97/(D97+F97))*100</f>
+      <c r="C102" s="52">
+        <f>(F102/(D102+F102))*100</f>
         <v>0.24548542220129804</v>
       </c>
-      <c r="D97" s="6">
-        <f>$D$94*E97</f>
+      <c r="D102" s="6">
+        <f>$D$99*E102</f>
         <v>2966.4</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E102" s="6">
         <v>2000</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F102" s="6">
         <v>7.3</v>
       </c>
-      <c r="G97" s="74"/>
-      <c r="H97" s="73"/>
-      <c r="L97" s="58">
+      <c r="G102" s="74"/>
+      <c r="H102" s="73"/>
+      <c r="L102" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="B98" s="54">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="62"/>
+      <c r="B103" s="54">
         <v>1</v>
       </c>
-      <c r="C98" s="52">
-        <f t="shared" ref="C98" si="28">(F98/(D98+F98))*100</f>
+      <c r="C103" s="52">
+        <f t="shared" ref="C103" si="28">(F103/(D103+F103))*100</f>
         <v>7.5875055383252095</v>
       </c>
-      <c r="D98" s="6">
-        <f>$D$94*E98</f>
+      <c r="D103" s="6">
+        <f>$D$99*E103</f>
         <v>2669.76</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E103" s="6">
         <v>1800</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F103" s="6">
         <v>219.2</v>
       </c>
-      <c r="G98" s="71" t="s">
+      <c r="G103" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H98" s="73"/>
-      <c r="L98" s="58">
+      <c r="H103" s="73"/>
+      <c r="L103" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="L99" s="58"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="L104" s="58"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="53"/>
-      <c r="C100" s="31" t="s">
+      <c r="B105" s="53"/>
+      <c r="C105" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G100" s="70"/>
-      <c r="H100" s="69"/>
-      <c r="L100" s="58"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D101" s="20">
-        <f>$D$108*((100-C101)/100)</f>
-        <v>2644.3724999999999</v>
-      </c>
-      <c r="E101" s="20">
-        <f>D101/$D$107</f>
-        <v>1995</v>
-      </c>
-      <c r="F101" s="20">
-        <f>$D$108*(C101/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="30">
-        <v>3.75</v>
-      </c>
-      <c r="D102" s="38">
-        <f t="shared" ref="D102:D105" si="29">$D$108*((100-C102)/100)</f>
-        <v>2551.5875000000001</v>
-      </c>
-      <c r="E102" s="20">
-        <f t="shared" ref="E102:E105" si="30">D102/$D$107</f>
-        <v>1925.0000000000002</v>
-      </c>
-      <c r="F102" s="38">
-        <f t="shared" ref="F102:F105" si="31">$D$108*(C102/100)</f>
-        <v>99.412499999999994</v>
-      </c>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D103" s="20">
-        <f t="shared" si="29"/>
-        <v>2452.1750000000002</v>
-      </c>
-      <c r="E103" s="20">
-        <f t="shared" si="30"/>
-        <v>1850.0000000000002</v>
-      </c>
-      <c r="F103" s="20">
-        <f t="shared" si="31"/>
-        <v>198.82499999999999</v>
-      </c>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="30">
-        <v>11.25</v>
-      </c>
-      <c r="D104" s="38">
-        <f t="shared" si="29"/>
-        <v>2352.7624999999998</v>
-      </c>
-      <c r="E104" s="20">
-        <f t="shared" si="30"/>
-        <v>1775</v>
-      </c>
-      <c r="F104" s="38">
-        <f t="shared" si="31"/>
-        <v>298.23750000000001</v>
-      </c>
-      <c r="G104" s="71"/>
-      <c r="H104" s="68"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="15">
-        <v>15</v>
-      </c>
-      <c r="D105" s="20">
-        <f t="shared" si="29"/>
-        <v>2253.35</v>
-      </c>
-      <c r="E105" s="20">
-        <f t="shared" si="30"/>
-        <v>1700</v>
-      </c>
-      <c r="F105" s="20">
-        <f t="shared" si="31"/>
-        <v>397.65</v>
-      </c>
-      <c r="G105" s="71"/>
-      <c r="H105" s="68"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="69"/>
+      <c r="L105" s="58"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="59"/>
       <c r="B106" s="53"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
+      <c r="C106" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D106" s="20">
+        <f>$D$113*((100-C106)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="E106" s="20">
+        <f>D106/$D$112</f>
+        <v>1995</v>
+      </c>
+      <c r="F106" s="20">
+        <f>$D$113*(C106/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="G106" s="68"/>
+      <c r="H106" s="68"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="59"/>
       <c r="B107" s="53"/>
-      <c r="C107" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="45">
-        <v>1.3254999999999999</v>
-      </c>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G107" s="72"/>
-      <c r="H107" s="73"/>
+      <c r="C107" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="D107" s="38">
+        <f t="shared" ref="D107:D110" si="29">$D$113*((100-C107)/100)</f>
+        <v>2551.5875000000001</v>
+      </c>
+      <c r="E107" s="20">
+        <f t="shared" ref="E107:E110" si="30">D107/$D$112</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="F107" s="38">
+        <f t="shared" ref="F107:F110" si="31">$D$113*(C107/100)</f>
+        <v>99.412499999999994</v>
+      </c>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="59"/>
       <c r="B108" s="53"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16">
-        <f>C1*D107</f>
+      <c r="C108" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D108" s="20">
+        <f t="shared" si="29"/>
+        <v>2452.1750000000002</v>
+      </c>
+      <c r="E108" s="20">
+        <f t="shared" si="30"/>
+        <v>1850.0000000000002</v>
+      </c>
+      <c r="F108" s="20">
+        <f t="shared" si="31"/>
+        <v>198.82499999999999</v>
+      </c>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="D109" s="38">
+        <f t="shared" si="29"/>
+        <v>2352.7624999999998</v>
+      </c>
+      <c r="E109" s="20">
+        <f t="shared" si="30"/>
+        <v>1775</v>
+      </c>
+      <c r="F109" s="38">
+        <f t="shared" si="31"/>
+        <v>298.23750000000001</v>
+      </c>
+      <c r="G109" s="71"/>
+      <c r="H109" s="68"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="59"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="15">
+        <v>15</v>
+      </c>
+      <c r="D110" s="20">
+        <f t="shared" si="29"/>
+        <v>2253.35</v>
+      </c>
+      <c r="E110" s="20">
+        <f t="shared" si="30"/>
+        <v>1700</v>
+      </c>
+      <c r="F110" s="20">
+        <f t="shared" si="31"/>
+        <v>397.65</v>
+      </c>
+      <c r="G110" s="71"/>
+      <c r="H110" s="68"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+      <c r="B111" s="53"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="45">
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G112" s="72"/>
+      <c r="H112" s="73"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="59"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16">
+        <f>C1*D112</f>
         <v>2651</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E113" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="J109" s="5" t="s">
+      <c r="F113" s="16"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="J114" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K109" s="5" t="s">
+      <c r="K114" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L109" s="5" t="s">
+      <c r="L114" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="60" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B110" s="56">
+      <c r="B115" s="56">
         <v>3</v>
       </c>
-      <c r="C110" s="20">
-        <f>(F110/(D110+F110))*100</f>
+      <c r="C115" s="20">
+        <f>(F115/(D115+F115))*100</f>
         <v>0.29336542801263726</v>
       </c>
-      <c r="D110" s="4">
-        <f>$D$107*E110</f>
+      <c r="D115" s="4">
+        <f>$D$112*E115</f>
         <v>2651</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E115" s="4">
         <v>2000</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F115" s="4">
         <v>7.8</v>
       </c>
-      <c r="G110" s="74"/>
-      <c r="H110" s="69"/>
-      <c r="L110" s="58">
+      <c r="G115" s="74"/>
+      <c r="H115" s="69"/>
+      <c r="L115" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="56">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="60"/>
+      <c r="B116" s="56">
         <v>4</v>
       </c>
-      <c r="C111" s="20">
-        <f t="shared" ref="C111" si="32">(F111/(D111+F111))*100</f>
+      <c r="C116" s="20">
+        <f t="shared" ref="C116" si="32">(F116/(D116+F116))*100</f>
         <v>7.6056228943190192</v>
       </c>
-      <c r="D111" s="4">
-        <f>$D$107*E111</f>
+      <c r="D116" s="4">
+        <f>$D$112*E116</f>
         <v>2385.8999999999996</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E116" s="4">
         <v>1800</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F116" s="4">
         <v>196.4</v>
       </c>
-      <c r="G111" s="71" t="s">
+      <c r="G116" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H111" s="69"/>
-      <c r="L111" s="58">
+      <c r="H116" s="69"/>
+      <c r="L116" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="L112" s="58"/>
-    </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="L117" s="58"/>
+    </row>
+    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="31" t="s">
+      <c r="B118" s="53"/>
+      <c r="C118" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="36"/>
-      <c r="L113" s="58"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D114" s="20">
-        <f>$D$121*((100-C114)/100)</f>
-        <v>1895.25</v>
-      </c>
-      <c r="E114" s="20">
-        <f>D114/$D$120</f>
-        <v>1995</v>
-      </c>
-      <c r="F114" s="20">
-        <f>$D$121*(C114/100)</f>
-        <v>4.75</v>
-      </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="15">
-        <v>3.75</v>
-      </c>
-      <c r="D115" s="20">
-        <f t="shared" ref="D115:D118" si="33">$D$121*((100-C115)/100)</f>
-        <v>1828.75</v>
-      </c>
-      <c r="E115" s="20">
-        <f t="shared" ref="E115:E118" si="34">D115/$D$120</f>
-        <v>1925</v>
-      </c>
-      <c r="F115" s="20">
-        <f t="shared" ref="F115:F118" si="35">$D$121*(C115/100)</f>
-        <v>71.25</v>
-      </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="D116" s="20">
-        <f t="shared" si="33"/>
-        <v>1757.5</v>
-      </c>
-      <c r="E116" s="20">
-        <f t="shared" si="34"/>
-        <v>1850</v>
-      </c>
-      <c r="F116" s="20">
-        <f t="shared" si="35"/>
-        <v>142.5</v>
-      </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="D117" s="20">
-        <f t="shared" si="33"/>
-        <v>1686.25</v>
-      </c>
-      <c r="E117" s="20">
-        <f t="shared" si="34"/>
-        <v>1775</v>
-      </c>
-      <c r="F117" s="20">
-        <f t="shared" si="35"/>
-        <v>213.75</v>
-      </c>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="15">
-        <v>15</v>
-      </c>
-      <c r="D118" s="20">
-        <f t="shared" si="33"/>
-        <v>1615</v>
-      </c>
-      <c r="E118" s="20">
-        <f t="shared" si="34"/>
-        <v>1700</v>
-      </c>
-      <c r="F118" s="20">
-        <f t="shared" si="35"/>
-        <v>285</v>
-      </c>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
+      <c r="I118" s="36"/>
+      <c r="L118" s="58"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="59"/>
       <c r="B119" s="53"/>
+      <c r="C119" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D119" s="20">
+        <f>$D$126*((100-C119)/100)</f>
+        <v>1895.25</v>
+      </c>
+      <c r="E119" s="20">
+        <f>D119/$D$125</f>
+        <v>1995</v>
+      </c>
+      <c r="F119" s="20">
+        <f>$D$126*(C119/100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="59"/>
       <c r="B120" s="53"/>
-      <c r="C120" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45">
-        <v>1.07</v>
-      </c>
-      <c r="G120" s="45"/>
-      <c r="H120" s="16"/>
+      <c r="C120" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="D120" s="20">
+        <f t="shared" ref="D120:D123" si="33">$D$126*((100-C120)/100)</f>
+        <v>1828.75</v>
+      </c>
+      <c r="E120" s="20">
+        <f t="shared" ref="E120:E123" si="34">D120/$D$125</f>
+        <v>1925</v>
+      </c>
+      <c r="F120" s="20">
+        <f t="shared" ref="F120:F123" si="35">$D$126*(C120/100)</f>
+        <v>71.25</v>
+      </c>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="59"/>
       <c r="B121" s="53"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16">
-        <f>C1*D120</f>
+      <c r="C121" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D121" s="20">
+        <f t="shared" si="33"/>
+        <v>1757.5</v>
+      </c>
+      <c r="E121" s="20">
+        <f t="shared" si="34"/>
+        <v>1850</v>
+      </c>
+      <c r="F121" s="20">
+        <f t="shared" si="35"/>
+        <v>142.5</v>
+      </c>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="D122" s="20">
+        <f t="shared" si="33"/>
+        <v>1686.25</v>
+      </c>
+      <c r="E122" s="20">
+        <f t="shared" si="34"/>
+        <v>1775</v>
+      </c>
+      <c r="F122" s="20">
+        <f t="shared" si="35"/>
+        <v>213.75</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="15">
+        <v>15</v>
+      </c>
+      <c r="D123" s="20">
+        <f t="shared" si="33"/>
+        <v>1615</v>
+      </c>
+      <c r="E123" s="20">
+        <f t="shared" si="34"/>
+        <v>1700</v>
+      </c>
+      <c r="F123" s="20">
+        <f t="shared" si="35"/>
+        <v>285</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="53"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="G125" s="45"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16">
+        <f>C1*D125</f>
         <v>1900</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E126" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J122" s="5" t="s">
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J127" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K122" s="5" t="s">
+      <c r="K127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="L127" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="65" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B123" s="54">
+      <c r="B128" s="54">
         <v>6</v>
       </c>
-      <c r="C123" s="51">
-        <f>(F123/(D123+F123))*100</f>
+      <c r="C128" s="51">
+        <f>(F128/(D128+F128))*100</f>
         <v>0.61202071454726159</v>
       </c>
-      <c r="D123" s="41">
-        <f>$D$120*E123</f>
+      <c r="D128" s="41">
+        <f>$D$125*E128</f>
         <v>1900</v>
       </c>
-      <c r="E123" s="41">
+      <c r="E128" s="41">
         <v>2000</v>
       </c>
-      <c r="F123" s="41">
+      <c r="F128" s="41">
         <v>11.7</v>
       </c>
-      <c r="G123" s="74" t="s">
+      <c r="G128" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L123" s="58">
+      <c r="L128" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
-      <c r="B124" s="54">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="65"/>
+      <c r="B129" s="54">
         <v>7</v>
       </c>
-      <c r="C124" s="51">
-        <f t="shared" ref="C124:C127" si="36">(F124/(D124+F124))*100</f>
+      <c r="C129" s="51">
+        <f t="shared" ref="C129:C132" si="36">(F129/(D129+F129))*100</f>
         <v>4.9399620813145146</v>
       </c>
-      <c r="D124" s="41">
-        <f>$D$120*E124</f>
+      <c r="D129" s="41">
+        <f>$D$125*E129</f>
         <v>1805</v>
       </c>
-      <c r="E124" s="41">
+      <c r="E129" s="41">
         <v>1900</v>
       </c>
-      <c r="F124" s="41">
+      <c r="F129" s="41">
         <v>93.8</v>
       </c>
-      <c r="G124" s="74" t="s">
+      <c r="G129" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L124" s="58">
+      <c r="L129" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="65"/>
-      <c r="B125" s="54">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="65"/>
+      <c r="B130" s="54">
         <v>8</v>
       </c>
-      <c r="C125" s="51">
+      <c r="C130" s="51">
         <f t="shared" si="36"/>
         <v>8.0002152041749603</v>
       </c>
-      <c r="D125" s="41">
-        <f>$D$120*E125</f>
+      <c r="D130" s="41">
+        <f>$D$125*E130</f>
         <v>1710</v>
       </c>
-      <c r="E125" s="41">
+      <c r="E130" s="41">
         <v>1800</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F130" s="41">
         <v>148.69999999999999</v>
       </c>
-      <c r="G125" s="74" t="s">
+      <c r="G130" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L125" s="58">
+      <c r="L130" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="65"/>
-      <c r="B126" s="54">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="65"/>
+      <c r="B131" s="54">
         <v>9</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C131" s="51">
         <f t="shared" si="36"/>
         <v>11.43108717045631</v>
       </c>
-      <c r="D126" s="41">
-        <f>$D$120*E126</f>
+      <c r="D131" s="41">
+        <f>$D$125*E131</f>
         <v>1710</v>
       </c>
-      <c r="E126" s="41">
+      <c r="E131" s="41">
         <v>1800</v>
       </c>
-      <c r="F126" s="41">
+      <c r="F131" s="41">
         <v>220.7</v>
       </c>
-      <c r="G126" s="74" t="s">
+      <c r="G131" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L126" s="58">
+      <c r="L131" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="65"/>
-      <c r="B127" s="54">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="65"/>
+      <c r="B132" s="54">
         <v>10</v>
       </c>
-      <c r="C127" s="51">
+      <c r="C132" s="51">
         <f t="shared" si="36"/>
         <v>15.165204601565371</v>
       </c>
-      <c r="D127" s="41">
-        <f>$D$120*E127</f>
+      <c r="D132" s="41">
+        <f>$D$125*E132</f>
         <v>1615</v>
       </c>
-      <c r="E127" s="41">
+      <c r="E132" s="41">
         <v>1700</v>
       </c>
-      <c r="F127" s="41">
+      <c r="F132" s="41">
         <v>288.7</v>
       </c>
-      <c r="G127" s="74" t="s">
+      <c r="G132" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L127" s="58">
+      <c r="L132" s="58">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A115:A116"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A53:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE4243-8B2F-4758-BF94-D359C234F316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAEB9AA-4264-42F6-A5A6-8D9A0BE14FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C24" s="20">
         <f>(F24/(D24+F24))*100</f>
-        <v>0</v>
+        <v>19.752993448301833</v>
       </c>
       <c r="D24" s="20">
         <f>$D$20*E24</f>
@@ -2102,7 +2102,9 @@
       <c r="E24" s="20">
         <v>2400</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20">
+        <v>524.6</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="L24" s="58"/>
@@ -2114,7 +2116,7 @@
       </c>
       <c r="C25" s="20">
         <f t="shared" ref="C25:C28" si="3">(F25/(D25+F25))*100</f>
-        <v>0</v>
+        <v>25.221052631578942</v>
       </c>
       <c r="D25" s="20">
         <f t="shared" ref="D25:D28" si="4">$D$20*E25</f>
@@ -2123,7 +2125,9 @@
       <c r="E25" s="20">
         <v>2200</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="20">
+        <v>658.9</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="K25" s="67"/>
@@ -2136,7 +2140,7 @@
       </c>
       <c r="C26" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.222637979420021</v>
       </c>
       <c r="D26" s="20">
         <f t="shared" si="4"/>
@@ -2145,7 +2149,9 @@
       <c r="E26" s="20">
         <v>2100</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="20">
+        <v>807.7</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="J26" s="67"/>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="C27" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35.583384239462433</v>
       </c>
       <c r="D27" s="20">
         <f t="shared" si="4"/>
@@ -2168,7 +2174,9 @@
       <c r="E27" s="20">
         <v>1900</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20">
+        <v>932</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="L27" s="58"/>
@@ -2180,7 +2188,7 @@
       </c>
       <c r="C28" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>39.941384233861875</v>
       </c>
       <c r="D28" s="20">
         <f t="shared" si="4"/>
@@ -2189,7 +2197,9 @@
       <c r="E28" s="20">
         <v>1800</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20">
+        <v>1063</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="K28" s="67"/>
@@ -2597,7 +2607,7 @@
       </c>
       <c r="C47" s="20">
         <f>(H47/(D47+F47+H47))*100</f>
-        <v>0</v>
+        <v>9.2846497764530547</v>
       </c>
       <c r="D47" s="20">
         <f>$D$43*E47</f>
@@ -2613,7 +2623,9 @@
       <c r="G47" s="20">
         <v>600</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20">
+        <v>249.2</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="67"/>
       <c r="L47" s="58"/>
@@ -2625,7 +2637,7 @@
       </c>
       <c r="C48" s="20">
         <f t="shared" ref="C48:C51" si="12">(H48/(D48+F48+H48))*100</f>
-        <v>0</v>
+        <v>13.75317083930738</v>
       </c>
       <c r="D48" s="20">
         <f t="shared" ref="D48:D51" si="13">$D$43*E48</f>
@@ -2641,7 +2653,9 @@
       <c r="G48" s="20">
         <v>600</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="20">
+        <v>374.1</v>
+      </c>
       <c r="L48" s="58"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2651,7 +2665,7 @@
       </c>
       <c r="C49" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>19.465181058495823</v>
       </c>
       <c r="D49" s="20">
         <f t="shared" si="13"/>
@@ -2667,7 +2681,9 @@
       <c r="G49" s="20">
         <v>600</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="20">
+        <v>524.1</v>
+      </c>
       <c r="J49" s="67"/>
       <c r="K49" s="67"/>
       <c r="L49" s="58"/>
@@ -2679,7 +2695,7 @@
       </c>
       <c r="C50" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>24.788721719028313</v>
       </c>
       <c r="D50" s="20">
         <f t="shared" si="13"/>
@@ -2695,7 +2711,9 @@
       <c r="G50" s="20">
         <v>500</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="20">
+        <v>654.1</v>
+      </c>
       <c r="J50" s="67"/>
       <c r="K50" s="67"/>
       <c r="L50" s="58"/>
@@ -2707,23 +2725,25 @@
       </c>
       <c r="C51" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>29.406524885870166</v>
       </c>
       <c r="D51" s="20">
         <f t="shared" si="13"/>
-        <v>1420.8</v>
+        <v>1332</v>
       </c>
       <c r="E51" s="20">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="20">
         <f t="shared" si="14"/>
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="G51" s="20">
-        <v>500</v>
-      </c>
-      <c r="H51" s="20"/>
+        <v>600</v>
+      </c>
+      <c r="H51" s="20">
+        <v>792.3</v>
+      </c>
       <c r="J51" s="67"/>
       <c r="K51" s="6"/>
       <c r="L51" s="58"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAEB9AA-4264-42F6-A5A6-8D9A0BE14FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F01E999-A8DA-40AA-B7D2-EFA4422482B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="5490" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="420" yWindow="2700" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>Pa.s</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>too thin</t>
-  </si>
-  <si>
-    <t>too thick ?</t>
   </si>
   <si>
     <t>Sample
@@ -1619,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,6 +1956,12 @@
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
+      <c r="J15" s="4">
+        <v>0.35607699999999998</v>
+      </c>
+      <c r="K15" s="67">
+        <v>0.12851899999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
@@ -1980,6 +1983,12 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
+      <c r="J16" s="67">
+        <v>0.918902</v>
+      </c>
+      <c r="K16" s="67">
+        <v>1.331504</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
@@ -2001,6 +2010,12 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
+      <c r="J17" s="67">
+        <v>2.5808939999999998</v>
+      </c>
+      <c r="K17" s="67">
+        <v>3.4811550000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
@@ -2022,6 +2037,12 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
+      <c r="J18" s="4">
+        <v>0.48035</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6.1443620000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
@@ -2086,7 +2107,7 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="56">
         <v>0</v>
@@ -2600,7 +2621,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="56">
         <v>5</v>
@@ -3131,7 +3152,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="54">
         <v>10</v>
@@ -3825,9 +3846,7 @@
       <c r="F103" s="6">
         <v>219.2</v>
       </c>
-      <c r="G103" s="71" t="s">
-        <v>104</v>
-      </c>
+      <c r="G103" s="71"/>
       <c r="H103" s="73"/>
       <c r="L103" s="58">
         <v>20</v>
@@ -4060,9 +4079,7 @@
       <c r="F116" s="4">
         <v>196.4</v>
       </c>
-      <c r="G116" s="71" t="s">
-        <v>104</v>
-      </c>
+      <c r="G116" s="71"/>
       <c r="H116" s="69"/>
       <c r="L116" s="58">
         <v>20</v>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F01E999-A8DA-40AA-B7D2-EFA4422482B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E89480-571F-4EB4-AB02-8E81981876EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="2700" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E89480-571F-4EB4-AB02-8E81981876EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8458C3-A764-4230-8686-960D84552C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2700" windowWidth="15345" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -589,8 +591,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,22 +621,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1652,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="75" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="53"/>
@@ -1681,7 +1683,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="53" t="str">
         <f>"000"</f>
         <v>000</v>
@@ -1714,7 +1716,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="53" t="str">
         <f>"025"</f>
         <v>025</v>
@@ -1747,7 +1749,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="53" t="str">
         <f>"050"</f>
         <v>050</v>
@@ -1780,7 +1782,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="53" t="str">
         <f>"075"</f>
         <v>075</v>
@@ -1802,7 +1804,7 @@
         <v>11.37</v>
       </c>
       <c r="I7" s="34"/>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <v>5.9131999999999997E-2</v>
       </c>
       <c r="K7" s="58">
@@ -1813,7 +1815,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="53" t="str">
         <f>"100"</f>
         <v>100</v>
@@ -1835,7 +1837,7 @@
         <v>11.4</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="66">
+      <c r="J8" s="60">
         <v>-0.14122599999999999</v>
       </c>
       <c r="K8" s="14">
@@ -1846,7 +1848,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="53"/>
       <c r="C9" s="19"/>
       <c r="D9" s="23"/>
@@ -1859,7 +1861,7 @@
       <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="53"/>
       <c r="C10" s="44" t="s">
         <v>35</v>
@@ -1880,7 +1882,7 @@
       <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="53"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16">
@@ -1896,335 +1898,232 @@
       <c r="J11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="31" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="15">
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="20">
-        <f>$D$22*((100-C14)/100)</f>
+      <c r="D20" s="20">
+        <f>$D$28*((100-C20)/100)</f>
         <v>2131.2000000000003</v>
       </c>
-      <c r="E14" s="20">
-        <f>D14/$D$20</f>
+      <c r="E20" s="20">
+        <f>D20/$D$26</f>
         <v>2400.0000000000005</v>
       </c>
-      <c r="F14" s="20">
-        <f>$D$22*(C14/100)</f>
+      <c r="F20" s="20">
+        <f>$D$28*(C20/100)</f>
         <v>532.80000000000007</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="15">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="15">
         <v>25</v>
       </c>
-      <c r="D15" s="20">
-        <f t="shared" ref="D15:D18" si="1">$D$22*((100-C15)/100)</f>
+      <c r="D21" s="20">
+        <f t="shared" ref="D21:D24" si="1">$D$28*((100-C21)/100)</f>
         <v>1998</v>
       </c>
-      <c r="E15" s="20">
-        <f>D15/$D$20</f>
+      <c r="E21" s="20">
+        <f>D21/$D$26</f>
         <v>2250</v>
       </c>
-      <c r="F15" s="20">
-        <f t="shared" ref="F15:F18" si="2">$D$22*(C15/100)</f>
+      <c r="F21" s="20">
+        <f t="shared" ref="F21:F24" si="2">$D$28*(C21/100)</f>
         <v>666</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="4">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="J21" s="4">
         <v>0.35607699999999998</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K21" s="61">
         <v>0.12851899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="15">
         <v>30</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D22" s="20">
         <f t="shared" si="1"/>
         <v>1864.8</v>
       </c>
-      <c r="E16" s="20">
-        <f>D16/$D$20</f>
+      <c r="E22" s="20">
+        <f>D22/$D$26</f>
         <v>2100</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F22" s="20">
         <f t="shared" si="2"/>
         <v>799.19999999999993</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="67">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="J22" s="61">
         <v>0.918902</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K22" s="61">
         <v>1.331504</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="15">
         <v>35</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D23" s="20">
         <f t="shared" si="1"/>
         <v>1731.6000000000001</v>
       </c>
-      <c r="E17" s="20">
-        <f>D17/$D$20</f>
+      <c r="E23" s="20">
+        <f>D23/$D$26</f>
         <v>1950.0000000000002</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F23" s="20">
         <f t="shared" si="2"/>
         <v>932.4</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="J17" s="67">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="J23" s="61">
         <v>2.5808939999999998</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K23" s="61">
         <v>3.4811550000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="15">
         <v>40</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D24" s="20">
         <f t="shared" si="1"/>
         <v>1598.3999999999999</v>
       </c>
-      <c r="E18" s="20">
-        <f>D18/$D$20</f>
+      <c r="E24" s="20">
+        <f>D24/$D$26</f>
         <v>1799.9999999999998</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F24" s="20">
         <f t="shared" si="2"/>
         <v>1065.6000000000001</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="J18" s="4">
-        <v>0.48035</v>
-      </c>
-      <c r="K18" s="4">
-        <v>6.1443620000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="53"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="45">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45">
-        <v>1.06</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
-        <f>C1*D20</f>
-        <v>1776</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="D22" s="16">
-        <f>C2*D20</f>
-        <v>2664</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="56">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <f>(F24/(D24+F24))*100</f>
-        <v>19.752993448301833</v>
-      </c>
-      <c r="D24" s="20">
-        <f>$D$20*E24</f>
-        <v>2131.1999999999998</v>
-      </c>
-      <c r="E24" s="20">
-        <v>2400</v>
-      </c>
-      <c r="F24" s="20">
-        <v>524.6</v>
-      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="L24" s="58"/>
+      <c r="J24" s="4">
+        <v>0.48035</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6.1443620000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="56">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20">
-        <f t="shared" ref="C25:C28" si="3">(F25/(D25+F25))*100</f>
-        <v>25.221052631578942</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" ref="D25:D28" si="4">$D$20*E25</f>
-        <v>1953.6000000000001</v>
-      </c>
-      <c r="E25" s="20">
-        <v>2200</v>
-      </c>
-      <c r="F25" s="20">
-        <v>658.9</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="58"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="53"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="56">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20">
-        <f t="shared" si="3"/>
-        <v>30.222637979420021</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="4"/>
-        <v>1864.8</v>
-      </c>
-      <c r="E26" s="20">
-        <v>2100</v>
-      </c>
-      <c r="F26" s="20">
-        <v>807.7</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="58"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="45">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="56">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20">
-        <f t="shared" si="3"/>
-        <v>35.583384239462433</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" si="4"/>
-        <v>1687.2</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1900</v>
-      </c>
-      <c r="F27" s="20">
-        <v>932</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="L27" s="58"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16">
+        <f>C1*D26</f>
+        <v>1776</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="56">
-        <v>4</v>
-      </c>
-      <c r="C28" s="20">
-        <f t="shared" si="3"/>
-        <v>39.941384233861875</v>
-      </c>
-      <c r="D28" s="20">
-        <f t="shared" si="4"/>
-        <v>1598.4</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1063</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="58"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="D28" s="16">
+        <f>C2*D26</f>
+        <v>2664</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -2234,1031 +2133,1030 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>98</v>
+      <c r="A30" s="71" t="s">
+        <v>104</v>
       </c>
       <c r="B30" s="56">
         <v>0</v>
       </c>
       <c r="C30" s="20">
         <f>(F30/(D30+F30))*100</f>
-        <v>0.25833988543187686</v>
+        <v>19.752993448301833</v>
       </c>
       <c r="D30" s="20">
-        <f>$D$20*E30</f>
-        <v>1776</v>
+        <f>$D$26*E30</f>
+        <v>2131.1999999999998</v>
       </c>
       <c r="E30" s="20">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F30" s="20">
-        <v>4.5999999999999996</v>
+        <v>524.6</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="J30" s="4">
-        <v>2.6400000000000002E-4</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1.7329999999999999E-3</v>
-      </c>
-      <c r="L30" s="58">
-        <v>20</v>
-      </c>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="56">
         <v>1</v>
       </c>
       <c r="C31" s="20">
-        <f t="shared" ref="C31:C34" si="5">(F31/(D31+F31))*100</f>
-        <v>4.1635898892360119</v>
+        <f t="shared" ref="C31:C34" si="3">(F31/(D31+F31))*100</f>
+        <v>25.221052631578942</v>
       </c>
       <c r="D31" s="20">
-        <f t="shared" ref="D31:D34" si="6">$D$20*E31</f>
-        <v>1687.2</v>
+        <f t="shared" ref="D31:D34" si="4">$D$26*E31</f>
+        <v>1953.6000000000001</v>
       </c>
       <c r="E31" s="20">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="F31" s="20">
-        <v>73.3</v>
+        <v>658.9</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="J31" s="4">
-        <v>2.9629999999999999E-3</v>
-      </c>
-      <c r="K31" s="67">
-        <v>0.95067100000000004</v>
-      </c>
-      <c r="L31" s="58">
-        <v>20</v>
-      </c>
+      <c r="K31" s="61"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="56">
         <v>2</v>
       </c>
       <c r="C32" s="20">
+        <f t="shared" si="3"/>
+        <v>30.222637979420021</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="4"/>
+        <v>1864.8</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="20">
+        <v>807.7</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="58"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="B33" s="56">
+        <v>3</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="3"/>
+        <v>35.583384239462433</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="4"/>
+        <v>1687.2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="20">
+        <v>932</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="L33" s="58"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="B34" s="56">
+        <v>4</v>
+      </c>
+      <c r="C34" s="20">
+        <f t="shared" si="3"/>
+        <v>39.941384233861875</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="4"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="20">
+        <v>1063</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="56">
+        <v>0</v>
+      </c>
+      <c r="C36" s="20">
+        <f>(F36/(D36+F36))*100</f>
+        <v>0.25833988543187686</v>
+      </c>
+      <c r="D36" s="20">
+        <f>$D$26*E36</f>
+        <v>1776</v>
+      </c>
+      <c r="E36" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F36" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="J36" s="4">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.7329999999999999E-3</v>
+      </c>
+      <c r="L36" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="B37" s="56">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20">
+        <f t="shared" ref="C37:C40" si="5">(F37/(D37+F37))*100</f>
+        <v>4.1635898892360119</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" ref="D37:D40" si="6">$D$26*E37</f>
+        <v>1687.2</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1900</v>
+      </c>
+      <c r="F37" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="J37" s="4">
+        <v>2.9629999999999999E-3</v>
+      </c>
+      <c r="K37" s="61">
+        <v>0.95067100000000004</v>
+      </c>
+      <c r="L37" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
+      <c r="B38" s="56">
+        <v>2</v>
+      </c>
+      <c r="C38" s="20">
         <f t="shared" si="5"/>
         <v>8.3275980729525099</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D38" s="20">
         <f t="shared" si="6"/>
         <v>1598.4</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E38" s="20">
         <v>1800</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F38" s="20">
         <v>145.19999999999999</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="J32" s="67">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="J38" s="61">
         <v>3.5182999999999999E-2</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K38" s="61">
         <v>4.2918999999999999E-2</v>
       </c>
-      <c r="L32" s="58">
+      <c r="L38" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="56">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="56">
         <v>3</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C39" s="20">
         <f t="shared" si="5"/>
         <v>11.031949237448513</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D39" s="20">
         <f t="shared" si="6"/>
         <v>1598.4</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E39" s="20">
         <v>1800</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F39" s="20">
         <v>198.2</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="J33" s="4">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="J39" s="4">
         <v>2.8964E-2</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K39" s="4">
         <v>0.31996999999999998</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L39" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="56">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="B40" s="56">
         <v>4</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C40" s="20">
         <f t="shared" si="5"/>
         <v>15.172902080219371</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D40" s="20">
         <f t="shared" si="6"/>
         <v>1509.6</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E40" s="20">
         <v>1700</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F40" s="20">
         <v>270.02</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="J34" s="4">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="J40" s="4">
         <v>0.198681</v>
       </c>
-      <c r="K34" s="67">
+      <c r="K40" s="61">
         <v>1.2781130000000001</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L40" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-    </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="31" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="15">
+      <c r="I42" s="36"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="15">
         <v>9</v>
       </c>
-      <c r="D37" s="20">
-        <f>$D$45*((100-C37)*0.75/100)</f>
+      <c r="D43" s="20">
+        <f>$D$51*((100-C43)*0.75/100)</f>
         <v>1849.91625</v>
       </c>
-      <c r="E37" s="20">
-        <f>D37/$D$43</f>
+      <c r="E43" s="20">
+        <f>D43/$D$49</f>
         <v>2083.2390202702704</v>
       </c>
-      <c r="F37" s="20">
-        <f>$D$45*((100-C37)*0.25/100)</f>
+      <c r="F43" s="20">
+        <f>$D$51*((100-C43)*0.25/100)</f>
         <v>616.63875000000007</v>
       </c>
-      <c r="G37" s="20">
-        <f>F37/$F$43</f>
+      <c r="G43" s="20">
+        <f>F43/$F$49</f>
         <v>649.0934210526317</v>
       </c>
-      <c r="H37" s="20">
-        <f>$D$45*(C37/100)</f>
+      <c r="H43" s="20">
+        <f>$D$51*(C43/100)</f>
         <v>243.94499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="15">
         <v>14</v>
       </c>
-      <c r="D38" s="20">
-        <f t="shared" ref="D38:D41" si="7">$D$45*((100-C38)*0.75/100)</f>
+      <c r="D44" s="20">
+        <f t="shared" ref="D44:D47" si="7">$D$51*((100-C44)*0.75/100)</f>
         <v>1748.2725</v>
       </c>
-      <c r="E38" s="20">
-        <f t="shared" ref="E38:E41" si="8">D38/$D$43</f>
+      <c r="E44" s="20">
+        <f t="shared" ref="E44:E47" si="8">D44/$D$49</f>
         <v>1968.7753378378379</v>
       </c>
-      <c r="F38" s="20">
-        <f t="shared" ref="F38:F41" si="9">$D$45*((100-C38)*0.25/100)</f>
+      <c r="F44" s="20">
+        <f t="shared" ref="F44:F47" si="9">$D$51*((100-C44)*0.25/100)</f>
         <v>582.75749999999994</v>
       </c>
-      <c r="G38" s="20">
-        <f t="shared" ref="G38:G41" si="10">F38/$F$43</f>
+      <c r="G44" s="20">
+        <f t="shared" ref="G44:G47" si="10">F44/$F$49</f>
         <v>613.42894736842106</v>
       </c>
-      <c r="H38" s="20">
-        <f t="shared" ref="H38:H41" si="11">$D$45*(C38/100)</f>
+      <c r="H44" s="20">
+        <f t="shared" ref="H44:H47" si="11">$D$51*(C44/100)</f>
         <v>379.47</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="15">
         <v>19</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="7"/>
         <v>1646.6287500000001</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E45" s="20">
         <f t="shared" si="8"/>
         <v>1854.3116554054054</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F45" s="20">
         <f t="shared" si="9"/>
         <v>548.87625000000003</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G45" s="20">
         <f t="shared" si="10"/>
         <v>577.76447368421054</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H45" s="20">
         <f t="shared" si="11"/>
         <v>514.995</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="15">
         <v>24</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D46" s="20">
         <f t="shared" si="7"/>
         <v>1544.9849999999999</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E46" s="20">
         <f t="shared" si="8"/>
         <v>1739.8479729729729</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F46" s="20">
         <f t="shared" si="9"/>
         <v>514.995</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G46" s="20">
         <f t="shared" si="10"/>
         <v>542.1</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H46" s="20">
         <f t="shared" si="11"/>
         <v>650.52</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="75"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="15">
         <v>29</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D47" s="20">
         <f t="shared" si="7"/>
         <v>1443.3412499999999</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E47" s="20">
         <f t="shared" si="8"/>
         <v>1625.3842905405404</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F47" s="20">
         <f t="shared" si="9"/>
         <v>481.11374999999998</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G47" s="20">
         <f t="shared" si="10"/>
         <v>506.4355263157895</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H47" s="20">
         <f t="shared" si="11"/>
         <v>786.04499999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="53"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="44" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="75"/>
+      <c r="B48" s="53"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D49" s="45">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45">
         <v>0.95</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G49" s="20">
         <v>1400</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H49" s="45">
         <v>1.04</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16">
-        <f>C1*((D43*0.75)+(F43*0.25))</f>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="75"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16">
+        <f>C1*((D49*0.75)+(F49*0.25))</f>
         <v>1807</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16">
-        <f>C2*((D43*0.75)+(F43*0.25))</f>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16">
+        <f>C2*((D49*0.75)+(F49*0.25))</f>
         <v>2710.5</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J46" s="5" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K52" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B53" s="56">
         <v>5</v>
       </c>
-      <c r="C47" s="20">
-        <f>(H47/(D47+F47+H47))*100</f>
+      <c r="C53" s="20">
+        <f>(H53/(D53+F53+H53))*100</f>
         <v>9.2846497764530547</v>
       </c>
-      <c r="D47" s="20">
-        <f>$D$43*E47</f>
+      <c r="D53" s="20">
+        <f>$D$49*E53</f>
         <v>1864.8</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E53" s="20">
         <v>2100</v>
       </c>
-      <c r="F47" s="20">
-        <f>$F$43*G47</f>
+      <c r="F53" s="20">
+        <f>$F$49*G53</f>
         <v>570</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G53" s="20">
         <v>600</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H53" s="20">
         <v>249.2</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="58"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="57">
+      <c r="J53" s="6"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="58"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="72"/>
+      <c r="B54" s="57">
         <v>6</v>
       </c>
-      <c r="C48" s="20">
-        <f t="shared" ref="C48:C51" si="12">(H48/(D48+F48+H48))*100</f>
+      <c r="C54" s="20">
+        <f t="shared" ref="C54:C57" si="12">(H54/(D54+F54+H54))*100</f>
         <v>13.75317083930738</v>
       </c>
-      <c r="D48" s="20">
-        <f t="shared" ref="D48:D51" si="13">$D$43*E48</f>
+      <c r="D54" s="20">
+        <f t="shared" ref="D54:D57" si="13">$D$49*E54</f>
         <v>1776</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E54" s="20">
         <v>2000</v>
       </c>
-      <c r="F48" s="20">
-        <f t="shared" ref="F48:F51" si="14">$F$43*G48</f>
+      <c r="F54" s="20">
+        <f t="shared" ref="F54:F57" si="14">$F$49*G54</f>
         <v>570</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G54" s="20">
         <v>600</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H54" s="20">
         <v>374.1</v>
       </c>
-      <c r="L48" s="58"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="57">
+      <c r="L54" s="58"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="57">
         <v>7</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C55" s="20">
         <f t="shared" si="12"/>
         <v>19.465181058495823</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D55" s="20">
         <f t="shared" si="13"/>
         <v>1598.4</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E55" s="20">
         <v>1800</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F55" s="20">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G55" s="20">
         <v>600</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H55" s="20">
         <v>524.1</v>
       </c>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="58"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="57">
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="58"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
+      <c r="B56" s="57">
         <v>8</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C56" s="20">
         <f t="shared" si="12"/>
         <v>24.788721719028313</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D56" s="20">
         <f t="shared" si="13"/>
         <v>1509.6</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E56" s="20">
         <v>1700</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F56" s="20">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G56" s="20">
         <v>500</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H56" s="20">
         <v>654.1</v>
       </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="58"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="57">
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="58"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
+      <c r="B57" s="57">
         <v>9</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C57" s="20">
         <f t="shared" si="12"/>
         <v>29.406524885870166</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="13"/>
         <v>1332</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E57" s="20">
         <v>1500</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F57" s="20">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G57" s="20">
         <v>600</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H57" s="20">
         <v>792.3</v>
       </c>
-      <c r="J51" s="67"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="58"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="J57" s="61"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="58"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B59" s="56">
         <v>5</v>
       </c>
-      <c r="C53" s="20">
-        <f>(H53/(D53+F53+H53))*100</f>
+      <c r="C59" s="20">
+        <f>(H59/(D59+F59+H59))*100</f>
         <v>1.4023026136301631</v>
       </c>
-      <c r="D53" s="20">
-        <f>$D$43*E53</f>
+      <c r="D59" s="20">
+        <f>$D$49*E59</f>
         <v>1332</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E59" s="20">
         <v>1500</v>
       </c>
-      <c r="F53" s="20">
-        <f>$F$43*G53</f>
+      <c r="F59" s="20">
+        <f>$F$49*G59</f>
         <v>475</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G59" s="20">
         <v>500</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H59" s="20">
         <v>25.7</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J59" s="6">
         <v>8.7530000000000004E-3</v>
       </c>
-      <c r="K53" s="67">
+      <c r="K59" s="61">
         <v>8.3807010000000002</v>
       </c>
-      <c r="L53" s="58">
+      <c r="L59" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="57">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="72"/>
+      <c r="B60" s="57">
         <v>6</v>
       </c>
-      <c r="C54" s="20">
-        <f t="shared" ref="C54:C57" si="15">(H54/(D54+F54+H54))*100</f>
+      <c r="C60" s="20">
+        <f t="shared" ref="C60:C63" si="15">(H60/(D60+F60+H60))*100</f>
         <v>3.8727524204702628</v>
       </c>
-      <c r="D54" s="20">
-        <f t="shared" ref="D54:D57" si="16">$D$43*E54</f>
+      <c r="D60" s="20">
+        <f t="shared" ref="D60:D63" si="16">$D$49*E60</f>
         <v>1332</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E60" s="20">
         <v>1500</v>
       </c>
-      <c r="F54" s="20">
-        <f t="shared" ref="F54:F57" si="17">$F$43*G54</f>
+      <c r="F60" s="20">
+        <f t="shared" ref="F60:F63" si="17">$F$49*G60</f>
         <v>475</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G60" s="20">
         <v>500</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H60" s="20">
         <v>72.8</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J60" s="4">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K60" s="4">
         <v>3.0336999999999999E-2</v>
       </c>
-      <c r="L54" s="58">
+      <c r="L60" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="57">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
+      <c r="B61" s="57">
         <v>7</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C61" s="20">
         <f t="shared" si="15"/>
         <v>8.0392045776443251</v>
       </c>
-      <c r="D55" s="20">
-        <f>$D$43*G43</f>
+      <c r="D61" s="20">
+        <f>$D$49*G49</f>
         <v>1243.2</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E61" s="20">
         <v>1400</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F61" s="20">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G61" s="20">
         <v>400</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H61" s="20">
         <v>141.9</v>
       </c>
-      <c r="J55" s="67">
+      <c r="J61" s="61">
         <v>1.9382E-2</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K61" s="61">
         <v>0.236674</v>
       </c>
-      <c r="L55" s="58">
+      <c r="L61" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="57">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="57">
         <v>8</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C62" s="20">
         <f t="shared" si="15"/>
         <v>11.750158164145628</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D62" s="20">
         <f t="shared" si="16"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E62" s="20">
         <v>1300</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F62" s="20">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G62" s="20">
         <v>400</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H62" s="20">
         <v>204.3</v>
       </c>
-      <c r="J56" s="67">
+      <c r="J62" s="61">
         <v>3.4037999999999999E-2</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K62" s="6">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="L56" s="58">
+      <c r="L62" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="57">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="57">
         <v>9</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C63" s="20">
         <f t="shared" si="15"/>
         <v>14.646492740724259</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D63" s="20">
         <f t="shared" si="16"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E63" s="20">
         <v>1300</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F63" s="20">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G63" s="20">
         <v>400</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H63" s="20">
         <v>263.3</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J63" s="4">
         <v>6.9047999999999998E-2</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K63" s="4">
         <v>9.5713000000000006E-2</v>
       </c>
-      <c r="L57" s="58">
+      <c r="L63" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="31" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="I59" s="36"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="15">
+      <c r="G65" s="17"/>
+      <c r="I65" s="36"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="75"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="15">
         <v>9</v>
       </c>
-      <c r="D60" s="20">
-        <f>$D$68*((100-C60)/100)</f>
+      <c r="D66" s="20">
+        <f>$D$74*((100-C66)/100)</f>
         <v>2803.7099999999996</v>
       </c>
-      <c r="E60" s="20">
-        <f>D60/$D$66</f>
+      <c r="E66" s="20">
+        <f>D66/$D$72</f>
         <v>2730</v>
       </c>
-      <c r="F60" s="20">
-        <f>$D$68*(C60/100)</f>
+      <c r="F66" s="20">
+        <f>$D$74*(C66/100)</f>
         <v>277.28999999999996</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="15">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="75"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="15">
         <v>14</v>
       </c>
-      <c r="D61" s="20">
-        <f t="shared" ref="D61:D64" si="18">$D$68*((100-C61)/100)</f>
+      <c r="D67" s="20">
+        <f t="shared" ref="D67:D70" si="18">$D$74*((100-C67)/100)</f>
         <v>2649.6599999999994</v>
       </c>
-      <c r="E61" s="20">
-        <f t="shared" ref="E61:E64" si="19">D61/$D$66</f>
+      <c r="E67" s="20">
+        <f t="shared" ref="E67:E70" si="19">D67/$D$72</f>
         <v>2579.9999999999995</v>
       </c>
-      <c r="F61" s="20">
-        <f t="shared" ref="F61:F64" si="20">$D$68*(C61/100)</f>
+      <c r="F67" s="20">
+        <f t="shared" ref="F67:F70" si="20">$D$74*(C67/100)</f>
         <v>431.34</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="15">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="75"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="15">
         <v>19</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D68" s="20">
         <f t="shared" si="18"/>
         <v>2495.6099999999997</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E68" s="20">
         <f t="shared" si="19"/>
         <v>2430</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F68" s="20">
         <f t="shared" si="20"/>
         <v>585.38999999999987</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="15">
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="75"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="15">
         <v>24</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="18"/>
         <v>2341.5599999999995</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E69" s="20">
         <f t="shared" si="19"/>
         <v>2279.9999999999995</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F69" s="20">
         <f t="shared" si="20"/>
         <v>739.43999999999983</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="15">
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="75"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="15">
         <v>29</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D70" s="20">
         <f t="shared" si="18"/>
         <v>2187.5099999999998</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E70" s="20">
         <f t="shared" si="19"/>
         <v>2130</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F70" s="20">
         <f t="shared" si="20"/>
         <v>893.48999999999978</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="53"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="44" t="s">
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="75"/>
+      <c r="B71" s="53"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="75"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D72" s="16">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="45">
+      <c r="E72" s="16"/>
+      <c r="F72" s="45">
         <v>1.04</v>
       </c>
-      <c r="G66" s="45"/>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16">
-        <f>C1*D66</f>
+      <c r="G72" s="45"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="75"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16">
+        <f>C1*D72</f>
         <v>2054</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16">
-        <f>C2*D66</f>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16">
+        <f>C2*D72</f>
         <v>3080.9999999999995</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E74" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="J69" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="54">
-        <v>10</v>
-      </c>
-      <c r="C70" s="51">
-        <f>(F70/(D70+F70))*100</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="52">
-        <f>$D$66*E70</f>
-        <v>2772.8999999999996</v>
-      </c>
-      <c r="E70" s="52">
-        <v>2700</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="58"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="55">
-        <v>11</v>
-      </c>
-      <c r="C71" s="51">
-        <f t="shared" ref="C71:C74" si="21">(F71/(D71+F71))*100</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="52">
-        <f>$D$66*E71</f>
-        <v>2670.2</v>
-      </c>
-      <c r="E71" s="52">
-        <v>2600</v>
-      </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="L71" s="58"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="55">
-        <v>12</v>
-      </c>
-      <c r="C72" s="51">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="52">
-        <f>$D$66*E72</f>
-        <v>2464.7999999999997</v>
-      </c>
-      <c r="E72" s="52">
-        <v>2400</v>
-      </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="58"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="55">
-        <v>13</v>
-      </c>
-      <c r="C73" s="51">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="52">
-        <f>$D$66*E73</f>
-        <v>2362.1</v>
-      </c>
-      <c r="E73" s="52">
-        <v>2300</v>
-      </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="58"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="55">
-        <v>14</v>
-      </c>
-      <c r="C74" s="51">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="52">
-        <f>$D$66*E74</f>
-        <v>2156.6999999999998</v>
-      </c>
-      <c r="E74" s="52">
-        <v>2100</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="L74" s="58"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="50"/>
@@ -3269,1149 +3167,1278 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
-        <v>98</v>
+      <c r="A76" s="73" t="s">
+        <v>104</v>
       </c>
       <c r="B76" s="54">
         <v>10</v>
       </c>
       <c r="C76" s="51">
         <f>(F76/(D76+F76))*100</f>
-        <v>1.0263576350407171</v>
+        <v>0</v>
       </c>
       <c r="D76" s="52">
-        <f>$D$66*E76</f>
-        <v>2054</v>
+        <f>$D$72*E76</f>
+        <v>2772.8999999999996</v>
       </c>
       <c r="E76" s="52">
-        <v>2000</v>
-      </c>
-      <c r="F76" s="52">
-        <v>21.3</v>
-      </c>
+        <v>2700</v>
+      </c>
+      <c r="F76" s="52"/>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
-      <c r="J76" s="4">
-        <v>2.0917000000000002E-2</v>
-      </c>
-      <c r="K76" s="67">
-        <v>53.570850999999998</v>
-      </c>
-      <c r="L76" s="58">
-        <v>20</v>
-      </c>
+      <c r="K76" s="61"/>
+      <c r="L76" s="58"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="55">
         <v>11</v>
       </c>
       <c r="C77" s="51">
-        <f t="shared" ref="C77:C80" si="22">(F77/(D77+F77))*100</f>
-        <v>3.5633092814075318</v>
+        <f t="shared" ref="C77:C80" si="21">(F77/(D77+F77))*100</f>
+        <v>0</v>
       </c>
       <c r="D77" s="52">
-        <f t="shared" ref="D77:D80" si="23">$D$66*E77</f>
-        <v>1951.2999999999997</v>
+        <f>$D$72*E77</f>
+        <v>2670.2</v>
       </c>
       <c r="E77" s="52">
-        <v>1900</v>
-      </c>
-      <c r="F77" s="52">
-        <v>72.099999999999994</v>
-      </c>
+        <v>2600</v>
+      </c>
+      <c r="F77" s="52"/>
       <c r="G77" s="52"/>
       <c r="H77" s="52"/>
-      <c r="J77" s="4">
-        <v>9.1500000000000001E-3</v>
-      </c>
-      <c r="K77" s="4">
-        <v>2.2258E-2</v>
-      </c>
-      <c r="L77" s="58">
-        <v>20</v>
-      </c>
+      <c r="L77" s="58"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="55">
         <v>12</v>
       </c>
       <c r="C78" s="51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="52">
+        <f>$D$72*E78</f>
+        <v>2464.7999999999997</v>
+      </c>
+      <c r="E78" s="52">
+        <v>2400</v>
+      </c>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="58"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="74"/>
+      <c r="B79" s="55">
+        <v>13</v>
+      </c>
+      <c r="C79" s="51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="52">
+        <f>$D$72*E79</f>
+        <v>2362.1</v>
+      </c>
+      <c r="E79" s="52">
+        <v>2300</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="58"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="74"/>
+      <c r="B80" s="55">
+        <v>14</v>
+      </c>
+      <c r="C80" s="51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="52">
+        <f>$D$72*E80</f>
+        <v>2156.6999999999998</v>
+      </c>
+      <c r="E80" s="52">
+        <v>2100</v>
+      </c>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="L80" s="58"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="54">
+        <v>10</v>
+      </c>
+      <c r="C82" s="51">
+        <f>(F82/(D82+F82))*100</f>
+        <v>1.0263576350407171</v>
+      </c>
+      <c r="D82" s="52">
+        <f>$D$72*E82</f>
+        <v>2054</v>
+      </c>
+      <c r="E82" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F82" s="52">
+        <v>21.3</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="J82" s="4">
+        <v>2.0917000000000002E-2</v>
+      </c>
+      <c r="K82" s="61">
+        <v>53.570850999999998</v>
+      </c>
+      <c r="L82" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="74"/>
+      <c r="B83" s="55">
+        <v>11</v>
+      </c>
+      <c r="C83" s="51">
+        <f t="shared" ref="C83:C86" si="22">(F83/(D83+F83))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="D83" s="52">
+        <f t="shared" ref="D83:D86" si="23">$D$72*E83</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="E83" s="52">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="52">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="J83" s="4">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="K83" s="4">
+        <v>2.2258E-2</v>
+      </c>
+      <c r="L83" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="74"/>
+      <c r="B84" s="55">
+        <v>12</v>
+      </c>
+      <c r="C84" s="51">
         <f t="shared" si="22"/>
         <v>7.74067974247642</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D84" s="52">
         <f t="shared" si="23"/>
         <v>1848.6</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E84" s="52">
         <v>1800</v>
       </c>
-      <c r="F78" s="52">
+      <c r="F84" s="52">
         <v>155.1</v>
       </c>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="J78" s="4">
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="J84" s="4">
         <v>3.1720999999999999E-2</v>
       </c>
-      <c r="K78" s="67">
+      <c r="K84" s="61">
         <v>2.6790000000000001E-2</v>
       </c>
-      <c r="L78" s="58">
+      <c r="L84" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="55">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="74"/>
+      <c r="B85" s="55">
         <v>13</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C85" s="51">
         <f t="shared" si="22"/>
         <v>11.512134411947729</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D85" s="52">
         <f t="shared" si="23"/>
         <v>1848.6</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E85" s="52">
         <v>1800</v>
       </c>
-      <c r="F79" s="52">
+      <c r="F85" s="52">
         <v>240.5</v>
       </c>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="J79" s="4">
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="J85" s="4">
         <v>8.6243E-2</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K85" s="4">
         <v>1.5518959999999999</v>
       </c>
-      <c r="L79" s="58">
+      <c r="L85" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="55">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="74"/>
+      <c r="B86" s="55">
         <v>14</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C86" s="51">
         <f t="shared" si="22"/>
         <v>14.950311769290725</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D86" s="52">
         <f t="shared" si="23"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E86" s="52">
         <v>1700</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F86" s="52">
         <v>306.89999999999998</v>
       </c>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="J80" s="4">
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="J86" s="4">
         <v>0.15590399999999999</v>
       </c>
-      <c r="K80" s="67">
+      <c r="K86" s="61">
         <v>0.16277</v>
       </c>
-      <c r="L80" s="58">
+      <c r="L86" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="31" t="s">
+      <c r="B88" s="53"/>
+      <c r="C88" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D88" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E88" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F88" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G88" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H82" s="39"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="30">
+      <c r="H88" s="39"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="30">
         <v>0.25</v>
       </c>
-      <c r="D83" s="28">
-        <f t="shared" ref="D83:D84" si="24">$D$90*((100-C83)/100)</f>
+      <c r="D89" s="28">
+        <f t="shared" ref="D89:D90" si="24">$D$96*((100-C89)/100)</f>
         <v>2048.8650000000002</v>
       </c>
-      <c r="E83" s="28">
-        <f>D83/$D$89</f>
+      <c r="E89" s="28">
+        <f>D89/$D$95</f>
         <v>1995.0000000000005</v>
       </c>
-      <c r="F83" s="28">
-        <f>$D$90*((C83*0.3)/100)</f>
+      <c r="F89" s="28">
+        <f>$D$96*((C89*0.3)/100)</f>
         <v>1.5405</v>
       </c>
-      <c r="G83" s="28">
-        <f>$D$90*((C83*0.7)/100)</f>
+      <c r="G89" s="28">
+        <f>$D$96*((C89*0.7)/100)</f>
         <v>3.5944999999999996</v>
       </c>
-      <c r="H83" s="39"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="30">
+      <c r="H89" s="39"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="30">
         <v>3.75</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D90" s="28">
         <f t="shared" si="24"/>
         <v>1976.9750000000001</v>
       </c>
-      <c r="E84" s="28">
-        <f t="shared" ref="E84:E87" si="25">D84/$D$89</f>
+      <c r="E90" s="28">
+        <f t="shared" ref="E90:E93" si="25">D90/$D$95</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F84" s="28">
-        <f t="shared" ref="F84:F87" si="26">$D$90*((C84*0.3)/100)</f>
+      <c r="F90" s="28">
+        <f t="shared" ref="F90:F93" si="26">$D$96*((C90*0.3)/100)</f>
         <v>23.107499999999998</v>
       </c>
-      <c r="G84" s="28">
-        <f>$D$90*((C84*0.7)/100)</f>
+      <c r="G90" s="28">
+        <f>$D$96*((C90*0.7)/100)</f>
         <v>53.917499999999997</v>
       </c>
-      <c r="H84" s="39"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="30">
+      <c r="H90" s="39"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="30">
         <v>7.5</v>
       </c>
-      <c r="D85" s="28">
-        <f>$D$90*((100-C85)/100)</f>
+      <c r="D91" s="28">
+        <f>$D$96*((100-C91)/100)</f>
         <v>1899.95</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E91" s="28">
         <f t="shared" si="25"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F91" s="28">
         <f t="shared" si="26"/>
         <v>46.214999999999996</v>
       </c>
-      <c r="G85" s="28">
-        <f>$D$90*((C85*0.7)/100)</f>
+      <c r="G91" s="28">
+        <f>$D$96*((C91*0.7)/100)</f>
         <v>107.83499999999999</v>
       </c>
-      <c r="H85" s="39"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="30">
+      <c r="H91" s="39"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="30">
         <v>11.25</v>
       </c>
-      <c r="D86" s="28">
-        <f t="shared" ref="D86:D87" si="27">$D$90*((100-C86)/100)</f>
+      <c r="D92" s="28">
+        <f t="shared" ref="D92:D93" si="27">$D$96*((100-C92)/100)</f>
         <v>1822.925</v>
       </c>
-      <c r="E86" s="28">
+      <c r="E92" s="28">
         <f t="shared" si="25"/>
         <v>1775</v>
       </c>
-      <c r="F86" s="28">
+      <c r="F92" s="28">
         <f t="shared" si="26"/>
         <v>69.322500000000005</v>
       </c>
-      <c r="G86" s="28">
-        <f>$D$90*((C86*0.7)/100)</f>
+      <c r="G92" s="28">
+        <f>$D$96*((C92*0.7)/100)</f>
         <v>161.75249999999997</v>
       </c>
-      <c r="H86" s="39"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="30">
+      <c r="H92" s="39"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="30">
         <v>15</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D93" s="28">
         <f t="shared" si="27"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E93" s="28">
         <f t="shared" si="25"/>
         <v>1700</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F93" s="28">
         <f t="shared" si="26"/>
         <v>92.429999999999993</v>
       </c>
-      <c r="G87" s="28">
-        <f>$D$90*((C87*0.7)/100)</f>
+      <c r="G93" s="28">
+        <f>$D$96*((C93*0.7)/100)</f>
         <v>215.67</v>
       </c>
-      <c r="H87" s="39"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="39"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="47" t="s">
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="39"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D95" s="48">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48">
+      <c r="E95" s="48"/>
+      <c r="F95" s="48">
         <v>1.2450000000000001</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G95" s="25">
         <v>1.1839999999999999</v>
       </c>
-      <c r="H89" s="49"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25">
-        <f>C1*D89</f>
+      <c r="H95" s="49"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="75"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25">
+        <f>C1*D95</f>
         <v>2054</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E96" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-    </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+    </row>
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="31" t="s">
+      <c r="B98" s="53"/>
+      <c r="C98" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="15">
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="36"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="15">
         <v>0.25</v>
       </c>
-      <c r="D93" s="20">
-        <f>$D$100*((100-C93)/100)</f>
+      <c r="D99" s="20">
+        <f>$D$106*((100-C99)/100)</f>
         <v>2958.9840000000004</v>
       </c>
-      <c r="E93" s="20">
-        <f>D93/$D$99</f>
+      <c r="E99" s="20">
+        <f>D99/$D$105</f>
         <v>1995.0000000000002</v>
       </c>
-      <c r="F93" s="20">
-        <f>$D$100*(C93/100)</f>
+      <c r="F99" s="20">
+        <f>$D$106*(C99/100)</f>
         <v>7.4160000000000004</v>
       </c>
-      <c r="G93" s="74"/>
-      <c r="H93" s="68"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="30">
+      <c r="G99" s="68"/>
+      <c r="H99" s="62"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="30">
         <v>3.75</v>
       </c>
-      <c r="D94" s="38">
-        <f>$D$100*((100-C94)/100)</f>
+      <c r="D100" s="38">
+        <f>$D$106*((100-C100)/100)</f>
         <v>2855.1600000000003</v>
       </c>
-      <c r="E94" s="20">
-        <f>D94/$D$99</f>
+      <c r="E100" s="20">
+        <f>D100/$D$105</f>
         <v>1925</v>
       </c>
-      <c r="F94" s="38">
-        <f>$D$100*(C94/100)</f>
+      <c r="F100" s="38">
+        <f>$D$106*(C100/100)</f>
         <v>111.24</v>
       </c>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="15">
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="75"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="15">
         <v>7.5</v>
       </c>
-      <c r="D95" s="20">
-        <f>$D$100*((100-C95)/100)</f>
+      <c r="D101" s="20">
+        <f>$D$106*((100-C101)/100)</f>
         <v>2743.92</v>
       </c>
-      <c r="E95" s="20">
-        <f>D95/$D$99</f>
+      <c r="E101" s="20">
+        <f>D101/$D$105</f>
         <v>1850</v>
       </c>
-      <c r="F95" s="20">
-        <f>$D$100*(C95/100)</f>
+      <c r="F101" s="20">
+        <f>$D$106*(C101/100)</f>
         <v>222.48</v>
       </c>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="30">
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="30">
         <v>11.25</v>
       </c>
-      <c r="D96" s="38">
-        <f>$D$100*((100-C96)/100)</f>
+      <c r="D102" s="38">
+        <f>$D$106*((100-C102)/100)</f>
         <v>2632.68</v>
       </c>
-      <c r="E96" s="20">
-        <f>D96/$D$99</f>
+      <c r="E102" s="20">
+        <f>D102/$D$105</f>
         <v>1774.9999999999998</v>
       </c>
-      <c r="F96" s="38">
-        <f>$D$100*(C96/100)</f>
+      <c r="F102" s="38">
+        <f>$D$106*(C102/100)</f>
         <v>333.72</v>
       </c>
-      <c r="G96" s="71"/>
-      <c r="H96" s="68"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="15">
+      <c r="G102" s="65"/>
+      <c r="H102" s="62"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="15">
         <v>15</v>
       </c>
-      <c r="D97" s="20">
-        <f>$D$100*((100-C97)/100)</f>
+      <c r="D103" s="20">
+        <f>$D$106*((100-C103)/100)</f>
         <v>2521.44</v>
       </c>
-      <c r="E97" s="20">
-        <f>D97/$D$99</f>
+      <c r="E103" s="20">
+        <f>D103/$D$105</f>
         <v>1700</v>
       </c>
-      <c r="F97" s="20">
-        <f>$D$100*(C97/100)</f>
+      <c r="F103" s="20">
+        <f>$D$106*(C103/100)</f>
         <v>444.96</v>
       </c>
-      <c r="G97" s="71"/>
-      <c r="H97" s="68"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
-      <c r="B98" s="53"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="44" t="s">
+      <c r="G103" s="65"/>
+      <c r="H103" s="62"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="75"/>
+      <c r="B104" s="53"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="45">
+      <c r="D105" s="45">
         <v>1.4832000000000001</v>
       </c>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45">
+      <c r="E105" s="45"/>
+      <c r="F105" s="45">
         <v>1.2</v>
       </c>
-      <c r="G99" s="72"/>
-      <c r="H99" s="73"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16">
-        <f>C1*D99</f>
+      <c r="G105" s="66"/>
+      <c r="H105" s="67"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="75"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16">
+        <f>C1*D105</f>
         <v>2966.4</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E106" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
-      <c r="J101" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="54">
-        <v>0</v>
-      </c>
-      <c r="C102" s="52">
-        <f>(F102/(D102+F102))*100</f>
-        <v>0.24548542220129804</v>
-      </c>
-      <c r="D102" s="6">
-        <f>$D$99*E102</f>
-        <v>2966.4</v>
-      </c>
-      <c r="E102" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F102" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G102" s="74"/>
-      <c r="H102" s="73"/>
-      <c r="L102" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
-      <c r="B103" s="54">
-        <v>1</v>
-      </c>
-      <c r="C103" s="52">
-        <f t="shared" ref="C103" si="28">(F103/(D103+F103))*100</f>
-        <v>7.5875055383252095</v>
-      </c>
-      <c r="D103" s="6">
-        <f>$D$99*E103</f>
-        <v>2669.76</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1800</v>
-      </c>
-      <c r="F103" s="6">
-        <v>219.2</v>
-      </c>
-      <c r="G103" s="71"/>
-      <c r="H103" s="73"/>
-      <c r="L103" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="L104" s="58"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G105" s="70"/>
-      <c r="H105" s="69"/>
-      <c r="L105" s="58"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D106" s="20">
-        <f>$D$113*((100-C106)/100)</f>
-        <v>2644.3724999999999</v>
-      </c>
-      <c r="E106" s="20">
-        <f>D106/$D$112</f>
-        <v>1995</v>
-      </c>
-      <c r="F106" s="20">
-        <f>$D$113*(C106/100)</f>
-        <v>6.6275000000000004</v>
-      </c>
-      <c r="G106" s="68"/>
-      <c r="H106" s="68"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="59"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="30">
+      <c r="B107" s="59"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="J107" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="54">
+        <v>0</v>
+      </c>
+      <c r="C108" s="52">
+        <f>(F108/(D108+F108))*100</f>
+        <v>0.24548542220129804</v>
+      </c>
+      <c r="D108" s="6">
+        <f>$D$105*E108</f>
+        <v>2966.4</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F108" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="G108" s="68"/>
+      <c r="H108" s="67"/>
+      <c r="L108" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="54">
+        <v>1</v>
+      </c>
+      <c r="C109" s="52">
+        <f t="shared" ref="C109" si="28">(F109/(D109+F109))*100</f>
+        <v>7.5875055383252095</v>
+      </c>
+      <c r="D109" s="6">
+        <f>$D$105*E109</f>
+        <v>2669.76</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F109" s="6">
+        <v>219.2</v>
+      </c>
+      <c r="G109" s="65"/>
+      <c r="H109" s="67"/>
+      <c r="L109" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="L110" s="58"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="53"/>
+      <c r="C111" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G111" s="64"/>
+      <c r="H111" s="63"/>
+      <c r="L111" s="58"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="75"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D112" s="20">
+        <f>$D$119*((100-C112)/100)</f>
+        <v>2644.3724999999999</v>
+      </c>
+      <c r="E112" s="20">
+        <f>D112/$D$118</f>
+        <v>1995</v>
+      </c>
+      <c r="F112" s="20">
+        <f>$D$119*(C112/100)</f>
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="75"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="30">
         <v>3.75</v>
       </c>
-      <c r="D107" s="38">
-        <f t="shared" ref="D107:D110" si="29">$D$113*((100-C107)/100)</f>
+      <c r="D113" s="38">
+        <f t="shared" ref="D113:D116" si="29">$D$119*((100-C113)/100)</f>
         <v>2551.5875000000001</v>
       </c>
-      <c r="E107" s="20">
-        <f t="shared" ref="E107:E110" si="30">D107/$D$112</f>
+      <c r="E113" s="20">
+        <f t="shared" ref="E113:E116" si="30">D113/$D$118</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F107" s="38">
-        <f t="shared" ref="F107:F110" si="31">$D$113*(C107/100)</f>
+      <c r="F113" s="38">
+        <f t="shared" ref="F113:F116" si="31">$D$119*(C113/100)</f>
         <v>99.412499999999994</v>
       </c>
-      <c r="G107" s="68"/>
-      <c r="H107" s="68"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="15">
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="75"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="15">
         <v>7.5</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D114" s="20">
         <f t="shared" si="29"/>
         <v>2452.1750000000002</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E114" s="20">
         <f t="shared" si="30"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F114" s="20">
         <f t="shared" si="31"/>
         <v>198.82499999999999</v>
       </c>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="30">
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="75"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="30">
         <v>11.25</v>
       </c>
-      <c r="D109" s="38">
+      <c r="D115" s="38">
         <f t="shared" si="29"/>
         <v>2352.7624999999998</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E115" s="20">
         <f t="shared" si="30"/>
         <v>1775</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F115" s="38">
         <f t="shared" si="31"/>
         <v>298.23750000000001</v>
       </c>
-      <c r="G109" s="71"/>
-      <c r="H109" s="68"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="15">
+      <c r="G115" s="65"/>
+      <c r="H115" s="62"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="75"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="15">
         <v>15</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D116" s="20">
         <f t="shared" si="29"/>
         <v>2253.35</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E116" s="20">
         <f t="shared" si="30"/>
         <v>1700</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F116" s="20">
         <f t="shared" si="31"/>
         <v>397.65</v>
       </c>
-      <c r="G110" s="71"/>
-      <c r="H110" s="68"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="53"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="44" t="s">
+      <c r="G116" s="65"/>
+      <c r="H116" s="62"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="75"/>
+      <c r="B117" s="53"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="75"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D112" s="45">
+      <c r="D118" s="45">
         <v>1.3254999999999999</v>
       </c>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45">
+      <c r="E118" s="45"/>
+      <c r="F118" s="45">
         <v>1.2</v>
       </c>
-      <c r="G112" s="72"/>
-      <c r="H112" s="73"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16">
-        <f>C1*D112</f>
+      <c r="G118" s="66"/>
+      <c r="H118" s="67"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="75"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16">
+        <f>C1*D118</f>
         <v>2651</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E119" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="J114" s="5" t="s">
+      <c r="F119" s="16"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
+      <c r="J120" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K114" s="5" t="s">
+      <c r="K120" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L114" s="5" t="s">
+      <c r="L120" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="60" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="56">
+      <c r="B121" s="56">
         <v>3</v>
       </c>
-      <c r="C115" s="20">
-        <f>(F115/(D115+F115))*100</f>
+      <c r="C121" s="20">
+        <f>(F121/(D121+F121))*100</f>
         <v>0.29336542801263726</v>
       </c>
-      <c r="D115" s="4">
-        <f>$D$112*E115</f>
+      <c r="D121" s="4">
+        <f>$D$118*E121</f>
         <v>2651</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E121" s="4">
         <v>2000</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F121" s="4">
         <v>7.8</v>
       </c>
-      <c r="G115" s="74"/>
-      <c r="H115" s="69"/>
-      <c r="L115" s="58">
+      <c r="G121" s="68"/>
+      <c r="H121" s="63"/>
+      <c r="L121" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="56">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="71"/>
+      <c r="B122" s="56">
         <v>4</v>
       </c>
-      <c r="C116" s="20">
-        <f t="shared" ref="C116" si="32">(F116/(D116+F116))*100</f>
+      <c r="C122" s="20">
+        <f t="shared" ref="C122" si="32">(F122/(D122+F122))*100</f>
         <v>7.6056228943190192</v>
       </c>
-      <c r="D116" s="4">
-        <f>$D$112*E116</f>
+      <c r="D122" s="4">
+        <f>$D$118*E122</f>
         <v>2385.8999999999996</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E122" s="4">
         <v>1800</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F122" s="4">
         <v>196.4</v>
       </c>
-      <c r="G116" s="71"/>
-      <c r="H116" s="69"/>
-      <c r="L116" s="58">
+      <c r="G122" s="65"/>
+      <c r="H122" s="63"/>
+      <c r="L122" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="L117" s="58"/>
-    </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
+      <c r="L123" s="58"/>
+    </row>
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="31" t="s">
+      <c r="B124" s="53"/>
+      <c r="C124" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I118" s="36"/>
-      <c r="L118" s="58"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="15">
+      <c r="I124" s="36"/>
+      <c r="L124" s="58"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="75"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="15">
         <v>0.25</v>
       </c>
-      <c r="D119" s="20">
-        <f>$D$126*((100-C119)/100)</f>
+      <c r="D125" s="20">
+        <f>$D$132*((100-C125)/100)</f>
         <v>1895.25</v>
       </c>
-      <c r="E119" s="20">
-        <f>D119/$D$125</f>
+      <c r="E125" s="20">
+        <f>D125/$D$131</f>
         <v>1995</v>
       </c>
-      <c r="F119" s="20">
-        <f>$D$126*(C119/100)</f>
+      <c r="F125" s="20">
+        <f>$D$132*(C125/100)</f>
         <v>4.75</v>
       </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="15">
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="75"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="15">
         <v>3.75</v>
       </c>
-      <c r="D120" s="20">
-        <f t="shared" ref="D120:D123" si="33">$D$126*((100-C120)/100)</f>
+      <c r="D126" s="20">
+        <f t="shared" ref="D126:D129" si="33">$D$132*((100-C126)/100)</f>
         <v>1828.75</v>
       </c>
-      <c r="E120" s="20">
-        <f t="shared" ref="E120:E123" si="34">D120/$D$125</f>
+      <c r="E126" s="20">
+        <f t="shared" ref="E126:E129" si="34">D126/$D$131</f>
         <v>1925</v>
       </c>
-      <c r="F120" s="20">
-        <f t="shared" ref="F120:F123" si="35">$D$126*(C120/100)</f>
+      <c r="F126" s="20">
+        <f t="shared" ref="F126:F129" si="35">$D$132*(C126/100)</f>
         <v>71.25</v>
       </c>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="15">
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="75"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="15">
         <v>7.5</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D127" s="20">
         <f t="shared" si="33"/>
         <v>1757.5</v>
       </c>
-      <c r="E121" s="20">
+      <c r="E127" s="20">
         <f t="shared" si="34"/>
         <v>1850</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F127" s="20">
         <f t="shared" si="35"/>
         <v>142.5</v>
       </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="15">
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="75"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="15">
         <v>11.25</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D128" s="20">
         <f t="shared" si="33"/>
         <v>1686.25</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E128" s="20">
         <f t="shared" si="34"/>
         <v>1775</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F128" s="20">
         <f t="shared" si="35"/>
         <v>213.75</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="15">
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="75"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="15">
         <v>15</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D129" s="20">
         <f t="shared" si="33"/>
         <v>1615</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E129" s="20">
         <f t="shared" si="34"/>
         <v>1700</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F129" s="20">
         <f t="shared" si="35"/>
         <v>285</v>
       </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
-      <c r="B124" s="53"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="44" t="s">
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="75"/>
+      <c r="B130" s="53"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="75"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="45">
+      <c r="D131" s="45">
         <v>0.95</v>
       </c>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45">
+      <c r="E131" s="45"/>
+      <c r="F131" s="45">
         <v>1.07</v>
       </c>
-      <c r="G125" s="45"/>
-      <c r="H125" s="16"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16">
-        <f>C1*D125</f>
+      <c r="G131" s="45"/>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="75"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16">
+        <f>C1*D131</f>
         <v>1900</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E132" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J127" s="5" t="s">
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J133" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K127" s="5" t="s">
+      <c r="K133" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L127" s="5" t="s">
+      <c r="L133" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="65" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B128" s="54">
+      <c r="B134" s="54">
         <v>6</v>
       </c>
-      <c r="C128" s="51">
-        <f>(F128/(D128+F128))*100</f>
+      <c r="C134" s="51">
+        <f>(F134/(D134+F134))*100</f>
         <v>0.61202071454726159</v>
       </c>
-      <c r="D128" s="41">
-        <f>$D$125*E128</f>
+      <c r="D134" s="41">
+        <f>$D$131*E134</f>
         <v>1900</v>
       </c>
-      <c r="E128" s="41">
+      <c r="E134" s="41">
         <v>2000</v>
       </c>
-      <c r="F128" s="41">
+      <c r="F134" s="41">
         <v>11.7</v>
       </c>
-      <c r="G128" s="74" t="s">
+      <c r="G134" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L128" s="58">
+      <c r="L134" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
-      <c r="B129" s="54">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="70"/>
+      <c r="B135" s="54">
         <v>7</v>
       </c>
-      <c r="C129" s="51">
-        <f t="shared" ref="C129:C132" si="36">(F129/(D129+F129))*100</f>
+      <c r="C135" s="51">
+        <f t="shared" ref="C135:C138" si="36">(F135/(D135+F135))*100</f>
         <v>4.9399620813145146</v>
       </c>
-      <c r="D129" s="41">
-        <f>$D$125*E129</f>
+      <c r="D135" s="41">
+        <f>$D$131*E135</f>
         <v>1805</v>
       </c>
-      <c r="E129" s="41">
+      <c r="E135" s="41">
         <v>1900</v>
       </c>
-      <c r="F129" s="41">
+      <c r="F135" s="41">
         <v>93.8</v>
       </c>
-      <c r="G129" s="74" t="s">
+      <c r="G135" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L129" s="58">
+      <c r="L135" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
-      <c r="B130" s="54">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="70"/>
+      <c r="B136" s="54">
         <v>8</v>
       </c>
-      <c r="C130" s="51">
+      <c r="C136" s="51">
         <f t="shared" si="36"/>
         <v>8.0002152041749603</v>
       </c>
-      <c r="D130" s="41">
-        <f>$D$125*E130</f>
+      <c r="D136" s="41">
+        <f>$D$131*E136</f>
         <v>1710</v>
       </c>
-      <c r="E130" s="41">
+      <c r="E136" s="41">
         <v>1800</v>
       </c>
-      <c r="F130" s="41">
+      <c r="F136" s="41">
         <v>148.69999999999999</v>
       </c>
-      <c r="G130" s="74" t="s">
+      <c r="G136" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L130" s="58">
+      <c r="L136" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
-      <c r="B131" s="54">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="70"/>
+      <c r="B137" s="54">
         <v>9</v>
       </c>
-      <c r="C131" s="51">
+      <c r="C137" s="51">
         <f t="shared" si="36"/>
         <v>11.43108717045631</v>
       </c>
-      <c r="D131" s="41">
-        <f>$D$125*E131</f>
+      <c r="D137" s="41">
+        <f>$D$131*E137</f>
         <v>1710</v>
       </c>
-      <c r="E131" s="41">
+      <c r="E137" s="41">
         <v>1800</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F137" s="41">
         <v>220.7</v>
       </c>
-      <c r="G131" s="74" t="s">
+      <c r="G137" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L131" s="58">
+      <c r="L137" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
-      <c r="B132" s="54">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="70"/>
+      <c r="B138" s="54">
         <v>10</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C138" s="51">
         <f t="shared" si="36"/>
         <v>15.165204601565371</v>
       </c>
-      <c r="D132" s="41">
-        <f>$D$125*E132</f>
+      <c r="D138" s="41">
+        <f>$D$131*E138</f>
         <v>1615</v>
       </c>
-      <c r="E132" s="41">
+      <c r="E138" s="41">
         <v>1700</v>
       </c>
-      <c r="F132" s="41">
+      <c r="F138" s="41">
         <v>288.7</v>
       </c>
-      <c r="G132" s="74" t="s">
+      <c r="G138" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L132" s="58">
+      <c r="L138" s="58">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A105:A113"/>
-    <mergeCell ref="A118:A126"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A115:A116"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A98:A106"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="A124:A132"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A121:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8458C3-A764-4230-8686-960D84552C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F29137-5D72-49E7-9150-CB7F96039C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>

--- a/Viscosity/solutionsNrheology.xlsx
+++ b/Viscosity/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F29137-5D72-49E7-9150-CB7F96039C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -469,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -477,11 +477,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -508,25 +619,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -562,9 +655,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -606,8 +696,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,15 +705,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1246,7 @@
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1143,7 +1274,7 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1171,7 +1302,7 @@
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1199,7 +1330,7 @@
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1227,7 +1358,7 @@
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1255,7 +1386,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1283,7 +1414,7 @@
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1311,7 +1442,7 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1336,7 +1467,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1357,10 +1488,10 @@
       <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1368,7 +1499,7 @@
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1398,7 +1529,7 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1428,7 +1559,7 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1458,7 +1589,7 @@
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1488,7 +1619,7 @@
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1518,7 +1649,7 @@
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1548,7 +1679,7 @@
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1574,7 +1705,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="35"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
@@ -1582,7 +1713,7 @@
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1619,7 +1750,7 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B1" sqref="B1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,46 +1763,58 @@
     <col min="6" max="6" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="31" customWidth="1"/>
     <col min="10" max="12" width="15.7109375" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="13">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70">
         <v>2000</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="4">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73">
         <v>3000</v>
       </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="5" t="s">
         <v>99</v>
       </c>
@@ -1683,252 +1826,307 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="53" t="str">
+      <c r="A4" s="63"/>
+      <c r="B4" s="75" t="str">
         <f>"000"</f>
         <v>000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="79">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="80">
         <v>2246</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="80">
         <f>D4/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="81">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="81">
         <v>11.28</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="58">
+      <c r="H4" s="82"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="51">
         <v>1.7899999999999999E-4</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="51">
         <v>0.106836</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="53" t="str">
+      <c r="A5" s="63"/>
+      <c r="B5" s="75" t="str">
         <f>"025"</f>
         <v>025</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="79">
         <v>0.25</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="80">
         <v>2246</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="80">
         <f t="shared" ref="E5:E8" si="0">D5/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="81">
         <v>5.65</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="81">
         <v>11.32</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="58">
+      <c r="H5" s="82"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="51">
         <v>6.1300000000000005E-4</v>
       </c>
       <c r="K5" s="14">
         <v>22.628292999999999</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="53" t="str">
+      <c r="A6" s="63"/>
+      <c r="B6" s="75" t="str">
         <f>"050"</f>
         <v>050</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="79">
         <v>0.5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="80">
         <v>2246</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="80">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="81">
         <v>11.34</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="81">
         <v>11.34</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="58">
+      <c r="H6" s="82"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="51">
         <v>1.6898E-2</v>
       </c>
       <c r="K6" s="14">
         <v>618.78667700000005</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="53" t="str">
+      <c r="A7" s="63"/>
+      <c r="B7" s="75" t="str">
         <f>"075"</f>
         <v>075</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="79">
         <v>0.75</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="80">
         <v>2246</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="80">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="81">
         <v>17.059999999999999</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="81">
         <v>11.37</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="60">
+      <c r="H7" s="82"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="53">
         <v>5.9131999999999997E-2</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="51">
         <v>4278.319708</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="53" t="str">
+      <c r="A8" s="63"/>
+      <c r="B8" s="75" t="str">
         <f>"100"</f>
         <v>100</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="79">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="80">
         <v>2246</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="80">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="81">
         <v>22.8</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="81">
         <v>11.4</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="60">
+      <c r="H8" s="82"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="53">
         <v>-0.14122599999999999</v>
       </c>
       <c r="K8" s="14">
         <v>12927.421598000001</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="84">
         <v>1.123</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84">
         <v>1.21</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="84">
         <v>0.4</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="A11" s="63"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86">
         <f>C1*D10</f>
         <v>2246</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="35"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="14"/>
       <c r="L11" s="14"/>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="72">
         <v>0</v>
       </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="72">
         <v>1</v>
       </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="72">
         <v>2</v>
       </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="72">
         <v>3</v>
       </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="72">
         <v>4</v>
       </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1940,130 +2138,130 @@
       <c r="F19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="36"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="15">
         <v>20</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <f>$D$28*((100-C20)/100)</f>
         <v>2131.2000000000003</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <f>D20/$D$26</f>
         <v>2400.0000000000005</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <f>$D$28*(C20/100)</f>
         <v>532.80000000000007</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="15">
         <v>25</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <f t="shared" ref="D21:D24" si="1">$D$28*((100-C21)/100)</f>
         <v>1998</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <f>D21/$D$26</f>
         <v>2250</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <f t="shared" ref="F21:F24" si="2">$D$28*(C21/100)</f>
         <v>666</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="J21" s="4">
         <v>0.35607699999999998</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="54">
         <v>0.12851899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="15">
         <v>30</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>1864.8</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <f>D22/$D$26</f>
         <v>2100</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <f t="shared" si="2"/>
         <v>799.19999999999993</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="J22" s="61">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="54">
         <v>0.918902</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="54">
         <v>1.331504</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="15">
         <v>35</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <f t="shared" si="1"/>
         <v>1731.6000000000001</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <f>D23/$D$26</f>
         <v>1950.0000000000002</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="18">
         <f t="shared" si="2"/>
         <v>932.4</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="J23" s="61">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="J23" s="54">
         <v>2.5808939999999998</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="54">
         <v>3.4811550000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="15">
         <v>40</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <f t="shared" si="1"/>
         <v>1598.3999999999999</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <f>D24/$D$26</f>
         <v>1799.9999999999998</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <f t="shared" si="2"/>
         <v>1065.6000000000001</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
       <c r="J24" s="4">
         <v>0.48035</v>
       </c>
@@ -2072,28 +2270,28 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="46"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="39">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
         <v>1.06</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16">
         <f>C1*D26</f>
@@ -2106,8 +2304,8 @@
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
       <c r="D28" s="16">
         <f>C2*D26</f>
         <v>2664</v>
@@ -2126,307 +2324,307 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="49">
         <v>0</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <f>(F30/(D30+F30))*100</f>
         <v>19.752993448301833</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <f>$D$26*E30</f>
         <v>2131.1999999999998</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>2400</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>524.6</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="L30" s="58"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="56">
+      <c r="A31" s="64"/>
+      <c r="B31" s="49">
         <v>1</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <f t="shared" ref="C31:C34" si="3">(F31/(D31+F31))*100</f>
         <v>25.221052631578942</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <f t="shared" ref="D31:D34" si="4">$D$26*E31</f>
         <v>1953.6000000000001</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>2200</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>658.9</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="58"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="56">
+      <c r="A32" s="64"/>
+      <c r="B32" s="49">
         <v>2</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <f t="shared" si="3"/>
         <v>30.222637979420021</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <f t="shared" si="4"/>
         <v>1864.8</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>2100</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>807.7</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="58"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="56">
+      <c r="A33" s="64"/>
+      <c r="B33" s="49">
         <v>3</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <f t="shared" si="3"/>
         <v>35.583384239462433</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <f t="shared" si="4"/>
         <v>1687.2</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>1900</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>932</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="L33" s="58"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="56">
+      <c r="A34" s="64"/>
+      <c r="B34" s="49">
         <v>4</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <f t="shared" si="3"/>
         <v>39.941384233861875</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <f t="shared" si="4"/>
         <v>1598.4</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>1800</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="18">
         <v>1063</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="58"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="49">
         <v>0</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <f>(F36/(D36+F36))*100</f>
         <v>0.25833988543187686</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <f>$D$26*E36</f>
         <v>1776</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>2000</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
       <c r="J36" s="4">
         <v>2.6400000000000002E-4</v>
       </c>
       <c r="K36" s="4">
         <v>1.7329999999999999E-3</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="56">
+      <c r="A37" s="64"/>
+      <c r="B37" s="49">
         <v>1</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <f t="shared" ref="C37:C40" si="5">(F37/(D37+F37))*100</f>
         <v>4.1635898892360119</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <f t="shared" ref="D37:D40" si="6">$D$26*E37</f>
         <v>1687.2</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>1900</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>73.3</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
       <c r="J37" s="4">
         <v>2.9629999999999999E-3</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="54">
         <v>0.95067100000000004</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="56">
+      <c r="A38" s="64"/>
+      <c r="B38" s="49">
         <v>2</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <f t="shared" si="5"/>
         <v>8.3275980729525099</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="18">
         <f t="shared" si="6"/>
         <v>1598.4</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="18">
         <v>1800</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="18">
         <v>145.19999999999999</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="J38" s="61">
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="J38" s="54">
         <v>3.5182999999999999E-2</v>
       </c>
-      <c r="K38" s="61">
+      <c r="K38" s="54">
         <v>4.2918999999999999E-2</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="56">
+      <c r="A39" s="64"/>
+      <c r="B39" s="49">
         <v>3</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <f t="shared" si="5"/>
         <v>11.031949237448513</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <f t="shared" si="6"/>
         <v>1598.4</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>1800</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="18">
         <v>198.2</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="J39" s="4">
         <v>2.8964E-2</v>
       </c>
       <c r="K39" s="4">
         <v>0.31996999999999998</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L39" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="56">
+      <c r="A40" s="64"/>
+      <c r="B40" s="49">
         <v>4</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <f t="shared" si="5"/>
         <v>15.172902080219371</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <f t="shared" si="6"/>
         <v>1509.6</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>1700</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>270.02</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="J40" s="4">
         <v>0.198681</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="54">
         <v>1.2781130000000001</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L40" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -2444,170 +2642,170 @@
       <c r="H42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="36"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="53"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="15">
         <v>9</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <f>$D$51*((100-C43)*0.75/100)</f>
         <v>1849.91625</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <f>D43/$D$49</f>
         <v>2083.2390202702704</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <f>$D$51*((100-C43)*0.25/100)</f>
         <v>616.63875000000007</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <f>F43/$F$49</f>
         <v>649.0934210526317</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <f>$D$51*(C43/100)</f>
         <v>243.94499999999999</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="15">
         <v>14</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <f t="shared" ref="D44:D47" si="7">$D$51*((100-C44)*0.75/100)</f>
         <v>1748.2725</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <f t="shared" ref="E44:E47" si="8">D44/$D$49</f>
         <v>1968.7753378378379</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="18">
         <f t="shared" ref="F44:F47" si="9">$D$51*((100-C44)*0.25/100)</f>
         <v>582.75749999999994</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <f t="shared" ref="G44:G47" si="10">F44/$F$49</f>
         <v>613.42894736842106</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <f t="shared" ref="H44:H47" si="11">$D$51*(C44/100)</f>
         <v>379.47</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="15">
         <v>19</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <f t="shared" si="7"/>
         <v>1646.6287500000001</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <f t="shared" si="8"/>
         <v>1854.3116554054054</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <f t="shared" si="9"/>
         <v>548.87625000000003</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="18">
         <f t="shared" si="10"/>
         <v>577.76447368421054</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <f t="shared" si="11"/>
         <v>514.995</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="15">
         <v>24</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <f t="shared" si="7"/>
         <v>1544.9849999999999</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <f t="shared" si="8"/>
         <v>1739.8479729729729</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="18">
         <f t="shared" si="9"/>
         <v>514.995</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <f t="shared" si="10"/>
         <v>542.1</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <f t="shared" si="11"/>
         <v>650.52</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="15">
         <v>29</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <f t="shared" si="7"/>
         <v>1443.3412499999999</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <f t="shared" si="8"/>
         <v>1625.3842905405404</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <f t="shared" si="9"/>
         <v>481.11374999999998</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <f t="shared" si="10"/>
         <v>506.4355263157895</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <f t="shared" si="11"/>
         <v>786.04499999999996</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="53"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="46"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="44" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="39">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45">
+      <c r="E49" s="39"/>
+      <c r="F49" s="39">
         <v>0.95</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>1400</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="39">
         <v>1.04</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16">
         <f>C1*((D49*0.75)+(F49*0.25))</f>
@@ -2621,8 +2819,8 @@
       <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16">
         <f>C2*((D49*0.75)+(F49*0.25))</f>
@@ -2647,154 +2845,154 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="49">
         <v>5</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <f>(H53/(D53+F53+H53))*100</f>
         <v>9.2846497764530547</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <f>$D$49*E53</f>
         <v>1864.8</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>2100</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <f>$F$49*G53</f>
         <v>570</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="18">
         <v>600</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>249.2</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="58"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="51"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="57">
+      <c r="A54" s="65"/>
+      <c r="B54" s="50">
         <v>6</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <f t="shared" ref="C54:C57" si="12">(H54/(D54+F54+H54))*100</f>
         <v>13.75317083930738</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <f t="shared" ref="D54:D57" si="13">$D$49*E54</f>
         <v>1776</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>2000</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <f t="shared" ref="F54:F57" si="14">$F$49*G54</f>
         <v>570</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>600</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>374.1</v>
       </c>
-      <c r="L54" s="58"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="57">
+      <c r="A55" s="65"/>
+      <c r="B55" s="50">
         <v>7</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <f t="shared" si="12"/>
         <v>19.465181058495823</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <f t="shared" si="13"/>
         <v>1598.4</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>1800</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>600</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>524.1</v>
       </c>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="58"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="51"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="57">
+      <c r="A56" s="65"/>
+      <c r="B56" s="50">
         <v>8</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <f t="shared" si="12"/>
         <v>24.788721719028313</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <f t="shared" si="13"/>
         <v>1509.6</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>1700</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>500</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>654.1</v>
       </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="58"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="57">
+      <c r="A57" s="65"/>
+      <c r="B57" s="50">
         <v>9</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <f t="shared" si="12"/>
         <v>29.406524885870166</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="18">
         <f t="shared" si="13"/>
         <v>1332</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <v>1500</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="18">
         <v>600</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>792.3</v>
       </c>
-      <c r="J57" s="61"/>
+      <c r="J57" s="54"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="58"/>
+      <c r="L57" s="51"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J58" s="5"/>
@@ -2802,67 +3000,67 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="49">
         <v>5</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <f>(H59/(D59+F59+H59))*100</f>
         <v>1.4023026136301631</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <f>$D$49*E59</f>
         <v>1332</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>1500</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <f>$F$49*G59</f>
         <v>475</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>500</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>25.7</v>
       </c>
       <c r="J59" s="6">
         <v>8.7530000000000004E-3</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="54">
         <v>8.3807010000000002</v>
       </c>
-      <c r="L59" s="58">
+      <c r="L59" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="57">
+      <c r="A60" s="65"/>
+      <c r="B60" s="50">
         <v>6</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <f t="shared" ref="C60:C63" si="15">(H60/(D60+F60+H60))*100</f>
         <v>3.8727524204702628</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="18">
         <f t="shared" ref="D60:D63" si="16">$D$49*E60</f>
         <v>1332</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <v>1500</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <f t="shared" ref="F60:F63" si="17">$F$49*G60</f>
         <v>475</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="18">
         <v>500</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="18">
         <v>72.8</v>
       </c>
       <c r="J60" s="4">
@@ -2871,106 +3069,106 @@
       <c r="K60" s="4">
         <v>3.0336999999999999E-2</v>
       </c>
-      <c r="L60" s="58">
+      <c r="L60" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="57">
+      <c r="A61" s="65"/>
+      <c r="B61" s="50">
         <v>7</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="18">
         <f t="shared" si="15"/>
         <v>8.0392045776443251</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="18">
         <f>$D$49*G49</f>
         <v>1243.2</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="18">
         <v>1400</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="18">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="18">
         <v>400</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="18">
         <v>141.9</v>
       </c>
-      <c r="J61" s="61">
+      <c r="J61" s="54">
         <v>1.9382E-2</v>
       </c>
-      <c r="K61" s="61">
+      <c r="K61" s="54">
         <v>0.236674</v>
       </c>
-      <c r="L61" s="58">
+      <c r="L61" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="57">
+      <c r="A62" s="65"/>
+      <c r="B62" s="50">
         <v>8</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="18">
         <f t="shared" si="15"/>
         <v>11.750158164145628</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="18">
         <f t="shared" si="16"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="18">
         <v>1300</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="18">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="18">
         <v>400</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="18">
         <v>204.3</v>
       </c>
-      <c r="J62" s="61">
+      <c r="J62" s="54">
         <v>3.4037999999999999E-2</v>
       </c>
       <c r="K62" s="6">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="L62" s="58">
+      <c r="L62" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="57">
+      <c r="A63" s="65"/>
+      <c r="B63" s="50">
         <v>9</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <f t="shared" si="15"/>
         <v>14.646492740724259</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <f t="shared" si="16"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="18">
         <v>1300</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="18">
         <f t="shared" si="17"/>
         <v>380</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="18">
         <v>400</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="18">
         <v>263.3</v>
       </c>
       <c r="J63" s="4">
@@ -2979,16 +3177,16 @@
       <c r="K63" s="4">
         <v>9.5713000000000006E-2</v>
       </c>
-      <c r="L63" s="58">
+      <c r="L63" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="31" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -3001,136 +3199,136 @@
         <v>68</v>
       </c>
       <c r="G65" s="17"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
-      <c r="B66" s="53"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="15">
         <v>9</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="18">
         <f>$D$74*((100-C66)/100)</f>
         <v>2803.7099999999996</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="18">
         <f>D66/$D$72</f>
         <v>2730</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="18">
         <f>$D$74*(C66/100)</f>
         <v>277.28999999999996</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="53"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="15">
         <v>14</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="18">
         <f t="shared" ref="D67:D70" si="18">$D$74*((100-C67)/100)</f>
         <v>2649.6599999999994</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="18">
         <f t="shared" ref="E67:E70" si="19">D67/$D$72</f>
         <v>2579.9999999999995</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="18">
         <f t="shared" ref="F67:F70" si="20">$D$74*(C67/100)</f>
         <v>431.34</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
-      <c r="B68" s="53"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="15">
         <v>19</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="18">
         <f t="shared" si="18"/>
         <v>2495.6099999999997</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="18">
         <f t="shared" si="19"/>
         <v>2430</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="18">
         <f t="shared" si="20"/>
         <v>585.38999999999987</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="15">
         <v>24</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="18">
         <f t="shared" si="18"/>
         <v>2341.5599999999995</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="18">
         <f t="shared" si="19"/>
         <v>2279.9999999999995</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="18">
         <f t="shared" si="20"/>
         <v>739.43999999999983</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="15">
         <v>29</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="18">
         <f t="shared" si="18"/>
         <v>2187.5099999999998</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="18">
         <f t="shared" si="19"/>
         <v>2130</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="18">
         <f t="shared" si="20"/>
         <v>893.48999999999978</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
-      <c r="B71" s="53"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="46"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="44" t="s">
+      <c r="A72" s="63"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D72" s="16">
         <v>1.0269999999999999</v>
       </c>
       <c r="E72" s="16"/>
-      <c r="F72" s="45">
+      <c r="F72" s="39">
         <v>1.04</v>
       </c>
-      <c r="G72" s="45"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
-      <c r="B73" s="53"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16">
         <f>C1*D72</f>
@@ -3144,8 +3342,8 @@
       <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16">
         <f>C2*D72</f>
@@ -3159,9 +3357,9 @@
       <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="41"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3178,119 +3376,119 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="54">
+      <c r="B76" s="47">
         <v>10</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="44">
         <f>(F76/(D76+F76))*100</f>
         <v>0</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="45">
         <f>$D$72*E76</f>
         <v>2772.8999999999996</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="45">
         <v>2700</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="58"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="51"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="74"/>
-      <c r="B77" s="55">
+      <c r="A77" s="68"/>
+      <c r="B77" s="48">
         <v>11</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="44">
         <f t="shared" ref="C77:C80" si="21">(F77/(D77+F77))*100</f>
         <v>0</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="45">
         <f>$D$72*E77</f>
         <v>2670.2</v>
       </c>
-      <c r="E77" s="52">
+      <c r="E77" s="45">
         <v>2600</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="L77" s="58"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="L77" s="51"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
-      <c r="B78" s="55">
+      <c r="A78" s="68"/>
+      <c r="B78" s="48">
         <v>12</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="44">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="45">
         <f>$D$72*E78</f>
         <v>2464.7999999999997</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="45">
         <v>2400</v>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="58"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="51"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="74"/>
-      <c r="B79" s="55">
+      <c r="A79" s="68"/>
+      <c r="B79" s="48">
         <v>13</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="44">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="45">
         <f>$D$72*E79</f>
         <v>2362.1</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="45">
         <v>2300</v>
       </c>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="58"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="51"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
-      <c r="B80" s="55">
+      <c r="A80" s="68"/>
+      <c r="B80" s="48">
         <v>14</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="44">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="45">
         <f>$D$72*E80</f>
         <v>2156.6999999999998</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="45">
         <v>2100</v>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="L80" s="58"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="L80" s="51"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="41"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3301,356 +3499,356 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="73" t="s">
+      <c r="A82" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="54">
+      <c r="B82" s="47">
         <v>10</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="44">
         <f>(F82/(D82+F82))*100</f>
         <v>1.0263576350407171</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="45">
         <f>$D$72*E82</f>
         <v>2054</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="45">
         <v>2000</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F82" s="45">
         <v>21.3</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
       <c r="J82" s="4">
         <v>2.0917000000000002E-2</v>
       </c>
-      <c r="K82" s="61">
+      <c r="K82" s="54">
         <v>53.570850999999998</v>
       </c>
-      <c r="L82" s="58">
+      <c r="L82" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="74"/>
-      <c r="B83" s="55">
+      <c r="A83" s="68"/>
+      <c r="B83" s="48">
         <v>11</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="44">
         <f t="shared" ref="C83:C86" si="22">(F83/(D83+F83))*100</f>
         <v>3.5633092814075318</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="45">
         <f t="shared" ref="D83:D86" si="23">$D$72*E83</f>
         <v>1951.2999999999997</v>
       </c>
-      <c r="E83" s="52">
+      <c r="E83" s="45">
         <v>1900</v>
       </c>
-      <c r="F83" s="52">
+      <c r="F83" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
       <c r="J83" s="4">
         <v>9.1500000000000001E-3</v>
       </c>
       <c r="K83" s="4">
         <v>2.2258E-2</v>
       </c>
-      <c r="L83" s="58">
+      <c r="L83" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="55">
+      <c r="A84" s="68"/>
+      <c r="B84" s="48">
         <v>12</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="44">
         <f t="shared" si="22"/>
         <v>7.74067974247642</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="45">
         <f t="shared" si="23"/>
         <v>1848.6</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="45">
         <v>1800</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="45">
         <v>155.1</v>
       </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
       <c r="J84" s="4">
         <v>3.1720999999999999E-2</v>
       </c>
-      <c r="K84" s="61">
+      <c r="K84" s="54">
         <v>2.6790000000000001E-2</v>
       </c>
-      <c r="L84" s="58">
+      <c r="L84" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="74"/>
-      <c r="B85" s="55">
+      <c r="A85" s="68"/>
+      <c r="B85" s="48">
         <v>13</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="44">
         <f t="shared" si="22"/>
         <v>11.512134411947729</v>
       </c>
-      <c r="D85" s="52">
+      <c r="D85" s="45">
         <f t="shared" si="23"/>
         <v>1848.6</v>
       </c>
-      <c r="E85" s="52">
+      <c r="E85" s="45">
         <v>1800</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="45">
         <v>240.5</v>
       </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
       <c r="J85" s="4">
         <v>8.6243E-2</v>
       </c>
       <c r="K85" s="4">
         <v>1.5518959999999999</v>
       </c>
-      <c r="L85" s="58">
+      <c r="L85" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
-      <c r="B86" s="55">
+      <c r="A86" s="68"/>
+      <c r="B86" s="48">
         <v>14</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="44">
         <f t="shared" si="22"/>
         <v>14.950311769290725</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="45">
         <f t="shared" si="23"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E86" s="45">
         <v>1700</v>
       </c>
-      <c r="F86" s="52">
+      <c r="F86" s="45">
         <v>306.89999999999998</v>
       </c>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
       <c r="J86" s="4">
         <v>0.15590399999999999</v>
       </c>
-      <c r="K86" s="61">
+      <c r="K86" s="54">
         <v>0.16277</v>
       </c>
-      <c r="L86" s="58">
+      <c r="L86" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="53"/>
-      <c r="C88" s="31" t="s">
+      <c r="B88" s="46"/>
+      <c r="C88" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="26" t="s">
+      <c r="G88" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="33"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="30">
+      <c r="A89" s="63"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="24">
         <v>0.25</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="22">
         <f t="shared" ref="D89:D90" si="24">$D$96*((100-C89)/100)</f>
         <v>2048.8650000000002</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="22">
         <f>D89/$D$95</f>
         <v>1995.0000000000005</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="22">
         <f>$D$96*((C89*0.3)/100)</f>
         <v>1.5405</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="22">
         <f>$D$96*((C89*0.7)/100)</f>
         <v>3.5944999999999996</v>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="33"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="30">
+      <c r="A90" s="63"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="24">
         <v>3.75</v>
       </c>
-      <c r="D90" s="28">
+      <c r="D90" s="22">
         <f t="shared" si="24"/>
         <v>1976.9750000000001</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="22">
         <f t="shared" ref="E90:E93" si="25">D90/$D$95</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="22">
         <f t="shared" ref="F90:F93" si="26">$D$96*((C90*0.3)/100)</f>
         <v>23.107499999999998</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="22">
         <f>$D$96*((C90*0.7)/100)</f>
         <v>53.917499999999997</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="33"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="30">
+      <c r="A91" s="63"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="24">
         <v>7.5</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="22">
         <f>$D$96*((100-C91)/100)</f>
         <v>1899.95</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="22">
         <f t="shared" si="25"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="22">
         <f t="shared" si="26"/>
         <v>46.214999999999996</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="22">
         <f>$D$96*((C91*0.7)/100)</f>
         <v>107.83499999999999</v>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="33"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="30">
+      <c r="A92" s="63"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="24">
         <v>11.25</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D92" s="22">
         <f t="shared" ref="D92:D93" si="27">$D$96*((100-C92)/100)</f>
         <v>1822.925</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E92" s="22">
         <f t="shared" si="25"/>
         <v>1775</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="22">
         <f t="shared" si="26"/>
         <v>69.322500000000005</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="22">
         <f>$D$96*((C92*0.7)/100)</f>
         <v>161.75249999999997</v>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="33"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="30">
+      <c r="A93" s="63"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="24">
         <v>15</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D93" s="22">
         <f t="shared" si="27"/>
         <v>1745.8999999999999</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93" s="22">
         <f t="shared" si="25"/>
         <v>1700</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="22">
         <f t="shared" si="26"/>
         <v>92.429999999999993</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="22">
         <f>$D$96*((C93*0.7)/100)</f>
         <v>215.67</v>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="33"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="39"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="33"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="47" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D95" s="48">
+      <c r="D95" s="41">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48">
+      <c r="E95" s="41"/>
+      <c r="F95" s="41">
         <v>1.2450000000000001</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="19">
         <v>1.1839999999999999</v>
       </c>
-      <c r="H95" s="49"/>
+      <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25">
+      <c r="A96" s="63"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19">
         <f>C1*D95</f>
         <v>2054</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E96" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
     </row>
     <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="31" t="s">
+      <c r="B98" s="46"/>
+      <c r="C98" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -3662,140 +3860,140 @@
       <c r="F98" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="36"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="53"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="15">
         <v>0.25</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="18">
         <f>$D$106*((100-C99)/100)</f>
         <v>2958.9840000000004</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="18">
         <f>D99/$D$105</f>
         <v>1995.0000000000002</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="18">
         <f>$D$106*(C99/100)</f>
         <v>7.4160000000000004</v>
       </c>
-      <c r="G99" s="68"/>
-      <c r="H99" s="62"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="30">
+      <c r="A100" s="63"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="24">
         <v>3.75</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="32">
         <f>$D$106*((100-C100)/100)</f>
         <v>2855.1600000000003</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="18">
         <f>D100/$D$105</f>
         <v>1925</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="32">
         <f>$D$106*(C100/100)</f>
         <v>111.24</v>
       </c>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="53"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="15">
         <v>7.5</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="18">
         <f>$D$106*((100-C101)/100)</f>
         <v>2743.92</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="18">
         <f>D101/$D$105</f>
         <v>1850</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="18">
         <f>$D$106*(C101/100)</f>
         <v>222.48</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="75"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="30">
+      <c r="A102" s="63"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="24">
         <v>11.25</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="32">
         <f>$D$106*((100-C102)/100)</f>
         <v>2632.68</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="18">
         <f>D102/$D$105</f>
         <v>1774.9999999999998</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="32">
         <f>$D$106*(C102/100)</f>
         <v>333.72</v>
       </c>
-      <c r="G102" s="65"/>
-      <c r="H102" s="62"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="55"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="53"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="15">
         <v>15</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="18">
         <f>$D$106*((100-C103)/100)</f>
         <v>2521.44</v>
       </c>
-      <c r="E103" s="20">
+      <c r="E103" s="18">
         <f>D103/$D$105</f>
         <v>1700</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="18">
         <f>$D$106*(C103/100)</f>
         <v>444.96</v>
       </c>
-      <c r="G103" s="65"/>
-      <c r="H103" s="62"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="55"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="75"/>
-      <c r="B104" s="53"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="46"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="44" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D105" s="45">
+      <c r="D105" s="39">
         <v>1.4832000000000001</v>
       </c>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45">
+      <c r="E105" s="39"/>
+      <c r="F105" s="39">
         <v>1.2</v>
       </c>
-      <c r="G105" s="66"/>
-      <c r="H105" s="67"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="60"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="53"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16">
         <f>C1*D105</f>
@@ -3805,18 +4003,18 @@
         <v>76</v>
       </c>
       <c r="F106" s="16"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
       <c r="J107" s="5" t="s">
         <v>99</v>
       </c>
@@ -3828,13 +4026,13 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="73" t="s">
+      <c r="A108" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="54">
+      <c r="B108" s="47">
         <v>0</v>
       </c>
-      <c r="C108" s="52">
+      <c r="C108" s="45">
         <f>(F108/(D108+F108))*100</f>
         <v>0.24548542220129804</v>
       </c>
@@ -3848,18 +4046,18 @@
       <c r="F108" s="6">
         <v>7.3</v>
       </c>
-      <c r="G108" s="68"/>
-      <c r="H108" s="67"/>
-      <c r="L108" s="58">
+      <c r="G108" s="61"/>
+      <c r="H108" s="60"/>
+      <c r="L108" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="54">
+      <c r="A109" s="67"/>
+      <c r="B109" s="47">
         <v>1</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="45">
         <f t="shared" ref="C109" si="28">(F109/(D109+F109))*100</f>
         <v>7.5875055383252095</v>
       </c>
@@ -3873,23 +4071,23 @@
       <c r="F109" s="6">
         <v>219.2</v>
       </c>
-      <c r="G109" s="65"/>
-      <c r="H109" s="67"/>
-      <c r="L109" s="58">
+      <c r="G109" s="58"/>
+      <c r="H109" s="60"/>
+      <c r="L109" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G110" s="63"/>
-      <c r="H110" s="63"/>
-      <c r="L110" s="58"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="L110" s="51"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="75" t="s">
+      <c r="A111" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="53"/>
-      <c r="C111" s="31" t="s">
+      <c r="B111" s="46"/>
+      <c r="C111" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -3901,140 +4099,140 @@
       <c r="F111" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G111" s="64"/>
-      <c r="H111" s="63"/>
-      <c r="L111" s="58"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="56"/>
+      <c r="L111" s="51"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="75"/>
-      <c r="B112" s="53"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="15">
         <v>0.25</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="18">
         <f>$D$119*((100-C112)/100)</f>
         <v>2644.3724999999999</v>
       </c>
-      <c r="E112" s="20">
+      <c r="E112" s="18">
         <f>D112/$D$118</f>
         <v>1995</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="18">
         <f>$D$119*(C112/100)</f>
         <v>6.6275000000000004</v>
       </c>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="30">
+      <c r="A113" s="63"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="24">
         <v>3.75</v>
       </c>
-      <c r="D113" s="38">
+      <c r="D113" s="32">
         <f t="shared" ref="D113:D116" si="29">$D$119*((100-C113)/100)</f>
         <v>2551.5875000000001</v>
       </c>
-      <c r="E113" s="20">
+      <c r="E113" s="18">
         <f t="shared" ref="E113:E116" si="30">D113/$D$118</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F113" s="38">
+      <c r="F113" s="32">
         <f t="shared" ref="F113:F116" si="31">$D$119*(C113/100)</f>
         <v>99.412499999999994</v>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="75"/>
-      <c r="B114" s="53"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="15">
         <v>7.5</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="18">
         <f t="shared" si="29"/>
         <v>2452.1750000000002</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E114" s="18">
         <f t="shared" si="30"/>
         <v>1850.0000000000002</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="18">
         <f t="shared" si="31"/>
         <v>198.82499999999999</v>
       </c>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="30">
+      <c r="A115" s="63"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="24">
         <v>11.25</v>
       </c>
-      <c r="D115" s="38">
+      <c r="D115" s="32">
         <f t="shared" si="29"/>
         <v>2352.7624999999998</v>
       </c>
-      <c r="E115" s="20">
+      <c r="E115" s="18">
         <f t="shared" si="30"/>
         <v>1775</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="32">
         <f t="shared" si="31"/>
         <v>298.23750000000001</v>
       </c>
-      <c r="G115" s="65"/>
-      <c r="H115" s="62"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="55"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="75"/>
-      <c r="B116" s="53"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="15">
         <v>15</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="18">
         <f t="shared" si="29"/>
         <v>2253.35</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="18">
         <f t="shared" si="30"/>
         <v>1700</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="18">
         <f t="shared" si="31"/>
         <v>397.65</v>
       </c>
-      <c r="G116" s="65"/>
-      <c r="H116" s="62"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="55"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="75"/>
-      <c r="B117" s="53"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="46"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="56"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="75"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="44" t="s">
+      <c r="A118" s="63"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D118" s="45">
+      <c r="D118" s="39">
         <v>1.3254999999999999</v>
       </c>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45">
+      <c r="E118" s="39"/>
+      <c r="F118" s="39">
         <v>1.2</v>
       </c>
-      <c r="G118" s="66"/>
-      <c r="H118" s="67"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="60"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="75"/>
-      <c r="B119" s="53"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16">
         <f>C1*D118</f>
@@ -4044,12 +4242,12 @@
         <v>76</v>
       </c>
       <c r="F119" s="16"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G120" s="63"/>
-      <c r="H120" s="63"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
       <c r="J120" s="5" t="s">
         <v>99</v>
       </c>
@@ -4061,13 +4259,13 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B121" s="56">
+      <c r="B121" s="49">
         <v>3</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="18">
         <f>(F121/(D121+F121))*100</f>
         <v>0.29336542801263726</v>
       </c>
@@ -4081,18 +4279,18 @@
       <c r="F121" s="4">
         <v>7.8</v>
       </c>
-      <c r="G121" s="68"/>
-      <c r="H121" s="63"/>
-      <c r="L121" s="58">
+      <c r="G121" s="61"/>
+      <c r="H121" s="56"/>
+      <c r="L121" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
-      <c r="B122" s="56">
+      <c r="A122" s="64"/>
+      <c r="B122" s="49">
         <v>4</v>
       </c>
-      <c r="C122" s="20">
+      <c r="C122" s="18">
         <f t="shared" ref="C122" si="32">(F122/(D122+F122))*100</f>
         <v>7.6056228943190192</v>
       </c>
@@ -4106,23 +4304,23 @@
       <c r="F122" s="4">
         <v>196.4</v>
       </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="63"/>
-      <c r="L122" s="58">
+      <c r="G122" s="58"/>
+      <c r="H122" s="56"/>
+      <c r="L122" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G123" s="63"/>
-      <c r="H123" s="63"/>
-      <c r="L123" s="58"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="L123" s="51"/>
     </row>
     <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="75" t="s">
+      <c r="A124" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="31" t="s">
+      <c r="B124" s="46"/>
+      <c r="C124" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -4134,137 +4332,137 @@
       <c r="F124" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I124" s="36"/>
-      <c r="L124" s="58"/>
+      <c r="I124" s="30"/>
+      <c r="L124" s="51"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
-      <c r="B125" s="53"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="15">
         <v>0.25</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D125" s="18">
         <f>$D$132*((100-C125)/100)</f>
         <v>1895.25</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="18">
         <f>D125/$D$131</f>
         <v>1995</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="18">
         <f>$D$132*(C125/100)</f>
         <v>4.75</v>
       </c>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
-      <c r="B126" s="53"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="15">
         <v>3.75</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="18">
         <f t="shared" ref="D126:D129" si="33">$D$132*((100-C126)/100)</f>
         <v>1828.75</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="18">
         <f t="shared" ref="E126:E129" si="34">D126/$D$131</f>
         <v>1925</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="18">
         <f t="shared" ref="F126:F129" si="35">$D$132*(C126/100)</f>
         <v>71.25</v>
       </c>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="53"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="15">
         <v>7.5</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="18">
         <f t="shared" si="33"/>
         <v>1757.5</v>
       </c>
-      <c r="E127" s="20">
+      <c r="E127" s="18">
         <f t="shared" si="34"/>
         <v>1850</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="18">
         <f t="shared" si="35"/>
         <v>142.5</v>
       </c>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="75"/>
-      <c r="B128" s="53"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="15">
         <v>11.25</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D128" s="18">
         <f t="shared" si="33"/>
         <v>1686.25</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="18">
         <f t="shared" si="34"/>
         <v>1775</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="18">
         <f t="shared" si="35"/>
         <v>213.75</v>
       </c>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="75"/>
-      <c r="B129" s="53"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="15">
         <v>15</v>
       </c>
-      <c r="D129" s="20">
+      <c r="D129" s="18">
         <f t="shared" si="33"/>
         <v>1615</v>
       </c>
-      <c r="E129" s="20">
+      <c r="E129" s="18">
         <f t="shared" si="34"/>
         <v>1700</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="18">
         <f t="shared" si="35"/>
         <v>285</v>
       </c>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="75"/>
-      <c r="B130" s="53"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="46"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="75"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="44" t="s">
+      <c r="A131" s="63"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="45">
+      <c r="D131" s="39">
         <v>0.95</v>
       </c>
-      <c r="E131" s="45"/>
-      <c r="F131" s="45">
+      <c r="E131" s="39"/>
+      <c r="F131" s="39">
         <v>1.07</v>
       </c>
-      <c r="G131" s="45"/>
+      <c r="G131" s="39"/>
       <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="75"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="63"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16">
         <f>C1*D131</f>
@@ -4289,144 +4487,139 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="70" t="s">
+      <c r="A134" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B134" s="54">
+      <c r="B134" s="47">
         <v>6</v>
       </c>
-      <c r="C134" s="51">
+      <c r="C134" s="44">
         <f>(F134/(D134+F134))*100</f>
         <v>0.61202071454726159</v>
       </c>
-      <c r="D134" s="41">
+      <c r="D134" s="35">
         <f>$D$131*E134</f>
         <v>1900</v>
       </c>
-      <c r="E134" s="41">
+      <c r="E134" s="35">
         <v>2000</v>
       </c>
-      <c r="F134" s="41">
+      <c r="F134" s="35">
         <v>11.7</v>
       </c>
-      <c r="G134" s="68" t="s">
+      <c r="G134" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="L134" s="58">
+      <c r="L134" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="70"/>
-      <c r="B135" s="54">
+      <c r="A135" s="66"/>
+      <c r="B135" s="47">
         <v>7</v>
       </c>
-      <c r="C135" s="51">
+      <c r="C135" s="44">
         <f t="shared" ref="C135:C138" si="36">(F135/(D135+F135))*100</f>
         <v>4.9399620813145146</v>
       </c>
-      <c r="D135" s="41">
+      <c r="D135" s="35">
         <f>$D$131*E135</f>
         <v>1805</v>
       </c>
-      <c r="E135" s="41">
+      <c r="E135" s="35">
         <v>1900</v>
       </c>
-      <c r="F135" s="41">
+      <c r="F135" s="35">
         <v>93.8</v>
       </c>
-      <c r="G135" s="68" t="s">
+      <c r="G135" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="L135" s="58">
+      <c r="L135" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
-      <c r="B136" s="54">
+      <c r="A136" s="66"/>
+      <c r="B136" s="47">
         <v>8</v>
       </c>
-      <c r="C136" s="51">
+      <c r="C136" s="44">
         <f t="shared" si="36"/>
         <v>8.0002152041749603</v>
       </c>
-      <c r="D136" s="41">
+      <c r="D136" s="35">
         <f>$D$131*E136</f>
         <v>1710</v>
       </c>
-      <c r="E136" s="41">
+      <c r="E136" s="35">
         <v>1800</v>
       </c>
-      <c r="F136" s="41">
+      <c r="F136" s="35">
         <v>148.69999999999999</v>
       </c>
-      <c r="G136" s="68" t="s">
+      <c r="G136" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="L136" s="58">
+      <c r="L136" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="70"/>
-      <c r="B137" s="54">
+      <c r="A137" s="66"/>
+      <c r="B137" s="47">
         <v>9</v>
       </c>
-      <c r="C137" s="51">
+      <c r="C137" s="44">
         <f t="shared" si="36"/>
         <v>11.43108717045631</v>
       </c>
-      <c r="D137" s="41">
+      <c r="D137" s="35">
         <f>$D$131*E137</f>
         <v>1710</v>
       </c>
-      <c r="E137" s="41">
+      <c r="E137" s="35">
         <v>1800</v>
       </c>
-      <c r="F137" s="41">
+      <c r="F137" s="35">
         <v>220.7</v>
       </c>
-      <c r="G137" s="68" t="s">
+      <c r="G137" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="L137" s="58">
+      <c r="L137" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="70"/>
-      <c r="B138" s="54">
+      <c r="A138" s="66"/>
+      <c r="B138" s="47">
         <v>10</v>
       </c>
-      <c r="C138" s="51">
+      <c r="C138" s="44">
         <f t="shared" si="36"/>
         <v>15.165204601565371</v>
       </c>
-      <c r="D138" s="41">
+      <c r="D138" s="35">
         <f>$D$131*E138</f>
         <v>1615</v>
       </c>
-      <c r="E138" s="41">
+      <c r="E138" s="35">
         <v>1700</v>
       </c>
-      <c r="F138" s="41">
+      <c r="F138" s="35">
         <v>288.7</v>
       </c>
-      <c r="G138" s="68" t="s">
+      <c r="G138" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="L138" s="58">
+      <c r="L138" s="51">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A59:A63"/>
     <mergeCell ref="A134:A138"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A53:A57"/>
@@ -4439,8 +4632,13 @@
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A59:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>